--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EB40BB-56E7-453D-8DD5-51179F1F2240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A8038F-7128-4D70-91CD-CB2F4C624EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="12" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -223,6 +223,7 @@
     <author>tc={54934D05-AB8B-43EA-94D5-DA4230739148}</author>
     <author>tc={2D025629-877F-4A51-97DF-4B63BC17F90B}</author>
     <author>tc={00B9291C-0286-423F-9703-F64CCB57F70F}</author>
+    <author>tc={87179AE4-EC17-4370-98D7-F32C73BD771A}</author>
     <author>tc={6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}</author>
     <author>tc={E56230BC-BD11-4915-915B-9473750B9EC2}</author>
   </authors>
@@ -669,7 +670,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="K89" authorId="9" shapeId="0" xr:uid="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
+    <comment ref="F83" authorId="9" shapeId="0" xr:uid="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    IRP 2019 costs adjusted to 2022</t>
+      </text>
+    </comment>
+    <comment ref="K89" authorId="10" shapeId="0" xr:uid="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -677,7 +686,7 @@
     .56 added to avoid zzs</t>
       </text>
     </comment>
-    <comment ref="F95" authorId="10" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
+    <comment ref="F95" authorId="11" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -1587,7 +1596,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2626" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2668" uniqueCount="1116">
   <si>
     <t>Agriculture</t>
   </si>
@@ -6570,7 +6579,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6605,6 +6614,7 @@
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7378,6 +7388,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7417,57 +7478,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7484,7 +7494,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="27">
     <cellStyle name="Accent2" xfId="10" builtinId="33"/>
     <cellStyle name="Accent4" xfId="11" builtinId="41"/>
     <cellStyle name="Bad" xfId="6" builtinId="27"/>
@@ -7509,6 +7519,7 @@
     <cellStyle name="Normal 13" xfId="20" xr:uid="{E2592950-4ED9-41AE-B126-E7C61CACE4FB}"/>
     <cellStyle name="Normal 2" xfId="12" xr:uid="{07540C44-1236-4F52-ADF2-28F7197333C4}"/>
     <cellStyle name="Normal 2 2" xfId="19" xr:uid="{9E14FE11-A3BB-42F9-9021-8042EAB56468}"/>
+    <cellStyle name="Normal 7" xfId="26" xr:uid="{ABB2DBC2-F744-4899-96E1-16AACB0FB8DE}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="17" xr:uid="{DEC93E5C-1EDF-4DE0-98A7-4B3BFAC40E98}"/>
   </cellStyles>
@@ -24799,6 +24810,9 @@
   <threadedComment ref="F70" dT="2023-08-14T09:42:24.18" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{00B9291C-0286-423F-9703-F64CCB57F70F}">
     <text>Parity with coal in R/GJ assumed</text>
   </threadedComment>
+  <threadedComment ref="F83" dT="2023-09-07T10:07:04.92" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
+    <text>IRP 2019 costs adjusted to 2022</text>
+  </threadedComment>
   <threadedComment ref="K89" dT="2021-07-26T15:05:55.74" personId="{E500B1BD-2FF0-4DFA-88F6-72D20CDE0583}" id="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
     <text>.56 added to avoid zzs</text>
   </threadedComment>
@@ -27995,25 +28009,25 @@
       <c r="W6" s="177" t="s">
         <v>373</v>
       </c>
-      <c r="AC6" s="418" t="s">
+      <c r="AC6" s="435" t="s">
         <v>374</v>
       </c>
-      <c r="AD6" s="418"/>
-      <c r="AE6" s="418"/>
+      <c r="AD6" s="435"/>
+      <c r="AE6" s="435"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="419" t="s">
+      <c r="A7" s="436" t="s">
         <v>375</v>
       </c>
-      <c r="B7" s="421" t="s">
+      <c r="B7" s="438" t="s">
         <v>376</v>
       </c>
-      <c r="C7" s="423" t="s">
+      <c r="C7" s="440" t="s">
         <v>377</v>
       </c>
-      <c r="D7" s="424"/>
-      <c r="E7" s="425"/>
-      <c r="F7" s="428" t="s">
+      <c r="D7" s="441"/>
+      <c r="E7" s="442"/>
+      <c r="F7" s="445" t="s">
         <v>378</v>
       </c>
       <c r="G7" s="178"/>
@@ -28041,12 +28055,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="420"/>
-      <c r="B8" s="422"/>
-      <c r="C8" s="426"/>
-      <c r="D8" s="427"/>
-      <c r="E8" s="427"/>
-      <c r="F8" s="429"/>
+      <c r="A8" s="437"/>
+      <c r="B8" s="439"/>
+      <c r="C8" s="443"/>
+      <c r="D8" s="444"/>
+      <c r="E8" s="444"/>
+      <c r="F8" s="446"/>
       <c r="G8" s="178"/>
       <c r="H8" s="178"/>
       <c r="I8" s="178"/>
@@ -28912,11 +28926,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="219"/>
-      <c r="AC25" s="417" t="s">
+      <c r="AC25" s="434" t="s">
         <v>444</v>
       </c>
-      <c r="AD25" s="417"/>
-      <c r="AE25" s="417"/>
+      <c r="AD25" s="434"/>
+      <c r="AE25" s="434"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -28995,8 +29009,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="437"/>
-      <c r="I31" s="437"/>
+      <c r="H31" s="430"/>
+      <c r="I31" s="430"/>
       <c r="R31" t="s">
         <v>382</v>
       </c>
@@ -29017,10 +29031,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="430" t="s">
+      <c r="L32" s="422" t="s">
         <v>448</v>
       </c>
-      <c r="M32" s="438" t="s">
+      <c r="M32" s="431" t="s">
         <v>449</v>
       </c>
       <c r="N32" s="222" t="s">
@@ -29035,22 +29049,22 @@
       <c r="Q32" s="225" t="s">
         <v>451</v>
       </c>
-      <c r="R32" s="430" t="s">
+      <c r="R32" s="422" t="s">
         <v>401</v>
       </c>
-      <c r="S32" s="430" t="s">
+      <c r="S32" s="422" t="s">
         <v>405</v>
       </c>
-      <c r="T32" s="430" t="s">
+      <c r="T32" s="422" t="s">
         <v>452</v>
       </c>
-      <c r="U32" s="430" t="s">
+      <c r="U32" s="422" t="s">
         <v>401</v>
       </c>
-      <c r="V32" s="430" t="s">
+      <c r="V32" s="422" t="s">
         <v>405</v>
       </c>
-      <c r="W32" s="430" t="s">
+      <c r="W32" s="422" t="s">
         <v>452</v>
       </c>
     </row>
@@ -29073,28 +29087,28 @@
       <c r="G33" s="142" t="s">
         <v>456</v>
       </c>
-      <c r="H33" s="433" t="s">
+      <c r="H33" s="429" t="s">
         <v>457</v>
       </c>
-      <c r="I33" s="433"/>
+      <c r="I33" s="429"/>
       <c r="J33" s="142" t="s">
         <v>455</v>
       </c>
       <c r="K33" t="s">
         <v>456</v>
       </c>
-      <c r="L33" s="431"/>
-      <c r="M33" s="439"/>
+      <c r="L33" s="423"/>
+      <c r="M33" s="432"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="226"/>
-      <c r="R33" s="431"/>
-      <c r="S33" s="431"/>
-      <c r="T33" s="431"/>
-      <c r="U33" s="431"/>
-      <c r="V33" s="431"/>
-      <c r="W33" s="431"/>
+      <c r="R33" s="423"/>
+      <c r="S33" s="423"/>
+      <c r="T33" s="423"/>
+      <c r="U33" s="423"/>
+      <c r="V33" s="423"/>
+      <c r="W33" s="423"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -29114,8 +29128,8 @@
       <c r="K34" t="s">
         <v>459</v>
       </c>
-      <c r="L34" s="432"/>
-      <c r="M34" s="440"/>
+      <c r="L34" s="424"/>
+      <c r="M34" s="433"/>
       <c r="N34" s="227" t="s">
         <v>461</v>
       </c>
@@ -29128,12 +29142,12 @@
       <c r="Q34" s="229" t="s">
         <v>461</v>
       </c>
-      <c r="R34" s="432"/>
-      <c r="S34" s="432"/>
-      <c r="T34" s="432"/>
-      <c r="U34" s="432"/>
-      <c r="V34" s="432"/>
-      <c r="W34" s="432"/>
+      <c r="R34" s="424"/>
+      <c r="S34" s="424"/>
+      <c r="T34" s="424"/>
+      <c r="U34" s="424"/>
+      <c r="V34" s="424"/>
+      <c r="W34" s="424"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="230" t="s">
@@ -29199,7 +29213,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="239"/>
-      <c r="L36" s="434" t="str">
+      <c r="L36" s="425" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -29279,7 +29293,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="239"/>
-      <c r="L37" s="435"/>
+      <c r="L37" s="426"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -29350,7 +29364,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="239"/>
-      <c r="L38" s="435"/>
+      <c r="L38" s="426"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -29425,7 +29439,7 @@
       </c>
       <c r="I39" s="239"/>
       <c r="K39" s="239"/>
-      <c r="L39" s="435"/>
+      <c r="L39" s="426"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -29496,7 +29510,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="239"/>
-      <c r="L40" s="435"/>
+      <c r="L40" s="426"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -29570,7 +29584,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="239"/>
-      <c r="L41" s="436"/>
+      <c r="L41" s="427"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -29644,7 +29658,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="239"/>
-      <c r="L42" s="434" t="s">
+      <c r="L42" s="425" t="s">
         <v>425</v>
       </c>
       <c r="M42" s="224" t="str">
@@ -29717,7 +29731,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="239"/>
-      <c r="L43" s="435"/>
+      <c r="L43" s="426"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -29793,7 +29807,7 @@
       </c>
       <c r="I44" s="239"/>
       <c r="K44" s="239"/>
-      <c r="L44" s="435"/>
+      <c r="L44" s="426"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -29865,7 +29879,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="239"/>
-      <c r="L45" s="436"/>
+      <c r="L45" s="427"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -29934,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="239"/>
-      <c r="L46" s="434" t="str">
+      <c r="L46" s="425" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -30010,7 +30024,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="239"/>
-      <c r="L47" s="435"/>
+      <c r="L47" s="426"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -30081,7 +30095,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="239"/>
-      <c r="L48" s="436"/>
+      <c r="L48" s="427"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -30450,10 +30464,10 @@
       <c r="C79" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="D79" s="446" t="s">
+      <c r="D79" s="428" t="s">
         <v>510</v>
       </c>
-      <c r="E79" s="446"/>
+      <c r="E79" s="428"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -30555,13 +30569,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="441" t="s">
+      <c r="A103" s="417" t="s">
         <v>520</v>
       </c>
       <c r="B103" s="268" t="s">
         <v>521</v>
       </c>
-      <c r="C103" s="443" t="s">
+      <c r="C103" s="419" t="s">
         <v>522</v>
       </c>
       <c r="D103" s="268">
@@ -30572,11 +30586,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="442"/>
+      <c r="A104" s="418"/>
       <c r="B104" s="268" t="s">
         <v>523</v>
       </c>
-      <c r="C104" s="444"/>
+      <c r="C104" s="420"/>
       <c r="D104" s="268">
         <v>0.18</v>
       </c>
@@ -30589,13 +30603,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="441" t="s">
+      <c r="A105" s="417" t="s">
         <v>524</v>
       </c>
       <c r="B105" s="268" t="s">
         <v>525</v>
       </c>
-      <c r="C105" s="444"/>
+      <c r="C105" s="420"/>
       <c r="D105" s="268">
         <v>0</v>
       </c>
@@ -30604,11 +30618,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="442"/>
+      <c r="A106" s="418"/>
       <c r="B106" s="268" t="s">
         <v>526</v>
       </c>
-      <c r="C106" s="445"/>
+      <c r="C106" s="421"/>
       <c r="D106" s="268">
         <v>0</v>
       </c>
@@ -30617,13 +30631,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="441" t="s">
+      <c r="A107" s="417" t="s">
         <v>520</v>
       </c>
       <c r="B107" s="268" t="s">
         <v>525</v>
       </c>
-      <c r="C107" s="443" t="s">
+      <c r="C107" s="419" t="s">
         <v>527</v>
       </c>
       <c r="D107" s="268">
@@ -30634,11 +30648,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="442"/>
+      <c r="A108" s="418"/>
       <c r="B108" s="268" t="s">
         <v>526</v>
       </c>
-      <c r="C108" s="444"/>
+      <c r="C108" s="420"/>
       <c r="D108" s="268">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -30647,13 +30661,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="441" t="s">
+      <c r="A109" s="417" t="s">
         <v>524</v>
       </c>
       <c r="B109" s="268" t="s">
         <v>525</v>
       </c>
-      <c r="C109" s="444"/>
+      <c r="C109" s="420"/>
       <c r="D109" s="268">
         <v>0</v>
       </c>
@@ -30662,11 +30676,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="442"/>
+      <c r="A110" s="418"/>
       <c r="B110" s="268" t="s">
         <v>526</v>
       </c>
-      <c r="C110" s="445"/>
+      <c r="C110" s="421"/>
       <c r="D110" s="268">
         <v>0</v>
       </c>
@@ -32129,6 +32143,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -32139,22 +32169,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32905,8 +32919,8 @@
   </sheetPr>
   <dimension ref="A1:AE114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -36818,22 +36832,442 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ref="D61:D66" si="40">B61&amp;C61</f>
+        <v>PWRSOL</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ref="E61:E66" si="41">INDEX(SectorNamesLong,MATCH(B61,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C61,FuelNamesShort,0))</f>
+        <v>Power Solar</v>
+      </c>
+      <c r="F61" t="s">
+        <v>241</v>
+      </c>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61" t="str">
+        <f t="shared" ref="K61:K66" si="42">"X"&amp;D61</f>
+        <v>XPWRSOL</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" ref="L61:L66" si="43">E61</f>
+        <v>Power Solar</v>
+      </c>
+      <c r="M61" t="s">
+        <v>241</v>
+      </c>
+      <c r="N61" t="s">
+        <v>440</v>
+      </c>
+      <c r="O61" t="s">
+        <v>369</v>
+      </c>
+      <c r="P61" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61" t="str">
+        <f t="shared" ref="S61:S66" si="44">K61</f>
+        <v>XPWRSOL</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" ref="T61:T66" si="45">C61</f>
+        <v>SOL</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" ref="U61:U66" si="46">D61</f>
+        <v>PWRSOL</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>60</v>
+      </c>
+      <c r="X61"/>
+      <c r="Y61">
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="40"/>
+        <v>PWRWND</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="41"/>
+        <v>Power Wind</v>
+      </c>
+      <c r="F62" t="s">
+        <v>241</v>
+      </c>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62" t="str">
+        <f t="shared" si="42"/>
+        <v>XPWRWND</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="43"/>
+        <v>Power Wind</v>
+      </c>
+      <c r="M62" t="s">
+        <v>241</v>
+      </c>
+      <c r="N62" t="s">
+        <v>440</v>
+      </c>
+      <c r="O62" t="s">
+        <v>369</v>
+      </c>
+      <c r="P62" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62" t="str">
+        <f t="shared" si="44"/>
+        <v>XPWRWND</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="45"/>
+        <v>WND</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="46"/>
+        <v>PWRWND</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>60</v>
+      </c>
+      <c r="X62"/>
+      <c r="Y62">
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="40"/>
+        <v>PWRHYD</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="41"/>
+        <v>Power Hydro</v>
+      </c>
+      <c r="F63" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63" t="str">
+        <f t="shared" si="42"/>
+        <v>XPWRHYD</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="43"/>
+        <v>Power Hydro</v>
+      </c>
+      <c r="M63" t="s">
+        <v>241</v>
+      </c>
+      <c r="N63" t="s">
+        <v>440</v>
+      </c>
+      <c r="O63" t="s">
+        <v>369</v>
+      </c>
+      <c r="P63" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63" t="str">
+        <f t="shared" si="44"/>
+        <v>XPWRHYD</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="45"/>
+        <v>HYD</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="46"/>
+        <v>PWRHYD</v>
+      </c>
+      <c r="V63">
+        <v>1</v>
+      </c>
+      <c r="W63">
+        <v>60</v>
+      </c>
+      <c r="X63"/>
+      <c r="Y63">
+        <v>1</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="40"/>
+        <v>PWRBIO</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="41"/>
+        <v>Power Biomass Other</v>
+      </c>
+      <c r="F64" t="s">
+        <v>241</v>
+      </c>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64" t="str">
+        <f t="shared" si="42"/>
+        <v>XPWRBIO</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="43"/>
+        <v>Power Biomass Other</v>
+      </c>
+      <c r="M64" t="s">
+        <v>241</v>
+      </c>
+      <c r="N64" t="s">
+        <v>440</v>
+      </c>
+      <c r="O64" t="s">
+        <v>369</v>
+      </c>
+      <c r="P64" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64" t="str">
+        <f t="shared" si="44"/>
+        <v>XPWRBIO</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="45"/>
+        <v>BIO</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="46"/>
+        <v>PWRBIO</v>
+      </c>
+      <c r="V64">
+        <v>1</v>
+      </c>
+      <c r="W64">
+        <v>60</v>
+      </c>
+      <c r="X64"/>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="40"/>
+        <v>PWRNUC</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="41"/>
+        <v>Power Nuclear</v>
+      </c>
+      <c r="F65" t="s">
+        <v>241</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65" t="str">
+        <f t="shared" si="42"/>
+        <v>XPWRNUC</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="43"/>
+        <v>Power Nuclear</v>
+      </c>
+      <c r="M65" t="s">
+        <v>241</v>
+      </c>
+      <c r="N65" t="s">
+        <v>440</v>
+      </c>
+      <c r="O65" t="s">
+        <v>369</v>
+      </c>
+      <c r="P65" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65" t="str">
+        <f t="shared" si="44"/>
+        <v>XPWRNUC</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="45"/>
+        <v>NUC</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="46"/>
+        <v>PWRNUC</v>
+      </c>
+      <c r="V65">
+        <v>1</v>
+      </c>
+      <c r="W65">
+        <v>60</v>
+      </c>
+      <c r="X65"/>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="40"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="41"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="F66" t="s">
+        <v>241</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66" t="str">
+        <f t="shared" si="42"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="43"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="M66" t="s">
+        <v>241</v>
+      </c>
+      <c r="N66" t="s">
+        <v>440</v>
+      </c>
+      <c r="O66" t="s">
+        <v>369</v>
+      </c>
+      <c r="P66" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66" t="str">
+        <f t="shared" si="44"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="45"/>
+        <v>CLE</v>
+      </c>
+      <c r="U66" t="str">
+        <f t="shared" si="46"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <v>60</v>
+      </c>
+      <c r="X66"/>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B75"/>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B76"/>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B77"/>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B78"/>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B79"/>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B80"/>
     </row>
     <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.25">
@@ -52138,18 +52572,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="433" t="s">
+      <c r="DL94" s="429" t="s">
         <v>774</v>
       </c>
-      <c r="DM94" s="433"/>
-      <c r="DN94" s="433" t="s">
+      <c r="DM94" s="429"/>
+      <c r="DN94" s="429" t="s">
         <v>775</v>
       </c>
-      <c r="DO94" s="433"/>
-      <c r="DP94" s="433" t="s">
+      <c r="DO94" s="429"/>
+      <c r="DP94" s="429" t="s">
         <v>773</v>
       </c>
-      <c r="DQ94" s="433"/>
+      <c r="DQ94" s="429"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -57610,7 +58044,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45163.415417939817</v>
+        <v>45176.505910532411</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -58434,7 +58868,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45163.415417939817</v>
+        <v>45176.505910532411</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -59132,67 +59566,67 @@
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="30">
-        <f>COUNTIF($C$5:$C$46,C5)</f>
+        <f t="shared" ref="C70:C80" si="1">COUNTIF($C$5:$C$46,C5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="30">
-        <f>COUNTIF($C$5:$C$46,C6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="30">
-        <f>COUNTIF($C$5:$C$46,C7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="30">
-        <f>COUNTIF($C$5:$C$46,C8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="30">
-        <f>COUNTIF($C$5:$C$46,C9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="30">
-        <f>COUNTIF($C$5:$C$46,C10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="30">
-        <f>COUNTIF($C$5:$C$46,C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="30">
-        <f>COUNTIF($C$5:$C$46,C12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="30">
-        <f>COUNTIF($C$5:$C$46,C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="30">
-        <f>COUNTIF($C$5:$C$46,C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" s="30">
-        <f>COUNTIF($C$5:$C$46,C15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -59201,7 +59635,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="30">
-        <f>COUNTIF($C$5:$C$46,C17)</f>
+        <f t="shared" ref="C81:C91" si="2">COUNTIF($C$5:$C$46,C17)</f>
         <v>1</v>
       </c>
     </row>
@@ -59210,7 +59644,7 @@
         <v>2</v>
       </c>
       <c r="C82" s="30">
-        <f>COUNTIF($C$5:$C$46,C18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59219,7 +59653,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="30">
-        <f>COUNTIF($C$5:$C$46,C19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59228,7 +59662,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="30">
-        <f>COUNTIF($C$5:$C$46,C20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59237,7 +59671,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="30">
-        <f>COUNTIF($C$5:$C$46,C21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59246,7 +59680,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="30">
-        <f>COUNTIF($C$5:$C$46,C22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59255,7 +59689,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="30">
-        <f>COUNTIF($C$5:$C$46,C23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59264,7 +59698,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="30">
-        <f>COUNTIF($C$5:$C$46,C24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59273,7 +59707,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="30">
-        <f>COUNTIF($C$5:$C$46,C25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59282,7 +59716,7 @@
         <v>10</v>
       </c>
       <c r="C90" s="30">
-        <f>COUNTIF($C$5:$C$46,C26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59291,7 +59725,7 @@
         <v>11</v>
       </c>
       <c r="C91" s="30">
-        <f>COUNTIF($C$5:$C$46,C27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -59300,7 +59734,7 @@
         <v>12</v>
       </c>
       <c r="C92" s="30">
-        <f>COUNTIF($C$5:$C$46,C29)</f>
+        <f t="shared" ref="C92:C109" si="3">COUNTIF($C$5:$C$46,C29)</f>
         <v>1</v>
       </c>
     </row>
@@ -59309,7 +59743,7 @@
         <v>13</v>
       </c>
       <c r="C93" s="30">
-        <f>COUNTIF($C$5:$C$46,C30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59318,7 +59752,7 @@
         <v>14</v>
       </c>
       <c r="C94" s="30">
-        <f>COUNTIF($C$5:$C$46,C31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59327,7 +59761,7 @@
         <v>15</v>
       </c>
       <c r="C95" s="30">
-        <f>COUNTIF($C$5:$C$46,C32)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59336,7 +59770,7 @@
         <v>16</v>
       </c>
       <c r="C96" s="30">
-        <f>COUNTIF($C$5:$C$46,C33)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59345,7 +59779,7 @@
         <v>17</v>
       </c>
       <c r="C97" s="30">
-        <f>COUNTIF($C$5:$C$46,C34)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59354,7 +59788,7 @@
         <v>18</v>
       </c>
       <c r="C98" s="30">
-        <f>COUNTIF($C$5:$C$46,C35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59363,7 +59797,7 @@
         <v>19</v>
       </c>
       <c r="C99" s="30">
-        <f>COUNTIF($C$5:$C$46,C36)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59372,7 +59806,7 @@
         <v>20</v>
       </c>
       <c r="C100" s="30">
-        <f>COUNTIF($C$5:$C$46,C37)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59381,7 +59815,7 @@
         <v>21</v>
       </c>
       <c r="C101" s="30">
-        <f>COUNTIF($C$5:$C$46,C38)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -59390,56 +59824,56 @@
         <v>22</v>
       </c>
       <c r="C102" s="30">
-        <f>COUNTIF($C$5:$C$46,C39)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B103"/>
       <c r="C103" s="30">
-        <f>COUNTIF($C$5:$C$46,C40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B104"/>
       <c r="C104" s="30">
-        <f>COUNTIF($C$5:$C$46,C41)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="C105" s="30">
-        <f>COUNTIF($C$5:$C$46,C42)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106" s="30">
-        <f>COUNTIF($C$5:$C$46,C43)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107" s="30">
-        <f>COUNTIF($C$5:$C$46,C44)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108" s="30">
-        <f>COUNTIF($C$5:$C$46,C45)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109" s="30">
-        <f>COUNTIF($C$5:$C$46,C46)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -62546,8 +62980,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="S57" sqref="S57"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -68358,19 +68792,20 @@
         <v>0</v>
       </c>
       <c r="F83" s="82">
-        <v>8.1288130107613874</v>
+        <f>9.1*1.152</f>
+        <v>10.483199999999998</v>
       </c>
       <c r="G83" s="82">
         <f>F83</f>
-        <v>8.1288130107613874</v>
+        <v>10.483199999999998</v>
       </c>
       <c r="H83" s="82">
         <f>G83</f>
-        <v>8.1288130107613874</v>
+        <v>10.483199999999998</v>
       </c>
       <c r="I83" s="82">
         <f>H83</f>
-        <v>8.1288130107613874</v>
+        <v>10.483199999999998</v>
       </c>
       <c r="J83" s="82">
         <v>0</v>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924A2E3F-267C-4B2D-9689-1CDF13F723EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD03344-50FE-4A84-A34A-1C145995EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="1065" windowWidth="26610" windowHeight="11385" firstSheet="8" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,11 @@
     <author>tc={2D025629-877F-4A51-97DF-4B63BC17F90B}</author>
     <author>tc={00B9291C-0286-423F-9703-F64CCB57F70F}</author>
     <author>tc={87179AE4-EC17-4370-98D7-F32C73BD771A}</author>
+    <author>tc={E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}</author>
+    <author>tc={F93D2D09-DC95-4216-81E9-77B6F290F34D}</author>
     <author>tc={6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}</author>
+    <author>tc={2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}</author>
+    <author>tc={B0A60D28-BB18-4A91-9004-62133F119943}</author>
     <author>tc={E56230BC-BD11-4915-915B-9473750B9EC2}</author>
   </authors>
   <commentList>
@@ -677,7 +681,23 @@
     IRP 2019 costs adjusted to 2022</t>
       </text>
     </comment>
-    <comment ref="K89" authorId="10" shapeId="0" xr:uid="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
+    <comment ref="K86" authorId="10" shapeId="0" xr:uid="{E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From EB</t>
+      </text>
+    </comment>
+    <comment ref="K87" authorId="11" shapeId="0" xr:uid="{F93D2D09-DC95-4216-81E9-77B6F290F34D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From EB</t>
+      </text>
+    </comment>
+    <comment ref="K89" authorId="12" shapeId="0" xr:uid="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -685,7 +705,23 @@
     .56 added to avoid zzs</t>
       </text>
     </comment>
-    <comment ref="F95" authorId="11" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
+    <comment ref="K90" authorId="13" shapeId="0" xr:uid="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From energy balance</t>
+      </text>
+    </comment>
+    <comment ref="K94" authorId="14" shapeId="0" xr:uid="{B0A60D28-BB18-4A91-9004-62133F119943}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    From gas balance</t>
+      </text>
+    </comment>
+    <comment ref="F95" authorId="15" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -7350,6 +7386,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7387,57 +7474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24775,8 +24811,20 @@
   <threadedComment ref="F83" dT="2023-09-07T10:07:04.92" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
     <text>IRP 2019 costs adjusted to 2022</text>
   </threadedComment>
+  <threadedComment ref="K86" dT="2023-09-20T09:30:23.94" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}">
+    <text>From EB</text>
+  </threadedComment>
+  <threadedComment ref="K87" dT="2023-09-20T09:30:52.75" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{F93D2D09-DC95-4216-81E9-77B6F290F34D}">
+    <text>From EB</text>
+  </threadedComment>
   <threadedComment ref="K89" dT="2021-07-26T15:05:55.74" personId="{E500B1BD-2FF0-4DFA-88F6-72D20CDE0583}" id="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
     <text>.56 added to avoid zzs</text>
+  </threadedComment>
+  <threadedComment ref="K90" dT="2023-09-20T10:17:52.15" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
+    <text>From energy balance</text>
+  </threadedComment>
+  <threadedComment ref="K94" dT="2023-09-20T08:41:00.65" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{B0A60D28-BB18-4A91-9004-62133F119943}">
+    <text>From gas balance</text>
   </threadedComment>
   <threadedComment ref="F95" dT="2023-08-14T09:36:51.53" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{E56230BC-BD11-4915-915B-9473750B9EC2}">
     <text>LNG price minus liquefaction costs</text>
@@ -24902,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="433" t="s">
         <v>363</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="433"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="434" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="436" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="438" t="s">
         <v>366</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="439"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="443" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="176"/>
@@ -24948,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25819,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="432" t="s">
         <v>433</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="432"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25902,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="428"/>
+      <c r="I31" s="428"/>
       <c r="R31" t="s">
         <v>371</v>
       </c>
@@ -25924,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="420" t="s">
         <v>437</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="429" t="s">
         <v>438</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25942,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="420" t="s">
         <v>441</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="420" t="s">
         <v>441</v>
       </c>
     </row>
@@ -25980,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="427" t="s">
         <v>446</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="427"/>
       <c r="J33" s="142" t="s">
         <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="430"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="421"/>
+      <c r="S33" s="421"/>
+      <c r="T33" s="421"/>
+      <c r="U33" s="421"/>
+      <c r="V33" s="421"/>
+      <c r="W33" s="421"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26021,8 +26069,8 @@
       <c r="K34" t="s">
         <v>448</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="431"/>
       <c r="N34" s="225" t="s">
         <v>450</v>
       </c>
@@ -26035,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26106,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="423" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26186,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="424"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26257,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="424"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26332,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="424"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26403,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="424"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26477,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="425"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26551,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="423" t="s">
         <v>414</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26624,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="424"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26700,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="424"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26772,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="425"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26841,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="423" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26917,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="424"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -26988,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="425"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27357,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="426" t="s">
         <v>499</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="426"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27462,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>510</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="417" t="s">
         <v>511</v>
       </c>
       <c r="D103" s="266">
@@ -27479,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="416"/>
       <c r="B104" s="266" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="418"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27496,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27511,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="416"/>
       <c r="B106" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="419"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27524,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="417" t="s">
         <v>516</v>
       </c>
       <c r="D107" s="266">
@@ -27541,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="416"/>
       <c r="B108" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="418"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27554,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="418"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27569,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="416"/>
       <c r="B110" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29036,6 +29084,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29046,22 +29110,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29812,7 +29860,7 @@
   </sheetPr>
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -49537,18 +49585,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="427" t="s">
         <v>763</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="427"/>
+      <c r="DN94" s="427" t="s">
         <v>764</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="427"/>
+      <c r="DP94" s="427" t="s">
         <v>762</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="427"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55009,7 +55057,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45188.424600115737</v>
+        <v>45189.512249074076</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -55833,7 +55881,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45188.424600115737</v>
+        <v>45189.512249074076</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -59945,8 +59993,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="L88" sqref="L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -65776,7 +65824,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="82">
-        <f t="shared" ref="K83:K88" si="37">SUMIF($C$8:$AZ$8,D83,$C$11:$AZ$11)</f>
+        <f t="shared" ref="K83:K85" si="37">SUMIF($C$8:$AZ$8,D83,$C$11:$AZ$11)</f>
         <v>170.374545454545</v>
       </c>
       <c r="L83" s="82"/>
@@ -66013,8 +66061,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="82">
-        <f t="shared" si="37"/>
-        <v>140.06492</v>
+        <v>162</v>
       </c>
       <c r="L86" s="82"/>
       <c r="M86"/>
@@ -66091,8 +66138,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="82">
-        <f t="shared" si="37"/>
-        <v>63.331960000000002</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="L87" s="82"/>
       <c r="M87"/>
@@ -66169,8 +66215,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="82">
-        <f t="shared" si="37"/>
-        <v>4.206396917894736</v>
+        <v>0</v>
       </c>
       <c r="L88" s="82"/>
       <c r="M88"/>
@@ -66247,8 +66292,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="82">
-        <f>0.66+0.56+1.22/0.79+0.57/0.65</f>
-        <v>3.6412268743914313</v>
+        <v>2.1</v>
       </c>
       <c r="L89" s="82"/>
       <c r="M89"/>
@@ -66325,8 +66369,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="82">
-        <f>SUMIF($C$8:$AZ$8,D90,$C$11:$AZ$11)</f>
-        <v>9.3231960462962959</v>
+        <v>15</v>
       </c>
       <c r="L90" s="82"/>
       <c r="M90"/>
@@ -66599,7 +66642,7 @@
         <v>3</v>
       </c>
       <c r="K94" s="82">
-        <v>116</v>
+        <v>151.28700000000001</v>
       </c>
       <c r="L94" s="82">
         <v>156</v>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD03344-50FE-4A84-A34A-1C145995EBB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A608A8-1D25-4ABA-B592-F5739CC1932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-315" yWindow="-15255" windowWidth="32535" windowHeight="14010" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
     <author>tc={87179AE4-EC17-4370-98D7-F32C73BD771A}</author>
     <author>tc={E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}</author>
     <author>tc={F93D2D09-DC95-4216-81E9-77B6F290F34D}</author>
-    <author>tc={6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}</author>
+    <author>tc={8598790D-79A8-4FAB-8E0F-9A4DEE58CC36}</author>
     <author>tc={2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}</author>
     <author>tc={B0A60D28-BB18-4A91-9004-62133F119943}</author>
     <author>tc={E56230BC-BD11-4915-915B-9473750B9EC2}</author>
@@ -697,12 +697,12 @@
     From EB</t>
       </text>
     </comment>
-    <comment ref="K89" authorId="12" shapeId="0" xr:uid="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
+    <comment ref="K89" authorId="12" shapeId="0" xr:uid="{8598790D-79A8-4FAB-8E0F-9A4DEE58CC36}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    .56 added to avoid zzs</t>
+    Net imports from EB</t>
       </text>
     </comment>
     <comment ref="K90" authorId="13" shapeId="0" xr:uid="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
@@ -7386,57 +7386,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7474,6 +7423,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24817,8 +24817,8 @@
   <threadedComment ref="K87" dT="2023-09-20T09:30:52.75" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{F93D2D09-DC95-4216-81E9-77B6F290F34D}">
     <text>From EB</text>
   </threadedComment>
-  <threadedComment ref="K89" dT="2021-07-26T15:05:55.74" personId="{E500B1BD-2FF0-4DFA-88F6-72D20CDE0583}" id="{6A82080C-3A46-4F98-A8BB-1FF2F957BEF2}">
-    <text>.56 added to avoid zzs</text>
+  <threadedComment ref="K89" dT="2023-09-21T12:35:03.21" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{8598790D-79A8-4FAB-8E0F-9A4DEE58CC36}">
+    <text>Net imports from EB</text>
   </threadedComment>
   <threadedComment ref="K90" dT="2023-09-20T10:17:52.15" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
     <text>From energy balance</text>
@@ -24950,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="AC6" s="433" t="s">
+      <c r="AC6" s="416" t="s">
         <v>363</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="433"/>
+      <c r="AD6" s="416"/>
+      <c r="AE6" s="416"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="417" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="419" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="438" t="s">
+      <c r="C7" s="421" t="s">
         <v>366</v>
       </c>
-      <c r="D7" s="439"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="443" t="s">
+      <c r="D7" s="422"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="426" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="176"/>
@@ -24996,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="437"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="442"/>
-      <c r="E8" s="442"/>
-      <c r="F8" s="444"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="420"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="427"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25867,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="432" t="s">
+      <c r="AC25" s="415" t="s">
         <v>433</v>
       </c>
-      <c r="AD25" s="432"/>
-      <c r="AE25" s="432"/>
+      <c r="AD25" s="415"/>
+      <c r="AE25" s="415"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25950,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="428"/>
-      <c r="I31" s="428"/>
+      <c r="H31" s="435"/>
+      <c r="I31" s="435"/>
       <c r="R31" t="s">
         <v>371</v>
       </c>
@@ -25972,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="420" t="s">
+      <c r="L32" s="428" t="s">
         <v>437</v>
       </c>
-      <c r="M32" s="429" t="s">
+      <c r="M32" s="436" t="s">
         <v>438</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25990,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="R32" s="420" t="s">
+      <c r="R32" s="428" t="s">
         <v>390</v>
       </c>
-      <c r="S32" s="420" t="s">
+      <c r="S32" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="420" t="s">
+      <c r="T32" s="428" t="s">
         <v>441</v>
       </c>
-      <c r="U32" s="420" t="s">
+      <c r="U32" s="428" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="420" t="s">
+      <c r="V32" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="420" t="s">
+      <c r="W32" s="428" t="s">
         <v>441</v>
       </c>
     </row>
@@ -26028,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="427" t="s">
+      <c r="H33" s="431" t="s">
         <v>446</v>
       </c>
-      <c r="I33" s="427"/>
+      <c r="I33" s="431"/>
       <c r="J33" s="142" t="s">
         <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="421"/>
-      <c r="M33" s="430"/>
+      <c r="L33" s="429"/>
+      <c r="M33" s="437"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="421"/>
-      <c r="S33" s="421"/>
-      <c r="T33" s="421"/>
-      <c r="U33" s="421"/>
-      <c r="V33" s="421"/>
-      <c r="W33" s="421"/>
+      <c r="R33" s="429"/>
+      <c r="S33" s="429"/>
+      <c r="T33" s="429"/>
+      <c r="U33" s="429"/>
+      <c r="V33" s="429"/>
+      <c r="W33" s="429"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26069,8 +26069,8 @@
       <c r="K34" t="s">
         <v>448</v>
       </c>
-      <c r="L34" s="422"/>
-      <c r="M34" s="431"/>
+      <c r="L34" s="430"/>
+      <c r="M34" s="438"/>
       <c r="N34" s="225" t="s">
         <v>450</v>
       </c>
@@ -26083,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="R34" s="422"/>
-      <c r="S34" s="422"/>
-      <c r="T34" s="422"/>
-      <c r="U34" s="422"/>
-      <c r="V34" s="422"/>
-      <c r="W34" s="422"/>
+      <c r="R34" s="430"/>
+      <c r="S34" s="430"/>
+      <c r="T34" s="430"/>
+      <c r="U34" s="430"/>
+      <c r="V34" s="430"/>
+      <c r="W34" s="430"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26154,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="423" t="str">
+      <c r="L36" s="432" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="424"/>
+      <c r="L37" s="433"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26305,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="424"/>
+      <c r="L38" s="433"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="424"/>
+      <c r="L39" s="433"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26451,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="424"/>
+      <c r="L40" s="433"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26525,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="425"/>
+      <c r="L41" s="434"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26599,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="423" t="s">
+      <c r="L42" s="432" t="s">
         <v>414</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26672,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="424"/>
+      <c r="L43" s="433"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="424"/>
+      <c r="L44" s="433"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26820,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="425"/>
+      <c r="L45" s="434"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="423" t="str">
+      <c r="L46" s="432" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="424"/>
+      <c r="L47" s="433"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27036,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="425"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27405,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D79" s="426" t="s">
+      <c r="D79" s="444" t="s">
         <v>499</v>
       </c>
-      <c r="E79" s="426"/>
+      <c r="E79" s="444"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27510,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="415" t="s">
+      <c r="A103" s="439" t="s">
         <v>509</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>510</v>
       </c>
-      <c r="C103" s="417" t="s">
+      <c r="C103" s="441" t="s">
         <v>511</v>
       </c>
       <c r="D103" s="266">
@@ -27527,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="416"/>
+      <c r="A104" s="440"/>
       <c r="B104" s="266" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="418"/>
+      <c r="C104" s="442"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27544,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="415" t="s">
+      <c r="A105" s="439" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="418"/>
+      <c r="C105" s="442"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27559,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="416"/>
+      <c r="A106" s="440"/>
       <c r="B106" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C106" s="419"/>
+      <c r="C106" s="443"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27572,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="415" t="s">
+      <c r="A107" s="439" t="s">
         <v>509</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="417" t="s">
+      <c r="C107" s="441" t="s">
         <v>516</v>
       </c>
       <c r="D107" s="266">
@@ -27589,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="416"/>
+      <c r="A108" s="440"/>
       <c r="B108" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="418"/>
+      <c r="C108" s="442"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="415" t="s">
+      <c r="A109" s="439" t="s">
         <v>513</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="418"/>
+      <c r="C109" s="442"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="416"/>
+      <c r="A110" s="440"/>
       <c r="B110" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C110" s="419"/>
+      <c r="C110" s="443"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29084,12 +29084,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29100,16 +29104,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49585,18 +49585,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="427" t="s">
+      <c r="DL94" s="431" t="s">
         <v>763</v>
       </c>
-      <c r="DM94" s="427"/>
-      <c r="DN94" s="427" t="s">
+      <c r="DM94" s="431"/>
+      <c r="DN94" s="431" t="s">
         <v>764</v>
       </c>
-      <c r="DO94" s="427"/>
-      <c r="DP94" s="427" t="s">
+      <c r="DO94" s="431"/>
+      <c r="DP94" s="431" t="s">
         <v>762</v>
       </c>
-      <c r="DQ94" s="427"/>
+      <c r="DQ94" s="431"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55057,7 +55057,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45189.512249074076</v>
+        <v>45190.59425509259</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -55881,7 +55881,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45189.512249074076</v>
+        <v>45190.59425509259</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -59994,7 +59994,7 @@
   <dimension ref="A1:BA149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+      <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A608A8-1D25-4ABA-B592-F5739CC1932D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7466A1-EB86-4CB5-B5C4-50BB3A2765E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-15255" windowWidth="32535" windowHeight="14010" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="3600" yWindow="-17145" windowWidth="26610" windowHeight="13740" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7386,6 +7386,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7423,57 +7474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24950,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="433" t="s">
         <v>363</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="433"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="434" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="436" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="438" t="s">
         <v>366</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="439"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="443" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="176"/>
@@ -24996,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25867,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="432" t="s">
         <v>433</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="432"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25950,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="428"/>
+      <c r="I31" s="428"/>
       <c r="R31" t="s">
         <v>371</v>
       </c>
@@ -25972,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="420" t="s">
         <v>437</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="429" t="s">
         <v>438</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25990,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="420" t="s">
         <v>441</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="420" t="s">
         <v>441</v>
       </c>
     </row>
@@ -26028,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="427" t="s">
         <v>446</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="427"/>
       <c r="J33" s="142" t="s">
         <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="430"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="421"/>
+      <c r="S33" s="421"/>
+      <c r="T33" s="421"/>
+      <c r="U33" s="421"/>
+      <c r="V33" s="421"/>
+      <c r="W33" s="421"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26069,8 +26069,8 @@
       <c r="K34" t="s">
         <v>448</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="431"/>
       <c r="N34" s="225" t="s">
         <v>450</v>
       </c>
@@ -26083,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26154,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="423" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="424"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26305,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="424"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="424"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26451,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="424"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26525,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="425"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26599,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="423" t="s">
         <v>414</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26672,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="424"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="424"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26820,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="425"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="423" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="424"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27036,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="425"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27405,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="426" t="s">
         <v>499</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="426"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27510,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>510</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="417" t="s">
         <v>511</v>
       </c>
       <c r="D103" s="266">
@@ -27527,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="416"/>
       <c r="B104" s="266" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="418"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27544,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27559,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="416"/>
       <c r="B106" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="419"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27572,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="417" t="s">
         <v>516</v>
       </c>
       <c r="D107" s="266">
@@ -27589,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="416"/>
       <c r="B108" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="418"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="418"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="416"/>
       <c r="B110" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29084,6 +29084,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29094,22 +29110,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49585,18 +49585,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="427" t="s">
         <v>763</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="427"/>
+      <c r="DN94" s="427" t="s">
         <v>764</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="427"/>
+      <c r="DP94" s="427" t="s">
         <v>762</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="427"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55057,7 +55057,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45190.59425509259</v>
+        <v>45190.948739120373</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -55881,7 +55881,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45190.59425509259</v>
+        <v>45190.948739120373</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -59993,8 +59993,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -61205,7 +61205,7 @@
         <v>247</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F16" s="62">
         <f>IEA_WEO!BZ94*1.165</f>
@@ -61217,11 +61217,11 @@
       </c>
       <c r="H16" s="63">
         <f>SUMIF($M$15:$M$24,$D$16,P$15:P$24)*(1+$S$15)</f>
-        <v>60.120000000000005</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="I16" s="63">
         <f>SUMIF($M$15:$M$24,$D$16,Q$15:Q$24)*(1+$S$15)</f>
-        <v>54.36</v>
+        <v>87.11999999999999</v>
       </c>
       <c r="M16" s="64" t="s">
         <v>1053</v>
@@ -61405,11 +61405,11 @@
       </c>
       <c r="H21" s="77">
         <f>H15*H16</f>
-        <v>988.97400000000005</v>
+        <v>1125.18</v>
       </c>
       <c r="I21" s="78">
         <f>I15*I16</f>
-        <v>894.22199999999998</v>
+        <v>1433.1239999999998</v>
       </c>
       <c r="O21" s="75"/>
       <c r="P21" s="75"/>
@@ -61471,11 +61471,11 @@
       </c>
       <c r="H22" s="77">
         <f>H21*'Liq Fuel Prices'!$V$7</f>
-        <v>163.51589685534591</v>
+        <v>186.03605031446543</v>
       </c>
       <c r="I22" s="78">
         <f>I21*'Liq Fuel Prices'!$V$7</f>
-        <v>147.84970314465409</v>
+        <v>236.95117987421381</v>
       </c>
       <c r="N22"/>
       <c r="O22" s="75"/>
@@ -61592,11 +61592,11 @@
       </c>
       <c r="H24" s="77">
         <f>H21*'Liq Fuel Prices'!$X$7+'Liq Fuel Prices'!$X$8</f>
-        <v>197.04374196302354</v>
+        <v>224.41968109431471</v>
       </c>
       <c r="I24" s="78">
         <f>I21*'Liq Fuel Prices'!$X$7+'Liq Fuel Prices'!$X$8</f>
-        <v>177.99961039342966</v>
+        <v>286.31310869549469</v>
       </c>
       <c r="N24"/>
       <c r="O24" s="75"/>
@@ -61653,11 +61653,11 @@
       </c>
       <c r="H25" s="77">
         <f>H21*'Liq Fuel Prices'!$Y$7+'Liq Fuel Prices'!$Y$8</f>
-        <v>204.78450218486375</v>
+        <v>231.22467020790273</v>
       </c>
       <c r="I25" s="78">
         <f>I21*'Liq Fuel Prices'!$Y$7+'Liq Fuel Prices'!$Y$8</f>
-        <v>186.39134182101057</v>
+        <v>291.00244139042559</v>
       </c>
       <c r="N25"/>
       <c r="O25" s="77"/>
@@ -61711,11 +61711,11 @@
       </c>
       <c r="H26" s="77">
         <f>H21*'Liq Fuel Prices'!$W$7+'Liq Fuel Prices'!$W$8</f>
-        <v>205.1838409114628</v>
+        <v>232.71621829347131</v>
       </c>
       <c r="I26" s="78">
         <f>I21*'Liq Fuel Prices'!$W$7+'Liq Fuel Prices'!$W$8</f>
-        <v>186.03088273267423</v>
+        <v>294.96333237453405</v>
       </c>
       <c r="N26"/>
       <c r="O26" s="77"/>
@@ -61750,11 +61750,11 @@
       </c>
       <c r="H27" s="77">
         <f>H21*'Liq Fuel Prices'!$Z$7+'Liq Fuel Prices'!$Z$8</f>
-        <v>343.16026158724605</v>
+        <v>366.03930314149977</v>
       </c>
       <c r="I27" s="78">
         <f>I21*'Liq Fuel Prices'!$Z$7+'Liq Fuel Prices'!$Z$8</f>
-        <v>327.24440659298261</v>
+        <v>417.76583187285604</v>
       </c>
       <c r="N27"/>
       <c r="O27" s="28" t="s">
@@ -61825,11 +61825,11 @@
       </c>
       <c r="H28" s="77">
         <f>H22</f>
-        <v>163.51589685534591</v>
+        <v>186.03605031446543</v>
       </c>
       <c r="I28" s="78">
         <f>I22</f>
-        <v>147.84970314465409</v>
+        <v>236.95117987421381</v>
       </c>
       <c r="N28"/>
       <c r="O28" s="84"/>
@@ -62005,11 +62005,11 @@
       </c>
       <c r="H30" s="77">
         <f t="shared" ref="H30:I32" si="6">H24/0.51</f>
-        <v>386.36027835886966</v>
+        <v>440.03859038100921</v>
       </c>
       <c r="I30" s="77">
         <f t="shared" si="6"/>
-        <v>349.0188439086856</v>
+        <v>561.39825234410728</v>
       </c>
       <c r="N30"/>
       <c r="O30" s="90" t="s">
@@ -62108,11 +62108,11 @@
       </c>
       <c r="H31" s="77">
         <f>H25*'Liq Fuel Prices'!$Y$15+'Liq Fuel Prices'!$Y$16</f>
-        <v>233.65339391719741</v>
+        <v>261.91656705330325</v>
       </c>
       <c r="I31" s="78">
         <f>I25*'Liq Fuel Prices'!$Y$15+'Liq Fuel Prices'!$Y$16</f>
-        <v>213.99205608338465</v>
+        <v>325.81591501319468</v>
       </c>
       <c r="N31"/>
       <c r="O31" s="90" t="s">
@@ -62211,11 +62211,11 @@
       </c>
       <c r="H32" s="77">
         <f t="shared" si="6"/>
-        <v>402.32125668914273</v>
+        <v>456.30631037935552</v>
       </c>
       <c r="I32" s="77">
         <f t="shared" si="6"/>
-        <v>364.7664367307338</v>
+        <v>578.35947524418441</v>
       </c>
       <c r="N32"/>
       <c r="O32" s="90" t="s">
@@ -62314,11 +62314,11 @@
       </c>
       <c r="H33" s="77">
         <f>H27*'Liq Fuel Prices'!$Z$15+'Liq Fuel Prices'!$Z$16</f>
-        <v>499.99475279420381</v>
+        <v>529.97759937548165</v>
       </c>
       <c r="I33" s="78">
         <f>I27*'Liq Fuel Prices'!$Z$15+'Liq Fuel Prices'!$Z$16</f>
-        <v>479.13712038983664</v>
+        <v>597.76490468967506</v>
       </c>
       <c r="N33"/>
       <c r="O33" s="90" t="s">
@@ -62380,11 +62380,11 @@
       </c>
       <c r="H34" s="97">
         <f>H22</f>
-        <v>163.51589685534591</v>
+        <v>186.03605031446543</v>
       </c>
       <c r="I34" s="98">
         <f>I22</f>
-        <v>147.84970314465409</v>
+        <v>236.95117987421381</v>
       </c>
       <c r="O34"/>
       <c r="Q34"/>
@@ -62498,7 +62498,7 @@
       <c r="C36" s="30"/>
       <c r="D36" s="60" t="str">
         <f>D16</f>
-        <v>Announced Pledges</v>
+        <v>Stated Policies</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -62602,11 +62602,11 @@
       </c>
       <c r="H37" s="45">
         <f t="shared" si="10"/>
-        <v>97.999299507754188</v>
+        <v>111.49620902079818</v>
       </c>
       <c r="I37" s="45">
         <f t="shared" si="10"/>
-        <v>88.610145063897491</v>
+        <v>142.01096096333239</v>
       </c>
       <c r="J37" s="109">
         <v>1</v>
@@ -62976,23 +62976,23 @@
       </c>
       <c r="E41" s="108">
         <f t="shared" si="8"/>
-        <v>0.13276041666666666</v>
+        <v>0.12225288831835687</v>
       </c>
       <c r="F41" s="45">
         <f t="shared" si="9"/>
-        <v>155.75709624308848</v>
+        <v>143.92309452816528</v>
       </c>
       <c r="G41" s="45">
         <f t="shared" si="10"/>
-        <v>160.49752399289102</v>
+        <v>148.28833379773559</v>
       </c>
       <c r="H41" s="45">
         <f t="shared" si="10"/>
-        <v>130.68872067535546</v>
+        <v>136.62227950525954</v>
       </c>
       <c r="I41" s="45">
         <f t="shared" si="10"/>
-        <v>118.76519934834123</v>
+        <v>172.30668087048045</v>
       </c>
       <c r="J41" s="109">
         <v>1</v>
@@ -63039,23 +63039,23 @@
       </c>
       <c r="E42" s="108">
         <f t="shared" si="8"/>
-        <v>0.13276041666666666</v>
+        <v>0.12225288831835687</v>
       </c>
       <c r="F42" s="45">
         <f t="shared" si="9"/>
-        <v>161.99406306773304</v>
+        <v>150.16006135280986</v>
       </c>
       <c r="G42" s="45">
         <f t="shared" si="10"/>
-        <v>166.73449081753554</v>
+        <v>154.52530062238017</v>
       </c>
       <c r="H42" s="45">
         <f t="shared" si="10"/>
-        <v>136.92568749999998</v>
+        <v>142.85924632990407</v>
       </c>
       <c r="I42" s="45">
         <f t="shared" si="10"/>
-        <v>125.00216617298578</v>
+        <v>178.543647695125</v>
       </c>
       <c r="J42" s="109">
         <v>1</v>
@@ -64433,11 +64433,11 @@
       </c>
       <c r="H63" s="82">
         <f>SUMIF($E$22:$E$34,$D63,H$22:H$34)*0.9</f>
-        <v>147.16430716981134</v>
+        <v>167.43244528301889</v>
       </c>
       <c r="I63" s="82">
         <f>SUMIF($E$22:$E$34,$D63,I$22:I$34)*0.9</f>
-        <v>133.06473283018869</v>
+        <v>213.25606188679242</v>
       </c>
       <c r="J63" s="82">
         <v>3</v>
@@ -64588,11 +64588,11 @@
       </c>
       <c r="H65" s="82">
         <f t="shared" si="22"/>
-        <v>97.999299507754188</v>
+        <v>111.49620902079818</v>
       </c>
       <c r="I65" s="82">
         <f t="shared" si="22"/>
-        <v>88.610145063897491</v>
+        <v>142.01096096333239</v>
       </c>
       <c r="J65" s="82">
         <v>3</v>
@@ -65510,19 +65510,19 @@
       <c r="E79" s="30"/>
       <c r="F79" s="82">
         <f>F80/F15</f>
-        <v>9.4685164889415496</v>
+        <v>8.7491242874264614</v>
       </c>
       <c r="G79" s="82">
         <f t="shared" ref="G79:I79" si="33">G80/G15</f>
-        <v>9.7566883886255944</v>
+        <v>9.0144883767620421</v>
       </c>
       <c r="H79" s="82">
         <f t="shared" si="33"/>
-        <v>7.9446030805687213</v>
+        <v>8.3053057450005809</v>
       </c>
       <c r="I79" s="82">
         <f t="shared" si="33"/>
-        <v>7.2197689573459716</v>
+        <v>10.474570265682702</v>
       </c>
       <c r="J79" s="82"/>
       <c r="K79" s="82"/>
@@ -65580,19 +65580,19 @@
       </c>
       <c r="F80" s="82">
         <f t="shared" ref="F80:I81" si="34">SUMIF($C$37:$C$42,$B80,F$37:F$42)*$E$54</f>
-        <v>155.75709624308848</v>
+        <v>143.92309452816528</v>
       </c>
       <c r="G80" s="82">
         <f t="shared" si="34"/>
-        <v>160.49752399289102</v>
+        <v>148.28833379773559</v>
       </c>
       <c r="H80" s="82">
         <f t="shared" si="34"/>
-        <v>130.68872067535546</v>
+        <v>136.62227950525954</v>
       </c>
       <c r="I80" s="82">
         <f t="shared" si="34"/>
-        <v>118.76519934834123</v>
+        <v>172.30668087048045</v>
       </c>
       <c r="J80" s="82"/>
       <c r="K80" s="82"/>
@@ -65655,19 +65655,19 @@
       </c>
       <c r="F81" s="82">
         <f t="shared" si="34"/>
-        <v>161.99406306773304</v>
+        <v>150.16006135280986</v>
       </c>
       <c r="G81" s="82">
         <f t="shared" si="34"/>
-        <v>166.73449081753554</v>
+        <v>154.52530062238017</v>
       </c>
       <c r="H81" s="82">
         <f t="shared" si="34"/>
-        <v>136.92568749999998</v>
+        <v>142.85924632990407</v>
       </c>
       <c r="I81" s="82">
         <f t="shared" si="34"/>
-        <v>125.00216617298578</v>
+        <v>178.543647695125</v>
       </c>
       <c r="J81" s="82" t="s">
         <v>253</v>
@@ -65735,19 +65735,19 @@
       <c r="E82" s="30"/>
       <c r="F82" s="82">
         <f>F81/F15</f>
-        <v>9.8476634083728296</v>
+        <v>9.1282712068577432</v>
       </c>
       <c r="G82" s="82">
         <f t="shared" ref="G82:I82" si="35">G81/G15</f>
-        <v>10.135835308056873</v>
+        <v>9.3936352961933238</v>
       </c>
       <c r="H82" s="82">
         <f t="shared" si="35"/>
-        <v>8.3237499999999986</v>
+        <v>8.6844526644318591</v>
       </c>
       <c r="I82" s="82">
         <f t="shared" si="35"/>
-        <v>7.5989158767772516</v>
+        <v>10.853717185113982</v>
       </c>
       <c r="J82" s="82"/>
       <c r="K82" s="82"/>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="H84" s="82">
         <f t="shared" si="38"/>
-        <v>205.1838409114628</v>
+        <v>232.71621829347131</v>
       </c>
       <c r="I84" s="82">
         <f t="shared" si="38"/>
-        <v>186.03088273267423</v>
+        <v>294.96333237453405</v>
       </c>
       <c r="J84" s="82">
         <v>0</v>
@@ -65973,11 +65973,11 @@
       </c>
       <c r="H85" s="82">
         <f t="shared" si="39"/>
-        <v>163.51589685534591</v>
+        <v>186.03605031446543</v>
       </c>
       <c r="I85" s="82">
         <f t="shared" si="39"/>
-        <v>147.84970314465409</v>
+        <v>236.95117987421381</v>
       </c>
       <c r="J85" s="82">
         <v>0</v>
@@ -66051,11 +66051,11 @@
       </c>
       <c r="H86" s="82">
         <f t="shared" si="39"/>
-        <v>197.04374196302354</v>
+        <v>224.41968109431471</v>
       </c>
       <c r="I86" s="82">
         <f t="shared" si="39"/>
-        <v>177.99961039342966</v>
+        <v>286.31310869549469</v>
       </c>
       <c r="J86" s="82">
         <v>0</v>
@@ -66128,11 +66128,11 @@
       </c>
       <c r="H87" s="82">
         <f t="shared" si="39"/>
-        <v>205.1838409114628</v>
+        <v>232.71621829347131</v>
       </c>
       <c r="I87" s="82">
         <f t="shared" si="39"/>
-        <v>186.03088273267423</v>
+        <v>294.96333237453405</v>
       </c>
       <c r="J87" s="82">
         <v>0</v>
@@ -66205,11 +66205,11 @@
       </c>
       <c r="H88" s="82">
         <f t="shared" si="39"/>
-        <v>163.51589685534591</v>
+        <v>186.03605031446543</v>
       </c>
       <c r="I88" s="82">
         <f t="shared" si="39"/>
-        <v>147.84970314465409</v>
+        <v>236.95117987421381</v>
       </c>
       <c r="J88" s="82">
         <v>0</v>
@@ -66282,11 +66282,11 @@
       </c>
       <c r="H89" s="82">
         <f t="shared" si="39"/>
-        <v>343.16026158724605</v>
+        <v>366.03930314149977</v>
       </c>
       <c r="I89" s="82">
         <f t="shared" si="39"/>
-        <v>327.24440659298261</v>
+        <v>417.76583187285604</v>
       </c>
       <c r="J89" s="82">
         <v>0</v>
@@ -66359,11 +66359,11 @@
       </c>
       <c r="H90" s="82">
         <f t="shared" si="39"/>
-        <v>204.78450218486375</v>
+        <v>231.22467020790273</v>
       </c>
       <c r="I90" s="82">
         <f t="shared" si="39"/>
-        <v>186.39134182101057</v>
+        <v>291.00244139042559</v>
       </c>
       <c r="J90" s="82">
         <v>0</v>
@@ -66436,11 +66436,11 @@
       </c>
       <c r="H91" s="82">
         <f t="shared" si="40"/>
-        <v>206.89592906117471</v>
+        <v>235.64066514903047</v>
       </c>
       <c r="I91" s="82">
         <f t="shared" si="40"/>
-        <v>186.89959091310115</v>
+        <v>300.62876413026942</v>
       </c>
       <c r="J91" s="82">
         <v>0</v>
@@ -66511,11 +66511,11 @@
       </c>
       <c r="H92" s="82">
         <f t="shared" si="40"/>
-        <v>215.44303295703594</v>
+        <v>244.3520292081449</v>
       </c>
       <c r="I92" s="82">
         <f t="shared" si="40"/>
-        <v>195.33242686930794</v>
+        <v>309.71149899326076</v>
       </c>
       <c r="J92" s="82">
         <v>0</v>
@@ -66702,19 +66702,19 @@
       </c>
       <c r="F95" s="82">
         <f>F81-(1.5*F15)</f>
-        <v>137.31906306773305</v>
+        <v>125.48506135280986</v>
       </c>
       <c r="G95" s="82">
         <f t="shared" ref="G95:I95" si="41">G81-(1.5*G15)</f>
-        <v>142.05949081753556</v>
+        <v>129.85030062238019</v>
       </c>
       <c r="H95" s="82">
         <f t="shared" si="41"/>
-        <v>112.25068749999998</v>
+        <v>118.18424632990407</v>
       </c>
       <c r="I95" s="82">
         <f t="shared" si="41"/>
-        <v>100.32716617298578</v>
+        <v>153.86864769512499</v>
       </c>
       <c r="J95" s="82"/>
       <c r="K95" s="82"/>
@@ -66995,11 +66995,11 @@
       </c>
       <c r="H99" s="82">
         <f t="shared" si="45"/>
-        <v>-194.92464886588965</v>
+        <v>-221.08040737879773</v>
       </c>
       <c r="I99" s="82">
         <f t="shared" si="45"/>
-        <v>-176.72933859604052</v>
+        <v>-280.21516575580733</v>
       </c>
       <c r="J99" s="82">
         <v>0</v>
@@ -67073,11 +67073,11 @@
       </c>
       <c r="H100" s="82">
         <f t="shared" si="46"/>
-        <v>-155.3401020125786</v>
+        <v>-176.73424779874216</v>
       </c>
       <c r="I100" s="82">
         <f t="shared" si="46"/>
-        <v>-140.45721798742139</v>
+        <v>-225.10362088050312</v>
       </c>
       <c r="J100" s="82">
         <v>0</v>
@@ -67151,11 +67151,11 @@
       </c>
       <c r="H101" s="82">
         <f t="shared" si="46"/>
-        <v>-187.19155486487236</v>
+        <v>-213.19869703959895</v>
       </c>
       <c r="I101" s="82">
         <f t="shared" si="46"/>
-        <v>-169.09962987375818</v>
+        <v>-271.99745326071996</v>
       </c>
       <c r="J101" s="82">
         <v>0</v>
@@ -67229,11 +67229,11 @@
       </c>
       <c r="H102" s="82">
         <f t="shared" si="46"/>
-        <v>-194.92464886588965</v>
+        <v>-221.08040737879773</v>
       </c>
       <c r="I102" s="82">
         <f t="shared" si="46"/>
-        <v>-176.72933859604052</v>
+        <v>-280.21516575580733</v>
       </c>
       <c r="J102" s="82">
         <v>0</v>
@@ -67307,11 +67307,11 @@
       </c>
       <c r="H103" s="82">
         <f t="shared" si="46"/>
-        <v>-155.3401020125786</v>
+        <v>-176.73424779874216</v>
       </c>
       <c r="I103" s="82">
         <f t="shared" si="46"/>
-        <v>-140.45721798742139</v>
+        <v>-225.10362088050312</v>
       </c>
       <c r="J103" s="82">
         <v>0</v>
@@ -67382,11 +67382,11 @@
       </c>
       <c r="H104" s="82">
         <f t="shared" si="46"/>
-        <v>-194.54527707562056</v>
+        <v>-219.66343669750759</v>
       </c>
       <c r="I104" s="82">
         <f t="shared" si="46"/>
-        <v>-177.07177472996003</v>
+        <v>-276.45231932090428</v>
       </c>
       <c r="J104" s="82">
         <v>0</v>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7466A1-EB86-4CB5-B5C4-50BB3A2765E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7A8892-25C0-43FF-9330-B580154EED47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-17145" windowWidth="26610" windowHeight="13740" firstSheet="6" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="4080" yWindow="-14625" windowWidth="26610" windowHeight="13740" firstSheet="8" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NameConv!#REF!</definedName>
     <definedName name="AGR">[1]Index!$C$7</definedName>
     <definedName name="COM">[1]Index!$C$8</definedName>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1105">
   <si>
     <t>Agriculture</t>
   </si>
@@ -7386,57 +7386,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7474,6 +7423,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24950,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="AC6" s="433" t="s">
+      <c r="AC6" s="416" t="s">
         <v>363</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="433"/>
+      <c r="AD6" s="416"/>
+      <c r="AE6" s="416"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="417" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="419" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="438" t="s">
+      <c r="C7" s="421" t="s">
         <v>366</v>
       </c>
-      <c r="D7" s="439"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="443" t="s">
+      <c r="D7" s="422"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="426" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="176"/>
@@ -24996,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="437"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="442"/>
-      <c r="E8" s="442"/>
-      <c r="F8" s="444"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="420"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="427"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25867,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="432" t="s">
+      <c r="AC25" s="415" t="s">
         <v>433</v>
       </c>
-      <c r="AD25" s="432"/>
-      <c r="AE25" s="432"/>
+      <c r="AD25" s="415"/>
+      <c r="AE25" s="415"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25950,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="428"/>
-      <c r="I31" s="428"/>
+      <c r="H31" s="435"/>
+      <c r="I31" s="435"/>
       <c r="R31" t="s">
         <v>371</v>
       </c>
@@ -25972,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="420" t="s">
+      <c r="L32" s="428" t="s">
         <v>437</v>
       </c>
-      <c r="M32" s="429" t="s">
+      <c r="M32" s="436" t="s">
         <v>438</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25990,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="R32" s="420" t="s">
+      <c r="R32" s="428" t="s">
         <v>390</v>
       </c>
-      <c r="S32" s="420" t="s">
+      <c r="S32" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="420" t="s">
+      <c r="T32" s="428" t="s">
         <v>441</v>
       </c>
-      <c r="U32" s="420" t="s">
+      <c r="U32" s="428" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="420" t="s">
+      <c r="V32" s="428" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="420" t="s">
+      <c r="W32" s="428" t="s">
         <v>441</v>
       </c>
     </row>
@@ -26028,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="427" t="s">
+      <c r="H33" s="431" t="s">
         <v>446</v>
       </c>
-      <c r="I33" s="427"/>
+      <c r="I33" s="431"/>
       <c r="J33" s="142" t="s">
         <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="421"/>
-      <c r="M33" s="430"/>
+      <c r="L33" s="429"/>
+      <c r="M33" s="437"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="421"/>
-      <c r="S33" s="421"/>
-      <c r="T33" s="421"/>
-      <c r="U33" s="421"/>
-      <c r="V33" s="421"/>
-      <c r="W33" s="421"/>
+      <c r="R33" s="429"/>
+      <c r="S33" s="429"/>
+      <c r="T33" s="429"/>
+      <c r="U33" s="429"/>
+      <c r="V33" s="429"/>
+      <c r="W33" s="429"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26069,8 +26069,8 @@
       <c r="K34" t="s">
         <v>448</v>
       </c>
-      <c r="L34" s="422"/>
-      <c r="M34" s="431"/>
+      <c r="L34" s="430"/>
+      <c r="M34" s="438"/>
       <c r="N34" s="225" t="s">
         <v>450</v>
       </c>
@@ -26083,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="R34" s="422"/>
-      <c r="S34" s="422"/>
-      <c r="T34" s="422"/>
-      <c r="U34" s="422"/>
-      <c r="V34" s="422"/>
-      <c r="W34" s="422"/>
+      <c r="R34" s="430"/>
+      <c r="S34" s="430"/>
+      <c r="T34" s="430"/>
+      <c r="U34" s="430"/>
+      <c r="V34" s="430"/>
+      <c r="W34" s="430"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26154,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="423" t="str">
+      <c r="L36" s="432" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="424"/>
+      <c r="L37" s="433"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26305,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="424"/>
+      <c r="L38" s="433"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="424"/>
+      <c r="L39" s="433"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26451,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="424"/>
+      <c r="L40" s="433"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26525,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="425"/>
+      <c r="L41" s="434"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26599,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="423" t="s">
+      <c r="L42" s="432" t="s">
         <v>414</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26672,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="424"/>
+      <c r="L43" s="433"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="424"/>
+      <c r="L44" s="433"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26820,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="425"/>
+      <c r="L45" s="434"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="423" t="str">
+      <c r="L46" s="432" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="424"/>
+      <c r="L47" s="433"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27036,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="425"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27405,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D79" s="426" t="s">
+      <c r="D79" s="444" t="s">
         <v>499</v>
       </c>
-      <c r="E79" s="426"/>
+      <c r="E79" s="444"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27510,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="415" t="s">
+      <c r="A103" s="439" t="s">
         <v>509</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>510</v>
       </c>
-      <c r="C103" s="417" t="s">
+      <c r="C103" s="441" t="s">
         <v>511</v>
       </c>
       <c r="D103" s="266">
@@ -27527,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="416"/>
+      <c r="A104" s="440"/>
       <c r="B104" s="266" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="418"/>
+      <c r="C104" s="442"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27544,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="415" t="s">
+      <c r="A105" s="439" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="418"/>
+      <c r="C105" s="442"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27559,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="416"/>
+      <c r="A106" s="440"/>
       <c r="B106" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C106" s="419"/>
+      <c r="C106" s="443"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27572,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="415" t="s">
+      <c r="A107" s="439" t="s">
         <v>509</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="417" t="s">
+      <c r="C107" s="441" t="s">
         <v>516</v>
       </c>
       <c r="D107" s="266">
@@ -27589,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="416"/>
+      <c r="A108" s="440"/>
       <c r="B108" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="418"/>
+      <c r="C108" s="442"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="415" t="s">
+      <c r="A109" s="439" t="s">
         <v>513</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="418"/>
+      <c r="C109" s="442"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="416"/>
+      <c r="A110" s="440"/>
       <c r="B110" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C110" s="419"/>
+      <c r="C110" s="443"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29084,12 +29084,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29100,16 +29104,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29858,10 +29858,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE116"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30116,7 +30116,7 @@
         <v>INDBIB</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9:E61" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
+        <f t="shared" ref="E9:E62" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
         <v>Industry Biomass bagasse</v>
       </c>
       <c r="F9" t="s">
@@ -30183,7 +30183,7 @@
         <v>149</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D61" si="1">B10&amp;C10</f>
+        <f t="shared" ref="D10:D62" si="1">B10&amp;C10</f>
         <v>UPSBID</v>
       </c>
       <c r="E10" t="str">
@@ -30198,11 +30198,11 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K61" si="2">"X"&amp;D10</f>
+        <f t="shared" ref="K10:K62" si="2">"X"&amp;D10</f>
         <v>XUPSBID</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L61" si="3">E10</f>
+        <f t="shared" ref="L10:L62" si="3">E10</f>
         <v>Upstream Biodiesel</v>
       </c>
       <c r="M10" t="s">
@@ -30220,11 +30220,11 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="str">
-        <f t="shared" ref="S10:S61" si="4">K10</f>
+        <f t="shared" ref="S10:S62" si="4">K10</f>
         <v>XUPSBID</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" ref="T10:U61" si="5">C10</f>
+        <f t="shared" ref="T10:U62" si="5">C10</f>
         <v>BID</v>
       </c>
       <c r="U10" t="str">
@@ -31873,18 +31873,18 @@
     </row>
     <row r="34" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>199</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="1"/>
-        <v>UPSHGN</v>
+        <f t="shared" ref="D34" si="26">B34&amp;C34</f>
+        <v>INDHGN</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>Upstream Hydrogen</v>
+        <f t="shared" ref="E34" si="27">INDEX(SectorNamesLong,MATCH(B34,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C34,FuelNamesShort,0))</f>
+        <v>Industry Hydrogen</v>
       </c>
       <c r="F34" t="s">
         <v>240</v>
@@ -31894,12 +31894,12 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v>XUPSHGN</v>
+        <f t="shared" ref="K34" si="28">"X"&amp;D34</f>
+        <v>XINDHGN</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="3"/>
-        <v>Upstream Hydrogen</v>
+        <f t="shared" ref="L34" si="29">E34</f>
+        <v>Industry Hydrogen</v>
       </c>
       <c r="M34" t="s">
         <v>240</v>
@@ -31916,16 +31916,16 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="str">
-        <f t="shared" si="4"/>
-        <v>XUPSHGN</v>
+        <f t="shared" ref="S34" si="30">K34</f>
+        <v>XINDHGN</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T34" si="31">C34</f>
         <v>HGN</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" si="5"/>
-        <v>UPSHGN</v>
+        <f t="shared" ref="U34" si="32">D34</f>
+        <v>INDHGN</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -31943,18 +31943,18 @@
     </row>
     <row r="35" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
         <v>199</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
-        <v>TRAHGN</v>
+        <v>UPSHGN</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Hydrogen</v>
+        <v>Upstream Hydrogen</v>
       </c>
       <c r="F35" t="s">
         <v>240</v>
@@ -31965,11 +31965,11 @@
       <c r="J35"/>
       <c r="K35" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAHGN</v>
+        <v>XUPSHGN</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Hydrogen</v>
+        <v>Upstream Hydrogen</v>
       </c>
       <c r="M35" t="s">
         <v>240</v>
@@ -31987,7 +31987,7 @@
       <c r="R35"/>
       <c r="S35" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAHGN</v>
+        <v>XUPSHGN</v>
       </c>
       <c r="T35" t="str">
         <f t="shared" si="5"/>
@@ -31995,7 +31995,7 @@
       </c>
       <c r="U35" t="str">
         <f t="shared" si="5"/>
-        <v>TRAHGN</v>
+        <v>UPSHGN</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -32016,15 +32016,15 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOAG</v>
+        <v>TRAHGN</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Av Gasoline</v>
+        <v>Transport Hydrogen</v>
       </c>
       <c r="F36" t="s">
         <v>240</v>
@@ -32035,11 +32035,11 @@
       <c r="J36"/>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOAG</v>
+        <v>XTRAHGN</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Av Gasoline</v>
+        <v>Transport Hydrogen</v>
       </c>
       <c r="M36" t="s">
         <v>240</v>
@@ -32048,7 +32048,7 @@
         <v>429</v>
       </c>
       <c r="O36" t="s">
-        <v>358</v>
+        <v>609</v>
       </c>
       <c r="P36" t="s">
         <v>608</v>
@@ -32057,15 +32057,15 @@
       <c r="R36"/>
       <c r="S36" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOAG</v>
+        <v>XTRAHGN</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="5"/>
-        <v>OAG</v>
+        <v>HGN</v>
       </c>
       <c r="U36" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOAG</v>
+        <v>TRAHGN</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -32083,18 +32083,18 @@
     </row>
     <row r="37" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>UPSOCR</v>
+        <v>TRAOAG</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>Upstream Oil Crude</v>
+        <v>Transport Oil Av Gasoline</v>
       </c>
       <c r="F37" t="s">
         <v>240</v>
@@ -32105,11 +32105,11 @@
       <c r="J37"/>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
-        <v>XUPSOCR</v>
+        <v>XTRAOAG</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="3"/>
-        <v>Upstream Oil Crude</v>
+        <v>Transport Oil Av Gasoline</v>
       </c>
       <c r="M37" t="s">
         <v>240</v>
@@ -32127,15 +32127,15 @@
       <c r="R37"/>
       <c r="S37" t="str">
         <f t="shared" si="4"/>
-        <v>XUPSOCR</v>
+        <v>XTRAOAG</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="5"/>
-        <v>OCR</v>
+        <v>OAG</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="5"/>
-        <v>UPSOCR</v>
+        <v>TRAOAG</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -32153,18 +32153,18 @@
     </row>
     <row r="38" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
-        <v>AGRODS</v>
+        <v>UPSOCR</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>Agriculture Oil Diesel</v>
+        <v>Upstream Oil Crude</v>
       </c>
       <c r="F38" t="s">
         <v>240</v>
@@ -32175,11 +32175,11 @@
       <c r="J38"/>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
-        <v>XAGRODS</v>
+        <v>XUPSOCR</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="3"/>
-        <v>Agriculture Oil Diesel</v>
+        <v>Upstream Oil Crude</v>
       </c>
       <c r="M38" t="s">
         <v>240</v>
@@ -32197,15 +32197,15 @@
       <c r="R38"/>
       <c r="S38" t="str">
         <f t="shared" si="4"/>
-        <v>XAGRODS</v>
+        <v>XUPSOCR</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="5"/>
-        <v>ODS</v>
+        <v>OCR</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="5"/>
-        <v>AGRODS</v>
+        <v>UPSOCR</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -32223,18 +32223,18 @@
     </row>
     <row r="39" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>207</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>COMODS</v>
+        <v>AGRODS</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Diesel</v>
+        <v>Agriculture Oil Diesel</v>
       </c>
       <c r="F39" t="s">
         <v>240</v>
@@ -32245,11 +32245,11 @@
       <c r="J39"/>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMODS</v>
+        <v>XAGRODS</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Diesel</v>
+        <v>Agriculture Oil Diesel</v>
       </c>
       <c r="M39" t="s">
         <v>240</v>
@@ -32267,7 +32267,7 @@
       <c r="R39"/>
       <c r="S39" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMODS</v>
+        <v>XAGRODS</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="5"/>
@@ -32275,7 +32275,7 @@
       </c>
       <c r="U39" t="str">
         <f t="shared" si="5"/>
-        <v>COMODS</v>
+        <v>AGRODS</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -32293,18 +32293,18 @@
     </row>
     <row r="40" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>207</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>INDODS</v>
+        <v>COMODS</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil Diesel</v>
+        <v>Commerce Oil Diesel</v>
       </c>
       <c r="F40" t="s">
         <v>240</v>
@@ -32315,11 +32315,11 @@
       <c r="J40"/>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
-        <v>XINDODS</v>
+        <v>XCOMODS</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil Diesel</v>
+        <v>Commerce Oil Diesel</v>
       </c>
       <c r="M40" t="s">
         <v>240</v>
@@ -32337,7 +32337,7 @@
       <c r="R40"/>
       <c r="S40" t="str">
         <f t="shared" si="4"/>
-        <v>XINDODS</v>
+        <v>XCOMODS</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="5"/>
@@ -32345,7 +32345,7 @@
       </c>
       <c r="U40" t="str">
         <f t="shared" si="5"/>
-        <v>INDODS</v>
+        <v>COMODS</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -32363,18 +32363,18 @@
     </row>
     <row r="41" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>207</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>TRAODS</v>
+        <v>INDODS</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Diesel</v>
+        <v>Industry Oil Diesel</v>
       </c>
       <c r="F41" t="s">
         <v>240</v>
@@ -32385,11 +32385,11 @@
       <c r="J41"/>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAODS</v>
+        <v>XINDODS</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Diesel</v>
+        <v>Industry Oil Diesel</v>
       </c>
       <c r="M41" t="s">
         <v>240</v>
@@ -32407,7 +32407,7 @@
       <c r="R41"/>
       <c r="S41" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAODS</v>
+        <v>XINDODS</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="5"/>
@@ -32415,7 +32415,7 @@
       </c>
       <c r="U41" t="str">
         <f t="shared" si="5"/>
-        <v>TRAODS</v>
+        <v>INDODS</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -32433,18 +32433,18 @@
     </row>
     <row r="42" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42" si="26">B42&amp;C42</f>
-        <v>PWRODS</v>
+        <f t="shared" si="1"/>
+        <v>TRAODS</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ref="E42" si="27">INDEX(SectorNamesLong,MATCH(B42,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C42,FuelNamesShort,0))</f>
-        <v>Power Oil Diesel</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil Diesel</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -32454,12 +32454,12 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42" t="str">
-        <f t="shared" ref="K42" si="28">"X"&amp;D42</f>
-        <v>XPWRODS</v>
+        <f t="shared" si="2"/>
+        <v>XTRAODS</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" ref="L42" si="29">E42</f>
-        <v>Power Oil Diesel</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil Diesel</v>
       </c>
       <c r="M42" t="s">
         <v>240</v>
@@ -32476,16 +32476,16 @@
       <c r="Q42"/>
       <c r="R42"/>
       <c r="S42" t="str">
-        <f t="shared" ref="S42" si="30">K42</f>
-        <v>XPWRODS</v>
+        <f t="shared" si="4"/>
+        <v>XTRAODS</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" ref="T42" si="31">C42</f>
+        <f t="shared" si="5"/>
         <v>ODS</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" ref="U42" si="32">D42</f>
-        <v>PWRODS</v>
+        <f t="shared" si="5"/>
+        <v>TRAODS</v>
       </c>
       <c r="V42">
         <v>1</v>
@@ -32503,18 +32503,18 @@
     </row>
     <row r="43" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROGS</v>
+        <f t="shared" ref="D43" si="33">B43&amp;C43</f>
+        <v>PWRODS</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil Gasoline</v>
+        <f t="shared" ref="E43" si="34">INDEX(SectorNamesLong,MATCH(B43,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C43,FuelNamesShort,0))</f>
+        <v>Power Oil Diesel</v>
       </c>
       <c r="F43" t="s">
         <v>240</v>
@@ -32524,12 +32524,12 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROGS</v>
+        <f t="shared" ref="K43" si="35">"X"&amp;D43</f>
+        <v>XPWRODS</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil Gasoline</v>
+        <f t="shared" ref="L43" si="36">E43</f>
+        <v>Power Oil Diesel</v>
       </c>
       <c r="M43" t="s">
         <v>240</v>
@@ -32546,16 +32546,16 @@
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROGS</v>
+        <f t="shared" ref="S43" si="37">K43</f>
+        <v>XPWRODS</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" si="5"/>
-        <v>OGS</v>
+        <f t="shared" ref="T43" si="38">C43</f>
+        <v>ODS</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROGS</v>
+        <f t="shared" ref="U43" si="39">D43</f>
+        <v>PWRODS</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -32573,18 +32573,18 @@
     </row>
     <row r="44" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>209</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
-        <v>COMOGS</v>
+        <v>AGROGS</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Gasoline</v>
+        <v>Agriculture Oil Gasoline</v>
       </c>
       <c r="F44" t="s">
         <v>240</v>
@@ -32595,11 +32595,11 @@
       <c r="J44"/>
       <c r="K44" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOGS</v>
+        <v>XAGROGS</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Gasoline</v>
+        <v>Agriculture Oil Gasoline</v>
       </c>
       <c r="M44" t="s">
         <v>240</v>
@@ -32617,7 +32617,7 @@
       <c r="R44"/>
       <c r="S44" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOGS</v>
+        <v>XAGROGS</v>
       </c>
       <c r="T44" t="str">
         <f t="shared" si="5"/>
@@ -32625,7 +32625,7 @@
       </c>
       <c r="U44" t="str">
         <f t="shared" si="5"/>
-        <v>COMOGS</v>
+        <v>AGROGS</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -32643,18 +32643,18 @@
     </row>
     <row r="45" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>209</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>INDOGS</v>
+        <v>COMOGS</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil Gasoline</v>
+        <v>Commerce Oil Gasoline</v>
       </c>
       <c r="F45" t="s">
         <v>240</v>
@@ -32665,11 +32665,11 @@
       <c r="J45"/>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOGS</v>
+        <v>XCOMOGS</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil Gasoline</v>
+        <v>Commerce Oil Gasoline</v>
       </c>
       <c r="M45" t="s">
         <v>240</v>
@@ -32687,7 +32687,7 @@
       <c r="R45"/>
       <c r="S45" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOGS</v>
+        <v>XCOMOGS</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="5"/>
@@ -32695,7 +32695,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" si="5"/>
-        <v>INDOGS</v>
+        <v>COMOGS</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -32713,18 +32713,18 @@
     </row>
     <row r="46" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>209</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOGS</v>
+        <v>INDOGS</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Gasoline</v>
+        <v>Industry Oil Gasoline</v>
       </c>
       <c r="F46" t="s">
         <v>240</v>
@@ -32735,11 +32735,11 @@
       <c r="J46"/>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOGS</v>
+        <v>XINDOGS</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Gasoline</v>
+        <v>Industry Oil Gasoline</v>
       </c>
       <c r="M46" t="s">
         <v>240</v>
@@ -32757,7 +32757,7 @@
       <c r="R46"/>
       <c r="S46" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOGS</v>
+        <v>XINDOGS</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="5"/>
@@ -32765,7 +32765,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOGS</v>
+        <v>INDOGS</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -32783,18 +32783,18 @@
     </row>
     <row r="47" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>AGROHF</v>
+        <v>TRAOGS</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>Agriculture Oil HFO</v>
+        <v>Transport Oil Gasoline</v>
       </c>
       <c r="F47" t="s">
         <v>240</v>
@@ -32805,11 +32805,11 @@
       <c r="J47"/>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>XAGROHF</v>
+        <v>XTRAOGS</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="3"/>
-        <v>Agriculture Oil HFO</v>
+        <v>Transport Oil Gasoline</v>
       </c>
       <c r="M47" t="s">
         <v>240</v>
@@ -32827,15 +32827,15 @@
       <c r="R47"/>
       <c r="S47" t="str">
         <f t="shared" si="4"/>
-        <v>XAGROHF</v>
+        <v>XTRAOGS</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="5"/>
-        <v>OHF</v>
+        <v>OGS</v>
       </c>
       <c r="U47" t="str">
         <f t="shared" si="5"/>
-        <v>AGROHF</v>
+        <v>TRAOGS</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -32850,22 +32850,21 @@
       <c r="Z47">
         <v>1</v>
       </c>
-      <c r="AE47"/>
     </row>
     <row r="48" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>211</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>COMOHF</v>
+        <v>AGROHF</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil HFO</v>
+        <v>Agriculture Oil HFO</v>
       </c>
       <c r="F48" t="s">
         <v>240</v>
@@ -32876,11 +32875,11 @@
       <c r="J48"/>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOHF</v>
+        <v>XAGROHF</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil HFO</v>
+        <v>Agriculture Oil HFO</v>
       </c>
       <c r="M48" t="s">
         <v>240</v>
@@ -32898,7 +32897,7 @@
       <c r="R48"/>
       <c r="S48" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOHF</v>
+        <v>XAGROHF</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="5"/>
@@ -32906,7 +32905,7 @@
       </c>
       <c r="U48" t="str">
         <f t="shared" si="5"/>
-        <v>COMOHF</v>
+        <v>AGROHF</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -32925,18 +32924,18 @@
     </row>
     <row r="49" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>211</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>INDOHF</v>
+        <v>COMOHF</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil HFO</v>
+        <v>Commerce Oil HFO</v>
       </c>
       <c r="F49" t="s">
         <v>240</v>
@@ -32947,11 +32946,11 @@
       <c r="J49"/>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOHF</v>
+        <v>XCOMOHF</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil HFO</v>
+        <v>Commerce Oil HFO</v>
       </c>
       <c r="M49" t="s">
         <v>240</v>
@@ -32969,7 +32968,7 @@
       <c r="R49"/>
       <c r="S49" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOHF</v>
+        <v>XCOMOHF</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="5"/>
@@ -32977,7 +32976,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" si="5"/>
-        <v>INDOHF</v>
+        <v>COMOHF</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -32996,18 +32995,18 @@
     </row>
     <row r="50" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>211</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOHF</v>
+        <v>INDOHF</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil HFO</v>
+        <v>Industry Oil HFO</v>
       </c>
       <c r="F50" t="s">
         <v>240</v>
@@ -33018,11 +33017,11 @@
       <c r="J50"/>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOHF</v>
+        <v>XINDOHF</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil HFO</v>
+        <v>Industry Oil HFO</v>
       </c>
       <c r="M50" t="s">
         <v>240</v>
@@ -33040,7 +33039,7 @@
       <c r="R50"/>
       <c r="S50" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOHF</v>
+        <v>XINDOHF</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="5"/>
@@ -33048,7 +33047,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOHF</v>
+        <v>INDOHF</v>
       </c>
       <c r="V50">
         <v>1</v>
@@ -33067,18 +33066,18 @@
     </row>
     <row r="51" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" ref="D51" si="33">B51&amp;C51</f>
-        <v>PWROHF</v>
+        <f t="shared" si="1"/>
+        <v>TRAOHF</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" ref="E51" si="34">INDEX(SectorNamesLong,MATCH(B51,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C51,FuelNamesShort,0))</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="F51" t="s">
         <v>240</v>
@@ -33088,12 +33087,12 @@
       <c r="I51"/>
       <c r="J51"/>
       <c r="K51" t="str">
-        <f t="shared" ref="K51" si="35">"X"&amp;D51</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" ref="L51" si="36">E51</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="M51" t="s">
         <v>240</v>
@@ -33110,16 +33109,16 @@
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51" t="str">
-        <f t="shared" ref="S51" si="37">K51</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" ref="T51" si="38">C51</f>
+        <f t="shared" si="5"/>
         <v>OHF</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" ref="U51" si="39">D51</f>
-        <v>PWROHF</v>
+        <f t="shared" si="5"/>
+        <v>TRAOHF</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -33138,18 +33137,18 @@
     </row>
     <row r="52" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="D52" si="40">B52&amp;C52</f>
+        <v>PWROHF</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="E52" si="41">INDEX(SectorNamesLong,MATCH(B52,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C52,FuelNamesShort,0))</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="F52" t="s">
         <v>240</v>
@@ -33159,12 +33158,12 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="K52" si="42">"X"&amp;D52</f>
+        <v>XPWROHF</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="L52" si="43">E52</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="M52" t="s">
         <v>240</v>
@@ -33181,16 +33180,16 @@
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="S52" si="44">K52</f>
+        <v>XPWROHF</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="5"/>
-        <v>OKE</v>
+        <f t="shared" ref="T52" si="45">C52</f>
+        <v>OHF</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="U52" si="46">D52</f>
+        <v>PWROHF</v>
       </c>
       <c r="V52">
         <v>1</v>
@@ -33209,18 +33208,18 @@
     </row>
     <row r="53" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>213</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -33231,11 +33230,11 @@
       <c r="J53"/>
       <c r="K53" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="L53" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="M53" t="s">
         <v>240</v>
@@ -33253,7 +33252,7 @@
       <c r="R53"/>
       <c r="S53" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="T53" t="str">
         <f t="shared" si="5"/>
@@ -33261,7 +33260,7 @@
       </c>
       <c r="U53" t="str">
         <f t="shared" si="5"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -33280,18 +33279,18 @@
     </row>
     <row r="54" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="F54" t="s">
         <v>240</v>
@@ -33302,11 +33301,11 @@
       <c r="J54"/>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="M54" t="s">
         <v>240</v>
@@ -33324,7 +33323,7 @@
       <c r="R54"/>
       <c r="S54" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="T54" t="str">
         <f t="shared" si="5"/>
@@ -33332,7 +33331,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" si="5"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -33351,18 +33350,18 @@
     </row>
     <row r="55" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
         <v>213</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="F55" t="s">
         <v>240</v>
@@ -33373,11 +33372,11 @@
       <c r="J55"/>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="M55" t="s">
         <v>240</v>
@@ -33395,7 +33394,7 @@
       <c r="R55"/>
       <c r="S55" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="5"/>
@@ -33403,7 +33402,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -33422,18 +33421,18 @@
     </row>
     <row r="56" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>213</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" ref="D56" si="40">B56&amp;C56</f>
-        <v>PWROKE</v>
+        <f t="shared" si="1"/>
+        <v>TRAOKE</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" ref="E56" si="41">INDEX(SectorNamesLong,MATCH(B56,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C56,FuelNamesShort,0))</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -33443,12 +33442,12 @@
       <c r="I56"/>
       <c r="J56"/>
       <c r="K56" t="str">
-        <f t="shared" ref="K56" si="42">"X"&amp;D56</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" ref="L56" si="43">E56</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="M56" t="s">
         <v>240</v>
@@ -33465,16 +33464,16 @@
       <c r="Q56"/>
       <c r="R56"/>
       <c r="S56" t="str">
-        <f t="shared" ref="S56" si="44">K56</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" ref="T56" si="45">C56</f>
+        <f t="shared" si="5"/>
         <v>OKE</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" ref="U56" si="46">D56</f>
-        <v>PWROKE</v>
+        <f t="shared" si="5"/>
+        <v>TRAOKE</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -33493,18 +33492,18 @@
     </row>
     <row r="57" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="D57" si="47">B57&amp;C57</f>
+        <v>PWROKE</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="E57" si="48">INDEX(SectorNamesLong,MATCH(B57,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C57,FuelNamesShort,0))</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="F57" t="s">
         <v>240</v>
@@ -33514,12 +33513,12 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="K57" si="49">"X"&amp;D57</f>
+        <v>XPWROKE</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="L57" si="50">E57</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="M57" t="s">
         <v>240</v>
@@ -33536,16 +33535,16 @@
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="S57" si="51">K57</f>
+        <v>XPWROKE</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="5"/>
-        <v>OLP</v>
+        <f t="shared" ref="T57" si="52">C57</f>
+        <v>OKE</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="U57" si="53">D57</f>
+        <v>PWROKE</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -33564,18 +33563,18 @@
     </row>
     <row r="58" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>215</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="F58" t="s">
         <v>240</v>
@@ -33586,11 +33585,11 @@
       <c r="J58"/>
       <c r="K58" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="L58" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="M58" t="s">
         <v>240</v>
@@ -33608,7 +33607,7 @@
       <c r="R58"/>
       <c r="S58" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="T58" t="str">
         <f t="shared" si="5"/>
@@ -33616,7 +33615,7 @@
       </c>
       <c r="U58" t="str">
         <f t="shared" si="5"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="V58">
         <v>1</v>
@@ -33635,18 +33634,18 @@
     </row>
     <row r="59" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>215</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="F59" t="s">
         <v>240</v>
@@ -33657,11 +33656,11 @@
       <c r="J59"/>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="M59" t="s">
         <v>240</v>
@@ -33679,7 +33678,7 @@
       <c r="R59"/>
       <c r="S59" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="5"/>
@@ -33687,7 +33686,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" si="5"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -33706,18 +33705,18 @@
     </row>
     <row r="60" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>215</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="F60" t="s">
         <v>240</v>
@@ -33728,11 +33727,11 @@
       <c r="J60"/>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="M60" t="s">
         <v>240</v>
@@ -33750,7 +33749,7 @@
       <c r="R60"/>
       <c r="S60" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="5"/>
@@ -33758,7 +33757,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" si="5"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -33777,18 +33776,18 @@
     </row>
     <row r="61" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="F61" t="s">
         <v>240</v>
@@ -33799,11 +33798,11 @@
       <c r="J61"/>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="M61" t="s">
         <v>240</v>
@@ -33821,15 +33820,15 @@
       <c r="R61"/>
       <c r="S61" t="str">
         <f t="shared" si="4"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="5"/>
-        <v>WAS</v>
+        <v>OLP</v>
       </c>
       <c r="U61" t="str">
         <f t="shared" si="5"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -33844,21 +33843,22 @@
       <c r="Z61">
         <v>1</v>
       </c>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" ref="D62:D67" si="47">B62&amp;C62</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="1"/>
+        <v>INDWAS</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" ref="E62:E67" si="48">INDEX(SectorNamesLong,MATCH(B62,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C62,FuelNamesShort,0))</f>
-        <v>Power Solar</v>
+        <f t="shared" si="0"/>
+        <v>Industry Waste</v>
       </c>
       <c r="F62" t="s">
         <v>240</v>
@@ -33868,12 +33868,12 @@
       <c r="I62"/>
       <c r="J62"/>
       <c r="K62" t="str">
-        <f t="shared" ref="K62:K67" si="49">"X"&amp;D62</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="2"/>
+        <v>XINDWAS</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" ref="L62:L67" si="50">E62</f>
-        <v>Power Solar</v>
+        <f t="shared" si="3"/>
+        <v>Industry Waste</v>
       </c>
       <c r="M62" t="s">
         <v>240</v>
@@ -33890,16 +33890,16 @@
       <c r="Q62"/>
       <c r="R62"/>
       <c r="S62" t="str">
-        <f t="shared" ref="S62:S67" si="51">K62</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="4"/>
+        <v>XINDWAS</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" ref="T62:T67" si="52">C62</f>
-        <v>SOL</v>
+        <f t="shared" si="5"/>
+        <v>WAS</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" ref="U62:U67" si="53">D62</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="5"/>
+        <v>INDWAS</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -33920,15 +33920,15 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="47"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="D63:D68" si="54">B63&amp;C63</f>
+        <v>PWRSOL</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="48"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="E63:E68" si="55">INDEX(SectorNamesLong,MATCH(B63,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C63,FuelNamesShort,0))</f>
+        <v>Power Solar</v>
       </c>
       <c r="F63" t="s">
         <v>240</v>
@@ -33938,12 +33938,12 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" t="str">
-        <f t="shared" si="49"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="K63:K68" si="56">"X"&amp;D63</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="50"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="L63:L68" si="57">E63</f>
+        <v>Power Solar</v>
       </c>
       <c r="M63" t="s">
         <v>240</v>
@@ -33960,16 +33960,16 @@
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63" t="str">
-        <f t="shared" si="51"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="S63:S68" si="58">K63</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="52"/>
-        <v>WND</v>
+        <f t="shared" ref="T63:T68" si="59">C63</f>
+        <v>SOL</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="53"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="U63:U68" si="60">D63</f>
+        <v>PWRSOL</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -33990,15 +33990,15 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="47"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="54"/>
+        <v>PWRWND</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="48"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="55"/>
+        <v>Power Wind</v>
       </c>
       <c r="F64" t="s">
         <v>240</v>
@@ -34008,12 +34008,12 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" t="str">
-        <f t="shared" si="49"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="56"/>
+        <v>XPWRWND</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="50"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="57"/>
+        <v>Power Wind</v>
       </c>
       <c r="M64" t="s">
         <v>240</v>
@@ -34030,16 +34030,16 @@
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64" t="str">
-        <f t="shared" si="51"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="58"/>
+        <v>XPWRWND</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="52"/>
-        <v>HYD</v>
+        <f t="shared" si="59"/>
+        <v>WND</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="53"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="60"/>
+        <v>PWRWND</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -34060,15 +34060,15 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="47"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="54"/>
+        <v>PWRHYD</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="48"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="55"/>
+        <v>Power Hydro</v>
       </c>
       <c r="F65" t="s">
         <v>240</v>
@@ -34078,12 +34078,12 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" t="str">
-        <f t="shared" si="49"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="56"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="50"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="57"/>
+        <v>Power Hydro</v>
       </c>
       <c r="M65" t="s">
         <v>240</v>
@@ -34100,16 +34100,16 @@
       <c r="Q65"/>
       <c r="R65"/>
       <c r="S65" t="str">
-        <f t="shared" si="51"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="58"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="52"/>
-        <v>BIO</v>
+        <f t="shared" si="59"/>
+        <v>HYD</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="53"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="60"/>
+        <v>PWRHYD</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -34130,15 +34130,15 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="47"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="54"/>
+        <v>PWRBIO</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="48"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="55"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="F66" t="s">
         <v>240</v>
@@ -34148,12 +34148,12 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" t="str">
-        <f t="shared" si="49"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="56"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="50"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="57"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="M66" t="s">
         <v>240</v>
@@ -34170,16 +34170,16 @@
       <c r="Q66"/>
       <c r="R66"/>
       <c r="S66" t="str">
-        <f t="shared" si="51"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="58"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="52"/>
-        <v>NUC</v>
+        <f t="shared" si="59"/>
+        <v>BIO</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="53"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="60"/>
+        <v>PWRBIO</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -34200,15 +34200,15 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="47"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="54"/>
+        <v>PWRNUC</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="48"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="55"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="F67" t="s">
         <v>240</v>
@@ -34218,12 +34218,12 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" t="str">
-        <f t="shared" si="49"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="56"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="50"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="57"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="M67" t="s">
         <v>240</v>
@@ -34240,16 +34240,16 @@
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67" t="str">
-        <f t="shared" si="51"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="58"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="52"/>
-        <v>CLE</v>
+        <f t="shared" si="59"/>
+        <v>NUC</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="53"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="60"/>
+        <v>PWRNUC</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -34265,8 +34265,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B76"/>
+    <row r="68" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="54"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="55"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="F68" t="s">
+        <v>240</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68" t="str">
+        <f t="shared" si="56"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="57"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="M68" t="s">
+        <v>240</v>
+      </c>
+      <c r="N68" t="s">
+        <v>429</v>
+      </c>
+      <c r="O68" t="s">
+        <v>358</v>
+      </c>
+      <c r="P68" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68" t="str">
+        <f t="shared" si="58"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="T68" t="str">
+        <f t="shared" si="59"/>
+        <v>CLE</v>
+      </c>
+      <c r="U68" t="str">
+        <f t="shared" si="60"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <v>60</v>
+      </c>
+      <c r="X68"/>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B77"/>
@@ -34385,8 +34452,11 @@
     <row r="115" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B115"/>
     </row>
+    <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B116"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B8:AA61" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
+  <autoFilter ref="B8:AA62" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -49585,18 +49655,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="427" t="s">
+      <c r="DL94" s="431" t="s">
         <v>763</v>
       </c>
-      <c r="DM94" s="427"/>
-      <c r="DN94" s="427" t="s">
+      <c r="DM94" s="431"/>
+      <c r="DN94" s="431" t="s">
         <v>764</v>
       </c>
-      <c r="DO94" s="427"/>
-      <c r="DP94" s="427" t="s">
+      <c r="DO94" s="431"/>
+      <c r="DP94" s="431" t="s">
         <v>762</v>
       </c>
-      <c r="DQ94" s="427"/>
+      <c r="DQ94" s="431"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55057,7 +55127,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45190.948739120373</v>
+        <v>45191.727992129629</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -55881,7 +55951,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45190.948739120373</v>
+        <v>45191.727992129629</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -59993,7 +60063,7 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7A8892-25C0-43FF-9330-B580154EED47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70934AC-C075-4486-B0C4-CEC4D43B0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="-14625" windowWidth="26610" windowHeight="13740" firstSheet="8" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NameConv!#REF!</definedName>
     <definedName name="AGR">[1]Index!$C$7</definedName>
     <definedName name="COM">[1]Index!$C$8</definedName>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2635" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="1105">
   <si>
     <t>Agriculture</t>
   </si>
@@ -29858,10 +29858,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AE116"/>
+  <dimension ref="A1:AE117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30116,7 +30116,7 @@
         <v>INDBIB</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9:E62" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
+        <f t="shared" ref="E9:E63" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
         <v>Industry Biomass bagasse</v>
       </c>
       <c r="F9" t="s">
@@ -30183,7 +30183,7 @@
         <v>149</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D62" si="1">B10&amp;C10</f>
+        <f t="shared" ref="D10:D63" si="1">B10&amp;C10</f>
         <v>UPSBID</v>
       </c>
       <c r="E10" t="str">
@@ -30198,11 +30198,11 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K62" si="2">"X"&amp;D10</f>
+        <f t="shared" ref="K10:K63" si="2">"X"&amp;D10</f>
         <v>XUPSBID</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L62" si="3">E10</f>
+        <f t="shared" ref="L10:L63" si="3">E10</f>
         <v>Upstream Biodiesel</v>
       </c>
       <c r="M10" t="s">
@@ -30220,11 +30220,11 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="str">
-        <f t="shared" ref="S10:S62" si="4">K10</f>
+        <f t="shared" ref="S10:S63" si="4">K10</f>
         <v>XUPSBID</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" ref="T10:U62" si="5">C10</f>
+        <f t="shared" ref="T10:U63" si="5">C10</f>
         <v>BID</v>
       </c>
       <c r="U10" t="str">
@@ -31447,18 +31447,18 @@
     </row>
     <row r="28" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28" si="12">B28&amp;C28</f>
-        <v>UPSGIC</v>
+        <f t="shared" si="1"/>
+        <v>PWRGAS</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28" si="13">INDEX(SectorNamesLong,MATCH(B28,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C28,FuelNamesShort,0))</f>
-        <v>Upstream Coastal Gas</v>
+        <f t="shared" si="0"/>
+        <v>Power Gas South Africa</v>
       </c>
       <c r="F28" t="s">
         <v>240</v>
@@ -31468,12 +31468,12 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28" t="str">
-        <f t="shared" ref="K28" si="14">"X"&amp;D28</f>
-        <v>XUPSGIC</v>
+        <f t="shared" si="2"/>
+        <v>XPWRGAS</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" ref="L28" si="15">E28</f>
-        <v>Upstream Coastal Gas</v>
+        <f t="shared" si="3"/>
+        <v>Power Gas South Africa</v>
       </c>
       <c r="M28" t="s">
         <v>240</v>
@@ -31490,16 +31490,16 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28" t="str">
-        <f t="shared" ref="S28" si="16">K28</f>
-        <v>XUPSGIC</v>
+        <f t="shared" si="4"/>
+        <v>XPWRGAS</v>
       </c>
       <c r="T28" t="str">
-        <f t="shared" ref="T28" si="17">C28</f>
-        <v>GIC</v>
+        <f t="shared" si="5"/>
+        <v>GAS</v>
       </c>
       <c r="U28" t="str">
-        <f t="shared" ref="U28" si="18">D28</f>
-        <v>UPSGIC</v>
+        <f t="shared" si="5"/>
+        <v>PWRGAS</v>
       </c>
       <c r="V28">
         <f>FugitiveEmissions!$O$12</f>
@@ -31519,18 +31519,18 @@
     </row>
     <row r="29" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
         <v>187</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ref="D29" si="19">B29&amp;C29</f>
-        <v>PWRGIC</v>
+        <f t="shared" ref="D29" si="12">B29&amp;C29</f>
+        <v>UPSGIC</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29" si="20">INDEX(SectorNamesLong,MATCH(B29,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C29,FuelNamesShort,0))</f>
-        <v>Power Coastal Gas</v>
+        <f t="shared" ref="E29" si="13">INDEX(SectorNamesLong,MATCH(B29,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C29,FuelNamesShort,0))</f>
+        <v>Upstream Coastal Gas</v>
       </c>
       <c r="F29" t="s">
         <v>240</v>
@@ -31540,12 +31540,12 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29" t="str">
-        <f t="shared" ref="K29" si="21">"X"&amp;D29</f>
-        <v>XPWRGIC</v>
+        <f t="shared" ref="K29" si="14">"X"&amp;D29</f>
+        <v>XUPSGIC</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ref="L29" si="22">E29</f>
-        <v>Power Coastal Gas</v>
+        <f t="shared" ref="L29" si="15">E29</f>
+        <v>Upstream Coastal Gas</v>
       </c>
       <c r="M29" t="s">
         <v>240</v>
@@ -31562,16 +31562,16 @@
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29" t="str">
-        <f t="shared" ref="S29" si="23">K29</f>
-        <v>XPWRGIC</v>
+        <f t="shared" ref="S29" si="16">K29</f>
+        <v>XUPSGIC</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" ref="T29" si="24">C29</f>
+        <f t="shared" ref="T29" si="17">C29</f>
         <v>GIC</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" ref="U29" si="25">D29</f>
-        <v>PWRGIC</v>
+        <f t="shared" ref="U29" si="18">D29</f>
+        <v>UPSGIC</v>
       </c>
       <c r="V29">
         <f>FugitiveEmissions!$O$12</f>
@@ -31591,18 +31591,18 @@
     </row>
     <row r="30" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>1102</v>
+        <v>187</v>
       </c>
       <c r="D30" t="str">
-        <f>B30&amp;C30</f>
-        <v>INDGMU</v>
+        <f t="shared" ref="D30" si="19">B30&amp;C30</f>
+        <v>PWRGIC</v>
       </c>
       <c r="E30" t="str">
-        <f>INDEX(SectorNamesLong,MATCH(B30,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C30,FuelNamesShort,0))</f>
-        <v>Industry Gas Material Use</v>
+        <f t="shared" ref="E30" si="20">INDEX(SectorNamesLong,MATCH(B30,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C30,FuelNamesShort,0))</f>
+        <v>Power Coastal Gas</v>
       </c>
       <c r="F30" t="s">
         <v>240</v>
@@ -31612,12 +31612,12 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30" t="str">
-        <f>"X"&amp;D30</f>
-        <v>XINDGMU</v>
+        <f t="shared" ref="K30" si="21">"X"&amp;D30</f>
+        <v>XPWRGIC</v>
       </c>
       <c r="L30" t="str">
-        <f>E30</f>
-        <v>Industry Gas Material Use</v>
+        <f t="shared" ref="L30" si="22">E30</f>
+        <v>Power Coastal Gas</v>
       </c>
       <c r="M30" t="s">
         <v>240</v>
@@ -31634,15 +31634,16 @@
       <c r="Q30"/>
       <c r="R30"/>
       <c r="S30" t="str">
-        <f>K30</f>
-        <v>XINDGMU</v>
-      </c>
-      <c r="T30" s="237" t="s">
-        <v>171</v>
+        <f t="shared" ref="S30" si="23">K30</f>
+        <v>XPWRGIC</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" ref="T30" si="24">C30</f>
+        <v>GIC</v>
       </c>
       <c r="U30" t="str">
-        <f>D30</f>
-        <v>INDGMU</v>
+        <f t="shared" ref="U30" si="25">D30</f>
+        <v>PWRGIC</v>
       </c>
       <c r="V30">
         <f>FugitiveEmissions!$O$12</f>
@@ -31662,18 +31663,18 @@
     </row>
     <row r="31" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>1102</v>
       </c>
       <c r="D31" t="str">
         <f>B31&amp;C31</f>
-        <v>UPSGMU</v>
+        <v>INDGMU</v>
       </c>
       <c r="E31" t="str">
         <f>INDEX(SectorNamesLong,MATCH(B31,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C31,FuelNamesShort,0))</f>
-        <v>Upstream Gas Material Use</v>
+        <v>Industry Gas Material Use</v>
       </c>
       <c r="F31" t="s">
         <v>240</v>
@@ -31684,11 +31685,11 @@
       <c r="J31"/>
       <c r="K31" t="str">
         <f>"X"&amp;D31</f>
-        <v>XUPSGMU</v>
+        <v>XINDGMU</v>
       </c>
       <c r="L31" t="str">
         <f>E31</f>
-        <v>Upstream Gas Material Use</v>
+        <v>Industry Gas Material Use</v>
       </c>
       <c r="M31" t="s">
         <v>240</v>
@@ -31706,14 +31707,14 @@
       <c r="R31"/>
       <c r="S31" t="str">
         <f>K31</f>
-        <v>XUPSGMU</v>
+        <v>XINDGMU</v>
       </c>
       <c r="T31" s="237" t="s">
         <v>171</v>
       </c>
       <c r="U31" t="str">
         <f>D31</f>
-        <v>UPSGMU</v>
+        <v>INDGMU</v>
       </c>
       <c r="V31">
         <f>FugitiveEmissions!$O$12</f>
@@ -31736,15 +31737,15 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>1102</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="1"/>
-        <v>UPSHEE</v>
+        <f>B32&amp;C32</f>
+        <v>UPSGMU</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>Upstream Heat-Steam Existing</v>
+        <f>INDEX(SectorNamesLong,MATCH(B32,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C32,FuelNamesShort,0))</f>
+        <v>Upstream Gas Material Use</v>
       </c>
       <c r="F32" t="s">
         <v>240</v>
@@ -31754,12 +31755,12 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v>XUPSHEE</v>
+        <f>"X"&amp;D32</f>
+        <v>XUPSGMU</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="3"/>
-        <v>Upstream Heat-Steam Existing</v>
+        <f>E32</f>
+        <v>Upstream Gas Material Use</v>
       </c>
       <c r="M32" t="s">
         <v>240</v>
@@ -31776,45 +31777,46 @@
       <c r="Q32"/>
       <c r="R32"/>
       <c r="S32" t="str">
-        <f t="shared" si="4"/>
-        <v>XUPSHEE</v>
-      </c>
-      <c r="T32" t="str">
-        <f t="shared" si="5"/>
-        <v>HEE</v>
+        <f>K32</f>
+        <v>XUPSGMU</v>
+      </c>
+      <c r="T32" s="237" t="s">
+        <v>171</v>
       </c>
       <c r="U32" t="str">
-        <f t="shared" si="5"/>
-        <v>UPSHEE</v>
+        <f>D32</f>
+        <v>UPSGMU</v>
       </c>
       <c r="V32">
+        <f>FugitiveEmissions!$O$12</f>
         <v>1</v>
       </c>
       <c r="W32">
         <v>60</v>
       </c>
       <c r="X32"/>
-      <c r="Y32">
-        <v>1</v>
+      <c r="Y32" s="82">
+        <f>FuelDistribution!$F$96</f>
+        <v>403.99806122448985</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
-        <v>UPSHEN</v>
+        <v>UPSHEE</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>Upstream Heat-Steam New</v>
+        <v>Upstream Heat-Steam Existing</v>
       </c>
       <c r="F33" t="s">
         <v>240</v>
@@ -31825,11 +31827,11 @@
       <c r="J33"/>
       <c r="K33" t="str">
         <f t="shared" si="2"/>
-        <v>XUPSHEN</v>
+        <v>XUPSHEE</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="3"/>
-        <v>Upstream Heat-Steam New</v>
+        <v>Upstream Heat-Steam Existing</v>
       </c>
       <c r="M33" t="s">
         <v>240</v>
@@ -31847,15 +31849,15 @@
       <c r="R33"/>
       <c r="S33" t="str">
         <f t="shared" si="4"/>
-        <v>XUPSHEN</v>
+        <v>XUPSHEE</v>
       </c>
       <c r="T33" t="str">
         <f t="shared" si="5"/>
-        <v>HEN</v>
+        <v>HEE</v>
       </c>
       <c r="U33" t="str">
         <f t="shared" si="5"/>
-        <v>UPSHEN</v>
+        <v>UPSHEE</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -31871,20 +31873,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ref="D34" si="26">B34&amp;C34</f>
-        <v>INDHGN</v>
+        <f t="shared" si="1"/>
+        <v>UPSHEN</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34" si="27">INDEX(SectorNamesLong,MATCH(B34,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C34,FuelNamesShort,0))</f>
-        <v>Industry Hydrogen</v>
+        <f t="shared" si="0"/>
+        <v>Upstream Heat-Steam New</v>
       </c>
       <c r="F34" t="s">
         <v>240</v>
@@ -31894,12 +31896,12 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34" t="str">
-        <f t="shared" ref="K34" si="28">"X"&amp;D34</f>
-        <v>XINDHGN</v>
+        <f t="shared" si="2"/>
+        <v>XUPSHEN</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ref="L34" si="29">E34</f>
-        <v>Industry Hydrogen</v>
+        <f t="shared" si="3"/>
+        <v>Upstream Heat-Steam New</v>
       </c>
       <c r="M34" t="s">
         <v>240</v>
@@ -31908,7 +31910,7 @@
         <v>429</v>
       </c>
       <c r="O34" t="s">
-        <v>609</v>
+        <v>358</v>
       </c>
       <c r="P34" t="s">
         <v>608</v>
@@ -31916,16 +31918,16 @@
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34" t="str">
-        <f t="shared" ref="S34" si="30">K34</f>
-        <v>XINDHGN</v>
+        <f t="shared" si="4"/>
+        <v>XUPSHEN</v>
       </c>
       <c r="T34" t="str">
-        <f t="shared" ref="T34" si="31">C34</f>
-        <v>HGN</v>
+        <f t="shared" si="5"/>
+        <v>HEN</v>
       </c>
       <c r="U34" t="str">
-        <f t="shared" ref="U34" si="32">D34</f>
-        <v>INDHGN</v>
+        <f t="shared" si="5"/>
+        <v>UPSHEN</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -31941,20 +31943,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>199</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="1"/>
-        <v>UPSHGN</v>
+        <f t="shared" ref="D35" si="26">B35&amp;C35</f>
+        <v>INDHGN</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>Upstream Hydrogen</v>
+        <f t="shared" ref="E35" si="27">INDEX(SectorNamesLong,MATCH(B35,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C35,FuelNamesShort,0))</f>
+        <v>Industry Hydrogen</v>
       </c>
       <c r="F35" t="s">
         <v>240</v>
@@ -31964,12 +31966,12 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v>XUPSHGN</v>
+        <f t="shared" ref="K35" si="28">"X"&amp;D35</f>
+        <v>XINDHGN</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="3"/>
-        <v>Upstream Hydrogen</v>
+        <f t="shared" ref="L35" si="29">E35</f>
+        <v>Industry Hydrogen</v>
       </c>
       <c r="M35" t="s">
         <v>240</v>
@@ -31986,16 +31988,16 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35" t="str">
-        <f t="shared" si="4"/>
-        <v>XUPSHGN</v>
+        <f t="shared" ref="S35" si="30">K35</f>
+        <v>XINDHGN</v>
       </c>
       <c r="T35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="T35" si="31">C35</f>
         <v>HGN</v>
       </c>
       <c r="U35" t="str">
-        <f t="shared" si="5"/>
-        <v>UPSHGN</v>
+        <f t="shared" ref="U35" si="32">D35</f>
+        <v>INDHGN</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -32011,20 +32013,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>199</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
-        <v>TRAHGN</v>
+        <v>UPSHGN</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Hydrogen</v>
+        <v>Upstream Hydrogen</v>
       </c>
       <c r="F36" t="s">
         <v>240</v>
@@ -32035,11 +32037,11 @@
       <c r="J36"/>
       <c r="K36" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAHGN</v>
+        <v>XUPSHGN</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Hydrogen</v>
+        <v>Upstream Hydrogen</v>
       </c>
       <c r="M36" t="s">
         <v>240</v>
@@ -32057,7 +32059,7 @@
       <c r="R36"/>
       <c r="S36" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAHGN</v>
+        <v>XUPSHGN</v>
       </c>
       <c r="T36" t="str">
         <f t="shared" si="5"/>
@@ -32065,7 +32067,7 @@
       </c>
       <c r="U36" t="str">
         <f t="shared" si="5"/>
-        <v>TRAHGN</v>
+        <v>UPSHGN</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -32081,20 +32083,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOAG</v>
+        <v>TRAHGN</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Av Gasoline</v>
+        <v>Transport Hydrogen</v>
       </c>
       <c r="F37" t="s">
         <v>240</v>
@@ -32105,11 +32107,11 @@
       <c r="J37"/>
       <c r="K37" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOAG</v>
+        <v>XTRAHGN</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Av Gasoline</v>
+        <v>Transport Hydrogen</v>
       </c>
       <c r="M37" t="s">
         <v>240</v>
@@ -32118,7 +32120,7 @@
         <v>429</v>
       </c>
       <c r="O37" t="s">
-        <v>358</v>
+        <v>609</v>
       </c>
       <c r="P37" t="s">
         <v>608</v>
@@ -32127,15 +32129,15 @@
       <c r="R37"/>
       <c r="S37" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOAG</v>
+        <v>XTRAHGN</v>
       </c>
       <c r="T37" t="str">
         <f t="shared" si="5"/>
-        <v>OAG</v>
+        <v>HGN</v>
       </c>
       <c r="U37" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOAG</v>
+        <v>TRAHGN</v>
       </c>
       <c r="V37">
         <v>1</v>
@@ -32151,20 +32153,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
-        <v>UPSOCR</v>
+        <v>TRAOAG</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>Upstream Oil Crude</v>
+        <v>Transport Oil Av Gasoline</v>
       </c>
       <c r="F38" t="s">
         <v>240</v>
@@ -32175,11 +32177,11 @@
       <c r="J38"/>
       <c r="K38" t="str">
         <f t="shared" si="2"/>
-        <v>XUPSOCR</v>
+        <v>XTRAOAG</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="3"/>
-        <v>Upstream Oil Crude</v>
+        <v>Transport Oil Av Gasoline</v>
       </c>
       <c r="M38" t="s">
         <v>240</v>
@@ -32197,15 +32199,15 @@
       <c r="R38"/>
       <c r="S38" t="str">
         <f t="shared" si="4"/>
-        <v>XUPSOCR</v>
+        <v>XTRAOAG</v>
       </c>
       <c r="T38" t="str">
         <f t="shared" si="5"/>
-        <v>OCR</v>
+        <v>OAG</v>
       </c>
       <c r="U38" t="str">
         <f t="shared" si="5"/>
-        <v>UPSOCR</v>
+        <v>TRAOAG</v>
       </c>
       <c r="V38">
         <v>1</v>
@@ -32221,20 +32223,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
-        <v>AGRODS</v>
+        <v>UPSOCR</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>Agriculture Oil Diesel</v>
+        <v>Upstream Oil Crude</v>
       </c>
       <c r="F39" t="s">
         <v>240</v>
@@ -32245,11 +32247,11 @@
       <c r="J39"/>
       <c r="K39" t="str">
         <f t="shared" si="2"/>
-        <v>XAGRODS</v>
+        <v>XUPSOCR</v>
       </c>
       <c r="L39" t="str">
         <f t="shared" si="3"/>
-        <v>Agriculture Oil Diesel</v>
+        <v>Upstream Oil Crude</v>
       </c>
       <c r="M39" t="s">
         <v>240</v>
@@ -32267,15 +32269,15 @@
       <c r="R39"/>
       <c r="S39" t="str">
         <f t="shared" si="4"/>
-        <v>XAGRODS</v>
+        <v>XUPSOCR</v>
       </c>
       <c r="T39" t="str">
         <f t="shared" si="5"/>
-        <v>ODS</v>
+        <v>OCR</v>
       </c>
       <c r="U39" t="str">
         <f t="shared" si="5"/>
-        <v>AGRODS</v>
+        <v>UPSOCR</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -32291,20 +32293,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>207</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
-        <v>COMODS</v>
+        <v>AGRODS</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Diesel</v>
+        <v>Agriculture Oil Diesel</v>
       </c>
       <c r="F40" t="s">
         <v>240</v>
@@ -32315,11 +32317,11 @@
       <c r="J40"/>
       <c r="K40" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMODS</v>
+        <v>XAGRODS</v>
       </c>
       <c r="L40" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Diesel</v>
+        <v>Agriculture Oil Diesel</v>
       </c>
       <c r="M40" t="s">
         <v>240</v>
@@ -32337,7 +32339,7 @@
       <c r="R40"/>
       <c r="S40" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMODS</v>
+        <v>XAGRODS</v>
       </c>
       <c r="T40" t="str">
         <f t="shared" si="5"/>
@@ -32345,7 +32347,7 @@
       </c>
       <c r="U40" t="str">
         <f t="shared" si="5"/>
-        <v>COMODS</v>
+        <v>AGRODS</v>
       </c>
       <c r="V40">
         <v>1</v>
@@ -32361,20 +32363,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>207</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
-        <v>INDODS</v>
+        <v>COMODS</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil Diesel</v>
+        <v>Commerce Oil Diesel</v>
       </c>
       <c r="F41" t="s">
         <v>240</v>
@@ -32385,11 +32387,11 @@
       <c r="J41"/>
       <c r="K41" t="str">
         <f t="shared" si="2"/>
-        <v>XINDODS</v>
+        <v>XCOMODS</v>
       </c>
       <c r="L41" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil Diesel</v>
+        <v>Commerce Oil Diesel</v>
       </c>
       <c r="M41" t="s">
         <v>240</v>
@@ -32407,7 +32409,7 @@
       <c r="R41"/>
       <c r="S41" t="str">
         <f t="shared" si="4"/>
-        <v>XINDODS</v>
+        <v>XCOMODS</v>
       </c>
       <c r="T41" t="str">
         <f t="shared" si="5"/>
@@ -32415,7 +32417,7 @@
       </c>
       <c r="U41" t="str">
         <f t="shared" si="5"/>
-        <v>INDODS</v>
+        <v>COMODS</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -32431,20 +32433,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>207</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
-        <v>TRAODS</v>
+        <v>INDODS</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Diesel</v>
+        <v>Industry Oil Diesel</v>
       </c>
       <c r="F42" t="s">
         <v>240</v>
@@ -32455,11 +32457,11 @@
       <c r="J42"/>
       <c r="K42" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAODS</v>
+        <v>XINDODS</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Diesel</v>
+        <v>Industry Oil Diesel</v>
       </c>
       <c r="M42" t="s">
         <v>240</v>
@@ -32477,7 +32479,7 @@
       <c r="R42"/>
       <c r="S42" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAODS</v>
+        <v>XINDODS</v>
       </c>
       <c r="T42" t="str">
         <f t="shared" si="5"/>
@@ -32485,7 +32487,7 @@
       </c>
       <c r="U42" t="str">
         <f t="shared" si="5"/>
-        <v>TRAODS</v>
+        <v>INDODS</v>
       </c>
       <c r="V42">
         <v>1</v>
@@ -32501,20 +32503,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>207</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" ref="D43" si="33">B43&amp;C43</f>
-        <v>PWRODS</v>
+        <f t="shared" si="1"/>
+        <v>TRAODS</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ref="E43" si="34">INDEX(SectorNamesLong,MATCH(B43,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C43,FuelNamesShort,0))</f>
-        <v>Power Oil Diesel</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil Diesel</v>
       </c>
       <c r="F43" t="s">
         <v>240</v>
@@ -32524,12 +32526,12 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43" t="str">
-        <f t="shared" ref="K43" si="35">"X"&amp;D43</f>
-        <v>XPWRODS</v>
+        <f t="shared" si="2"/>
+        <v>XTRAODS</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ref="L43" si="36">E43</f>
-        <v>Power Oil Diesel</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil Diesel</v>
       </c>
       <c r="M43" t="s">
         <v>240</v>
@@ -32546,16 +32548,16 @@
       <c r="Q43"/>
       <c r="R43"/>
       <c r="S43" t="str">
-        <f t="shared" ref="S43" si="37">K43</f>
-        <v>XPWRODS</v>
+        <f t="shared" si="4"/>
+        <v>XTRAODS</v>
       </c>
       <c r="T43" t="str">
-        <f t="shared" ref="T43" si="38">C43</f>
+        <f t="shared" si="5"/>
         <v>ODS</v>
       </c>
       <c r="U43" t="str">
-        <f t="shared" ref="U43" si="39">D43</f>
-        <v>PWRODS</v>
+        <f t="shared" si="5"/>
+        <v>TRAODS</v>
       </c>
       <c r="V43">
         <v>1</v>
@@ -32571,20 +32573,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROGS</v>
+        <f t="shared" ref="D44" si="33">B44&amp;C44</f>
+        <v>PWRODS</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil Gasoline</v>
+        <f t="shared" ref="E44" si="34">INDEX(SectorNamesLong,MATCH(B44,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C44,FuelNamesShort,0))</f>
+        <v>Power Oil Diesel</v>
       </c>
       <c r="F44" t="s">
         <v>240</v>
@@ -32594,12 +32596,12 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROGS</v>
+        <f t="shared" ref="K44" si="35">"X"&amp;D44</f>
+        <v>XPWRODS</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil Gasoline</v>
+        <f t="shared" ref="L44" si="36">E44</f>
+        <v>Power Oil Diesel</v>
       </c>
       <c r="M44" t="s">
         <v>240</v>
@@ -32616,16 +32618,16 @@
       <c r="Q44"/>
       <c r="R44"/>
       <c r="S44" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROGS</v>
+        <f t="shared" ref="S44" si="37">K44</f>
+        <v>XPWRODS</v>
       </c>
       <c r="T44" t="str">
-        <f t="shared" si="5"/>
-        <v>OGS</v>
+        <f t="shared" ref="T44" si="38">C44</f>
+        <v>ODS</v>
       </c>
       <c r="U44" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROGS</v>
+        <f t="shared" ref="U44" si="39">D44</f>
+        <v>PWRODS</v>
       </c>
       <c r="V44">
         <v>1</v>
@@ -32641,20 +32643,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>209</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
-        <v>COMOGS</v>
+        <v>AGROGS</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Gasoline</v>
+        <v>Agriculture Oil Gasoline</v>
       </c>
       <c r="F45" t="s">
         <v>240</v>
@@ -32665,11 +32667,11 @@
       <c r="J45"/>
       <c r="K45" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOGS</v>
+        <v>XAGROGS</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Gasoline</v>
+        <v>Agriculture Oil Gasoline</v>
       </c>
       <c r="M45" t="s">
         <v>240</v>
@@ -32687,7 +32689,7 @@
       <c r="R45"/>
       <c r="S45" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOGS</v>
+        <v>XAGROGS</v>
       </c>
       <c r="T45" t="str">
         <f t="shared" si="5"/>
@@ -32695,7 +32697,7 @@
       </c>
       <c r="U45" t="str">
         <f t="shared" si="5"/>
-        <v>COMOGS</v>
+        <v>AGROGS</v>
       </c>
       <c r="V45">
         <v>1</v>
@@ -32711,20 +32713,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>209</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
-        <v>INDOGS</v>
+        <v>COMOGS</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil Gasoline</v>
+        <v>Commerce Oil Gasoline</v>
       </c>
       <c r="F46" t="s">
         <v>240</v>
@@ -32735,11 +32737,11 @@
       <c r="J46"/>
       <c r="K46" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOGS</v>
+        <v>XCOMOGS</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil Gasoline</v>
+        <v>Commerce Oil Gasoline</v>
       </c>
       <c r="M46" t="s">
         <v>240</v>
@@ -32757,7 +32759,7 @@
       <c r="R46"/>
       <c r="S46" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOGS</v>
+        <v>XCOMOGS</v>
       </c>
       <c r="T46" t="str">
         <f t="shared" si="5"/>
@@ -32765,7 +32767,7 @@
       </c>
       <c r="U46" t="str">
         <f t="shared" si="5"/>
-        <v>INDOGS</v>
+        <v>COMOGS</v>
       </c>
       <c r="V46">
         <v>1</v>
@@ -32781,20 +32783,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>209</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOGS</v>
+        <v>INDOGS</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Gasoline</v>
+        <v>Industry Oil Gasoline</v>
       </c>
       <c r="F47" t="s">
         <v>240</v>
@@ -32805,11 +32807,11 @@
       <c r="J47"/>
       <c r="K47" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOGS</v>
+        <v>XINDOGS</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Gasoline</v>
+        <v>Industry Oil Gasoline</v>
       </c>
       <c r="M47" t="s">
         <v>240</v>
@@ -32827,7 +32829,7 @@
       <c r="R47"/>
       <c r="S47" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOGS</v>
+        <v>XINDOGS</v>
       </c>
       <c r="T47" t="str">
         <f t="shared" si="5"/>
@@ -32835,7 +32837,7 @@
       </c>
       <c r="U47" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOGS</v>
+        <v>INDOGS</v>
       </c>
       <c r="V47">
         <v>1</v>
@@ -32851,20 +32853,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
-        <v>AGROHF</v>
+        <v>TRAOGS</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>Agriculture Oil HFO</v>
+        <v>Transport Oil Gasoline</v>
       </c>
       <c r="F48" t="s">
         <v>240</v>
@@ -32875,11 +32877,11 @@
       <c r="J48"/>
       <c r="K48" t="str">
         <f t="shared" si="2"/>
-        <v>XAGROHF</v>
+        <v>XTRAOGS</v>
       </c>
       <c r="L48" t="str">
         <f t="shared" si="3"/>
-        <v>Agriculture Oil HFO</v>
+        <v>Transport Oil Gasoline</v>
       </c>
       <c r="M48" t="s">
         <v>240</v>
@@ -32897,15 +32899,15 @@
       <c r="R48"/>
       <c r="S48" t="str">
         <f t="shared" si="4"/>
-        <v>XAGROHF</v>
+        <v>XTRAOGS</v>
       </c>
       <c r="T48" t="str">
         <f t="shared" si="5"/>
-        <v>OHF</v>
+        <v>OGS</v>
       </c>
       <c r="U48" t="str">
         <f t="shared" si="5"/>
-        <v>AGROHF</v>
+        <v>TRAOGS</v>
       </c>
       <c r="V48">
         <v>1</v>
@@ -32920,22 +32922,21 @@
       <c r="Z48">
         <v>1</v>
       </c>
-      <c r="AE48"/>
     </row>
     <row r="49" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>211</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
-        <v>COMOHF</v>
+        <v>AGROHF</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil HFO</v>
+        <v>Agriculture Oil HFO</v>
       </c>
       <c r="F49" t="s">
         <v>240</v>
@@ -32946,11 +32947,11 @@
       <c r="J49"/>
       <c r="K49" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOHF</v>
+        <v>XAGROHF</v>
       </c>
       <c r="L49" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil HFO</v>
+        <v>Agriculture Oil HFO</v>
       </c>
       <c r="M49" t="s">
         <v>240</v>
@@ -32968,7 +32969,7 @@
       <c r="R49"/>
       <c r="S49" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOHF</v>
+        <v>XAGROHF</v>
       </c>
       <c r="T49" t="str">
         <f t="shared" si="5"/>
@@ -32976,7 +32977,7 @@
       </c>
       <c r="U49" t="str">
         <f t="shared" si="5"/>
-        <v>COMOHF</v>
+        <v>AGROHF</v>
       </c>
       <c r="V49">
         <v>1</v>
@@ -32995,18 +32996,18 @@
     </row>
     <row r="50" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>211</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
-        <v>INDOHF</v>
+        <v>COMOHF</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil HFO</v>
+        <v>Commerce Oil HFO</v>
       </c>
       <c r="F50" t="s">
         <v>240</v>
@@ -33017,11 +33018,11 @@
       <c r="J50"/>
       <c r="K50" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOHF</v>
+        <v>XCOMOHF</v>
       </c>
       <c r="L50" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil HFO</v>
+        <v>Commerce Oil HFO</v>
       </c>
       <c r="M50" t="s">
         <v>240</v>
@@ -33039,7 +33040,7 @@
       <c r="R50"/>
       <c r="S50" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOHF</v>
+        <v>XCOMOHF</v>
       </c>
       <c r="T50" t="str">
         <f t="shared" si="5"/>
@@ -33047,7 +33048,7 @@
       </c>
       <c r="U50" t="str">
         <f t="shared" si="5"/>
-        <v>INDOHF</v>
+        <v>COMOHF</v>
       </c>
       <c r="V50">
         <v>1</v>
@@ -33066,18 +33067,18 @@
     </row>
     <row r="51" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>211</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOHF</v>
+        <v>INDOHF</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil HFO</v>
+        <v>Industry Oil HFO</v>
       </c>
       <c r="F51" t="s">
         <v>240</v>
@@ -33088,11 +33089,11 @@
       <c r="J51"/>
       <c r="K51" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOHF</v>
+        <v>XINDOHF</v>
       </c>
       <c r="L51" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil HFO</v>
+        <v>Industry Oil HFO</v>
       </c>
       <c r="M51" t="s">
         <v>240</v>
@@ -33110,7 +33111,7 @@
       <c r="R51"/>
       <c r="S51" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOHF</v>
+        <v>XINDOHF</v>
       </c>
       <c r="T51" t="str">
         <f t="shared" si="5"/>
@@ -33118,7 +33119,7 @@
       </c>
       <c r="U51" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOHF</v>
+        <v>INDOHF</v>
       </c>
       <c r="V51">
         <v>1</v>
@@ -33137,18 +33138,18 @@
     </row>
     <row r="52" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>211</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52" si="40">B52&amp;C52</f>
-        <v>PWROHF</v>
+        <f t="shared" si="1"/>
+        <v>TRAOHF</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ref="E52" si="41">INDEX(SectorNamesLong,MATCH(B52,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C52,FuelNamesShort,0))</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="F52" t="s">
         <v>240</v>
@@ -33158,12 +33159,12 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" t="str">
-        <f t="shared" ref="K52" si="42">"X"&amp;D52</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" ref="L52" si="43">E52</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="M52" t="s">
         <v>240</v>
@@ -33180,16 +33181,16 @@
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="str">
-        <f t="shared" ref="S52" si="44">K52</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" ref="T52" si="45">C52</f>
+        <f t="shared" si="5"/>
         <v>OHF</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" ref="U52" si="46">D52</f>
-        <v>PWROHF</v>
+        <f t="shared" si="5"/>
+        <v>TRAOHF</v>
       </c>
       <c r="V52">
         <v>1</v>
@@ -33208,18 +33209,18 @@
     </row>
     <row r="53" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="D53" si="40">B53&amp;C53</f>
+        <v>PWROHF</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="E53" si="41">INDEX(SectorNamesLong,MATCH(B53,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C53,FuelNamesShort,0))</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="F53" t="s">
         <v>240</v>
@@ -33229,12 +33230,12 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="K53" si="42">"X"&amp;D53</f>
+        <v>XPWROHF</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="L53" si="43">E53</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="M53" t="s">
         <v>240</v>
@@ -33251,16 +33252,16 @@
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="S53" si="44">K53</f>
+        <v>XPWROHF</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="5"/>
-        <v>OKE</v>
+        <f t="shared" ref="T53" si="45">C53</f>
+        <v>OHF</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="U53" si="46">D53</f>
+        <v>PWROHF</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -33279,18 +33280,18 @@
     </row>
     <row r="54" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>213</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="F54" t="s">
         <v>240</v>
@@ -33301,11 +33302,11 @@
       <c r="J54"/>
       <c r="K54" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="L54" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="M54" t="s">
         <v>240</v>
@@ -33323,7 +33324,7 @@
       <c r="R54"/>
       <c r="S54" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="T54" t="str">
         <f t="shared" si="5"/>
@@ -33331,7 +33332,7 @@
       </c>
       <c r="U54" t="str">
         <f t="shared" si="5"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -33350,18 +33351,18 @@
     </row>
     <row r="55" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>213</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="F55" t="s">
         <v>240</v>
@@ -33372,11 +33373,11 @@
       <c r="J55"/>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="M55" t="s">
         <v>240</v>
@@ -33394,7 +33395,7 @@
       <c r="R55"/>
       <c r="S55" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="5"/>
@@ -33402,7 +33403,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" si="5"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -33421,18 +33422,18 @@
     </row>
     <row r="56" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>213</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="F56" t="s">
         <v>240</v>
@@ -33443,11 +33444,11 @@
       <c r="J56"/>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="M56" t="s">
         <v>240</v>
@@ -33465,7 +33466,7 @@
       <c r="R56"/>
       <c r="S56" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="5"/>
@@ -33473,7 +33474,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -33492,18 +33493,18 @@
     </row>
     <row r="57" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>213</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57" si="47">B57&amp;C57</f>
-        <v>PWROKE</v>
+        <f t="shared" si="1"/>
+        <v>TRAOKE</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" ref="E57" si="48">INDEX(SectorNamesLong,MATCH(B57,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C57,FuelNamesShort,0))</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="F57" t="s">
         <v>240</v>
@@ -33513,12 +33514,12 @@
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57" t="str">
-        <f t="shared" ref="K57" si="49">"X"&amp;D57</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" ref="L57" si="50">E57</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="M57" t="s">
         <v>240</v>
@@ -33535,16 +33536,16 @@
       <c r="Q57"/>
       <c r="R57"/>
       <c r="S57" t="str">
-        <f t="shared" ref="S57" si="51">K57</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" ref="T57" si="52">C57</f>
+        <f t="shared" si="5"/>
         <v>OKE</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" ref="U57" si="53">D57</f>
-        <v>PWROKE</v>
+        <f t="shared" si="5"/>
+        <v>TRAOKE</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -33563,18 +33564,18 @@
     </row>
     <row r="58" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="D58" si="47">B58&amp;C58</f>
+        <v>PWROKE</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="E58" si="48">INDEX(SectorNamesLong,MATCH(B58,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C58,FuelNamesShort,0))</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="F58" t="s">
         <v>240</v>
@@ -33584,12 +33585,12 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="K58" si="49">"X"&amp;D58</f>
+        <v>XPWROKE</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="L58" si="50">E58</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="M58" t="s">
         <v>240</v>
@@ -33606,16 +33607,16 @@
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="S58" si="51">K58</f>
+        <v>XPWROKE</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="5"/>
-        <v>OLP</v>
+        <f t="shared" ref="T58" si="52">C58</f>
+        <v>OKE</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="U58" si="53">D58</f>
+        <v>PWROKE</v>
       </c>
       <c r="V58">
         <v>1</v>
@@ -33634,18 +33635,18 @@
     </row>
     <row r="59" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>215</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="F59" t="s">
         <v>240</v>
@@ -33656,11 +33657,11 @@
       <c r="J59"/>
       <c r="K59" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="L59" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="M59" t="s">
         <v>240</v>
@@ -33678,7 +33679,7 @@
       <c r="R59"/>
       <c r="S59" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="T59" t="str">
         <f t="shared" si="5"/>
@@ -33686,7 +33687,7 @@
       </c>
       <c r="U59" t="str">
         <f t="shared" si="5"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -33705,18 +33706,18 @@
     </row>
     <row r="60" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>215</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="F60" t="s">
         <v>240</v>
@@ -33727,11 +33728,11 @@
       <c r="J60"/>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="M60" t="s">
         <v>240</v>
@@ -33749,7 +33750,7 @@
       <c r="R60"/>
       <c r="S60" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="5"/>
@@ -33757,7 +33758,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" si="5"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -33776,18 +33777,18 @@
     </row>
     <row r="61" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>215</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="F61" t="s">
         <v>240</v>
@@ -33798,11 +33799,11 @@
       <c r="J61"/>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="M61" t="s">
         <v>240</v>
@@ -33820,7 +33821,7 @@
       <c r="R61"/>
       <c r="S61" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="5"/>
@@ -33828,7 +33829,7 @@
       </c>
       <c r="U61" t="str">
         <f t="shared" si="5"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -33847,18 +33848,18 @@
     </row>
     <row r="62" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="F62" t="s">
         <v>240</v>
@@ -33869,11 +33870,11 @@
       <c r="J62"/>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="M62" t="s">
         <v>240</v>
@@ -33891,15 +33892,15 @@
       <c r="R62"/>
       <c r="S62" t="str">
         <f t="shared" si="4"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="5"/>
-        <v>WAS</v>
+        <v>OLP</v>
       </c>
       <c r="U62" t="str">
         <f t="shared" si="5"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -33914,21 +33915,22 @@
       <c r="Z62">
         <v>1</v>
       </c>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" ref="D63:D68" si="54">B63&amp;C63</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="1"/>
+        <v>INDWAS</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" ref="E63:E68" si="55">INDEX(SectorNamesLong,MATCH(B63,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C63,FuelNamesShort,0))</f>
-        <v>Power Solar</v>
+        <f t="shared" si="0"/>
+        <v>Industry Waste</v>
       </c>
       <c r="F63" t="s">
         <v>240</v>
@@ -33938,12 +33940,12 @@
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63" t="str">
-        <f t="shared" ref="K63:K68" si="56">"X"&amp;D63</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="2"/>
+        <v>XINDWAS</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" ref="L63:L68" si="57">E63</f>
-        <v>Power Solar</v>
+        <f t="shared" si="3"/>
+        <v>Industry Waste</v>
       </c>
       <c r="M63" t="s">
         <v>240</v>
@@ -33960,16 +33962,16 @@
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63" t="str">
-        <f t="shared" ref="S63:S68" si="58">K63</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="4"/>
+        <v>XINDWAS</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" ref="T63:T68" si="59">C63</f>
-        <v>SOL</v>
+        <f t="shared" si="5"/>
+        <v>WAS</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" ref="U63:U68" si="60">D63</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="5"/>
+        <v>INDWAS</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -33990,15 +33992,15 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="D64:D69" si="54">B64&amp;C64</f>
+        <v>PWRSOL</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="E64:E69" si="55">INDEX(SectorNamesLong,MATCH(B64,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C64,FuelNamesShort,0))</f>
+        <v>Power Solar</v>
       </c>
       <c r="F64" t="s">
         <v>240</v>
@@ -34008,12 +34010,12 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="K64:K69" si="56">"X"&amp;D64</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="L64:L69" si="57">E64</f>
+        <v>Power Solar</v>
       </c>
       <c r="M64" t="s">
         <v>240</v>
@@ -34030,16 +34032,16 @@
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="S64:S69" si="58">K64</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="59"/>
-        <v>WND</v>
+        <f t="shared" ref="T64:T69" si="59">C64</f>
+        <v>SOL</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="U64:U69" si="60">D64</f>
+        <v>PWRSOL</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -34060,15 +34062,15 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="54"/>
-        <v>PWRHYD</v>
+        <v>PWRWND</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="55"/>
-        <v>Power Hydro</v>
+        <v>Power Wind</v>
       </c>
       <c r="F65" t="s">
         <v>240</v>
@@ -34079,11 +34081,11 @@
       <c r="J65"/>
       <c r="K65" t="str">
         <f t="shared" si="56"/>
-        <v>XPWRHYD</v>
+        <v>XPWRWND</v>
       </c>
       <c r="L65" t="str">
         <f t="shared" si="57"/>
-        <v>Power Hydro</v>
+        <v>Power Wind</v>
       </c>
       <c r="M65" t="s">
         <v>240</v>
@@ -34101,15 +34103,15 @@
       <c r="R65"/>
       <c r="S65" t="str">
         <f t="shared" si="58"/>
-        <v>XPWRHYD</v>
+        <v>XPWRWND</v>
       </c>
       <c r="T65" t="str">
         <f t="shared" si="59"/>
-        <v>HYD</v>
+        <v>WND</v>
       </c>
       <c r="U65" t="str">
         <f t="shared" si="60"/>
-        <v>PWRHYD</v>
+        <v>PWRWND</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -34130,15 +34132,15 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="54"/>
-        <v>PWRBIO</v>
+        <v>PWRHYD</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="55"/>
-        <v>Power Biomass Other</v>
+        <v>Power Hydro</v>
       </c>
       <c r="F66" t="s">
         <v>240</v>
@@ -34149,11 +34151,11 @@
       <c r="J66"/>
       <c r="K66" t="str">
         <f t="shared" si="56"/>
-        <v>XPWRBIO</v>
+        <v>XPWRHYD</v>
       </c>
       <c r="L66" t="str">
         <f t="shared" si="57"/>
-        <v>Power Biomass Other</v>
+        <v>Power Hydro</v>
       </c>
       <c r="M66" t="s">
         <v>240</v>
@@ -34171,15 +34173,15 @@
       <c r="R66"/>
       <c r="S66" t="str">
         <f t="shared" si="58"/>
-        <v>XPWRBIO</v>
+        <v>XPWRHYD</v>
       </c>
       <c r="T66" t="str">
         <f t="shared" si="59"/>
-        <v>BIO</v>
+        <v>HYD</v>
       </c>
       <c r="U66" t="str">
         <f t="shared" si="60"/>
-        <v>PWRBIO</v>
+        <v>PWRHYD</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -34200,15 +34202,15 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="54"/>
-        <v>PWRNUC</v>
+        <v>PWRBIO</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="55"/>
-        <v>Power Nuclear</v>
+        <v>Power Biomass Other</v>
       </c>
       <c r="F67" t="s">
         <v>240</v>
@@ -34219,11 +34221,11 @@
       <c r="J67"/>
       <c r="K67" t="str">
         <f t="shared" si="56"/>
-        <v>XPWRNUC</v>
+        <v>XPWRBIO</v>
       </c>
       <c r="L67" t="str">
         <f t="shared" si="57"/>
-        <v>Power Nuclear</v>
+        <v>Power Biomass Other</v>
       </c>
       <c r="M67" t="s">
         <v>240</v>
@@ -34241,15 +34243,15 @@
       <c r="R67"/>
       <c r="S67" t="str">
         <f t="shared" si="58"/>
-        <v>XPWRNUC</v>
+        <v>XPWRBIO</v>
       </c>
       <c r="T67" t="str">
         <f t="shared" si="59"/>
-        <v>NUC</v>
+        <v>BIO</v>
       </c>
       <c r="U67" t="str">
         <f t="shared" si="60"/>
-        <v>PWRNUC</v>
+        <v>PWRBIO</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -34270,15 +34272,15 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="54"/>
-        <v>PWRCLE</v>
+        <v>PWRNUC</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="55"/>
-        <v>Power Coal low grade</v>
+        <v>Power Nuclear</v>
       </c>
       <c r="F68" t="s">
         <v>240</v>
@@ -34289,11 +34291,11 @@
       <c r="J68"/>
       <c r="K68" t="str">
         <f t="shared" si="56"/>
-        <v>XPWRCLE</v>
+        <v>XPWRNUC</v>
       </c>
       <c r="L68" t="str">
         <f t="shared" si="57"/>
-        <v>Power Coal low grade</v>
+        <v>Power Nuclear</v>
       </c>
       <c r="M68" t="s">
         <v>240</v>
@@ -34311,15 +34313,15 @@
       <c r="R68"/>
       <c r="S68" t="str">
         <f t="shared" si="58"/>
-        <v>XPWRCLE</v>
+        <v>XPWRNUC</v>
       </c>
       <c r="T68" t="str">
         <f t="shared" si="59"/>
-        <v>CLE</v>
+        <v>NUC</v>
       </c>
       <c r="U68" t="str">
         <f t="shared" si="60"/>
-        <v>PWRCLE</v>
+        <v>PWRNUC</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -34335,8 +34337,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B77"/>
+    <row r="69" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="54"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="55"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="F69" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69" t="str">
+        <f t="shared" si="56"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="57"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="M69" t="s">
+        <v>240</v>
+      </c>
+      <c r="N69" t="s">
+        <v>429</v>
+      </c>
+      <c r="O69" t="s">
+        <v>358</v>
+      </c>
+      <c r="P69" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69" t="str">
+        <f t="shared" si="58"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="T69" t="str">
+        <f t="shared" si="59"/>
+        <v>CLE</v>
+      </c>
+      <c r="U69" t="str">
+        <f t="shared" si="60"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>60</v>
+      </c>
+      <c r="X69"/>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B78"/>
@@ -34455,8 +34524,11 @@
     <row r="116" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B116"/>
     </row>
+    <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B117"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B8:AA62" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
+  <autoFilter ref="B8:AA63" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -55127,7 +55199,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45191.727992129629</v>
+        <v>45194.65333483796</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -55951,7 +56023,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45191.727992129629</v>
+        <v>45194.65333483796</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60063,8 +60135,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -63976,7 +64048,7 @@
       </c>
       <c r="L56" s="386" t="str">
         <f t="shared" si="16"/>
-        <v>BNDACT~UP~2021</v>
+        <v>BNDACT~UP~2019</v>
       </c>
       <c r="M56" s="386" t="str">
         <f t="shared" si="16"/>
@@ -64122,8 +64194,7 @@
         <v>2017</v>
       </c>
       <c r="L57" s="148">
-        <f>G57</f>
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="M57" s="148">
         <v>2021</v>
@@ -66712,11 +66783,9 @@
         <v>3</v>
       </c>
       <c r="K94" s="82">
-        <v>151.28700000000001</v>
-      </c>
-      <c r="L94" s="82">
         <v>156</v>
       </c>
+      <c r="L94" s="82"/>
       <c r="M94"/>
       <c r="N94"/>
       <c r="O94"/>
@@ -66916,9 +66985,7 @@
       <c r="K97" s="82">
         <v>1727</v>
       </c>
-      <c r="L97" s="82">
-        <v>1727</v>
-      </c>
+      <c r="L97" s="82"/>
       <c r="M97"/>
       <c r="N97">
         <v>1000</v>
@@ -68387,7 +68454,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -68567,11 +68634,9 @@
         <v>0.99</v>
       </c>
       <c r="G6" s="396">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="396">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H6" s="396"/>
       <c r="I6" s="394">
         <v>2027</v>
       </c>
@@ -68608,11 +68673,9 @@
         <v>0.99</v>
       </c>
       <c r="G7" s="396">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="396">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="396"/>
       <c r="I7" s="394">
         <v>2027</v>
       </c>
@@ -68646,11 +68709,9 @@
         <v>0.99</v>
       </c>
       <c r="G8" s="396">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="396">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H8" s="396"/>
       <c r="I8" s="395">
         <v>2030</v>
       </c>
@@ -68693,11 +68754,9 @@
         <v>0.99</v>
       </c>
       <c r="G9" s="396">
-        <v>0.9</v>
-      </c>
-      <c r="H9" s="396">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H9" s="396"/>
       <c r="I9" s="394"/>
       <c r="J9" s="396">
         <f>C38</f>
@@ -68708,7 +68767,7 @@
         <v>-4</v>
       </c>
       <c r="M9" s="160">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="N9" s="28">
         <v>5</v>
@@ -68738,11 +68797,9 @@
         <v>0.99</v>
       </c>
       <c r="G10" s="396">
-        <v>0.9</v>
-      </c>
-      <c r="H10" s="396">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H10" s="396"/>
       <c r="I10" s="394">
         <v>2030</v>
       </c>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70934AC-C075-4486-B0C4-CEC4D43B0A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9083A30D-FC88-4809-809C-C5D196808171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="2190" yWindow="1860" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="10" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7386,6 +7386,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7423,57 +7474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24950,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>362</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="433" t="s">
         <v>363</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="433"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="434" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="436" t="s">
         <v>365</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="438" t="s">
         <v>366</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="439"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="443" t="s">
         <v>367</v>
       </c>
       <c r="G7" s="176"/>
@@ -24996,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25867,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="432" t="s">
         <v>433</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="432"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25950,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="428"/>
+      <c r="I31" s="428"/>
       <c r="R31" t="s">
         <v>371</v>
       </c>
@@ -25972,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="420" t="s">
         <v>437</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="429" t="s">
         <v>438</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25990,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>440</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="420" t="s">
         <v>441</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="420" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="420" t="s">
         <v>394</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="420" t="s">
         <v>441</v>
       </c>
     </row>
@@ -26028,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="427" t="s">
         <v>446</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="427"/>
       <c r="J33" s="142" t="s">
         <v>444</v>
       </c>
       <c r="K33" t="s">
         <v>445</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="430"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="421"/>
+      <c r="S33" s="421"/>
+      <c r="T33" s="421"/>
+      <c r="U33" s="421"/>
+      <c r="V33" s="421"/>
+      <c r="W33" s="421"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26069,8 +26069,8 @@
       <c r="K34" t="s">
         <v>448</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="431"/>
       <c r="N34" s="225" t="s">
         <v>450</v>
       </c>
@@ -26083,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26154,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="423" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="424"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26305,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="424"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="424"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26451,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="424"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26525,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="425"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26599,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="423" t="s">
         <v>414</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26672,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="424"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="424"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26820,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="425"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="423" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="424"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27036,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="425"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27405,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="426" t="s">
         <v>499</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="426"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27510,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>510</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="417" t="s">
         <v>511</v>
       </c>
       <c r="D103" s="266">
@@ -27527,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="416"/>
       <c r="B104" s="266" t="s">
         <v>512</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="418"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27544,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27559,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="416"/>
       <c r="B106" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="419"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27572,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="415" t="s">
         <v>509</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="417" t="s">
         <v>516</v>
       </c>
       <c r="D107" s="266">
@@ -27589,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="416"/>
       <c r="B108" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="418"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="415" t="s">
         <v>513</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="418"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="416"/>
       <c r="B110" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29084,6 +29084,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29094,22 +29110,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29125,8 +29125,8 @@
   </sheetPr>
   <dimension ref="A1:BB96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29294,7 +29294,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -49727,18 +49727,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="427" t="s">
         <v>763</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="427"/>
+      <c r="DN94" s="427" t="s">
         <v>764</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="427"/>
+      <c r="DP94" s="427" t="s">
         <v>762</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="427"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55199,7 +55199,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45194.65333483796</v>
+        <v>45195.534187152778</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56023,7 +56023,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45194.65333483796</v>
+        <v>45195.534187152778</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60135,7 +60135,7 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A48" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260F39EB-1676-466C-B0FC-99B925C2DD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A8BAF-EA94-4778-BED4-771ECE671DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="5" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7386,6 +7386,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7423,57 +7474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24950,25 +24950,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="433" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="433"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="434" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="436" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="438" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="439"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="443" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -24996,12 +24996,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25867,11 +25867,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="432" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="432"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25950,8 +25950,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="428"/>
+      <c r="I31" s="428"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -25972,10 +25972,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="420" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="429" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25990,22 +25990,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="420" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="420" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="420" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="420" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="420" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="420" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26028,28 +26028,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="427" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="427"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="430"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="421"/>
+      <c r="S33" s="421"/>
+      <c r="T33" s="421"/>
+      <c r="U33" s="421"/>
+      <c r="V33" s="421"/>
+      <c r="W33" s="421"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26069,8 +26069,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="431"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26083,12 +26083,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26154,7 +26154,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="423" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26234,7 +26234,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="424"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26305,7 +26305,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="424"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="424"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26451,7 +26451,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="424"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26525,7 +26525,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="425"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26599,7 +26599,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="423" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26672,7 +26672,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="424"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26748,7 +26748,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="424"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26820,7 +26820,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="425"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="423" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26965,7 +26965,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="424"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27036,7 +27036,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="425"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27405,10 +27405,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="426" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="426"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27510,13 +27510,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="415" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="417" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27527,11 +27527,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="416"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="418"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27544,13 +27544,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="415" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27559,11 +27559,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="416"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="419"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27572,13 +27572,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="415" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="417" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27589,11 +27589,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="416"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="418"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="415" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="418"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="416"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29084,6 +29084,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29094,22 +29110,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49727,18 +49727,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="427" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="427"/>
+      <c r="DN94" s="427" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="427"/>
+      <c r="DP94" s="427" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="427"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55199,7 +55199,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45198.667928935189</v>
+        <v>45199.685924074074</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56023,7 +56023,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45198.667928935189</v>
+        <v>45199.685924074074</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -58686,7 +58686,7 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -60135,8 +60135,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -64510,10 +64510,22 @@
       <c r="E62" s="30">
         <v>0</v>
       </c>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="H62" s="82"/>
-      <c r="I62" s="82"/>
+      <c r="F62" s="82">
+        <f>F61/2</f>
+        <v>14.13</v>
+      </c>
+      <c r="G62" s="82">
+        <f t="shared" ref="G62:I62" si="21">G61/2</f>
+        <v>14.13</v>
+      </c>
+      <c r="H62" s="82">
+        <f t="shared" si="21"/>
+        <v>14.13</v>
+      </c>
+      <c r="I62" s="82">
+        <f t="shared" si="21"/>
+        <v>14.13</v>
+      </c>
       <c r="J62" s="82"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
@@ -64595,7 +64607,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63" si="21">N63</f>
+        <f t="shared" ref="O63" si="22">N63</f>
         <v>0</v>
       </c>
       <c r="P63"/>
@@ -64720,19 +64732,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="82">
-        <f t="shared" ref="F65:I66" si="22">SUMIF($D$37:$D$42,$D65,F$37:F$42)*$E$54</f>
+        <f t="shared" ref="F65:I66" si="23">SUMIF($D$37:$D$42,$D65,F$37:F$42)*$E$54</f>
         <v>117.73934470134871</v>
       </c>
       <c r="G65" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>121.47218561739591</v>
       </c>
       <c r="H65" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>111.49620902079818</v>
       </c>
       <c r="I65" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>142.01096096333239</v>
       </c>
       <c r="J65" s="82">
@@ -64792,19 +64804,19 @@
         <v>0</v>
       </c>
       <c r="F66" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>106.47694185774681</v>
       </c>
       <c r="G66" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>106.47694185774681</v>
       </c>
       <c r="H66" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>106.47694185774681</v>
       </c>
       <c r="I66" s="82">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>106.47694185774681</v>
       </c>
       <c r="J66" s="82">
@@ -64967,11 +64979,11 @@
     </row>
     <row r="69" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="158" t="str">
-        <f t="shared" ref="A69:A76" si="23">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D69,FuelNamesShort,0))</f>
+        <f t="shared" ref="A69:A76" si="24">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D69,FuelNamesShort,0))</f>
         <v>Extraction of Biogas</v>
       </c>
       <c r="B69" s="30" t="str">
-        <f t="shared" ref="B69:B75" si="24">$B$46&amp;D69</f>
+        <f t="shared" ref="B69:B75" si="25">$B$46&amp;D69</f>
         <v>MINBIG</v>
       </c>
       <c r="D69" s="159" t="str">
@@ -64986,15 +64998,15 @@
         <v>59.346000000000004</v>
       </c>
       <c r="G69" s="82">
-        <f t="shared" ref="G69:I69" si="25">G71</f>
+        <f t="shared" ref="G69:I69" si="26">G71</f>
         <v>59.346000000000004</v>
       </c>
       <c r="H69" s="82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>59.346000000000004</v>
       </c>
       <c r="I69" s="82">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>59.346000000000004</v>
       </c>
       <c r="J69" s="82"/>
@@ -65005,7 +65017,7 @@
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69" t="str">
-        <f t="shared" ref="Q69:Q76" si="26">$Q$60</f>
+        <f t="shared" ref="Q69:Q76" si="27">$Q$60</f>
         <v/>
       </c>
       <c r="V69" s="35"/>
@@ -65040,11 +65052,11 @@
     </row>
     <row r="70" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Biomass bagasse</v>
       </c>
       <c r="B70" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>MINBIB</v>
       </c>
       <c r="D70" s="159" t="str">
@@ -65078,7 +65090,7 @@
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V70" s="35"/>
@@ -65113,11 +65125,11 @@
     </row>
     <row r="71" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Biomass Other</v>
       </c>
       <c r="B71" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>MINBIO</v>
       </c>
       <c r="D71" s="159" t="str">
@@ -65128,19 +65140,19 @@
         <v>0</v>
       </c>
       <c r="F71" s="82">
-        <f t="shared" ref="F71:I71" si="27">F60*1.05</f>
+        <f t="shared" ref="F71:I71" si="28">F60*1.05</f>
         <v>59.346000000000004</v>
       </c>
       <c r="G71" s="82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>59.346000000000004</v>
       </c>
       <c r="H71" s="82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>59.346000000000004</v>
       </c>
       <c r="I71" s="82">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>59.346000000000004</v>
       </c>
       <c r="J71" s="82"/>
@@ -65151,7 +65163,7 @@
       <c r="O71"/>
       <c r="P71"/>
       <c r="Q71" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V71" s="35"/>
@@ -65186,11 +65198,11 @@
     </row>
     <row r="72" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Biomass Wood</v>
       </c>
       <c r="B72" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>MINBIW</v>
       </c>
       <c r="D72" s="159" t="str">
@@ -65205,15 +65217,15 @@
         <v>56.52</v>
       </c>
       <c r="G72" s="82">
-        <f t="shared" ref="G72:I73" si="28">F72</f>
+        <f t="shared" ref="G72:I73" si="29">F72</f>
         <v>56.52</v>
       </c>
       <c r="H72" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>56.52</v>
       </c>
       <c r="I72" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>56.52</v>
       </c>
       <c r="J72" s="82"/>
@@ -65224,7 +65236,7 @@
       <c r="O72"/>
       <c r="P72"/>
       <c r="Q72" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V72" s="35"/>
@@ -65259,7 +65271,7 @@
     </row>
     <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Waste</v>
       </c>
       <c r="B73" s="30" t="str">
@@ -65277,15 +65289,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H73" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="I73" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J73" s="82">
@@ -65300,7 +65312,7 @@
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V73" s="35"/>
@@ -65335,7 +65347,7 @@
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Hydro</v>
       </c>
       <c r="B74" s="30" t="str">
@@ -65361,7 +65373,7 @@
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V74" s="35"/>
@@ -65396,11 +65408,11 @@
     </row>
     <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Solar</v>
       </c>
       <c r="B75" s="30" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>MINSOL</v>
       </c>
       <c r="D75" s="159" t="str">
@@ -65422,7 +65434,7 @@
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V75" s="35"/>
@@ -65457,7 +65469,7 @@
     </row>
     <row r="76" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="158" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>Extraction of Wind</v>
       </c>
       <c r="B76" s="30" t="str">
@@ -65483,7 +65495,7 @@
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="V76" s="35"/>
@@ -65566,7 +65578,7 @@
     </row>
     <row r="78" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="158" t="str">
-        <f t="shared" ref="A78:A92" si="29">"Imports of "&amp;INDEX(FuelNamesLong,MATCH(D78,FuelNamesShort,0))</f>
+        <f t="shared" ref="A78:A92" si="30">"Imports of "&amp;INDEX(FuelNamesLong,MATCH(D78,FuelNamesShort,0))</f>
         <v>Imports of Coal Coking</v>
       </c>
       <c r="B78" s="30" t="str">
@@ -65581,7 +65593,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="82">
-        <f t="shared" ref="F78" si="30">F60*1.5</f>
+        <f t="shared" ref="F78" si="31">F60*1.5</f>
         <v>84.78</v>
       </c>
       <c r="G78" s="82">
@@ -65589,11 +65601,11 @@
         <v>84.78</v>
       </c>
       <c r="H78" s="82">
-        <f t="shared" ref="H78:I78" si="31">H60*1.5</f>
+        <f t="shared" ref="H78:I78" si="32">H60*1.5</f>
         <v>84.78</v>
       </c>
       <c r="I78" s="82">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>84.78</v>
       </c>
       <c r="J78" s="82">
@@ -65606,7 +65618,7 @@
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78" t="str">
-        <f t="shared" ref="Q78:Q92" si="32">$Q$60</f>
+        <f t="shared" ref="Q78:Q92" si="33">$Q$60</f>
         <v/>
       </c>
       <c r="V78" s="35"/>
@@ -65654,15 +65666,15 @@
         <v>8.7491242874264614</v>
       </c>
       <c r="G79" s="82">
-        <f t="shared" ref="G79:I79" si="33">G80/G15</f>
+        <f t="shared" ref="G79:I79" si="34">G80/G15</f>
         <v>9.0144883767620421</v>
       </c>
       <c r="H79" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>8.3053057450005809</v>
       </c>
       <c r="I79" s="82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>10.474570265682702</v>
       </c>
       <c r="J79" s="82"/>
@@ -65705,7 +65717,7 @@
     </row>
     <row r="80" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Gas Regional LNG</v>
       </c>
       <c r="B80" s="30" t="str">
@@ -65720,19 +65732,19 @@
         <v>0</v>
       </c>
       <c r="F80" s="82">
-        <f t="shared" ref="F80:I81" si="34">SUMIF($C$37:$C$42,$B80,F$37:F$42)*$E$54</f>
+        <f t="shared" ref="F80:I81" si="35">SUMIF($C$37:$C$42,$B80,F$37:F$42)*$E$54</f>
         <v>143.92309452816528</v>
       </c>
       <c r="G80" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>148.28833379773559</v>
       </c>
       <c r="H80" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>136.62227950525954</v>
       </c>
       <c r="I80" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>172.30668087048045</v>
       </c>
       <c r="J80" s="82"/>
@@ -65745,7 +65757,7 @@
         <v>2027</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V80" s="35"/>
@@ -65780,7 +65792,7 @@
     </row>
     <row r="81" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Gas International LNG</v>
       </c>
       <c r="B81" s="30" t="str">
@@ -65795,19 +65807,19 @@
         <v>0</v>
       </c>
       <c r="F81" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>150.16006135280986</v>
       </c>
       <c r="G81" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>154.52530062238017</v>
       </c>
       <c r="H81" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>142.85924632990407</v>
       </c>
       <c r="I81" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>178.543647695125</v>
       </c>
       <c r="J81" s="82" t="s">
@@ -65830,7 +65842,7 @@
         <v>2027</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="U81" s="161"/>
@@ -65879,15 +65891,15 @@
         <v>9.1282712068577432</v>
       </c>
       <c r="G82" s="82">
-        <f t="shared" ref="G82:I82" si="35">G81/G15</f>
+        <f t="shared" ref="G82:I82" si="36">G81/G15</f>
         <v>9.3936352961933238</v>
       </c>
       <c r="H82" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>8.6844526644318591</v>
       </c>
       <c r="I82" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>10.853717185113982</v>
       </c>
       <c r="J82" s="82"/>
@@ -65931,11 +65943,11 @@
     </row>
     <row r="83" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Nuclear</v>
       </c>
       <c r="B83" s="30" t="str">
-        <f t="shared" ref="B83:B91" si="36">"IMP"&amp;D83</f>
+        <f t="shared" ref="B83:B91" si="37">"IMP"&amp;D83</f>
         <v>IMPNUC</v>
       </c>
       <c r="D83" s="159" t="str">
@@ -65965,7 +65977,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="82">
-        <f t="shared" ref="K83:K85" si="37">SUMIF($C$8:$AZ$8,D83,$C$11:$AZ$11)</f>
+        <f t="shared" ref="K83:K85" si="38">SUMIF($C$8:$AZ$8,D83,$C$11:$AZ$11)</f>
         <v>170.374545454545</v>
       </c>
       <c r="L83" s="82"/>
@@ -65974,7 +65986,7 @@
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="T83" s="161" t="s">
@@ -66012,11 +66024,11 @@
     </row>
     <row r="84" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil Av Gasoline</v>
       </c>
       <c r="B84" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOAG</v>
       </c>
       <c r="D84" s="159" t="str">
@@ -66027,26 +66039,26 @@
         <v>0</v>
       </c>
       <c r="F84" s="82">
-        <f t="shared" ref="F84:I84" si="38">F87</f>
+        <f t="shared" ref="F84:I84" si="39">F87</f>
         <v>247.03405739193275</v>
       </c>
       <c r="G84" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>253.06623635843414</v>
       </c>
       <c r="H84" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>232.71621829347131</v>
       </c>
       <c r="I84" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>294.96333237453405</v>
       </c>
       <c r="J84" s="82">
         <v>0</v>
       </c>
       <c r="K84" s="82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.394321535205479</v>
       </c>
       <c r="L84" s="82"/>
@@ -66055,7 +66067,7 @@
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V84" s="35"/>
@@ -66090,11 +66102,11 @@
     </row>
     <row r="85" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil Crude</v>
       </c>
       <c r="B85" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOCR</v>
       </c>
       <c r="D85" s="159" t="str">
@@ -66105,26 +66117,26 @@
         <v>0</v>
       </c>
       <c r="F85" s="82">
-        <f t="shared" ref="F85:I90" si="39">SUMIF($E$22:$E$34,$D85,F$22:F$34)</f>
+        <f t="shared" ref="F85:I90" si="40">SUMIF($E$22:$E$34,$D85,F$22:F$34)</f>
         <v>196.45298120195667</v>
       </c>
       <c r="G85" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>202.68138113207547</v>
       </c>
       <c r="H85" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>186.03605031446543</v>
       </c>
       <c r="I85" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>236.95117987421381</v>
       </c>
       <c r="J85" s="82">
         <v>0</v>
       </c>
       <c r="K85" s="82">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>941.22622485351599</v>
       </c>
       <c r="L85" s="82"/>
@@ -66133,7 +66145,7 @@
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V85" s="35"/>
@@ -66168,11 +66180,11 @@
     </row>
     <row r="86" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil Diesel</v>
       </c>
       <c r="B86" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPODS</v>
       </c>
       <c r="D86" s="159" t="str">
@@ -66183,19 +66195,19 @@
         <v>0</v>
       </c>
       <c r="F86" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>236.56389169057414</v>
       </c>
       <c r="G86" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>244.65407088700817</v>
       </c>
       <c r="H86" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>224.41968109431471</v>
       </c>
       <c r="I86" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>286.31310869549469</v>
       </c>
       <c r="J86" s="82">
@@ -66210,7 +66222,7 @@
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V86" s="35"/>
@@ -66245,11 +66257,11 @@
     </row>
     <row r="87" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil Gasoline</v>
       </c>
       <c r="B87" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOGS</v>
       </c>
       <c r="D87" s="159" t="str">
@@ -66260,19 +66272,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>247.03405739193275</v>
       </c>
       <c r="G87" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>253.06623635843414</v>
       </c>
       <c r="H87" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>232.71621829347131</v>
       </c>
       <c r="I87" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>294.96333237453405</v>
       </c>
       <c r="J87" s="82">
@@ -66287,7 +66299,7 @@
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V87" s="35"/>
@@ -66322,11 +66334,11 @@
     </row>
     <row r="88" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil HFO</v>
       </c>
       <c r="B88" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOHF</v>
       </c>
       <c r="D88" s="159" t="str">
@@ -66337,19 +66349,19 @@
         <v>0</v>
       </c>
       <c r="F88" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>196.45298120195667</v>
       </c>
       <c r="G88" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>202.68138113207547</v>
       </c>
       <c r="H88" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>186.03605031446543</v>
       </c>
       <c r="I88" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>236.95117987421381</v>
       </c>
       <c r="J88" s="82">
@@ -66364,7 +66376,7 @@
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V88" s="35"/>
@@ -66399,11 +66411,11 @@
     </row>
     <row r="89" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil LPG</v>
       </c>
       <c r="B89" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOLP</v>
       </c>
       <c r="D89" s="159" t="str">
@@ -66414,19 +66426,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>376.62224144497708</v>
       </c>
       <c r="G89" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>382.94989907290471</v>
       </c>
       <c r="H89" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>366.03930314149977</v>
       </c>
       <c r="I89" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>417.76583187285604</v>
       </c>
       <c r="J89" s="82">
@@ -66441,7 +66453,7 @@
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V89" s="35"/>
@@ -66476,11 +66488,11 @@
     </row>
     <row r="90" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Oil Kerosene</v>
       </c>
       <c r="B90" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPOKE</v>
       </c>
       <c r="D90" s="159" t="str">
@@ -66491,19 +66503,19 @@
         <v>0</v>
       </c>
       <c r="F90" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>243.45484454706207</v>
       </c>
       <c r="G90" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>250.76740309449676</v>
       </c>
       <c r="H90" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>231.22467020790273</v>
       </c>
       <c r="I90" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>291.00244139042559</v>
       </c>
       <c r="J90" s="82">
@@ -66518,7 +66530,7 @@
       <c r="O90"/>
       <c r="P90"/>
       <c r="Q90" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V90" s="35"/>
@@ -66553,11 +66565,11 @@
     </row>
     <row r="91" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Biodiesel</v>
       </c>
       <c r="B91" s="30" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>IMPBID</v>
       </c>
       <c r="D91" s="159" t="str">
@@ -66572,15 +66584,15 @@
         <v>248.39208627510286</v>
       </c>
       <c r="G91" s="82">
-        <f t="shared" ref="G91:I92" si="40">G86*1.05</f>
+        <f t="shared" ref="G91:I92" si="41">G86*1.05</f>
         <v>256.88677443135862</v>
       </c>
       <c r="H91" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>235.64066514903047</v>
       </c>
       <c r="I91" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>300.62876413026942</v>
       </c>
       <c r="J91" s="82">
@@ -66593,7 +66605,7 @@
       <c r="O91"/>
       <c r="P91"/>
       <c r="Q91" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V91" s="35"/>
@@ -66628,7 +66640,7 @@
     </row>
     <row r="92" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="158" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>Imports of Bioethanol</v>
       </c>
       <c r="B92" s="30" t="str">
@@ -66647,15 +66659,15 @@
         <v>259.38576026152941</v>
       </c>
       <c r="G92" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>265.71954817635583</v>
       </c>
       <c r="H92" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>244.3520292081449</v>
       </c>
       <c r="I92" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>309.71149899326076</v>
       </c>
       <c r="J92" s="82">
@@ -66668,7 +66680,7 @@
       <c r="O92"/>
       <c r="P92"/>
       <c r="Q92" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="V92" s="35"/>
@@ -66844,15 +66856,15 @@
         <v>125.48506135280986</v>
       </c>
       <c r="G95" s="82">
-        <f t="shared" ref="G95:I95" si="41">G81-(1.5*G15)</f>
+        <f t="shared" ref="G95:I95" si="42">G81-(1.5*G15)</f>
         <v>129.85030062238019</v>
       </c>
       <c r="H95" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>118.18424632990407</v>
       </c>
       <c r="I95" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>153.86864769512499</v>
       </c>
       <c r="J95" s="82"/>
@@ -66949,11 +66961,11 @@
     </row>
     <row r="97" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="158" t="str">
-        <f t="shared" ref="A97:A104" si="42">"Exports of "&amp;INDEX(FuelNamesLong,MATCH(C97,FuelNamesShort,0))</f>
+        <f t="shared" ref="A97:A104" si="43">"Exports of "&amp;INDEX(FuelNamesLong,MATCH(C97,FuelNamesShort,0))</f>
         <v>Exports of Coal</v>
       </c>
       <c r="B97" s="30" t="str">
-        <f t="shared" ref="B97:B104" si="43">"PEX"&amp;C97</f>
+        <f t="shared" ref="B97:B104" si="44">"PEX"&amp;C97</f>
         <v>PEXCOA</v>
       </c>
       <c r="C97" s="159" t="str">
@@ -66995,7 +67007,7 @@
       </c>
       <c r="P97"/>
       <c r="Q97" t="str">
-        <f t="shared" ref="Q97:Q104" si="44">$Q$60</f>
+        <f t="shared" ref="Q97:Q104" si="45">$Q$60</f>
         <v/>
       </c>
       <c r="V97" s="35"/>
@@ -67030,11 +67042,11 @@
     </row>
     <row r="98" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Coal Coking</v>
       </c>
       <c r="B98" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXCOK</v>
       </c>
       <c r="C98" s="159" t="str">
@@ -67073,7 +67085,7 @@
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V98" s="35"/>
@@ -67108,11 +67120,11 @@
     </row>
     <row r="99" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil Av Gasoline</v>
       </c>
       <c r="B99" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXOAG</v>
       </c>
       <c r="C99" s="159" t="str">
@@ -67123,19 +67135,19 @@
         <v>0</v>
       </c>
       <c r="F99" s="82">
-        <f t="shared" ref="F99:I99" si="45">F102</f>
+        <f t="shared" ref="F99:I99" si="46">F102</f>
         <v>-234.68235452233611</v>
       </c>
       <c r="G99" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-240.41292454051242</v>
       </c>
       <c r="H99" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-221.08040737879773</v>
       </c>
       <c r="I99" s="82">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-280.21516575580733</v>
       </c>
       <c r="J99" s="82">
@@ -67151,7 +67163,7 @@
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V99" s="35"/>
@@ -67186,11 +67198,11 @@
     </row>
     <row r="100" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil Crude</v>
       </c>
       <c r="B100" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXOCR</v>
       </c>
       <c r="C100" s="159" t="str">
@@ -67201,19 +67213,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="82">
-        <f t="shared" ref="F100:I104" si="46">SUMIF($E$22:$E$34,$C100,F$22:F$34)*$B$96</f>
+        <f t="shared" ref="F100:I104" si="47">SUMIF($E$22:$E$34,$C100,F$22:F$34)*$B$96</f>
         <v>-186.63033214185884</v>
       </c>
       <c r="G100" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-192.54731207547169</v>
       </c>
       <c r="H100" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-176.73424779874216</v>
       </c>
       <c r="I100" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-225.10362088050312</v>
       </c>
       <c r="J100" s="82">
@@ -67229,7 +67241,7 @@
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V100" s="35"/>
@@ -67264,11 +67276,11 @@
     </row>
     <row r="101" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil Diesel</v>
       </c>
       <c r="B101" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXODS</v>
       </c>
       <c r="C101" s="159" t="str">
@@ -67279,19 +67291,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-224.73569710604542</v>
       </c>
       <c r="G101" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-232.42136734265776</v>
       </c>
       <c r="H101" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-213.19869703959895</v>
       </c>
       <c r="I101" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-271.99745326071996</v>
       </c>
       <c r="J101" s="82">
@@ -67307,7 +67319,7 @@
       <c r="O101"/>
       <c r="P101"/>
       <c r="Q101" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V101" s="35"/>
@@ -67342,11 +67354,11 @@
     </row>
     <row r="102" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil Gasoline</v>
       </c>
       <c r="B102" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXOGS</v>
       </c>
       <c r="C102" s="159" t="str">
@@ -67357,19 +67369,19 @@
         <v>0</v>
       </c>
       <c r="F102" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-234.68235452233611</v>
       </c>
       <c r="G102" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-240.41292454051242</v>
       </c>
       <c r="H102" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-221.08040737879773</v>
       </c>
       <c r="I102" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-280.21516575580733</v>
       </c>
       <c r="J102" s="82">
@@ -67385,7 +67397,7 @@
       <c r="O102"/>
       <c r="P102"/>
       <c r="Q102" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V102" s="35"/>
@@ -67420,11 +67432,11 @@
     </row>
     <row r="103" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil HFO</v>
       </c>
       <c r="B103" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXOHF</v>
       </c>
       <c r="C103" s="159" t="str">
@@ -67435,19 +67447,19 @@
         <v>0</v>
       </c>
       <c r="F103" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-186.63033214185884</v>
       </c>
       <c r="G103" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-192.54731207547169</v>
       </c>
       <c r="H103" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-176.73424779874216</v>
       </c>
       <c r="I103" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-225.10362088050312</v>
       </c>
       <c r="J103" s="82">
@@ -67460,7 +67472,7 @@
       <c r="O103"/>
       <c r="P103"/>
       <c r="Q103" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V103" s="35"/>
@@ -67495,11 +67507,11 @@
     </row>
     <row r="104" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="158" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>Exports of Oil Kerosene</v>
       </c>
       <c r="B104" s="30" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>PEXOKE</v>
       </c>
       <c r="C104" s="159" t="str">
@@ -67510,19 +67522,19 @@
         <v>0</v>
       </c>
       <c r="F104" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-231.28210231970894</v>
       </c>
       <c r="G104" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-238.22903293977191</v>
       </c>
       <c r="H104" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-219.66343669750759</v>
       </c>
       <c r="I104" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-276.45231932090428</v>
       </c>
       <c r="J104" s="82">
@@ -67538,7 +67550,7 @@
       <c r="O104"/>
       <c r="P104"/>
       <c r="Q104" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="V104" s="35"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A8BAF-EA94-4778-BED4-771ECE671DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F580CBE-EB58-46E3-8E4F-F6648C2BA0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26610" windowHeight="13740" firstSheet="5" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">FuelTechs!$B$8:$AA$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NameConv!#REF!</definedName>
     <definedName name="AGR">[1]Index!$C$7</definedName>
     <definedName name="COM">[1]Index!$C$8</definedName>
@@ -82,9 +82,9 @@
     <definedName name="emissions_start">[3]NameConv!$AY$4</definedName>
     <definedName name="emissions_types">[3]NameConv!$AX$3</definedName>
     <definedName name="eps">NameConv!$D$2</definedName>
-    <definedName name="FuelNames">NameConv!$B$5:$C$46</definedName>
-    <definedName name="FuelNamesLong">NameConv!$B$5:$B$46</definedName>
-    <definedName name="FuelNamesShort">NameConv!$C$5:$C$46</definedName>
+    <definedName name="FuelNames">NameConv!$B$5:$C$47</definedName>
+    <definedName name="FuelNamesLong">NameConv!$B$5:$B$47</definedName>
+    <definedName name="FuelNamesShort">NameConv!$C$5:$C$47</definedName>
     <definedName name="gwpch4">'[2]SASOL CC 2019 report'!$E$98</definedName>
     <definedName name="gwpn2o">'[2]SASOL CC 2019 report'!$E$97</definedName>
     <definedName name="H2.LHV.MJ_kg">'[3]Hydrogen-ELT'!$D$39</definedName>
@@ -135,9 +135,9 @@
     <definedName name="Sector.Transport">[3]Index!$G$2</definedName>
     <definedName name="sector_prefix" localSheetId="8">GasPipeLines!#REF!</definedName>
     <definedName name="sector_prefix">LNG!#REF!</definedName>
-    <definedName name="SectorNames">NameConv!$B$51:$C$59</definedName>
-    <definedName name="SectorNamesLong">NameConv!$C$51:$C$59</definedName>
-    <definedName name="SectorNamesShort">NameConv!$B$51:$B$59</definedName>
+    <definedName name="SectorNames">NameConv!$B$52:$C$60</definedName>
+    <definedName name="SectorNamesLong">NameConv!$C$52:$C$60</definedName>
+    <definedName name="SectorNamesShort">NameConv!$B$52:$B$60</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1107">
   <si>
     <t>Agriculture</t>
   </si>
@@ -5105,6 +5105,12 @@
   </si>
   <si>
     <t>PM10S</t>
+  </si>
+  <si>
+    <t>OMU</t>
+  </si>
+  <si>
+    <t>Oil HFO for material use</t>
   </si>
 </sst>
 </file>
@@ -29858,10 +29864,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AE117"/>
+  <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30116,7 +30122,7 @@
         <v>INDBIB</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ref="E9:E63" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
+        <f t="shared" ref="E9:E64" si="0">INDEX(SectorNamesLong,MATCH(B9,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C9,FuelNamesShort,0))</f>
         <v>Industry Biomass bagasse</v>
       </c>
       <c r="F9" t="s">
@@ -30183,7 +30189,7 @@
         <v>148</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D63" si="1">B10&amp;C10</f>
+        <f t="shared" ref="D10:D64" si="1">B10&amp;C10</f>
         <v>UPSBID</v>
       </c>
       <c r="E10" t="str">
@@ -30198,11 +30204,11 @@
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10" t="str">
-        <f t="shared" ref="K10:K63" si="2">"X"&amp;D10</f>
+        <f t="shared" ref="K10:K64" si="2">"X"&amp;D10</f>
         <v>XUPSBID</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L63" si="3">E10</f>
+        <f t="shared" ref="L10:L64" si="3">E10</f>
         <v>Upstream Biodiesel</v>
       </c>
       <c r="M10" t="s">
@@ -30220,11 +30226,11 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10" t="str">
-        <f t="shared" ref="S10:S63" si="4">K10</f>
+        <f t="shared" ref="S10:S64" si="4">K10</f>
         <v>XUPSBID</v>
       </c>
       <c r="T10" t="str">
-        <f t="shared" ref="T10:U63" si="5">C10</f>
+        <f t="shared" ref="T10:U64" si="5">C10</f>
         <v>BID</v>
       </c>
       <c r="U10" t="str">
@@ -33138,18 +33144,18 @@
     </row>
     <row r="52" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>1105</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="1"/>
-        <v>TRAOHF</v>
+        <f t="shared" ref="D52" si="40">B52&amp;C52</f>
+        <v>INDOMU</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>Transport Oil HFO</v>
+        <f t="shared" ref="E52" si="41">INDEX(SectorNamesLong,MATCH(B52,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C52,FuelNamesShort,0))</f>
+        <v>Industry Oil HFO for material use</v>
       </c>
       <c r="F52" t="s">
         <v>239</v>
@@ -33159,12 +33165,12 @@
       <c r="I52"/>
       <c r="J52"/>
       <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>XTRAOHF</v>
+        <f t="shared" ref="K52" si="42">"X"&amp;D52</f>
+        <v>XINDOMU</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="3"/>
-        <v>Transport Oil HFO</v>
+        <f t="shared" ref="L52" si="43">E52</f>
+        <v>Industry Oil HFO for material use</v>
       </c>
       <c r="M52" t="s">
         <v>239</v>
@@ -33181,16 +33187,15 @@
       <c r="Q52"/>
       <c r="R52"/>
       <c r="S52" t="str">
-        <f t="shared" si="4"/>
-        <v>XTRAOHF</v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="5"/>
-        <v>OHF</v>
+        <f t="shared" ref="S52" si="44">K52</f>
+        <v>XINDOMU</v>
+      </c>
+      <c r="T52" s="237" t="s">
+        <v>210</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="5"/>
-        <v>TRAOHF</v>
+        <f t="shared" ref="U52" si="45">D52</f>
+        <v>INDOMU</v>
       </c>
       <c r="V52">
         <v>1</v>
@@ -33209,18 +33214,18 @@
     </row>
     <row r="53" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>210</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" ref="D53" si="40">B53&amp;C53</f>
-        <v>PWROHF</v>
+        <f t="shared" si="1"/>
+        <v>TRAOHF</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" ref="E53" si="41">INDEX(SectorNamesLong,MATCH(B53,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C53,FuelNamesShort,0))</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="F53" t="s">
         <v>239</v>
@@ -33230,12 +33235,12 @@
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53" t="str">
-        <f t="shared" ref="K53" si="42">"X"&amp;D53</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" ref="L53" si="43">E53</f>
-        <v>Power Oil HFO</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil HFO</v>
       </c>
       <c r="M53" t="s">
         <v>239</v>
@@ -33252,16 +33257,16 @@
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53" t="str">
-        <f t="shared" ref="S53" si="44">K53</f>
-        <v>XPWROHF</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOHF</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" ref="T53" si="45">C53</f>
+        <f t="shared" si="5"/>
         <v>OHF</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" ref="U53" si="46">D53</f>
-        <v>PWROHF</v>
+        <f t="shared" si="5"/>
+        <v>TRAOHF</v>
       </c>
       <c r="V53">
         <v>1</v>
@@ -33280,18 +33285,18 @@
     </row>
     <row r="54" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="D54" si="46">B54&amp;C54</f>
+        <v>PWROHF</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="E54" si="47">INDEX(SectorNamesLong,MATCH(B54,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C54,FuelNamesShort,0))</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="F54" t="s">
         <v>239</v>
@@ -33301,12 +33306,12 @@
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="K54" si="48">"X"&amp;D54</f>
+        <v>XPWROHF</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil Kerosene</v>
+        <f t="shared" ref="L54" si="49">E54</f>
+        <v>Power Oil HFO</v>
       </c>
       <c r="M54" t="s">
         <v>239</v>
@@ -33323,16 +33328,16 @@
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROKE</v>
+        <f t="shared" ref="S54" si="50">K54</f>
+        <v>XPWROHF</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="5"/>
-        <v>OKE</v>
+        <f t="shared" ref="T54" si="51">C54</f>
+        <v>OHF</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROKE</v>
+        <f t="shared" ref="U54" si="52">D54</f>
+        <v>PWROHF</v>
       </c>
       <c r="V54">
         <v>1</v>
@@ -33351,18 +33356,18 @@
     </row>
     <row r="55" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>212</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="F55" t="s">
         <v>239</v>
@@ -33373,11 +33378,11 @@
       <c r="J55"/>
       <c r="K55" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="L55" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil Kerosene</v>
+        <v>Agriculture Oil Kerosene</v>
       </c>
       <c r="M55" t="s">
         <v>239</v>
@@ -33395,7 +33400,7 @@
       <c r="R55"/>
       <c r="S55" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOKE</v>
+        <v>XAGROKE</v>
       </c>
       <c r="T55" t="str">
         <f t="shared" si="5"/>
@@ -33403,7 +33408,7 @@
       </c>
       <c r="U55" t="str">
         <f t="shared" si="5"/>
-        <v>COMOKE</v>
+        <v>AGROKE</v>
       </c>
       <c r="V55">
         <v>1</v>
@@ -33422,18 +33427,18 @@
     </row>
     <row r="56" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>212</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="F56" t="s">
         <v>239</v>
@@ -33444,11 +33449,11 @@
       <c r="J56"/>
       <c r="K56" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="L56" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil Kerosene</v>
+        <v>Commerce Oil Kerosene</v>
       </c>
       <c r="M56" t="s">
         <v>239</v>
@@ -33466,7 +33471,7 @@
       <c r="R56"/>
       <c r="S56" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOKE</v>
+        <v>XCOMOKE</v>
       </c>
       <c r="T56" t="str">
         <f t="shared" si="5"/>
@@ -33474,7 +33479,7 @@
       </c>
       <c r="U56" t="str">
         <f t="shared" si="5"/>
-        <v>RESOKE</v>
+        <v>COMOKE</v>
       </c>
       <c r="V56">
         <v>1</v>
@@ -33493,18 +33498,18 @@
     </row>
     <row r="57" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>212</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="F57" t="s">
         <v>239</v>
@@ -33515,11 +33520,11 @@
       <c r="J57"/>
       <c r="K57" t="str">
         <f t="shared" si="2"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="L57" t="str">
         <f t="shared" si="3"/>
-        <v>Transport Oil Kerosene</v>
+        <v>Residential Oil Kerosene</v>
       </c>
       <c r="M57" t="s">
         <v>239</v>
@@ -33537,7 +33542,7 @@
       <c r="R57"/>
       <c r="S57" t="str">
         <f t="shared" si="4"/>
-        <v>XTRAOKE</v>
+        <v>XRESOKE</v>
       </c>
       <c r="T57" t="str">
         <f t="shared" si="5"/>
@@ -33545,7 +33550,7 @@
       </c>
       <c r="U57" t="str">
         <f t="shared" si="5"/>
-        <v>TRAOKE</v>
+        <v>RESOKE</v>
       </c>
       <c r="V57">
         <v>1</v>
@@ -33564,18 +33569,18 @@
     </row>
     <row r="58" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>212</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" ref="D58" si="47">B58&amp;C58</f>
-        <v>PWROKE</v>
+        <f t="shared" si="1"/>
+        <v>TRAOKE</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" ref="E58" si="48">INDEX(SectorNamesLong,MATCH(B58,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C58,FuelNamesShort,0))</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="0"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="F58" t="s">
         <v>239</v>
@@ -33585,12 +33590,12 @@
       <c r="I58"/>
       <c r="J58"/>
       <c r="K58" t="str">
-        <f t="shared" ref="K58" si="49">"X"&amp;D58</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="2"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" ref="L58" si="50">E58</f>
-        <v>Power Oil Kerosene</v>
+        <f t="shared" si="3"/>
+        <v>Transport Oil Kerosene</v>
       </c>
       <c r="M58" t="s">
         <v>239</v>
@@ -33607,16 +33612,16 @@
       <c r="Q58"/>
       <c r="R58"/>
       <c r="S58" t="str">
-        <f t="shared" ref="S58" si="51">K58</f>
-        <v>XPWROKE</v>
+        <f t="shared" si="4"/>
+        <v>XTRAOKE</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" ref="T58" si="52">C58</f>
+        <f t="shared" si="5"/>
         <v>OKE</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" ref="U58" si="53">D58</f>
-        <v>PWROKE</v>
+        <f t="shared" si="5"/>
+        <v>TRAOKE</v>
       </c>
       <c r="V58">
         <v>1</v>
@@ -33635,18 +33640,18 @@
     </row>
     <row r="59" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="1"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="D59" si="53">B59&amp;C59</f>
+        <v>PWROKE</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="E59" si="54">INDEX(SectorNamesLong,MATCH(B59,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C59,FuelNamesShort,0))</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="F59" t="s">
         <v>239</v>
@@ -33656,12 +33661,12 @@
       <c r="I59"/>
       <c r="J59"/>
       <c r="K59" t="str">
-        <f t="shared" si="2"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="K59" si="55">"X"&amp;D59</f>
+        <v>XPWROKE</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="3"/>
-        <v>Agriculture Oil LPG</v>
+        <f t="shared" ref="L59" si="56">E59</f>
+        <v>Power Oil Kerosene</v>
       </c>
       <c r="M59" t="s">
         <v>239</v>
@@ -33678,16 +33683,16 @@
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59" t="str">
-        <f t="shared" si="4"/>
-        <v>XAGROLP</v>
+        <f t="shared" ref="S59" si="57">K59</f>
+        <v>XPWROKE</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="5"/>
-        <v>OLP</v>
+        <f t="shared" ref="T59" si="58">C59</f>
+        <v>OKE</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="5"/>
-        <v>AGROLP</v>
+        <f t="shared" ref="U59" si="59">D59</f>
+        <v>PWROKE</v>
       </c>
       <c r="V59">
         <v>1</v>
@@ -33706,18 +33711,18 @@
     </row>
     <row r="60" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="F60" t="s">
         <v>239</v>
@@ -33728,11 +33733,11 @@
       <c r="J60"/>
       <c r="K60" t="str">
         <f t="shared" si="2"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="L60" t="str">
         <f t="shared" si="3"/>
-        <v>Commerce Oil LPG</v>
+        <v>Agriculture Oil LPG</v>
       </c>
       <c r="M60" t="s">
         <v>239</v>
@@ -33750,7 +33755,7 @@
       <c r="R60"/>
       <c r="S60" t="str">
         <f t="shared" si="4"/>
-        <v>XCOMOLP</v>
+        <v>XAGROLP</v>
       </c>
       <c r="T60" t="str">
         <f t="shared" si="5"/>
@@ -33758,7 +33763,7 @@
       </c>
       <c r="U60" t="str">
         <f t="shared" si="5"/>
-        <v>COMOLP</v>
+        <v>AGROLP</v>
       </c>
       <c r="V60">
         <v>1</v>
@@ -33777,18 +33782,18 @@
     </row>
     <row r="61" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>214</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="F61" t="s">
         <v>239</v>
@@ -33799,11 +33804,11 @@
       <c r="J61"/>
       <c r="K61" t="str">
         <f t="shared" si="2"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="L61" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Oil LPG</v>
+        <v>Commerce Oil LPG</v>
       </c>
       <c r="M61" t="s">
         <v>239</v>
@@ -33821,7 +33826,7 @@
       <c r="R61"/>
       <c r="S61" t="str">
         <f t="shared" si="4"/>
-        <v>XINDOLP</v>
+        <v>XCOMOLP</v>
       </c>
       <c r="T61" t="str">
         <f t="shared" si="5"/>
@@ -33829,7 +33834,7 @@
       </c>
       <c r="U61" t="str">
         <f t="shared" si="5"/>
-        <v>INDOLP</v>
+        <v>COMOLP</v>
       </c>
       <c r="V61">
         <v>1</v>
@@ -33848,18 +33853,18 @@
     </row>
     <row r="62" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>214</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="F62" t="s">
         <v>239</v>
@@ -33870,11 +33875,11 @@
       <c r="J62"/>
       <c r="K62" t="str">
         <f t="shared" si="2"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="L62" t="str">
         <f t="shared" si="3"/>
-        <v>Residential Oil LPG</v>
+        <v>Industry Oil LPG</v>
       </c>
       <c r="M62" t="s">
         <v>239</v>
@@ -33892,7 +33897,7 @@
       <c r="R62"/>
       <c r="S62" t="str">
         <f t="shared" si="4"/>
-        <v>XRESOLP</v>
+        <v>XINDOLP</v>
       </c>
       <c r="T62" t="str">
         <f t="shared" si="5"/>
@@ -33900,7 +33905,7 @@
       </c>
       <c r="U62" t="str">
         <f t="shared" si="5"/>
-        <v>RESOLP</v>
+        <v>INDOLP</v>
       </c>
       <c r="V62">
         <v>1</v>
@@ -33919,18 +33924,18 @@
     </row>
     <row r="63" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="F63" t="s">
         <v>239</v>
@@ -33941,11 +33946,11 @@
       <c r="J63"/>
       <c r="K63" t="str">
         <f t="shared" si="2"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="L63" t="str">
         <f t="shared" si="3"/>
-        <v>Industry Waste</v>
+        <v>Residential Oil LPG</v>
       </c>
       <c r="M63" t="s">
         <v>239</v>
@@ -33963,15 +33968,15 @@
       <c r="R63"/>
       <c r="S63" t="str">
         <f t="shared" si="4"/>
-        <v>XINDWAS</v>
+        <v>XRESOLP</v>
       </c>
       <c r="T63" t="str">
         <f t="shared" si="5"/>
-        <v>WAS</v>
+        <v>OLP</v>
       </c>
       <c r="U63" t="str">
         <f t="shared" si="5"/>
-        <v>INDWAS</v>
+        <v>RESOLP</v>
       </c>
       <c r="V63">
         <v>1</v>
@@ -33986,21 +33991,22 @@
       <c r="Z63">
         <v>1</v>
       </c>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" ref="D64:D69" si="54">B64&amp;C64</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="1"/>
+        <v>INDWAS</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" ref="E64:E69" si="55">INDEX(SectorNamesLong,MATCH(B64,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C64,FuelNamesShort,0))</f>
-        <v>Power Solar</v>
+        <f t="shared" si="0"/>
+        <v>Industry Waste</v>
       </c>
       <c r="F64" t="s">
         <v>239</v>
@@ -34010,12 +34016,12 @@
       <c r="I64"/>
       <c r="J64"/>
       <c r="K64" t="str">
-        <f t="shared" ref="K64:K69" si="56">"X"&amp;D64</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="2"/>
+        <v>XINDWAS</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" ref="L64:L69" si="57">E64</f>
-        <v>Power Solar</v>
+        <f t="shared" si="3"/>
+        <v>Industry Waste</v>
       </c>
       <c r="M64" t="s">
         <v>239</v>
@@ -34032,16 +34038,16 @@
       <c r="Q64"/>
       <c r="R64"/>
       <c r="S64" t="str">
-        <f t="shared" ref="S64:S69" si="58">K64</f>
-        <v>XPWRSOL</v>
+        <f t="shared" si="4"/>
+        <v>XINDWAS</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" ref="T64:T69" si="59">C64</f>
-        <v>SOL</v>
+        <f t="shared" si="5"/>
+        <v>WAS</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" ref="U64:U69" si="60">D64</f>
-        <v>PWRSOL</v>
+        <f t="shared" si="5"/>
+        <v>INDWAS</v>
       </c>
       <c r="V64">
         <v>1</v>
@@ -34062,15 +34068,15 @@
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="D65:D70" si="60">B65&amp;C65</f>
+        <v>PWRSOL</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="E65:E70" si="61">INDEX(SectorNamesLong,MATCH(B65,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C65,FuelNamesShort,0))</f>
+        <v>Power Solar</v>
       </c>
       <c r="F65" t="s">
         <v>239</v>
@@ -34080,12 +34086,12 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="K65:K70" si="62">"X"&amp;D65</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="L65:L70" si="63">E65</f>
+        <v>Power Solar</v>
       </c>
       <c r="M65" t="s">
         <v>239</v>
@@ -34102,16 +34108,16 @@
       <c r="Q65"/>
       <c r="R65"/>
       <c r="S65" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="S65:S70" si="64">K65</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="59"/>
-        <v>WND</v>
+        <f t="shared" ref="T65:T70" si="65">C65</f>
+        <v>SOL</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="U65:U70" si="66">D65</f>
+        <v>PWRSOL</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -34132,15 +34138,15 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="60"/>
+        <v>PWRWND</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="61"/>
+        <v>Power Wind</v>
       </c>
       <c r="F66" t="s">
         <v>239</v>
@@ -34150,12 +34156,12 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="62"/>
+        <v>XPWRWND</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="63"/>
+        <v>Power Wind</v>
       </c>
       <c r="M66" t="s">
         <v>239</v>
@@ -34172,16 +34178,16 @@
       <c r="Q66"/>
       <c r="R66"/>
       <c r="S66" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="64"/>
+        <v>XPWRWND</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="59"/>
-        <v>HYD</v>
+        <f t="shared" si="65"/>
+        <v>WND</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="66"/>
+        <v>PWRWND</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -34202,15 +34208,15 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="60"/>
+        <v>PWRHYD</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="61"/>
+        <v>Power Hydro</v>
       </c>
       <c r="F67" t="s">
         <v>239</v>
@@ -34220,12 +34226,12 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="62"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="63"/>
+        <v>Power Hydro</v>
       </c>
       <c r="M67" t="s">
         <v>239</v>
@@ -34242,16 +34248,16 @@
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="64"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="59"/>
-        <v>BIO</v>
+        <f t="shared" si="65"/>
+        <v>HYD</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="66"/>
+        <v>PWRHYD</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -34272,15 +34278,15 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="60"/>
+        <v>PWRBIO</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="61"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="F68" t="s">
         <v>239</v>
@@ -34290,12 +34296,12 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="62"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="63"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="M68" t="s">
         <v>239</v>
@@ -34312,16 +34318,16 @@
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="64"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="59"/>
-        <v>NUC</v>
+        <f t="shared" si="65"/>
+        <v>BIO</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="66"/>
+        <v>PWRBIO</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -34342,15 +34348,15 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="54"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="60"/>
+        <v>PWRNUC</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="55"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="61"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="F69" t="s">
         <v>239</v>
@@ -34360,12 +34366,12 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" t="str">
-        <f t="shared" si="56"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="62"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="57"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="63"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="M69" t="s">
         <v>239</v>
@@ -34382,16 +34388,16 @@
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69" t="str">
-        <f t="shared" si="58"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="64"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="59"/>
-        <v>CLE</v>
+        <f t="shared" si="65"/>
+        <v>NUC</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="66"/>
+        <v>PWRNUC</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -34407,8 +34413,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B78"/>
+    <row r="70" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="60"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="61"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70" t="str">
+        <f t="shared" si="62"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="63"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="M70" t="s">
+        <v>239</v>
+      </c>
+      <c r="N70" t="s">
+        <v>428</v>
+      </c>
+      <c r="O70" t="s">
+        <v>357</v>
+      </c>
+      <c r="P70" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70" t="str">
+        <f t="shared" si="64"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="T70" t="str">
+        <f t="shared" si="65"/>
+        <v>CLE</v>
+      </c>
+      <c r="U70" t="str">
+        <f t="shared" si="66"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>60</v>
+      </c>
+      <c r="X70"/>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B79"/>
@@ -34527,8 +34600,11 @@
     <row r="117" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B117"/>
     </row>
+    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B118"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B8:AA63" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
+  <autoFilter ref="B8:AA64" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
@@ -55199,7 +55275,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45199.685924074074</v>
+        <v>45201.46088136574</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56023,7 +56099,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45199.685924074074</v>
+        <v>45201.46088136574</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -56054,10 +56130,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D132"/>
+  <dimension ref="A2:D133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56103,7 +56179,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <f t="shared" ref="A6:A47" si="0">A5+1</f>
+        <f t="shared" ref="A6:A48" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -56527,10 +56603,10 @@
         <v>37</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>211</v>
+        <v>1106</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>212</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -56539,10 +56615,10 @@
         <v>38</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -56551,10 +56627,10 @@
         <v>39</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -56563,10 +56639,10 @@
         <v>40</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -56575,10 +56651,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -56587,10 +56663,10 @@
         <v>42</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -56599,87 +56675,94 @@
         <v>43</v>
       </c>
       <c r="B47" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="28">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="30"/>
-    </row>
-    <row r="50" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="26" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="30"/>
+    </row>
+    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B51" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C51" s="26" t="s">
         <v>225</v>
-      </c>
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>0</v>
       </c>
       <c r="D51" s="30"/>
     </row>
     <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D52" s="30"/>
     </row>
     <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="D53" s="30"/>
     </row>
     <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="D54" s="30"/>
     </row>
     <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="30"/>
     </row>
     <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>228</v>
       </c>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58"/>
-      <c r="C58"/>
       <c r="D58" s="30"/>
     </row>
     <row r="59" spans="2:4" ht="15" x14ac:dyDescent="0.25">
@@ -56687,7 +56770,9 @@
       <c r="C59"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+      <c r="C60"/>
       <c r="D60" s="30"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
@@ -56715,19 +56800,16 @@
       <c r="D68" s="30"/>
     </row>
     <row r="69" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="30" t="s">
+      <c r="D69" s="30"/>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C70" s="30" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="30">
-        <f t="shared" ref="C70:C80" si="1">COUNTIF($C$5:$C$46,C5)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C71:C81" si="1">COUNTIF($C$5:$C$47,C5)</f>
         <v>1</v>
       </c>
     </row>
@@ -56786,26 +56868,23 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="28">
-        <v>1</v>
-      </c>
       <c r="C81" s="30">
-        <f t="shared" ref="C81:C91" si="2">COUNTIF($C$5:$C$46,C17)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C82:C92" si="2">COUNTIF($C$5:$C$47,C17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" s="30">
         <f t="shared" si="2"/>
@@ -56814,7 +56893,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C84" s="30">
         <f t="shared" si="2"/>
@@ -56823,7 +56902,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C85" s="30">
         <f t="shared" si="2"/>
@@ -56832,7 +56911,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="30">
         <f t="shared" si="2"/>
@@ -56841,7 +56920,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="30">
         <f t="shared" si="2"/>
@@ -56850,7 +56929,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88" s="30">
         <f t="shared" si="2"/>
@@ -56859,7 +56938,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89" s="30">
         <f t="shared" si="2"/>
@@ -56868,7 +56947,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="30">
         <f t="shared" si="2"/>
@@ -56877,7 +56956,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="30">
         <f t="shared" si="2"/>
@@ -56886,25 +56965,25 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C92" s="30">
-        <f t="shared" ref="C92:C109" si="3">COUNTIF($C$5:$C$46,C29)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C93" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C93:C104" si="3">COUNTIF($C$5:$C$47,C29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" s="30">
         <f t="shared" si="3"/>
@@ -56913,7 +56992,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" s="30">
         <f t="shared" si="3"/>
@@ -56922,7 +57001,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C96" s="30">
         <f t="shared" si="3"/>
@@ -56931,7 +57010,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97" s="30">
         <f t="shared" si="3"/>
@@ -56940,7 +57019,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C98" s="30">
         <f t="shared" si="3"/>
@@ -56949,7 +57028,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C99" s="30">
         <f t="shared" si="3"/>
@@ -56958,7 +57037,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C100" s="30">
         <f t="shared" si="3"/>
@@ -56967,7 +57046,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="30">
         <f t="shared" si="3"/>
@@ -56976,15 +57055,17 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C102" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B103"/>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="28">
+        <v>22</v>
+      </c>
       <c r="C103" s="30">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -57000,41 +57081,44 @@
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="C105" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C105:C110" si="4">COUNTIF($C$5:$C$47,C42)</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B110"/>
-      <c r="C110" s="30"/>
+      <c r="C110" s="30">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B111"/>
@@ -57074,25 +57158,26 @@
     </row>
     <row r="120" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B120"/>
+      <c r="C120" s="30"/>
     </row>
     <row r="121" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B121"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-    </row>
-    <row r="123" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B123"/>
-      <c r="C123"/>
-    </row>
-    <row r="125" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B125" s="35"/>
-      <c r="C125"/>
-    </row>
-    <row r="129" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B129"/>
+    <row r="122" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+    </row>
+    <row r="124" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+      <c r="C124"/>
+    </row>
+    <row r="126" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B126" s="35"/>
+      <c r="C126"/>
     </row>
     <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B130"/>
@@ -57102,6 +57187,9 @@
     </row>
     <row r="132" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B132"/>
+    </row>
+    <row r="133" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B133"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -59639,11 +59727,11 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="380" t="str">
-        <f>NameConv!C41</f>
+        <f>NameConv!C42</f>
         <v>OKE</v>
       </c>
       <c r="C43" s="380" t="str">
-        <f>NameConv!B41</f>
+        <f>NameConv!B42</f>
         <v>Oil Kerosene</v>
       </c>
       <c r="D43" s="381" t="s">
@@ -59663,11 +59751,11 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="380" t="str">
-        <f>NameConv!C42</f>
+        <f>NameConv!C43</f>
         <v>OLP</v>
       </c>
       <c r="C44" s="380" t="str">
-        <f>NameConv!B42</f>
+        <f>NameConv!B43</f>
         <v>Oil LPG</v>
       </c>
       <c r="D44" s="381" t="s">
@@ -59687,11 +59775,11 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="380" t="str">
-        <f>NameConv!C43</f>
+        <f>NameConv!C44</f>
         <v>OTH</v>
       </c>
       <c r="C45" s="380" t="str">
-        <f>NameConv!B43</f>
+        <f>NameConv!B44</f>
         <v>Oil Other</v>
       </c>
       <c r="D45" s="381" t="s">
@@ -59711,11 +59799,11 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="380" t="str">
-        <f>NameConv!C44</f>
+        <f>NameConv!C45</f>
         <v>SOL</v>
       </c>
       <c r="C46" s="380" t="str">
-        <f>NameConv!B44</f>
+        <f>NameConv!B45</f>
         <v>Solar</v>
       </c>
       <c r="D46" s="381" t="s">
@@ -59735,11 +59823,11 @@
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="380" t="str">
-        <f>NameConv!C45</f>
+        <f>NameConv!C46</f>
         <v>WND</v>
       </c>
       <c r="C47" s="380" t="str">
-        <f>NameConv!B45</f>
+        <f>NameConv!B46</f>
         <v>Wind</v>
       </c>
       <c r="D47" s="381" t="s">
@@ -59759,11 +59847,11 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="380" t="str">
-        <f>NameConv!C46</f>
+        <f>NameConv!C47</f>
         <v>WAS</v>
       </c>
       <c r="C48" s="380" t="str">
-        <f>NameConv!B46</f>
+        <f>NameConv!B47</f>
         <v>Waste</v>
       </c>
       <c r="D48" s="381" t="s">
@@ -60135,7 +60223,7 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="F62" sqref="F62:I62"/>
     </sheetView>
   </sheetViews>
@@ -60597,23 +60685,23 @@
         <v>Oil HFO</v>
       </c>
       <c r="AU7" s="42" t="str">
-        <f>NameConv!$B$41</f>
+        <f>NameConv!$B$42</f>
         <v>Oil Kerosene</v>
       </c>
       <c r="AV7" s="42" t="str">
-        <f>NameConv!$B$42</f>
+        <f>NameConv!$B$43</f>
         <v>Oil LPG</v>
       </c>
       <c r="AW7" s="42" t="str">
-        <f>NameConv!$B$43</f>
+        <f>NameConv!$B$44</f>
         <v>Oil Other</v>
       </c>
       <c r="AX7" s="42" t="str">
-        <f>NameConv!$B$44</f>
+        <f>NameConv!$B$45</f>
         <v>Solar</v>
       </c>
       <c r="AY7" s="42" t="str">
-        <f>NameConv!$B$45</f>
+        <f>NameConv!$B$46</f>
         <v>Wind</v>
       </c>
     </row>
@@ -65279,7 +65367,7 @@
         <v>MINWAS</v>
       </c>
       <c r="D73" s="159" t="str">
-        <f>NameConv!C46</f>
+        <f>NameConv!C47</f>
         <v>WAS</v>
       </c>
       <c r="E73" s="30">
@@ -65416,7 +65504,7 @@
         <v>MINSOL</v>
       </c>
       <c r="D75" s="159" t="str">
-        <f>NameConv!C44</f>
+        <f>NameConv!C45</f>
         <v>SOL</v>
       </c>
       <c r="E75" s="30">
@@ -65477,7 +65565,7 @@
         <v>MINWND</v>
       </c>
       <c r="D76" s="159" t="str">
-        <f>NameConv!C45</f>
+        <f>NameConv!C46</f>
         <v>WND</v>
       </c>
       <c r="E76" s="30">
@@ -66419,7 +66507,7 @@
         <v>IMPOLP</v>
       </c>
       <c r="D89" s="159" t="str">
-        <f>NameConv!C42</f>
+        <f>NameConv!C43</f>
         <v>OLP</v>
       </c>
       <c r="E89" s="30">
@@ -66496,7 +66584,7 @@
         <v>IMPOKE</v>
       </c>
       <c r="D90" s="159" t="str">
-        <f>NameConv!C41</f>
+        <f>NameConv!C42</f>
         <v>OKE</v>
       </c>
       <c r="E90" s="30">
@@ -67515,7 +67603,7 @@
         <v>PEXOKE</v>
       </c>
       <c r="C104" s="159" t="str">
-        <f>NameConv!C41</f>
+        <f>NameConv!C42</f>
         <v>OKE</v>
       </c>
       <c r="E104" s="30">

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F580CBE-EB58-46E3-8E4F-F6648C2BA0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E59CF-A4DC-40FD-9929-B3FD556B7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26610" windowHeight="13740" firstSheet="5" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,9 @@
     <definedName name="emissions_start">[3]NameConv!$AY$4</definedName>
     <definedName name="emissions_types">[3]NameConv!$AX$3</definedName>
     <definedName name="eps">NameConv!$D$2</definedName>
-    <definedName name="FuelNames">NameConv!$B$5:$C$47</definedName>
-    <definedName name="FuelNamesLong">NameConv!$B$5:$B$47</definedName>
-    <definedName name="FuelNamesShort">NameConv!$C$5:$C$47</definedName>
+    <definedName name="FuelNames">NameConv!$B$5:$C$48</definedName>
+    <definedName name="FuelNamesLong">NameConv!$B$5:$B$48</definedName>
+    <definedName name="FuelNamesShort">NameConv!$C$5:$C$48</definedName>
     <definedName name="gwpch4">'[2]SASOL CC 2019 report'!$E$98</definedName>
     <definedName name="gwpn2o">'[2]SASOL CC 2019 report'!$E$97</definedName>
     <definedName name="H2.LHV.MJ_kg">'[3]Hydrogen-ELT'!$D$39</definedName>
@@ -135,9 +135,9 @@
     <definedName name="Sector.Transport">[3]Index!$G$2</definedName>
     <definedName name="sector_prefix" localSheetId="8">GasPipeLines!#REF!</definedName>
     <definedName name="sector_prefix">LNG!#REF!</definedName>
-    <definedName name="SectorNames">NameConv!$B$52:$C$60</definedName>
-    <definedName name="SectorNamesLong">NameConv!$C$52:$C$60</definedName>
-    <definedName name="SectorNamesShort">NameConv!$B$52:$B$60</definedName>
+    <definedName name="SectorNames">NameConv!$B$53:$C$61</definedName>
+    <definedName name="SectorNamesLong">NameConv!$C$53:$C$61</definedName>
+    <definedName name="SectorNamesShort">NameConv!$B$53:$B$61</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
@@ -1631,7 +1631,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1109">
   <si>
     <t>Agriculture</t>
   </si>
@@ -5111,6 +5111,12 @@
   </si>
   <si>
     <t>Oil HFO for material use</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>Waste for material use</t>
   </si>
 </sst>
 </file>
@@ -7392,57 +7398,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7480,6 +7435,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24956,25 +24962,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="433" t="s">
+      <c r="AC6" s="416" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="433"/>
+      <c r="AD6" s="416"/>
+      <c r="AE6" s="416"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="417" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="419" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="438" t="s">
+      <c r="C7" s="421" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="439"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="443" t="s">
+      <c r="D7" s="422"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="426" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25002,12 +25008,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="437"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="442"/>
-      <c r="E8" s="442"/>
-      <c r="F8" s="444"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="420"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="427"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25873,11 +25879,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="432" t="s">
+      <c r="AC25" s="415" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="432"/>
-      <c r="AE25" s="432"/>
+      <c r="AD25" s="415"/>
+      <c r="AE25" s="415"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25956,8 +25962,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="428"/>
-      <c r="I31" s="428"/>
+      <c r="H31" s="435"/>
+      <c r="I31" s="435"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -25978,10 +25984,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="420" t="s">
+      <c r="L32" s="428" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="429" t="s">
+      <c r="M32" s="436" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -25996,22 +26002,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="420" t="s">
+      <c r="R32" s="428" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="420" t="s">
+      <c r="S32" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="420" t="s">
+      <c r="T32" s="428" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="420" t="s">
+      <c r="U32" s="428" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="420" t="s">
+      <c r="V32" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="420" t="s">
+      <c r="W32" s="428" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26034,28 +26040,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="427" t="s">
+      <c r="H33" s="431" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="427"/>
+      <c r="I33" s="431"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="421"/>
-      <c r="M33" s="430"/>
+      <c r="L33" s="429"/>
+      <c r="M33" s="437"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="421"/>
-      <c r="S33" s="421"/>
-      <c r="T33" s="421"/>
-      <c r="U33" s="421"/>
-      <c r="V33" s="421"/>
-      <c r="W33" s="421"/>
+      <c r="R33" s="429"/>
+      <c r="S33" s="429"/>
+      <c r="T33" s="429"/>
+      <c r="U33" s="429"/>
+      <c r="V33" s="429"/>
+      <c r="W33" s="429"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26075,8 +26081,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="422"/>
-      <c r="M34" s="431"/>
+      <c r="L34" s="430"/>
+      <c r="M34" s="438"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26089,12 +26095,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="422"/>
-      <c r="S34" s="422"/>
-      <c r="T34" s="422"/>
-      <c r="U34" s="422"/>
-      <c r="V34" s="422"/>
-      <c r="W34" s="422"/>
+      <c r="R34" s="430"/>
+      <c r="S34" s="430"/>
+      <c r="T34" s="430"/>
+      <c r="U34" s="430"/>
+      <c r="V34" s="430"/>
+      <c r="W34" s="430"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26160,7 +26166,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="423" t="str">
+      <c r="L36" s="432" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26240,7 +26246,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="424"/>
+      <c r="L37" s="433"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26311,7 +26317,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="424"/>
+      <c r="L38" s="433"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26386,7 +26392,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="424"/>
+      <c r="L39" s="433"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26457,7 +26463,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="424"/>
+      <c r="L40" s="433"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26531,7 +26537,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="425"/>
+      <c r="L41" s="434"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26605,7 +26611,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="423" t="s">
+      <c r="L42" s="432" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26678,7 +26684,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="424"/>
+      <c r="L43" s="433"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26754,7 +26760,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="424"/>
+      <c r="L44" s="433"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26826,7 +26832,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="425"/>
+      <c r="L45" s="434"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26895,7 +26901,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="423" t="str">
+      <c r="L46" s="432" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26971,7 +26977,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="424"/>
+      <c r="L47" s="433"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27042,7 +27048,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="425"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27411,10 +27417,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="426" t="s">
+      <c r="D79" s="444" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="426"/>
+      <c r="E79" s="444"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27516,13 +27522,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="415" t="s">
+      <c r="A103" s="439" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="417" t="s">
+      <c r="C103" s="441" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27533,11 +27539,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="416"/>
+      <c r="A104" s="440"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="418"/>
+      <c r="C104" s="442"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27550,13 +27556,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="415" t="s">
+      <c r="A105" s="439" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="418"/>
+      <c r="C105" s="442"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27565,11 +27571,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="416"/>
+      <c r="A106" s="440"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="419"/>
+      <c r="C106" s="443"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27578,13 +27584,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="415" t="s">
+      <c r="A107" s="439" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="417" t="s">
+      <c r="C107" s="441" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27595,11 +27601,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="416"/>
+      <c r="A108" s="440"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="418"/>
+      <c r="C108" s="442"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27608,13 +27614,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="415" t="s">
+      <c r="A109" s="439" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="418"/>
+      <c r="C109" s="442"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27623,11 +27629,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="416"/>
+      <c r="A110" s="440"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="419"/>
+      <c r="C110" s="443"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29090,12 +29096,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29106,16 +29116,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29864,10 +29870,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -34065,18 +34071,18 @@
     </row>
     <row r="65" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>218</v>
+        <v>1107</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D70" si="60">B65&amp;C65</f>
-        <v>PWRSOL</v>
+        <f t="shared" ref="D65" si="60">B65&amp;C65</f>
+        <v>INDWMU</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" ref="E65:E70" si="61">INDEX(SectorNamesLong,MATCH(B65,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C65,FuelNamesShort,0))</f>
-        <v>Power Solar</v>
+        <f t="shared" ref="E65" si="61">INDEX(SectorNamesLong,MATCH(B65,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C65,FuelNamesShort,0))</f>
+        <v>Industry Waste for material use</v>
       </c>
       <c r="F65" t="s">
         <v>239</v>
@@ -34086,12 +34092,12 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65" t="str">
-        <f t="shared" ref="K65:K70" si="62">"X"&amp;D65</f>
-        <v>XPWRSOL</v>
+        <f t="shared" ref="K65" si="62">"X"&amp;D65</f>
+        <v>XINDWMU</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" ref="L65:L70" si="63">E65</f>
-        <v>Power Solar</v>
+        <f t="shared" ref="L65" si="63">E65</f>
+        <v>Industry Waste for material use</v>
       </c>
       <c r="M65" t="s">
         <v>239</v>
@@ -34108,16 +34114,15 @@
       <c r="Q65"/>
       <c r="R65"/>
       <c r="S65" t="str">
-        <f t="shared" ref="S65:S70" si="64">K65</f>
-        <v>XPWRSOL</v>
-      </c>
-      <c r="T65" t="str">
-        <f t="shared" ref="T65:T70" si="65">C65</f>
-        <v>SOL</v>
+        <f t="shared" ref="S65" si="64">K65</f>
+        <v>XINDWMU</v>
+      </c>
+      <c r="T65" s="237" t="s">
+        <v>222</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" ref="U65:U70" si="66">D65</f>
-        <v>PWRSOL</v>
+        <f t="shared" ref="U65" si="65">D65</f>
+        <v>INDWMU</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -34138,15 +34143,15 @@
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="D66:D71" si="66">B66&amp;C66</f>
+        <v>PWRSOL</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="61"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="E66:E71" si="67">INDEX(SectorNamesLong,MATCH(B66,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C66,FuelNamesShort,0))</f>
+        <v>Power Solar</v>
       </c>
       <c r="F66" t="s">
         <v>239</v>
@@ -34156,12 +34161,12 @@
       <c r="I66"/>
       <c r="J66"/>
       <c r="K66" t="str">
-        <f t="shared" si="62"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="K66:K71" si="68">"X"&amp;D66</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="63"/>
-        <v>Power Wind</v>
+        <f t="shared" ref="L66:L71" si="69">E66</f>
+        <v>Power Solar</v>
       </c>
       <c r="M66" t="s">
         <v>239</v>
@@ -34178,16 +34183,16 @@
       <c r="Q66"/>
       <c r="R66"/>
       <c r="S66" t="str">
-        <f t="shared" si="64"/>
-        <v>XPWRWND</v>
+        <f t="shared" ref="S66:S71" si="70">K66</f>
+        <v>XPWRSOL</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="65"/>
-        <v>WND</v>
+        <f t="shared" ref="T66:T71" si="71">C66</f>
+        <v>SOL</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="66"/>
-        <v>PWRWND</v>
+        <f t="shared" ref="U66:U71" si="72">D66</f>
+        <v>PWRSOL</v>
       </c>
       <c r="V66">
         <v>1</v>
@@ -34208,15 +34213,15 @@
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="66"/>
+        <v>PWRWND</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="61"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="67"/>
+        <v>Power Wind</v>
       </c>
       <c r="F67" t="s">
         <v>239</v>
@@ -34226,12 +34231,12 @@
       <c r="I67"/>
       <c r="J67"/>
       <c r="K67" t="str">
-        <f t="shared" si="62"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="68"/>
+        <v>XPWRWND</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="63"/>
-        <v>Power Hydro</v>
+        <f t="shared" si="69"/>
+        <v>Power Wind</v>
       </c>
       <c r="M67" t="s">
         <v>239</v>
@@ -34248,16 +34253,16 @@
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67" t="str">
-        <f t="shared" si="64"/>
-        <v>XPWRHYD</v>
+        <f t="shared" si="70"/>
+        <v>XPWRWND</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="65"/>
-        <v>HYD</v>
+        <f t="shared" si="71"/>
+        <v>WND</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="66"/>
-        <v>PWRHYD</v>
+        <f t="shared" si="72"/>
+        <v>PWRWND</v>
       </c>
       <c r="V67">
         <v>1</v>
@@ -34278,15 +34283,15 @@
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="66"/>
+        <v>PWRHYD</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="61"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="67"/>
+        <v>Power Hydro</v>
       </c>
       <c r="F68" t="s">
         <v>239</v>
@@ -34296,12 +34301,12 @@
       <c r="I68"/>
       <c r="J68"/>
       <c r="K68" t="str">
-        <f t="shared" si="62"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="68"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="63"/>
-        <v>Power Biomass Other</v>
+        <f t="shared" si="69"/>
+        <v>Power Hydro</v>
       </c>
       <c r="M68" t="s">
         <v>239</v>
@@ -34318,16 +34323,16 @@
       <c r="Q68"/>
       <c r="R68"/>
       <c r="S68" t="str">
-        <f t="shared" si="64"/>
-        <v>XPWRBIO</v>
+        <f t="shared" si="70"/>
+        <v>XPWRHYD</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="65"/>
-        <v>BIO</v>
+        <f t="shared" si="71"/>
+        <v>HYD</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="66"/>
-        <v>PWRBIO</v>
+        <f t="shared" si="72"/>
+        <v>PWRHYD</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -34348,15 +34353,15 @@
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="66"/>
+        <v>PWRBIO</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="61"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="67"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="F69" t="s">
         <v>239</v>
@@ -34366,12 +34371,12 @@
       <c r="I69"/>
       <c r="J69"/>
       <c r="K69" t="str">
-        <f t="shared" si="62"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="68"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="63"/>
-        <v>Power Nuclear</v>
+        <f t="shared" si="69"/>
+        <v>Power Biomass Other</v>
       </c>
       <c r="M69" t="s">
         <v>239</v>
@@ -34388,16 +34393,16 @@
       <c r="Q69"/>
       <c r="R69"/>
       <c r="S69" t="str">
-        <f t="shared" si="64"/>
-        <v>XPWRNUC</v>
+        <f t="shared" si="70"/>
+        <v>XPWRBIO</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="65"/>
-        <v>NUC</v>
+        <f t="shared" si="71"/>
+        <v>BIO</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="66"/>
-        <v>PWRNUC</v>
+        <f t="shared" si="72"/>
+        <v>PWRBIO</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -34418,15 +34423,15 @@
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="60"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="66"/>
+        <v>PWRNUC</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="61"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="67"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="F70" t="s">
         <v>239</v>
@@ -34436,12 +34441,12 @@
       <c r="I70"/>
       <c r="J70"/>
       <c r="K70" t="str">
-        <f t="shared" si="62"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="68"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="63"/>
-        <v>Power Coal low grade</v>
+        <f t="shared" si="69"/>
+        <v>Power Nuclear</v>
       </c>
       <c r="M70" t="s">
         <v>239</v>
@@ -34458,16 +34463,16 @@
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70" t="str">
-        <f t="shared" si="64"/>
-        <v>XPWRCLE</v>
+        <f t="shared" si="70"/>
+        <v>XPWRNUC</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="65"/>
-        <v>CLE</v>
+        <f t="shared" si="71"/>
+        <v>NUC</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="66"/>
-        <v>PWRCLE</v>
+        <f t="shared" si="72"/>
+        <v>PWRNUC</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -34483,8 +34488,145 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B79"/>
+    <row r="71" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="66"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="67"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="F71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71" t="str">
+        <f t="shared" si="68"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="69"/>
+        <v>Power Coal low grade</v>
+      </c>
+      <c r="M71" t="s">
+        <v>239</v>
+      </c>
+      <c r="N71" t="s">
+        <v>428</v>
+      </c>
+      <c r="O71" t="s">
+        <v>357</v>
+      </c>
+      <c r="P71" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71" t="str">
+        <f t="shared" si="70"/>
+        <v>XPWRCLE</v>
+      </c>
+      <c r="T71" t="str">
+        <f t="shared" si="71"/>
+        <v>CLE</v>
+      </c>
+      <c r="U71" t="str">
+        <f t="shared" si="72"/>
+        <v>PWRCLE</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <v>60</v>
+      </c>
+      <c r="X71"/>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ref="D72" si="73">B72&amp;C72</f>
+        <v>PWRCLD</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ref="E72" si="74">INDEX(SectorNamesLong,MATCH(B72,SectorNamesShort,0))&amp;" "&amp;INDEX(FuelNamesLong,MATCH(C72,FuelNamesShort,0))</f>
+        <v>Power Coal Discard</v>
+      </c>
+      <c r="F72" t="s">
+        <v>239</v>
+      </c>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72" t="str">
+        <f t="shared" ref="K72" si="75">"X"&amp;D72</f>
+        <v>XPWRCLD</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" ref="L72" si="76">E72</f>
+        <v>Power Coal Discard</v>
+      </c>
+      <c r="M72" t="s">
+        <v>239</v>
+      </c>
+      <c r="N72" t="s">
+        <v>428</v>
+      </c>
+      <c r="O72" t="s">
+        <v>357</v>
+      </c>
+      <c r="P72" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72" t="str">
+        <f t="shared" ref="S72" si="77">K72</f>
+        <v>XPWRCLD</v>
+      </c>
+      <c r="T72" t="str">
+        <f t="shared" ref="T72" si="78">C72</f>
+        <v>CLD</v>
+      </c>
+      <c r="U72" t="str">
+        <f t="shared" ref="U72" si="79">D72</f>
+        <v>PWRCLD</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>60</v>
+      </c>
+      <c r="X72"/>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B80"/>
@@ -34602,6 +34744,9 @@
     </row>
     <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B118"/>
+    </row>
+    <row r="119" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B119"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:AA64" xr:uid="{00000000-0001-0000-2200-000000000000}"/>
@@ -49803,18 +49948,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="427" t="s">
+      <c r="DL94" s="431" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="427"/>
-      <c r="DN94" s="427" t="s">
+      <c r="DM94" s="431"/>
+      <c r="DN94" s="431" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="427"/>
-      <c r="DP94" s="427" t="s">
+      <c r="DO94" s="431"/>
+      <c r="DP94" s="431" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="427"/>
+      <c r="DQ94" s="431"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55275,7 +55420,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45201.46088136574</v>
+        <v>45201.73094212963</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56099,7 +56244,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45201.46088136574</v>
+        <v>45201.73094212963</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -56130,10 +56275,10 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D133"/>
+  <dimension ref="A2:D134"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56179,7 +56324,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
-        <f t="shared" ref="A6:A48" si="0">A5+1</f>
+        <f t="shared" ref="A6:A49" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -56687,104 +56832,113 @@
         <v>44</v>
       </c>
       <c r="B48" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="28">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="30"/>
-    </row>
-    <row r="51" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B51" s="26" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="30"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C52" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="D51" s="30"/>
-    </row>
-    <row r="52" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="D52" s="30"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>0</v>
       </c>
-      <c r="D52" s="30"/>
-    </row>
-    <row r="53" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="D53" s="30"/>
+    </row>
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>6</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>226</v>
       </c>
-      <c r="D53" s="30"/>
-    </row>
-    <row r="54" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="D54" s="30"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="30"/>
-    </row>
-    <row r="55" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="D55" s="30"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="30"/>
-    </row>
-    <row r="56" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="D56" s="30"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>9</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>3</v>
       </c>
-      <c r="D56" s="30"/>
-    </row>
-    <row r="57" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="D57" s="30"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="30"/>
-    </row>
-    <row r="58" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="D58" s="30"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>228</v>
       </c>
-      <c r="D58" s="30"/>
-    </row>
-    <row r="59" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B59"/>
-      <c r="C59"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+      <c r="C61"/>
       <c r="D61" s="30"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D62" s="30"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D63" s="30"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D64" s="30"/>
     </row>
     <row r="65" spans="3:4" x14ac:dyDescent="0.2">
@@ -56803,326 +56957,325 @@
       <c r="D69" s="30"/>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="30" t="s">
+      <c r="D70" s="30"/>
+    </row>
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C71" s="30" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="30">
-        <f t="shared" ref="C71:C81" si="1">COUNTIF($C$5:$C$47,C5)</f>
-        <v>1</v>
       </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C81" s="30">
-        <f t="shared" si="1"/>
+        <f>COUNTIF($C$5:$C$48,C14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="28">
-        <v>1</v>
-      </c>
       <c r="C82" s="30">
-        <f t="shared" ref="C82:C92" si="2">COUNTIF($C$5:$C$47,C17)</f>
+        <f>COUNTIF($C$5:$C$48,C15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C85" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C21)</f>
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" s="30">
-        <f t="shared" si="2"/>
+        <f>COUNTIF($C$5:$C$48,C26)</f>
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C93" s="30">
-        <f t="shared" ref="C93:C104" si="3">COUNTIF($C$5:$C$47,C29)</f>
+        <f>COUNTIF($C$5:$C$48,C27)</f>
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C29)</f>
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C95" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C30)</f>
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C96" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C31)</f>
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C97" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C33)</f>
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C99" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C34)</f>
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C100" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C35)</f>
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C101" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C36)</f>
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C37)</f>
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="28">
+        <v>21</v>
+      </c>
+      <c r="C103" s="30">
+        <f>COUNTIF($C$5:$C$48,C38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="28">
         <v>22</v>
       </c>
-      <c r="C103" s="30">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B104"/>
       <c r="C104" s="30">
-        <f t="shared" si="3"/>
+        <f>COUNTIF($C$5:$C$48,C39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="C105" s="30">
-        <f t="shared" ref="C105:C110" si="4">COUNTIF($C$5:$C$47,C42)</f>
+        <f>COUNTIF($C$5:$C$48,C40)</f>
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B106"/>
       <c r="C106" s="30">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($C$5:$C$48,C42)</f>
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B107"/>
       <c r="C107" s="30">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($C$5:$C$48,C43)</f>
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B108"/>
       <c r="C108" s="30">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($C$5:$C$48,C44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109" s="30">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($C$5:$C$48,C45)</f>
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="C110" s="30">
-        <f t="shared" si="4"/>
+        <f>COUNTIF($C$5:$C$48,C46)</f>
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B111"/>
-      <c r="C111" s="30"/>
+      <c r="C111" s="30">
+        <f>COUNTIF($C$5:$C$48,C48)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B112"/>
@@ -57162,25 +57315,26 @@
     </row>
     <row r="121" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B121"/>
+      <c r="C121" s="30"/>
     </row>
     <row r="122" spans="2:4" ht="15" x14ac:dyDescent="0.25">
       <c r="B122"/>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="29"/>
-    </row>
-    <row r="124" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B124"/>
-      <c r="C124"/>
-    </row>
-    <row r="126" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B126" s="35"/>
-      <c r="C126"/>
-    </row>
-    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B130"/>
+    <row r="123" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+    </row>
+    <row r="125" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B125"/>
+      <c r="C125"/>
+    </row>
+    <row r="127" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B127" s="35"/>
+      <c r="C127"/>
     </row>
     <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B131"/>
@@ -57190,6 +57344,9 @@
     </row>
     <row r="133" spans="2:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B133"/>
+    </row>
+    <row r="134" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B134"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -57802,11 +57959,11 @@
       </c>
       <c r="B25" s="380" t="str">
         <f>IF(A25="*","",SUP!B73)</f>
-        <v>MINWAS</v>
+        <v>MINWMU</v>
       </c>
       <c r="C25" s="380" t="str">
         <f>IF(A25="*","",SUP!A73)</f>
-        <v>Extraction of Waste</v>
+        <v>Extraction of Waste for material use</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -59847,12 +60004,12 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="380" t="str">
-        <f>NameConv!C47</f>
-        <v>WAS</v>
+        <f>NameConv!C48</f>
+        <v>WMU</v>
       </c>
       <c r="C48" s="380" t="str">
-        <f>NameConv!B47</f>
-        <v>Waste</v>
+        <f>NameConv!B48</f>
+        <v>Waste for material use</v>
       </c>
       <c r="D48" s="381" t="s">
         <v>239</v>
@@ -65360,15 +65517,15 @@
     <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="158" t="str">
         <f t="shared" si="24"/>
-        <v>Extraction of Waste</v>
+        <v>Extraction of Waste for material use</v>
       </c>
       <c r="B73" s="30" t="str">
         <f>$B$46&amp;D73</f>
-        <v>MINWAS</v>
+        <v>MINWMU</v>
       </c>
       <c r="D73" s="159" t="str">
-        <f>NameConv!C47</f>
-        <v>WAS</v>
+        <f>NameConv!C48</f>
+        <v>WMU</v>
       </c>
       <c r="E73" s="30">
         <v>0</v>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585E59CF-A4DC-40FD-9929-B3FD556B7504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C36BA9-7E79-44BD-85F8-5AB71E2DBD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-1995" yWindow="-16155" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -55420,7 +55420,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45201.73094212963</v>
+        <v>45202.444356018517</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56244,7 +56244,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45201.73094212963</v>
+        <v>45202.444356018517</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -56966,67 +56966,67 @@
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="30">
-        <f>COUNTIF($C$5:$C$48,C5)</f>
+        <f t="shared" ref="C72:C82" si="1">COUNTIF($C$5:$C$48,C5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="30">
-        <f>COUNTIF($C$5:$C$48,C6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="30">
-        <f>COUNTIF($C$5:$C$48,C7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="30">
-        <f>COUNTIF($C$5:$C$48,C8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="30">
-        <f>COUNTIF($C$5:$C$48,C9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="30">
-        <f>COUNTIF($C$5:$C$48,C10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="30">
-        <f>COUNTIF($C$5:$C$48,C11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="30">
-        <f>COUNTIF($C$5:$C$48,C12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C80" s="30">
-        <f>COUNTIF($C$5:$C$48,C13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C81" s="30">
-        <f>COUNTIF($C$5:$C$48,C14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C82" s="30">
-        <f>COUNTIF($C$5:$C$48,C15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -57035,7 +57035,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="30">
-        <f>COUNTIF($C$5:$C$48,C17)</f>
+        <f t="shared" ref="C83:C93" si="2">COUNTIF($C$5:$C$48,C17)</f>
         <v>1</v>
       </c>
     </row>
@@ -57044,7 +57044,7 @@
         <v>2</v>
       </c>
       <c r="C84" s="30">
-        <f>COUNTIF($C$5:$C$48,C18)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57053,7 +57053,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="30">
-        <f>COUNTIF($C$5:$C$48,C19)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57062,7 +57062,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="30">
-        <f>COUNTIF($C$5:$C$48,C20)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57071,7 +57071,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="30">
-        <f>COUNTIF($C$5:$C$48,C21)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57080,7 +57080,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="30">
-        <f>COUNTIF($C$5:$C$48,C22)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57089,7 +57089,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="30">
-        <f>COUNTIF($C$5:$C$48,C23)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57098,7 +57098,7 @@
         <v>8</v>
       </c>
       <c r="C90" s="30">
-        <f>COUNTIF($C$5:$C$48,C24)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57107,7 +57107,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="30">
-        <f>COUNTIF($C$5:$C$48,C25)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57116,7 +57116,7 @@
         <v>10</v>
       </c>
       <c r="C92" s="30">
-        <f>COUNTIF($C$5:$C$48,C26)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57125,7 +57125,7 @@
         <v>11</v>
       </c>
       <c r="C93" s="30">
-        <f>COUNTIF($C$5:$C$48,C27)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -57134,7 +57134,7 @@
         <v>12</v>
       </c>
       <c r="C94" s="30">
-        <f>COUNTIF($C$5:$C$48,C29)</f>
+        <f t="shared" ref="C94:C105" si="3">COUNTIF($C$5:$C$48,C29)</f>
         <v>1</v>
       </c>
     </row>
@@ -57143,7 +57143,7 @@
         <v>13</v>
       </c>
       <c r="C95" s="30">
-        <f>COUNTIF($C$5:$C$48,C30)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57152,7 +57152,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="30">
-        <f>COUNTIF($C$5:$C$48,C31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57161,7 +57161,7 @@
         <v>15</v>
       </c>
       <c r="C97" s="30">
-        <f>COUNTIF($C$5:$C$48,C32)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57170,7 +57170,7 @@
         <v>16</v>
       </c>
       <c r="C98" s="30">
-        <f>COUNTIF($C$5:$C$48,C33)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57179,7 +57179,7 @@
         <v>17</v>
       </c>
       <c r="C99" s="30">
-        <f>COUNTIF($C$5:$C$48,C34)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57188,7 +57188,7 @@
         <v>18</v>
       </c>
       <c r="C100" s="30">
-        <f>COUNTIF($C$5:$C$48,C35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57197,7 +57197,7 @@
         <v>19</v>
       </c>
       <c r="C101" s="30">
-        <f>COUNTIF($C$5:$C$48,C36)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57206,7 +57206,7 @@
         <v>20</v>
       </c>
       <c r="C102" s="30">
-        <f>COUNTIF($C$5:$C$48,C37)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57215,7 +57215,7 @@
         <v>21</v>
       </c>
       <c r="C103" s="30">
-        <f>COUNTIF($C$5:$C$48,C38)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57224,14 +57224,14 @@
         <v>22</v>
       </c>
       <c r="C104" s="30">
-        <f>COUNTIF($C$5:$C$48,C39)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B105"/>
       <c r="C105" s="30">
-        <f>COUNTIF($C$5:$C$48,C40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -57959,11 +57959,11 @@
       </c>
       <c r="B25" s="380" t="str">
         <f>IF(A25="*","",SUP!B73)</f>
-        <v>MINWMU</v>
+        <v>MINWAS</v>
       </c>
       <c r="C25" s="380" t="str">
         <f>IF(A25="*","",SUP!A73)</f>
-        <v>Extraction of Waste for material use</v>
+        <v>Extraction of Waste</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -58931,8 +58931,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -60004,8 +60004,8 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="380" t="str">
-        <f>NameConv!C48</f>
-        <v>WMU</v>
+        <f>NameConv!C47</f>
+        <v>WAS</v>
       </c>
       <c r="C48" s="380" t="str">
         <f>NameConv!B48</f>
@@ -60380,8 +60380,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62:I62"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -65517,15 +65517,15 @@
     <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="158" t="str">
         <f t="shared" si="24"/>
-        <v>Extraction of Waste for material use</v>
+        <v>Extraction of Waste</v>
       </c>
       <c r="B73" s="30" t="str">
         <f>$B$46&amp;D73</f>
-        <v>MINWMU</v>
+        <v>MINWAS</v>
       </c>
       <c r="D73" s="159" t="str">
-        <f>NameConv!C48</f>
-        <v>WMU</v>
+        <f>NameConv!C47</f>
+        <v>WAS</v>
       </c>
       <c r="E73" s="30">
         <v>0</v>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C36BA9-7E79-44BD-85F8-5AB71E2DBD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FB913-A1D7-426D-897B-0B96F682DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1995" yWindow="-16155" windowWidth="26610" windowHeight="13740" firstSheet="4" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -222,6 +222,7 @@
     <author>tc={54934D05-AB8B-43EA-94D5-DA4230739148}</author>
     <author>tc={2D025629-877F-4A51-97DF-4B63BC17F90B}</author>
     <author>tc={00B9291C-0286-423F-9703-F64CCB57F70F}</author>
+    <author>tc={8CA7C0EF-537D-4038-B56F-15FCD6E67C52}</author>
     <author>tc={87179AE4-EC17-4370-98D7-F32C73BD771A}</author>
     <author>tc={E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}</author>
     <author>tc={F93D2D09-DC95-4216-81E9-77B6F290F34D}</author>
@@ -625,6 +626,14 @@
     Parity with coal in R/GJ assumed</t>
       </text>
     </comment>
+    <comment ref="K71" authorId="9" shapeId="0" xr:uid="{8CA7C0EF-537D-4038-B56F-15FCD6E67C52}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Bio and BIW estimates here from SAEON 2021 bio atlas report. Grouped the woody stuff together, and the other biomass like residues and agriculture residues together as biomass opther</t>
+      </text>
+    </comment>
     <comment ref="K73" authorId="1" shapeId="0" xr:uid="{7AD99044-2159-464B-9AD0-B1D99E091866}">
       <text>
         <r>
@@ -673,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F83" authorId="9" shapeId="0" xr:uid="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
+    <comment ref="F83" authorId="10" shapeId="0" xr:uid="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -681,7 +690,7 @@
     IRP 2019 costs adjusted to 2022</t>
       </text>
     </comment>
-    <comment ref="K86" authorId="10" shapeId="0" xr:uid="{E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}">
+    <comment ref="K86" authorId="11" shapeId="0" xr:uid="{E69A6D97-9056-4FB3-8A4E-00F5B2E78FD6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -689,7 +698,7 @@
     From EB</t>
       </text>
     </comment>
-    <comment ref="K87" authorId="11" shapeId="0" xr:uid="{F93D2D09-DC95-4216-81E9-77B6F290F34D}">
+    <comment ref="K87" authorId="12" shapeId="0" xr:uid="{F93D2D09-DC95-4216-81E9-77B6F290F34D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -697,7 +706,7 @@
     From EB</t>
       </text>
     </comment>
-    <comment ref="K89" authorId="12" shapeId="0" xr:uid="{8598790D-79A8-4FAB-8E0F-9A4DEE58CC36}">
+    <comment ref="K89" authorId="13" shapeId="0" xr:uid="{8598790D-79A8-4FAB-8E0F-9A4DEE58CC36}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -705,7 +714,7 @@
     Net imports from EB</t>
       </text>
     </comment>
-    <comment ref="K90" authorId="13" shapeId="0" xr:uid="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
+    <comment ref="K90" authorId="14" shapeId="0" xr:uid="{2FB1C6F0-AD57-4E16-BFAC-B7DB9955D691}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -713,7 +722,7 @@
     From energy balance</t>
       </text>
     </comment>
-    <comment ref="K94" authorId="14" shapeId="0" xr:uid="{B0A60D28-BB18-4A91-9004-62133F119943}">
+    <comment ref="K94" authorId="15" shapeId="0" xr:uid="{B0A60D28-BB18-4A91-9004-62133F119943}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -721,7 +730,7 @@
     From gas balance</t>
       </text>
     </comment>
-    <comment ref="F95" authorId="15" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
+    <comment ref="F95" authorId="16" shapeId="0" xr:uid="{E56230BC-BD11-4915-915B-9473750B9EC2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -7398,6 +7407,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7435,57 +7495,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24487,6 +24496,7 @@
   <person displayName="Bruno Merven" id="{E500B1BD-2FF0-4DFA-88F6-72D20CDE0583}" userId="Bruno Merven" providerId="None"/>
   <person displayName="bruno merven" id="{39BEAB33-522E-4FF7-A8C2-418D9E5A0410}" userId="144eb91ed0ec6402" providerId="Windows Live"/>
   <person displayName="Bruno Merven" id="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" userId="S::01405439@wf.uct.ac.za::c7f06137-2c3b-4c5c-8f38-fe1abbc96860" providerId="AD"/>
+  <person displayName="Bryce Mc Call" id="{C6B88F19-3945-4954-9F95-B87515BDF0C3}" userId="S::01425453@wf.uct.ac.za::bc1cdcf6-0dc9-4f2f-a1be-e4f2dea555d3" providerId="AD"/>
 </personList>
 </file>
 
@@ -24820,6 +24830,9 @@
   <threadedComment ref="F70" dT="2023-08-14T09:42:24.18" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{00B9291C-0286-423F-9703-F64CCB57F70F}">
     <text>Parity with coal in R/GJ assumed</text>
   </threadedComment>
+  <threadedComment ref="K71" dT="2023-10-09T13:11:28.72" personId="{C6B88F19-3945-4954-9F95-B87515BDF0C3}" id="{8CA7C0EF-537D-4038-B56F-15FCD6E67C52}">
+    <text>Bio and BIW estimates here from SAEON 2021 bio atlas report. Grouped the woody stuff together, and the other biomass like residues and agriculture residues together as biomass opther</text>
+  </threadedComment>
   <threadedComment ref="F83" dT="2023-09-07T10:07:04.92" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{87179AE4-EC17-4370-98D7-F32C73BD771A}">
     <text>IRP 2019 costs adjusted to 2022</text>
   </threadedComment>
@@ -24912,7 +24925,7 @@
   <dimension ref="A2:AE144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24962,25 +24975,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="433" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="433"/>
+      <c r="AE6" s="433"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="434" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="436" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="438" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="439"/>
+      <c r="E7" s="440"/>
+      <c r="F7" s="443" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25008,12 +25021,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="435"/>
+      <c r="B8" s="437"/>
+      <c r="C8" s="441"/>
+      <c r="D8" s="442"/>
+      <c r="E8" s="442"/>
+      <c r="F8" s="444"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25879,11 +25892,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="432" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="432"/>
+      <c r="AE25" s="432"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25962,8 +25975,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="428"/>
+      <c r="I31" s="428"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -25984,10 +25997,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="420" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="429" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26002,22 +26015,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="420" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="420" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="420" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="420" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="420" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="420" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26040,28 +26053,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="427" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="427"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="421"/>
+      <c r="M33" s="430"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="421"/>
+      <c r="S33" s="421"/>
+      <c r="T33" s="421"/>
+      <c r="U33" s="421"/>
+      <c r="V33" s="421"/>
+      <c r="W33" s="421"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26081,8 +26094,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="422"/>
+      <c r="M34" s="431"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26095,12 +26108,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="422"/>
+      <c r="S34" s="422"/>
+      <c r="T34" s="422"/>
+      <c r="U34" s="422"/>
+      <c r="V34" s="422"/>
+      <c r="W34" s="422"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26166,7 +26179,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="423" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26246,7 +26259,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="424"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26317,7 +26330,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="424"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26392,7 +26405,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="424"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26463,7 +26476,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="424"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26537,7 +26550,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="425"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26611,7 +26624,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="423" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26684,7 +26697,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="424"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26760,7 +26773,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="424"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26832,7 +26845,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="425"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26901,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="423" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26977,7 +26990,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="424"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27048,7 +27061,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="425"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27417,10 +27430,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="426" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="426"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27522,13 +27535,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="415" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="417" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27539,11 +27552,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="416"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="418"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27556,13 +27569,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="415" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="418"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27571,11 +27584,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="416"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="419"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27584,13 +27597,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="415" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="417" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27601,11 +27614,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="416"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="418"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27614,13 +27627,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="415" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="418"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27629,11 +27642,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="416"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="419"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29096,6 +29109,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29106,22 +29135,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29872,7 +29885,7 @@
   </sheetPr>
   <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -49948,18 +49961,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="427" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="427"/>
+      <c r="DN94" s="427" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="427"/>
+      <c r="DP94" s="427" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="427"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55420,7 +55433,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45202.444356018517</v>
+        <v>45208.632217708335</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56244,7 +56257,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45202.444356018517</v>
+        <v>45208.632217708335</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60380,8 +60393,8 @@
   </sheetPr>
   <dimension ref="A1:BA149"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="U75" sqref="U75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -65400,12 +65413,18 @@
         <f t="shared" si="28"/>
         <v>59.346000000000004</v>
       </c>
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-      <c r="L71" s="82"/>
+      <c r="J71" s="82">
+        <v>3</v>
+      </c>
+      <c r="K71" s="82">
+        <v>167</v>
+      </c>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71"/>
+      <c r="O71" s="82">
+        <f>K71*2</f>
+        <v>334</v>
+      </c>
       <c r="P71"/>
       <c r="Q71" t="str">
         <f t="shared" si="27"/>
@@ -65473,12 +65492,18 @@
         <f t="shared" si="29"/>
         <v>56.52</v>
       </c>
-      <c r="J72" s="82"/>
-      <c r="K72" s="82"/>
-      <c r="L72" s="82"/>
+      <c r="J72" s="82">
+        <v>3</v>
+      </c>
+      <c r="K72" s="82">
+        <v>177</v>
+      </c>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72"/>
+      <c r="O72" s="82">
+        <f>K72*2</f>
+        <v>354</v>
+      </c>
       <c r="P72"/>
       <c r="Q72" t="str">
         <f t="shared" si="27"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46FB913-A1D7-426D-897B-0B96F682DF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E5C72-57F1-4C8B-9F1A-7C8EBC9814DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="3405" yWindow="345" windowWidth="23460" windowHeight="14985" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U37" authorId="1" shapeId="0" xr:uid="{857EE5A3-4840-4E13-95BE-AD897D4A614E}">
+    <comment ref="Z37" authorId="1" shapeId="0" xr:uid="{857EE5A3-4840-4E13-95BE-AD897D4A614E}">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U40" authorId="1" shapeId="0" xr:uid="{8475DF47-EA23-49EF-9A8C-8C30401A788B}">
+    <comment ref="Z40" authorId="1" shapeId="0" xr:uid="{8475DF47-EA23-49EF-9A8C-8C30401A788B}">
       <text>
         <r>
           <rPr>
@@ -338,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V41" authorId="2" shapeId="0" xr:uid="{FB8BC40E-BFD7-497F-B8DA-E3688A528017}">
+    <comment ref="AA41" authorId="2" shapeId="0" xr:uid="{FB8BC40E-BFD7-497F-B8DA-E3688A528017}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
     Use this cell to do any currency conversion adjustments.</t>
       </text>
     </comment>
-    <comment ref="Q57" authorId="1" shapeId="0" xr:uid="{F37D00AD-C165-4852-BC16-6CBA566E85DA}">
+    <comment ref="V57" authorId="1" shapeId="0" xr:uid="{F37D00AD-C165-4852-BC16-6CBA566E85DA}">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
     amount required to meet lower bound on production (calibrated on DEFF GHG Inventory)</t>
       </text>
     </comment>
-    <comment ref="P65" authorId="6" shapeId="0" xr:uid="{54934D05-AB8B-43EA-94D5-DA4230739148}">
+    <comment ref="U65" authorId="6" shapeId="0" xr:uid="{54934D05-AB8B-43EA-94D5-DA4230739148}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -562,7 +562,7 @@
     https://www.offshore-technology.com/marketdata/oil-gas-field-profile-ibhubesi-conventional-gas-field-south-africa/</t>
       </text>
     </comment>
-    <comment ref="Q65" authorId="1" shapeId="0" xr:uid="{958404B5-6244-45E1-AF2A-E2093F727F53}">
+    <comment ref="V65" authorId="1" shapeId="0" xr:uid="{958404B5-6244-45E1-AF2A-E2093F727F53}">
       <text>
         <r>
           <rPr>
@@ -586,7 +586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q67" authorId="1" shapeId="0" xr:uid="{8DADBFC1-6B22-4FD5-BF70-6CF52A0409BC}">
+    <comment ref="V67" authorId="1" shapeId="0" xr:uid="{8DADBFC1-6B22-4FD5-BF70-6CF52A0409BC}">
       <text>
         <r>
           <rPr>
@@ -5780,7 +5780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -6601,6 +6601,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6639,7 +6652,7 @@
     <xf numFmtId="165" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="455">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7407,57 +7420,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7497,6 +7459,57 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7512,6 +7525,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="68" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Accent2" xfId="10" builtinId="33"/>
@@ -19980,13 +20004,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>145</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -20202,13 +20226,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>170</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>786765</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -20282,8 +20306,8 @@
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>169</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
@@ -24815,7 +24839,7 @@
   <threadedComment ref="K64" dT="2020-10-07T08:01:50.48" personId="{39BEAB33-522E-4FF7-A8C2-418D9E5A0410}" id="{8174276F-65FB-480C-9C32-A6C3A60A2E75}">
     <text>amount required to meet lower bound on production (calibrated on DEFF GHG Inventory)</text>
   </threadedComment>
-  <threadedComment ref="P65" dT="2023-07-28T09:49:09.93" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{54934D05-AB8B-43EA-94D5-DA4230739148}">
+  <threadedComment ref="U65" dT="2023-07-28T09:49:09.93" personId="{8B1FB5F6-C05B-4C45-A9FE-3B209CC95A5D}" id="{54934D05-AB8B-43EA-94D5-DA4230739148}">
     <text>https://www.offshore-technology.com/marketdata/oil-gas-field-profile-ibhubesi-conventional-gas-field-south-africa/</text>
     <extLst>
       <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
@@ -24975,25 +24999,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="433" t="s">
+      <c r="AC6" s="416" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="433"/>
-      <c r="AE6" s="433"/>
+      <c r="AD6" s="416"/>
+      <c r="AE6" s="416"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="434" t="s">
+      <c r="A7" s="417" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="436" t="s">
+      <c r="B7" s="419" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="438" t="s">
+      <c r="C7" s="421" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="439"/>
-      <c r="E7" s="440"/>
-      <c r="F7" s="443" t="s">
+      <c r="D7" s="422"/>
+      <c r="E7" s="423"/>
+      <c r="F7" s="426" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25021,12 +25045,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="435"/>
-      <c r="B8" s="437"/>
-      <c r="C8" s="441"/>
-      <c r="D8" s="442"/>
-      <c r="E8" s="442"/>
-      <c r="F8" s="444"/>
+      <c r="A8" s="418"/>
+      <c r="B8" s="420"/>
+      <c r="C8" s="424"/>
+      <c r="D8" s="425"/>
+      <c r="E8" s="425"/>
+      <c r="F8" s="427"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25892,11 +25916,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="432" t="s">
+      <c r="AC25" s="415" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="432"/>
-      <c r="AE25" s="432"/>
+      <c r="AD25" s="415"/>
+      <c r="AE25" s="415"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25975,8 +25999,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="428"/>
-      <c r="I31" s="428"/>
+      <c r="H31" s="435"/>
+      <c r="I31" s="435"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -25997,10 +26021,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="420" t="s">
+      <c r="L32" s="428" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="429" t="s">
+      <c r="M32" s="436" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26015,22 +26039,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="420" t="s">
+      <c r="R32" s="428" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="420" t="s">
+      <c r="S32" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="420" t="s">
+      <c r="T32" s="428" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="420" t="s">
+      <c r="U32" s="428" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="420" t="s">
+      <c r="V32" s="428" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="420" t="s">
+      <c r="W32" s="428" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26053,28 +26077,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="427" t="s">
+      <c r="H33" s="431" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="427"/>
+      <c r="I33" s="431"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="421"/>
-      <c r="M33" s="430"/>
+      <c r="L33" s="429"/>
+      <c r="M33" s="437"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="421"/>
-      <c r="S33" s="421"/>
-      <c r="T33" s="421"/>
-      <c r="U33" s="421"/>
-      <c r="V33" s="421"/>
-      <c r="W33" s="421"/>
+      <c r="R33" s="429"/>
+      <c r="S33" s="429"/>
+      <c r="T33" s="429"/>
+      <c r="U33" s="429"/>
+      <c r="V33" s="429"/>
+      <c r="W33" s="429"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26094,8 +26118,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="422"/>
-      <c r="M34" s="431"/>
+      <c r="L34" s="430"/>
+      <c r="M34" s="438"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26108,12 +26132,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="422"/>
-      <c r="S34" s="422"/>
-      <c r="T34" s="422"/>
-      <c r="U34" s="422"/>
-      <c r="V34" s="422"/>
-      <c r="W34" s="422"/>
+      <c r="R34" s="430"/>
+      <c r="S34" s="430"/>
+      <c r="T34" s="430"/>
+      <c r="U34" s="430"/>
+      <c r="V34" s="430"/>
+      <c r="W34" s="430"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26179,7 +26203,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="423" t="str">
+      <c r="L36" s="432" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26259,7 +26283,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="424"/>
+      <c r="L37" s="433"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26330,7 +26354,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="424"/>
+      <c r="L38" s="433"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26405,7 +26429,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="424"/>
+      <c r="L39" s="433"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26476,7 +26500,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="424"/>
+      <c r="L40" s="433"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26550,7 +26574,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="425"/>
+      <c r="L41" s="434"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26624,7 +26648,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="423" t="s">
+      <c r="L42" s="432" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26697,7 +26721,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="424"/>
+      <c r="L43" s="433"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26773,7 +26797,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="424"/>
+      <c r="L44" s="433"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26845,7 +26869,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="425"/>
+      <c r="L45" s="434"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26914,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="423" t="str">
+      <c r="L46" s="432" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -26990,7 +27014,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="424"/>
+      <c r="L47" s="433"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27061,7 +27085,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="425"/>
+      <c r="L48" s="434"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27430,10 +27454,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="426" t="s">
+      <c r="D79" s="444" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="426"/>
+      <c r="E79" s="444"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27535,13 +27559,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="415" t="s">
+      <c r="A103" s="439" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="417" t="s">
+      <c r="C103" s="441" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27552,11 +27576,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="416"/>
+      <c r="A104" s="440"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="418"/>
+      <c r="C104" s="442"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27569,13 +27593,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="415" t="s">
+      <c r="A105" s="439" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="418"/>
+      <c r="C105" s="442"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27584,11 +27608,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="416"/>
+      <c r="A106" s="440"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="419"/>
+      <c r="C106" s="443"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27597,13 +27621,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="415" t="s">
+      <c r="A107" s="439" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="417" t="s">
+      <c r="C107" s="441" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27614,11 +27638,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="416"/>
+      <c r="A108" s="440"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="418"/>
+      <c r="C108" s="442"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27627,13 +27651,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="415" t="s">
+      <c r="A109" s="439" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="418"/>
+      <c r="C109" s="442"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27642,11 +27666,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="416"/>
+      <c r="A110" s="440"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="419"/>
+      <c r="C110" s="443"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29109,12 +29133,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29125,16 +29153,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49961,18 +49985,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="427" t="s">
+      <c r="DL94" s="431" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="427"/>
-      <c r="DN94" s="427" t="s">
+      <c r="DM94" s="431"/>
+      <c r="DN94" s="431" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="427"/>
-      <c r="DP94" s="427" t="s">
+      <c r="DO94" s="431"/>
+      <c r="DP94" s="431" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="427"/>
+      <c r="DQ94" s="431"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55433,7 +55457,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45208.632217708335</v>
+        <v>45209.719746643517</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56257,7 +56281,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45208.632217708335</v>
+        <v>45209.719746643517</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -57395,7 +57419,7 @@
   </sheetPr>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D61" sqref="D61:G62"/>
     </sheetView>
   </sheetViews>
@@ -60391,10 +60415,14 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:BA149"/>
+  <dimension ref="A1:BF149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="U75" sqref="U75"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60412,17 +60440,17 @@
     <col min="12" max="12" width="10.28515625" style="28" customWidth="1"/>
     <col min="13" max="13" width="10" style="28" customWidth="1"/>
     <col min="14" max="14" width="7.28515625" style="28" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="28" customWidth="1"/>
-    <col min="16" max="17" width="10.28515625" style="28" customWidth="1"/>
-    <col min="18" max="20" width="9" style="28" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="28" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="28" customWidth="1"/>
-    <col min="23" max="25" width="9.7109375" style="28" customWidth="1"/>
-    <col min="26" max="43" width="7.28515625" style="28" customWidth="1"/>
-    <col min="44" max="16384" width="11.42578125" style="28"/>
+    <col min="15" max="20" width="9.42578125" style="28" customWidth="1"/>
+    <col min="21" max="22" width="10.28515625" style="28" customWidth="1"/>
+    <col min="23" max="25" width="9" style="28" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="28" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="28" customWidth="1"/>
+    <col min="28" max="30" width="9.7109375" style="28" customWidth="1"/>
+    <col min="31" max="48" width="7.28515625" style="28" customWidth="1"/>
+    <col min="49" max="16384" width="11.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="169" t="s">
         <v>1012</v>
       </c>
@@ -60430,8 +60458,8 @@
       <c r="D1" s="169"/>
       <c r="E1" s="169"/>
     </row>
-    <row r="2" spans="1:53" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:53" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:58" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>230</v>
       </c>
@@ -60449,7 +60477,7 @@
       <c r="I3" s="29"/>
       <c r="J3" s="36"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" s="30"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -60503,8 +60531,13 @@
       <c r="AY4" s="38"/>
       <c r="AZ4" s="38"/>
       <c r="BA4" s="38"/>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="39" t="s">
@@ -60512,12 +60545,12 @@
       </c>
       <c r="D5" s="39"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>234</v>
       </c>
       <c r="B6" s="30">
-        <f>COUNT(C6:BA6)</f>
+        <f>COUNT(C6:BF6)</f>
         <v>48</v>
       </c>
       <c r="C6" s="30">
@@ -60544,7 +60577,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="30">
-        <f t="shared" ref="I6:AF6" si="0">H6+1</f>
+        <f t="shared" ref="I6:AK6" si="0">H6+1</f>
         <v>7</v>
       </c>
       <c r="J6" s="30">
@@ -60571,151 +60604,156 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="P6" s="30">
-        <f t="shared" si="0"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30">
+        <f>O6+1</f>
         <v>14</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="V6" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="R6" s="30">
+      <c r="W6" s="30">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S6" s="30">
+      <c r="X6" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="T6" s="30">
+      <c r="Y6" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="U6" s="30">
+      <c r="Z6" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="V6" s="30">
+      <c r="AA6" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="W6" s="30">
+      <c r="AB6" s="30">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="X6" s="30">
+      <c r="AC6" s="30">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="AD6" s="30">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Z6" s="30">
+      <c r="AE6" s="30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AA6" s="30">
+      <c r="AF6" s="30">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AG6" s="30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="AC6" s="30">
+      <c r="AH6" s="30">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="AD6" s="30">
+      <c r="AI6" s="30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AJ6" s="30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="AF6" s="30">
+      <c r="AK6" s="30">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30">
-        <f>AF6+1</f>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30">
+        <f>AK6+1</f>
         <v>31</v>
       </c>
-      <c r="AI6" s="30">
-        <f t="shared" ref="AI6:AY6" si="1">AH6+1</f>
+      <c r="AN6" s="30">
+        <f t="shared" ref="AN6:BD6" si="1">AM6+1</f>
         <v>32</v>
       </c>
-      <c r="AJ6" s="30">
+      <c r="AO6" s="30">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AK6" s="30">
+      <c r="AP6" s="30">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="AL6" s="30">
+      <c r="AQ6" s="30">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="AM6" s="30">
+      <c r="AR6" s="30">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="AN6" s="30">
+      <c r="AS6" s="30">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AO6" s="30">
+      <c r="AT6" s="30">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="AP6" s="30">
+      <c r="AU6" s="30">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="AQ6" s="30">
+      <c r="AV6" s="30">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AR6" s="30">
+      <c r="AW6" s="30">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="AS6" s="30">
+      <c r="AX6" s="30">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AT6" s="30">
+      <c r="AY6" s="30">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="AU6" s="30">
+      <c r="AZ6" s="30">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="BA6" s="30">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="AW6" s="30">
+      <c r="BB6" s="30">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AX6" s="30">
+      <c r="BC6" s="30">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="AY6" s="30">
+      <c r="BD6" s="30">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AZ6" s="30"/>
-      <c r="BA6" s="30"/>
-    </row>
-    <row r="7" spans="1:53" s="42" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="BE6" s="30"/>
+      <c r="BF6" s="30"/>
+    </row>
+    <row r="7" spans="1:58" s="42" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
         <v>235</v>
       </c>
@@ -60766,116 +60804,121 @@
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
-      <c r="Q7" s="41" t="str">
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41" t="str">
         <f>NameConv!$B$17</f>
         <v>Electricity</v>
       </c>
-      <c r="R7" s="41" t="str">
+      <c r="W7" s="41" t="str">
         <f>NameConv!$B$18</f>
         <v>Electricity Upstream Transmission</v>
       </c>
-      <c r="U7" s="41" t="str">
+      <c r="Z7" s="41" t="str">
         <f>NameConv!B27</f>
         <v>Coastal Gas</v>
       </c>
-      <c r="V7" s="41" t="str">
+      <c r="AA7" s="41" t="str">
         <f>NameConv!$B$20</f>
         <v>Gas Southern Mozambique</v>
       </c>
-      <c r="W7" s="42" t="str">
+      <c r="AB7" s="42" t="str">
         <f>NameConv!$B$21</f>
         <v>Gas Namibia</v>
       </c>
-      <c r="X7" s="43" t="str">
+      <c r="AC7" s="43" t="str">
         <f>NameConv!$B$22</f>
         <v>Gas Regional LNG</v>
       </c>
-      <c r="Y7" s="43" t="str">
+      <c r="AD7" s="43" t="str">
         <f>NameConv!$B$23</f>
         <v>Gas International LNG</v>
       </c>
-      <c r="AA7" s="43" t="str">
+      <c r="AF7" s="43" t="str">
         <f>NameConv!$B$24</f>
         <v>Gas Northern Mozambique</v>
       </c>
-      <c r="AC7" s="44" t="str">
+      <c r="AH7" s="44" t="str">
         <f>NameConv!$B$25</f>
         <v>Gas Indigenous Ibhubezi</v>
       </c>
-      <c r="AE7" s="44" t="str">
+      <c r="AJ7" s="44" t="str">
         <f>NameConv!$B$26</f>
         <v>Gas Indigenous Shale</v>
       </c>
-      <c r="AH7" s="42" t="str">
+      <c r="AM7" s="42" t="str">
         <f>NameConv!$B$29</f>
         <v>Gas Methane Rich</v>
       </c>
-      <c r="AJ7" s="42" t="str">
+      <c r="AO7" s="42" t="str">
         <f>NameConv!$B$30</f>
         <v>Heat-Steam</v>
       </c>
-      <c r="AK7" s="42" t="str">
+      <c r="AP7" s="42" t="str">
         <f>NameConv!$B$31</f>
         <v>Heat-Steam Existing</v>
       </c>
-      <c r="AL7" s="42" t="str">
+      <c r="AQ7" s="42" t="str">
         <f>NameConv!$B$32</f>
         <v>Heat-Steam New</v>
       </c>
-      <c r="AM7" s="42" t="str">
+      <c r="AR7" s="42" t="str">
         <f>NameConv!$B$33</f>
         <v>Hydro</v>
       </c>
-      <c r="AN7" s="42" t="str">
+      <c r="AS7" s="42" t="str">
         <f>NameConv!$B$34</f>
         <v>Hydrogen</v>
       </c>
-      <c r="AO7" s="42" t="str">
+      <c r="AT7" s="42" t="str">
         <f>NameConv!$B$35</f>
         <v>Nuclear</v>
       </c>
-      <c r="AP7" s="42" t="str">
+      <c r="AU7" s="42" t="str">
         <f>NameConv!$B$36</f>
         <v>Oil Av Gasoline</v>
       </c>
-      <c r="AQ7" s="42" t="str">
+      <c r="AV7" s="42" t="str">
         <f>NameConv!$B$37</f>
         <v>Oil Crude</v>
       </c>
-      <c r="AR7" s="42" t="str">
+      <c r="AW7" s="42" t="str">
         <f>NameConv!$B$38</f>
         <v>Oil Diesel</v>
       </c>
-      <c r="AS7" s="42" t="str">
+      <c r="AX7" s="42" t="str">
         <f>NameConv!$B$39</f>
         <v>Oil Gasoline</v>
       </c>
-      <c r="AT7" s="42" t="str">
+      <c r="AY7" s="42" t="str">
         <f>NameConv!$B$40</f>
         <v>Oil HFO</v>
       </c>
-      <c r="AU7" s="42" t="str">
+      <c r="AZ7" s="42" t="str">
         <f>NameConv!$B$42</f>
         <v>Oil Kerosene</v>
       </c>
-      <c r="AV7" s="42" t="str">
+      <c r="BA7" s="42" t="str">
         <f>NameConv!$B$43</f>
         <v>Oil LPG</v>
       </c>
-      <c r="AW7" s="42" t="str">
+      <c r="BB7" s="42" t="str">
         <f>NameConv!$B$44</f>
         <v>Oil Other</v>
       </c>
-      <c r="AX7" s="42" t="str">
+      <c r="BC7" s="42" t="str">
         <f>NameConv!$B$45</f>
         <v>Solar</v>
       </c>
-      <c r="AY7" s="42" t="str">
+      <c r="BD7" s="42" t="str">
         <f>NameConv!$B$46</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>236</v>
       </c>
@@ -60921,132 +60964,137 @@
         <v>CLE</v>
       </c>
       <c r="M8" s="38" t="str">
-        <f t="shared" ref="M8:AH8" si="3">$B$8&amp;VLOOKUP(M7,FuelNames,2,FALSE)</f>
+        <f t="shared" ref="M8:AM8" si="3">$B$8&amp;VLOOKUP(M7,FuelNames,2,FALSE)</f>
         <v>CRB</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="38"/>
       <c r="P8" s="38"/>
-      <c r="Q8" s="38" t="str">
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>ELC</v>
       </c>
-      <c r="R8" s="38" t="str">
+      <c r="W8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>ELCC</v>
       </c>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38" t="str">
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GIC</v>
       </c>
-      <c r="V8" s="38" t="str">
+      <c r="AA8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GRS</v>
       </c>
-      <c r="W8" s="38" t="str">
+      <c r="AB8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
-      <c r="X8" s="38" t="str">
+      <c r="AC8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GRL</v>
       </c>
-      <c r="Y8" s="38" t="str">
+      <c r="AD8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GWL</v>
       </c>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38" t="str">
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38" t="str">
         <f t="shared" si="3"/>
         <v>GRM</v>
       </c>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38" t="str">
-        <f t="shared" si="3"/>
-        <v>GIB</v>
-      </c>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38" t="str">
-        <f t="shared" si="3"/>
-        <v>GIH</v>
-      </c>
-      <c r="AF8" s="38"/>
       <c r="AG8" s="38"/>
       <c r="AH8" s="38" t="str">
         <f t="shared" si="3"/>
-        <v>GIM</v>
+        <v>GIB</v>
       </c>
       <c r="AI8" s="38"/>
       <c r="AJ8" s="38" t="str">
-        <f t="shared" ref="AJ8:AY8" si="4">$B$8&amp;VLOOKUP(AJ7,FuelNames,2,FALSE)</f>
+        <f t="shared" si="3"/>
+        <v>GIH</v>
+      </c>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38" t="str">
+        <f t="shared" si="3"/>
+        <v>GIM</v>
+      </c>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38" t="str">
+        <f t="shared" ref="AO8:BD8" si="4">$B$8&amp;VLOOKUP(AO7,FuelNames,2,FALSE)</f>
         <v>HET</v>
       </c>
-      <c r="AK8" s="38" t="str">
+      <c r="AP8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>HEE</v>
       </c>
-      <c r="AL8" s="38" t="str">
+      <c r="AQ8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>HEN</v>
       </c>
-      <c r="AM8" s="38" t="str">
+      <c r="AR8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>HYD</v>
       </c>
-      <c r="AN8" s="38" t="str">
+      <c r="AS8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>HGN</v>
       </c>
-      <c r="AO8" s="38" t="str">
+      <c r="AT8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>NUC</v>
       </c>
-      <c r="AP8" s="38" t="str">
+      <c r="AU8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OAG</v>
       </c>
-      <c r="AQ8" s="38" t="str">
+      <c r="AV8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OCR</v>
       </c>
-      <c r="AR8" s="38" t="str">
+      <c r="AW8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>ODS</v>
       </c>
-      <c r="AS8" s="38" t="str">
+      <c r="AX8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OGS</v>
       </c>
-      <c r="AT8" s="38" t="str">
+      <c r="AY8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OHF</v>
       </c>
-      <c r="AU8" s="38" t="str">
+      <c r="AZ8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OKE</v>
       </c>
-      <c r="AV8" s="38" t="str">
+      <c r="BA8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OLP</v>
       </c>
-      <c r="AW8" s="38" t="str">
+      <c r="BB8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>OTH</v>
       </c>
-      <c r="AX8" s="38" t="str">
+      <c r="BC8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>SOL</v>
       </c>
-      <c r="AY8" s="38" t="str">
+      <c r="BD8" s="38" t="str">
         <f t="shared" si="4"/>
         <v>WND</v>
       </c>
-      <c r="AZ8" s="38"/>
-      <c r="BA8" s="38"/>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>237</v>
       </c>
@@ -61072,11 +61120,11 @@
       <c r="U9" s="38"/>
       <c r="V9" s="38"/>
       <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
       <c r="Y9" s="38"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
@@ -61085,10 +61133,15 @@
       <c r="AI9" s="38"/>
       <c r="AJ9" s="38"/>
       <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
       <c r="AM9" s="38"/>
       <c r="AN9" s="38"/>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>238</v>
       </c>
@@ -61131,41 +61184,35 @@
       <c r="N10" s="46"/>
       <c r="O10" s="46"/>
       <c r="P10" s="46"/>
-      <c r="Q10" s="46">
-        <v>830.00738649024674</v>
-      </c>
-      <c r="R10" s="46">
-        <v>0</v>
-      </c>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
       <c r="S10" s="46"/>
       <c r="T10" s="46"/>
-      <c r="U10" s="46">
-        <v>42.534198286413705</v>
-      </c>
+      <c r="U10" s="46"/>
       <c r="V10" s="46">
-        <v>0</v>
+        <v>830.00738649024674</v>
       </c>
       <c r="W10" s="46">
         <v>0</v>
       </c>
-      <c r="X10" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46">
+        <v>42.534198286413705</v>
+      </c>
       <c r="AA10" s="46">
         <v>0</v>
       </c>
-      <c r="AB10" s="46"/>
+      <c r="AB10" s="46">
+        <v>0</v>
+      </c>
       <c r="AC10" s="46">
         <v>0</v>
       </c>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46">
+      <c r="AD10" s="46">
         <v>0</v>
       </c>
+      <c r="AE10" s="46"/>
       <c r="AF10" s="46">
         <v>0</v>
       </c>
@@ -61180,15 +61227,11 @@
       <c r="AK10" s="46">
         <v>0</v>
       </c>
-      <c r="AL10" s="46">
-        <v>0</v>
-      </c>
+      <c r="AL10" s="46"/>
       <c r="AM10" s="46">
         <v>0</v>
       </c>
-      <c r="AN10" s="46">
-        <v>0</v>
-      </c>
+      <c r="AN10" s="46"/>
       <c r="AO10" s="46">
         <v>0</v>
       </c>
@@ -61222,10 +61265,25 @@
       <c r="AY10" s="46">
         <v>0</v>
       </c>
-      <c r="AZ10" s="46"/>
-      <c r="BA10" s="46"/>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AZ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="46"/>
+      <c r="BF10" s="46"/>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
         <v>240</v>
       </c>
@@ -61268,41 +61326,35 @@
       <c r="N11" s="46"/>
       <c r="O11" s="46"/>
       <c r="P11" s="46"/>
-      <c r="Q11" s="46">
-        <v>36.021597656250002</v>
-      </c>
-      <c r="R11" s="46">
-        <v>0</v>
-      </c>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
       <c r="S11" s="46"/>
       <c r="T11" s="46"/>
-      <c r="U11" s="46">
-        <v>121.2211171875</v>
-      </c>
+      <c r="U11" s="46"/>
       <c r="V11" s="46">
-        <v>0</v>
+        <v>36.021597656250002</v>
       </c>
       <c r="W11" s="46">
         <v>0</v>
       </c>
-      <c r="X11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46">
+        <v>121.2211171875</v>
+      </c>
       <c r="AA11" s="46">
         <v>0</v>
       </c>
-      <c r="AB11" s="46"/>
+      <c r="AB11" s="46">
+        <v>0</v>
+      </c>
       <c r="AC11" s="46">
         <v>0</v>
       </c>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46">
+      <c r="AD11" s="46">
         <v>0</v>
       </c>
+      <c r="AE11" s="46"/>
       <c r="AF11" s="46">
         <v>0</v>
       </c>
@@ -61317,52 +61369,63 @@
       <c r="AK11" s="46">
         <v>0</v>
       </c>
-      <c r="AL11" s="46">
-        <v>0</v>
-      </c>
+      <c r="AL11" s="46"/>
       <c r="AM11" s="46">
         <v>0</v>
       </c>
-      <c r="AN11" s="46">
+      <c r="AN11" s="46"/>
+      <c r="AO11" s="46">
         <v>0</v>
       </c>
-      <c r="AO11" s="46">
+      <c r="AP11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="46">
         <v>170.374545454545</v>
       </c>
-      <c r="AP11" s="46">
+      <c r="AU11" s="46">
         <v>1.394321535205479</v>
       </c>
-      <c r="AQ11" s="46">
+      <c r="AV11" s="46">
         <v>941.22622485351599</v>
       </c>
-      <c r="AR11" s="46">
+      <c r="AW11" s="46">
         <v>140.06492</v>
       </c>
-      <c r="AS11" s="46">
+      <c r="AX11" s="46">
         <v>63.331960000000002</v>
       </c>
-      <c r="AT11" s="46">
+      <c r="AY11" s="46">
         <v>4.206396917894736</v>
       </c>
-      <c r="AU11" s="46">
+      <c r="AZ11" s="46">
         <v>9.3231960462962959</v>
       </c>
-      <c r="AV11" s="46">
+      <c r="BA11" s="46">
         <v>0.405131744444444</v>
       </c>
-      <c r="AW11" s="46">
+      <c r="BB11" s="46">
         <v>0</v>
       </c>
-      <c r="AX11" s="46">
+      <c r="BC11" s="46">
         <v>0</v>
       </c>
-      <c r="AY11" s="46">
+      <c r="BD11" s="46">
         <v>0</v>
       </c>
-      <c r="AZ11" s="46"/>
-      <c r="BA11" s="46"/>
-    </row>
-    <row r="12" spans="1:53" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BE11" s="46"/>
+      <c r="BF11" s="46"/>
+    </row>
+    <row r="12" spans="1:58" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>241</v>
       </c>
@@ -61405,41 +61468,35 @@
       <c r="N12" s="46"/>
       <c r="O12" s="46"/>
       <c r="P12" s="46"/>
-      <c r="Q12" s="46">
-        <v>54.125999999999998</v>
-      </c>
-      <c r="R12" s="46">
-        <v>0</v>
-      </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
       <c r="S12" s="46"/>
       <c r="T12" s="46"/>
-      <c r="U12" s="46">
-        <v>0</v>
-      </c>
+      <c r="U12" s="46"/>
       <c r="V12" s="46">
-        <v>0</v>
+        <v>54.125999999999998</v>
       </c>
       <c r="W12" s="46">
         <v>0</v>
       </c>
-      <c r="X12" s="46">
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46">
         <v>0</v>
       </c>
-      <c r="Y12" s="46">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="46"/>
       <c r="AA12" s="46">
         <v>0</v>
       </c>
-      <c r="AB12" s="46"/>
+      <c r="AB12" s="46">
+        <v>0</v>
+      </c>
       <c r="AC12" s="46">
         <v>0</v>
       </c>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46">
+      <c r="AD12" s="46">
         <v>0</v>
       </c>
+      <c r="AE12" s="46"/>
       <c r="AF12" s="46">
         <v>0</v>
       </c>
@@ -61454,52 +61511,63 @@
       <c r="AK12" s="46">
         <v>0</v>
       </c>
-      <c r="AL12" s="46">
-        <v>0</v>
-      </c>
+      <c r="AL12" s="46"/>
       <c r="AM12" s="46">
         <v>0</v>
       </c>
-      <c r="AN12" s="46">
-        <v>0</v>
-      </c>
+      <c r="AN12" s="46"/>
       <c r="AO12" s="46">
         <v>0</v>
       </c>
       <c r="AP12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="46">
         <v>0.22564281164383562</v>
       </c>
-      <c r="AQ12" s="46">
+      <c r="AV12" s="46">
         <v>20.83803412968</v>
       </c>
-      <c r="AR12" s="46">
+      <c r="AW12" s="46">
         <v>28.73659252275862</v>
       </c>
-      <c r="AS12" s="46">
+      <c r="AX12" s="46">
         <v>3.5488458656756761</v>
       </c>
-      <c r="AT12" s="46">
+      <c r="AY12" s="46">
         <v>61.88735509894736</v>
       </c>
-      <c r="AU12" s="46">
+      <c r="AZ12" s="46">
         <v>5.0273560461728382</v>
       </c>
-      <c r="AV12" s="46">
+      <c r="BA12" s="46">
         <v>0.54993525222222217</v>
       </c>
-      <c r="AW12" s="46">
+      <c r="BB12" s="46">
         <v>0</v>
       </c>
-      <c r="AX12" s="46">
+      <c r="BC12" s="46">
         <v>0</v>
       </c>
-      <c r="AY12" s="46">
+      <c r="BD12" s="46">
         <v>0</v>
       </c>
-      <c r="AZ12" s="46"/>
-      <c r="BA12" s="46"/>
-    </row>
-    <row r="13" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BE12" s="46"/>
+      <c r="BF12" s="46"/>
+    </row>
+    <row r="13" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="45"/>
       <c r="C13" s="47"/>
@@ -61509,21 +61577,26 @@
       </c>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="405"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
+      <c r="P13" s="450"/>
+      <c r="Q13" s="450"/>
+      <c r="R13" s="450"/>
+      <c r="S13" s="450"/>
+      <c r="T13" s="450"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="405"/>
       <c r="W13" s="47"/>
       <c r="X13" s="47"/>
       <c r="Y13" s="47"/>
       <c r="Z13" s="47"/>
       <c r="AA13" s="47"/>
-      <c r="AB13" s="50"/>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AB13" s="47"/>
+      <c r="AC13" s="47"/>
+      <c r="AD13" s="47"/>
+      <c r="AE13" s="47"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>242</v>
       </c>
@@ -61547,21 +61620,26 @@
       <c r="O14" s="38">
         <v>2021</v>
       </c>
-      <c r="P14" s="38">
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38">
         <v>2030</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="V14" s="55">
         <f>I14</f>
         <v>2050</v>
       </c>
-      <c r="S14" s="47" t="s">
+      <c r="X14" s="47" t="s">
         <v>1054</v>
       </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-    </row>
-    <row r="15" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+    </row>
+    <row r="15" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>243</v>
       </c>
@@ -61586,15 +61664,20 @@
       <c r="M15" s="56"/>
       <c r="O15" s="406"/>
       <c r="P15" s="406"/>
-      <c r="Q15" s="58"/>
-      <c r="S15" s="402">
+      <c r="Q15" s="406"/>
+      <c r="R15" s="406"/>
+      <c r="S15" s="406"/>
+      <c r="T15" s="406"/>
+      <c r="U15" s="406"/>
+      <c r="V15" s="58"/>
+      <c r="X15" s="402">
         <v>0.08</v>
       </c>
-      <c r="T15" s="47"/>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
-    </row>
-    <row r="16" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+    </row>
+    <row r="16" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>245</v>
       </c>
@@ -61612,15 +61695,15 @@
         <v>72.23</v>
       </c>
       <c r="G16" s="63">
-        <f>SUMIF($M$15:$M$24,$D$16,O$15:O$24)*(1+$S$15)</f>
+        <f>SUMIF($M$15:$M$24,$D$16,O$15:O$24)*(1+$X$15)</f>
         <v>74.52000000000001</v>
       </c>
       <c r="H16" s="63">
-        <f>SUMIF($M$15:$M$24,$D$16,P$15:P$24)*(1+$S$15)</f>
+        <f>SUMIF($M$15:$M$24,$D$16,U$15:U$24)*(1+$X$15)</f>
         <v>68.400000000000006</v>
       </c>
       <c r="I16" s="63">
-        <f>SUMIF($M$15:$M$24,$D$16,Q$15:Q$24)*(1+$S$15)</f>
+        <f>SUMIF($M$15:$M$24,$D$16,V$15:V$24)*(1+$X$15)</f>
         <v>87.11999999999999</v>
       </c>
       <c r="M16" s="64" t="s">
@@ -61630,20 +61713,25 @@
         <f>IEA_WEO!DK96</f>
         <v>69</v>
       </c>
-      <c r="P16" s="407">
+      <c r="P16" s="407"/>
+      <c r="Q16" s="407"/>
+      <c r="R16" s="407"/>
+      <c r="S16" s="407"/>
+      <c r="T16" s="407"/>
+      <c r="U16" s="407">
         <f>IEA_WEO!DL96</f>
         <v>35</v>
       </c>
-      <c r="Q16" s="408">
+      <c r="V16" s="408">
         <f>IEA_WEO!DM96</f>
         <v>24</v>
       </c>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="47"/>
-    </row>
-    <row r="17" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
+    </row>
+    <row r="17" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>247</v>
       </c>
@@ -61661,22 +61749,27 @@
         <f>O16</f>
         <v>69</v>
       </c>
-      <c r="P17" s="407">
+      <c r="P17" s="407"/>
+      <c r="Q17" s="407"/>
+      <c r="R17" s="407"/>
+      <c r="S17" s="407"/>
+      <c r="T17" s="407"/>
+      <c r="U17" s="407">
         <f>IEA_WEO!CL101</f>
         <v>55.666666666666664</v>
       </c>
-      <c r="Q17" s="408">
+      <c r="V17" s="408">
         <f>IEA_WEO!CM101</f>
         <v>50.333333333333329</v>
       </c>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17"/>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+    </row>
+    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>155</v>
       </c>
@@ -61698,29 +61791,34 @@
         <f>O17</f>
         <v>69</v>
       </c>
-      <c r="P18" s="409">
+      <c r="P18" s="409"/>
+      <c r="Q18" s="409"/>
+      <c r="R18" s="409"/>
+      <c r="S18" s="409"/>
+      <c r="T18" s="409"/>
+      <c r="U18" s="409">
         <f>IEA_WEO!CL102</f>
         <v>63.333333333333336</v>
       </c>
-      <c r="Q18" s="410">
+      <c r="V18" s="410">
         <f>IEA_WEO!CM102</f>
         <v>80.666666666666657</v>
       </c>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Z18" s="29" t="s">
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AE18" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-    </row>
-    <row r="19" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AM18" s="30"/>
+      <c r="AN18" s="30"/>
+    </row>
+    <row r="19" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="69" t="s">
         <v>251</v>
       </c>
@@ -61732,20 +61830,20 @@
       <c r="G19" s="70"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="AA19" s="28" t="str">
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AF19" s="28" t="str">
         <f>[8]Export!D5</f>
         <v>Oil Price (2015$/bbl)</v>
       </c>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-    </row>
-    <row r="20" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM19" s="30"/>
+      <c r="AN19" s="30"/>
+    </row>
+    <row r="20" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="71"/>
       <c r="C20" s="72"/>
       <c r="F20" s="30" t="s">
@@ -61758,37 +61856,42 @@
       <c r="O20" s="75"/>
       <c r="P20" s="75"/>
       <c r="Q20" s="75"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
       <c r="W20"/>
       <c r="X20"/>
-      <c r="AA20" s="28">
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AF20" s="28">
         <f>[8]Export!D6</f>
         <v>2010</v>
       </c>
-      <c r="AB20" s="28">
+      <c r="AG20" s="28">
         <f>[8]Export!E6</f>
         <v>2015</v>
       </c>
-      <c r="AC20" s="28">
+      <c r="AH20" s="28">
         <f>[8]Export!F6</f>
         <v>2020</v>
       </c>
-      <c r="AD20" s="28">
+      <c r="AI20" s="28">
         <f>[8]Export!G6</f>
         <v>2030</v>
       </c>
-      <c r="AE20" s="28">
+      <c r="AJ20" s="28">
         <f>[8]Export!H6</f>
         <v>2050</v>
       </c>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-    </row>
-    <row r="21" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM20" s="30"/>
+      <c r="AN20" s="30"/>
+    </row>
+    <row r="21" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
         <v>1055</v>
       </c>
@@ -61814,41 +61917,46 @@
       <c r="O21" s="75"/>
       <c r="P21" s="75"/>
       <c r="Q21" s="75"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
       <c r="W21"/>
       <c r="X21"/>
-      <c r="Z21" s="79">
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AE21" s="79">
         <f>[8]Export!C7</f>
         <v>0.05</v>
       </c>
-      <c r="AA21" s="75">
+      <c r="AF21" s="75">
         <f>[8]Export!D7</f>
         <v>84.76347793442072</v>
       </c>
-      <c r="AB21" s="75">
+      <c r="AG21" s="75">
         <f>[8]Export!E7</f>
         <v>51</v>
       </c>
-      <c r="AC21" s="75">
+      <c r="AH21" s="75">
         <f>[8]Export!F7</f>
         <v>73.317017874156548</v>
       </c>
-      <c r="AD21" s="75">
+      <c r="AI21" s="75">
         <f>[8]Export!G7</f>
         <v>98.605353881111654</v>
       </c>
-      <c r="AE21" s="75">
+      <c r="AJ21" s="75">
         <f>[8]Export!H7</f>
         <v>107.66021241145609</v>
       </c>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-    </row>
-    <row r="22" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM21" s="30"/>
+      <c r="AN21" s="30"/>
+    </row>
+    <row r="22" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="56" t="s">
         <v>203</v>
       </c>
@@ -61881,41 +61989,46 @@
       <c r="O22" s="75"/>
       <c r="P22" s="75"/>
       <c r="Q22" s="75"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="75"/>
       <c r="W22"/>
       <c r="X22"/>
-      <c r="Z22" s="79">
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AE22" s="79">
         <f>[8]Export!C8</f>
         <v>0.25</v>
       </c>
-      <c r="AA22" s="75">
+      <c r="AF22" s="75">
         <f>[8]Export!D8</f>
         <v>84.76347793442072</v>
       </c>
-      <c r="AB22" s="75">
+      <c r="AG22" s="75">
         <f>[8]Export!E8</f>
         <v>51</v>
       </c>
-      <c r="AC22" s="75">
+      <c r="AH22" s="75">
         <f>[8]Export!F8</f>
         <v>75.881960716452127</v>
       </c>
-      <c r="AD22" s="75">
+      <c r="AI22" s="75">
         <f>[8]Export!G8</f>
         <v>103.77027513658234</v>
       </c>
-      <c r="AE22" s="75">
+      <c r="AJ22" s="75">
         <f>[8]Export!H8</f>
         <v>116.71930911569734</v>
       </c>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-    </row>
-    <row r="23" spans="1:36" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM22" s="30"/>
+      <c r="AN22" s="30"/>
+    </row>
+    <row r="23" spans="1:41" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>254</v>
       </c>
@@ -61934,42 +62047,47 @@
       <c r="O23" s="75"/>
       <c r="P23" s="75"/>
       <c r="Q23" s="75"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="75"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23" s="79">
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23" s="79">
         <f>[8]Export!C9</f>
         <v>0.5</v>
       </c>
-      <c r="AA23" s="75">
+      <c r="AF23" s="75">
         <f>[8]Export!D9</f>
         <v>84.76347793442072</v>
       </c>
-      <c r="AB23" s="75">
+      <c r="AG23" s="75">
         <f>[8]Export!E9</f>
         <v>51</v>
       </c>
-      <c r="AC23" s="75">
+      <c r="AH23" s="75">
         <f>[8]Export!F9</f>
         <v>78.619821053733901</v>
       </c>
-      <c r="AD23" s="75">
+      <c r="AI23" s="75">
         <f>[8]Export!G9</f>
         <v>107.433752652908</v>
       </c>
-      <c r="AE23" s="75">
+      <c r="AJ23" s="75">
         <f>[8]Export!H9</f>
         <v>125.49232908190987</v>
       </c>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-    </row>
-    <row r="24" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM23" s="30"/>
+      <c r="AN23" s="30"/>
+    </row>
+    <row r="24" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="56" t="s">
         <v>205</v>
       </c>
@@ -62002,35 +62120,40 @@
       <c r="O24" s="75"/>
       <c r="P24" s="75"/>
       <c r="Q24" s="75"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="79">
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="79">
         <f>[8]Export!C10</f>
         <v>0.75</v>
       </c>
-      <c r="AA24" s="75">
+      <c r="AF24" s="75">
         <f>[8]Export!D10</f>
         <v>84.76347793442072</v>
       </c>
-      <c r="AB24" s="75">
+      <c r="AG24" s="75">
         <f>[8]Export!E10</f>
         <v>51</v>
       </c>
-      <c r="AC24" s="75">
+      <c r="AH24" s="75">
         <f>[8]Export!F10</f>
         <v>81.098305148536369</v>
       </c>
-      <c r="AD24" s="75">
+      <c r="AI24" s="75">
         <f>[8]Export!G10</f>
         <v>114.76296804497092</v>
       </c>
-      <c r="AE24" s="75">
+      <c r="AJ24" s="75">
         <f>[8]Export!H10</f>
         <v>132.35817079459795</v>
       </c>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-    </row>
-    <row r="25" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM24" s="30"/>
+      <c r="AN24" s="30"/>
+    </row>
+    <row r="25" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>211</v>
       </c>
@@ -62061,34 +62184,39 @@
       </c>
       <c r="N25"/>
       <c r="O25" s="77"/>
-      <c r="Z25" s="79">
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="AE25" s="79">
         <f>[8]Export!C11</f>
         <v>0.95</v>
       </c>
-      <c r="AA25" s="75">
+      <c r="AF25" s="75">
         <f>[8]Export!D11</f>
         <v>84.76347793442072</v>
       </c>
-      <c r="AB25" s="75">
+      <c r="AG25" s="75">
         <f>[8]Export!E11</f>
         <v>51</v>
       </c>
-      <c r="AC25" s="75">
+      <c r="AH25" s="75">
         <f>[8]Export!F11</f>
         <v>84.210820058288292</v>
       </c>
-      <c r="AD25" s="75">
+      <c r="AI25" s="75">
         <f>[8]Export!G11</f>
         <v>126.81972514636294</v>
       </c>
-      <c r="AE25" s="75">
+      <c r="AJ25" s="75">
         <f>[8]Export!H11</f>
         <v>141.25833597771214</v>
       </c>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-    </row>
-    <row r="26" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM25" s="30"/>
+      <c r="AN25" s="30"/>
+    </row>
+    <row r="26" spans="1:41" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>207</v>
       </c>
@@ -62119,15 +62247,20 @@
       </c>
       <c r="N26"/>
       <c r="O26" s="77"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="28" t="str">
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="28" t="str">
         <f>[8]Export!D12</f>
         <v>LNG (2015$/MMBTU)</v>
       </c>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+    </row>
+    <row r="27" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>213</v>
       </c>
@@ -62160,49 +62293,49 @@
       <c r="O27" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="28">
+      <c r="AE27" s="79"/>
+      <c r="AF27" s="28">
         <f>[8]Export!D13</f>
         <v>2010</v>
       </c>
-      <c r="AB27" s="28">
+      <c r="AG27" s="28">
         <f>[8]Export!E13</f>
         <v>2015</v>
       </c>
-      <c r="AC27" s="28">
+      <c r="AH27" s="28">
         <f>[8]Export!F13</f>
         <v>2020</v>
       </c>
-      <c r="AD27" s="28">
+      <c r="AI27" s="28">
         <f>[8]Export!G13</f>
         <v>2030</v>
       </c>
-      <c r="AE27" s="28">
+      <c r="AJ27" s="28">
         <f>[8]Export!H13</f>
         <v>2050</v>
       </c>
-      <c r="AF27" s="28">
-        <f>AA27</f>
+      <c r="AK27" s="28">
+        <f>AF27</f>
         <v>2010</v>
       </c>
-      <c r="AG27" s="28">
-        <f>AB27</f>
+      <c r="AL27" s="28">
+        <f>AG27</f>
         <v>2015</v>
       </c>
-      <c r="AH27" s="28">
-        <f>AC27</f>
+      <c r="AM27" s="28">
+        <f>AH27</f>
         <v>2020</v>
       </c>
-      <c r="AI27" s="28">
-        <f>AD27</f>
+      <c r="AN27" s="28">
+        <f>AI27</f>
         <v>2030</v>
       </c>
-      <c r="AJ27" s="28">
-        <f>AE27</f>
+      <c r="AO27" s="28">
+        <f>AJ27</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>209</v>
       </c>
@@ -62233,65 +62366,70 @@
       </c>
       <c r="N28"/>
       <c r="O28" s="84"/>
-      <c r="P28" s="85" t="s">
+      <c r="P28" s="451"/>
+      <c r="Q28" s="451"/>
+      <c r="R28" s="451"/>
+      <c r="S28" s="451"/>
+      <c r="T28" s="451"/>
+      <c r="U28" s="85" t="s">
         <v>256</v>
       </c>
-      <c r="Q28" s="86"/>
-      <c r="S28" s="87" t="s">
+      <c r="V28" s="86"/>
+      <c r="X28" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="T28" s="88"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="85" t="s">
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="85" t="s">
         <v>258</v>
       </c>
-      <c r="W28" s="86"/>
-      <c r="Z28" s="79">
+      <c r="AB28" s="86"/>
+      <c r="AE28" s="79">
         <f>[8]Export!C14</f>
         <v>0.05</v>
       </c>
-      <c r="AA28" s="75">
+      <c r="AF28" s="75">
         <f>[8]Export!D14</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AB28" s="75">
+      <c r="AG28" s="75">
         <f>[8]Export!E14</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AC28" s="75">
+      <c r="AH28" s="75">
         <f>[8]Export!F14</f>
         <v>8.3428147519412956</v>
       </c>
-      <c r="AD28" s="75">
+      <c r="AI28" s="75">
         <f>[8]Export!G14</f>
         <v>9.8008280757574973</v>
       </c>
-      <c r="AE28" s="75">
+      <c r="AJ28" s="75">
         <f>[8]Export!H14</f>
         <v>10.64026158109483</v>
       </c>
-      <c r="AF28" s="89">
-        <f t="shared" ref="AF28:AJ32" si="5">AA28/AA21</f>
+      <c r="AK28" s="89">
+        <f t="shared" ref="AK28:AO32" si="5">AF28/AF21</f>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="AG28" s="89">
+      <c r="AL28" s="89">
         <f t="shared" si="5"/>
         <v>0.15981047876022006</v>
       </c>
-      <c r="AH28" s="89">
+      <c r="AM28" s="89">
         <f t="shared" si="5"/>
         <v>0.11379097232597682</v>
       </c>
-      <c r="AI28" s="89">
+      <c r="AN28" s="89">
         <f t="shared" si="5"/>
         <v>9.9394482043787827E-2</v>
       </c>
-      <c r="AJ28" s="89">
+      <c r="AO28" s="89">
         <f t="shared" si="5"/>
         <v>9.883188359716262E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="80" t="s">
         <v>259</v>
       </c>
@@ -62312,76 +62450,81 @@
       <c r="O29" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="91" t="s">
+      <c r="P29" s="452"/>
+      <c r="Q29" s="452"/>
+      <c r="R29" s="452"/>
+      <c r="S29" s="452"/>
+      <c r="T29" s="452"/>
+      <c r="U29" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="Q29" s="92" t="s">
+      <c r="V29" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="R29" s="92" t="s">
+      <c r="W29" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="S29" s="92" t="s">
+      <c r="X29" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="T29" s="92" t="s">
+      <c r="Y29" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="U29" s="92" t="s">
+      <c r="Z29" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="V29" s="92" t="s">
+      <c r="AA29" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="W29" s="92" t="s">
+      <c r="AB29" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="Z29" s="79">
+      <c r="AE29" s="79">
         <f>[8]Export!C15</f>
         <v>0.25</v>
       </c>
-      <c r="AA29" s="75">
+      <c r="AF29" s="75">
         <f>[8]Export!D15</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AB29" s="75">
+      <c r="AG29" s="75">
         <f>[8]Export!E15</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AC29" s="75">
+      <c r="AH29" s="75">
         <f>[8]Export!F15</f>
         <v>8.6297778388377875</v>
       </c>
-      <c r="AD29" s="75">
+      <c r="AI29" s="75">
         <f>[8]Export!G15</f>
         <v>10.297404179962657</v>
       </c>
-      <c r="AE29" s="75">
+      <c r="AJ29" s="75">
         <f>[8]Export!H15</f>
         <v>11.434919186730026</v>
       </c>
-      <c r="AF29" s="89">
+      <c r="AK29" s="89">
         <f t="shared" si="5"/>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="AG29" s="89">
+      <c r="AL29" s="89">
         <f t="shared" si="5"/>
         <v>0.15981047876022006</v>
       </c>
-      <c r="AH29" s="89">
+      <c r="AM29" s="89">
         <f t="shared" si="5"/>
         <v>0.1137263423000448</v>
       </c>
-      <c r="AI29" s="89">
+      <c r="AN29" s="89">
         <f t="shared" si="5"/>
         <v>9.9232696130074072E-2</v>
       </c>
-      <c r="AJ29" s="89">
+      <c r="AO29" s="89">
         <f t="shared" si="5"/>
         <v>9.7969387185073448E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="str">
         <f>A24</f>
         <v>Oil Diesel</v>
@@ -62415,76 +62558,81 @@
       <c r="O30" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="P30" s="93" t="s">
+      <c r="P30" s="452"/>
+      <c r="Q30" s="452"/>
+      <c r="R30" s="452"/>
+      <c r="S30" s="452"/>
+      <c r="T30" s="452"/>
+      <c r="U30" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="Q30" s="94" t="s">
+      <c r="V30" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="R30" s="94" t="s">
+      <c r="W30" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="S30" s="94" t="s">
+      <c r="X30" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="T30" s="94" t="s">
+      <c r="Y30" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="U30" s="94" t="s">
+      <c r="Z30" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="V30" s="94" t="s">
+      <c r="AA30" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="W30" s="94" t="s">
+      <c r="AB30" s="94" t="s">
         <v>272</v>
       </c>
-      <c r="Z30" s="79">
+      <c r="AE30" s="79">
         <f>[8]Export!C16</f>
         <v>0.5</v>
       </c>
-      <c r="AA30" s="75">
+      <c r="AF30" s="75">
         <f>[8]Export!D16</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AB30" s="75">
+      <c r="AG30" s="75">
         <f>[8]Export!E16</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AC30" s="75">
+      <c r="AH30" s="75">
         <f>[8]Export!F16</f>
         <v>9.0140661065885528</v>
       </c>
-      <c r="AD30" s="75">
+      <c r="AI30" s="75">
         <f>[8]Export!G16</f>
         <v>10.959143415150999</v>
       </c>
-      <c r="AE30" s="75">
+      <c r="AJ30" s="75">
         <f>[8]Export!H16</f>
         <v>12.559665336244453</v>
       </c>
-      <c r="AF30" s="89">
+      <c r="AK30" s="89">
         <f t="shared" si="5"/>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="AG30" s="89">
+      <c r="AL30" s="89">
         <f t="shared" si="5"/>
         <v>0.15981047876022006</v>
       </c>
-      <c r="AH30" s="89">
+      <c r="AM30" s="89">
         <f t="shared" si="5"/>
         <v>0.11465386191133345</v>
       </c>
-      <c r="AI30" s="89">
+      <c r="AN30" s="89">
         <f t="shared" si="5"/>
         <v>0.10200838325509576</v>
       </c>
-      <c r="AJ30" s="89">
+      <c r="AO30" s="89">
         <f t="shared" si="5"/>
         <v>0.10008313199802561</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="str">
         <f>A25</f>
         <v>Oil Kerosene</v>
@@ -62518,76 +62666,81 @@
       <c r="O31" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="P31" s="93" t="s">
+      <c r="P31" s="452"/>
+      <c r="Q31" s="452"/>
+      <c r="R31" s="452"/>
+      <c r="S31" s="452"/>
+      <c r="T31" s="452"/>
+      <c r="U31" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="Q31" s="94" t="s">
+      <c r="V31" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="R31" s="94" t="s">
+      <c r="W31" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="S31" s="94" t="s">
+      <c r="X31" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="T31" s="94" t="s">
+      <c r="Y31" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="U31" s="94" t="s">
+      <c r="Z31" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="V31" s="94" t="s">
+      <c r="AA31" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="W31" s="94" t="s">
+      <c r="AB31" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" s="79">
+      <c r="AE31" s="79">
         <f>[8]Export!C17</f>
         <v>0.75</v>
       </c>
-      <c r="AA31" s="75">
+      <c r="AF31" s="75">
         <f>[8]Export!D17</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AB31" s="75">
+      <c r="AG31" s="75">
         <f>[8]Export!E17</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AC31" s="75">
+      <c r="AH31" s="75">
         <f>[8]Export!F17</f>
         <v>9.7554918405642095</v>
       </c>
-      <c r="AD31" s="75">
+      <c r="AI31" s="75">
         <f>[8]Export!G17</f>
         <v>11.953450254270349</v>
       </c>
-      <c r="AE31" s="75">
+      <c r="AJ31" s="75">
         <f>[8]Export!H17</f>
         <v>14.283461065391567</v>
       </c>
-      <c r="AF31" s="89">
+      <c r="AK31" s="89">
         <f t="shared" si="5"/>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="AG31" s="89">
+      <c r="AL31" s="89">
         <f t="shared" si="5"/>
         <v>0.15981047876022006</v>
       </c>
-      <c r="AH31" s="89">
+      <c r="AM31" s="89">
         <f t="shared" si="5"/>
         <v>0.1202921790128221</v>
       </c>
-      <c r="AI31" s="89">
+      <c r="AN31" s="89">
         <f t="shared" si="5"/>
         <v>0.104157730127599</v>
       </c>
-      <c r="AJ31" s="89">
+      <c r="AO31" s="89">
         <f t="shared" si="5"/>
         <v>0.10791521958668931</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="str">
         <f>A26</f>
         <v>Oil Gasoline</v>
@@ -62621,76 +62774,81 @@
       <c r="O32" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="P32" s="93" t="s">
+      <c r="P32" s="452"/>
+      <c r="Q32" s="452"/>
+      <c r="R32" s="452"/>
+      <c r="S32" s="452"/>
+      <c r="T32" s="452"/>
+      <c r="U32" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="Q32" s="94" t="s">
+      <c r="V32" s="94" t="s">
         <v>279</v>
       </c>
-      <c r="R32" s="94" t="s">
+      <c r="W32" s="94" t="s">
         <v>280</v>
       </c>
-      <c r="S32" s="94" t="s">
+      <c r="X32" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="T32" s="94" t="s">
+      <c r="Y32" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="U32" s="94" t="s">
+      <c r="Z32" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="V32" s="94" t="s">
+      <c r="AA32" s="94" t="s">
         <v>281</v>
       </c>
-      <c r="W32" s="94" t="s">
+      <c r="AB32" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="Z32" s="79">
+      <c r="AE32" s="79">
         <f>[8]Export!C18</f>
         <v>0.95</v>
       </c>
-      <c r="AA32" s="75">
+      <c r="AF32" s="75">
         <f>[8]Export!D18</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AB32" s="75">
+      <c r="AG32" s="75">
         <f>[8]Export!E18</f>
         <v>8.1503344167712228</v>
       </c>
-      <c r="AC32" s="75">
+      <c r="AH32" s="75">
         <f>[8]Export!F18</f>
         <v>10.091744074846128</v>
       </c>
-      <c r="AD32" s="75">
+      <c r="AI32" s="75">
         <f>[8]Export!G18</f>
         <v>12.855473233969482</v>
       </c>
-      <c r="AE32" s="75">
+      <c r="AJ32" s="75">
         <f>[8]Export!H18</f>
         <v>15.974655456871597</v>
       </c>
-      <c r="AF32" s="89">
+      <c r="AK32" s="89">
         <f t="shared" si="5"/>
         <v>9.6153846153846145E-2</v>
       </c>
-      <c r="AG32" s="89">
+      <c r="AL32" s="89">
         <f t="shared" si="5"/>
         <v>0.15981047876022006</v>
       </c>
-      <c r="AH32" s="89">
+      <c r="AM32" s="89">
         <f t="shared" si="5"/>
         <v>0.11983904286718636</v>
       </c>
-      <c r="AI32" s="89">
+      <c r="AN32" s="89">
         <f t="shared" si="5"/>
         <v>0.10136808938146609</v>
       </c>
-      <c r="AJ32" s="89">
+      <c r="AO32" s="89">
         <f t="shared" si="5"/>
         <v>0.11308823190011308</v>
       </c>
     </row>
-    <row r="33" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="str">
         <f>A27</f>
         <v>Oil LPG</v>
@@ -62724,39 +62882,44 @@
       <c r="O33" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="P33" s="93" t="s">
+      <c r="P33" s="452"/>
+      <c r="Q33" s="452"/>
+      <c r="R33" s="452"/>
+      <c r="S33" s="452"/>
+      <c r="T33" s="452"/>
+      <c r="U33" s="93" t="s">
         <v>284</v>
       </c>
-      <c r="Q33" s="94" t="s">
+      <c r="V33" s="94" t="s">
         <v>285</v>
       </c>
-      <c r="R33" s="94" t="s">
+      <c r="W33" s="94" t="s">
         <v>286</v>
       </c>
-      <c r="S33" s="94" t="s">
+      <c r="X33" s="94" t="s">
         <v>287</v>
       </c>
-      <c r="T33" s="94" t="s">
+      <c r="Y33" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="U33" s="94" t="s">
+      <c r="Z33" s="94" t="s">
         <v>289</v>
       </c>
-      <c r="V33" s="94" t="s">
+      <c r="AA33" s="94" t="s">
         <v>290</v>
       </c>
-      <c r="W33" s="94" t="s">
+      <c r="AB33" s="94" t="s">
         <v>291</v>
       </c>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="28" t="str">
+      <c r="AE33" s="79"/>
+      <c r="AF33" s="28" t="str">
         <f>[8]Export!D19</f>
         <v>Shale(2015$/MMBTU)</v>
       </c>
-      <c r="AH33" s="30"/>
-      <c r="AI33" s="30"/>
-    </row>
-    <row r="34" spans="1:43" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM33" s="30"/>
+      <c r="AN33" s="30"/>
+    </row>
+    <row r="34" spans="1:48" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="str">
         <f>A28</f>
         <v>Oil HFO</v>
@@ -62787,50 +62950,55 @@
         <v>236.95117987421381</v>
       </c>
       <c r="O34"/>
+      <c r="P34"/>
       <c r="Q34"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="28">
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="V34"/>
+      <c r="AE34" s="79"/>
+      <c r="AF34" s="28">
         <f>[8]Export!D20</f>
         <v>2010</v>
       </c>
-      <c r="AB34" s="28">
+      <c r="AG34" s="28">
         <f>[8]Export!E20</f>
         <v>2015</v>
       </c>
-      <c r="AC34" s="28">
+      <c r="AH34" s="28">
         <f>[8]Export!F20</f>
         <v>2020</v>
       </c>
-      <c r="AD34" s="28">
+      <c r="AI34" s="28">
         <f>[8]Export!G20</f>
         <v>2030</v>
       </c>
-      <c r="AE34" s="28">
+      <c r="AJ34" s="28">
         <f>[8]Export!H20</f>
         <v>2050</v>
       </c>
-      <c r="AF34" s="28">
-        <f>AA34</f>
+      <c r="AK34" s="28">
+        <f>AF34</f>
         <v>2010</v>
       </c>
-      <c r="AG34" s="28">
-        <f>AB34</f>
+      <c r="AL34" s="28">
+        <f>AG34</f>
         <v>2015</v>
       </c>
-      <c r="AH34" s="28">
-        <f>AC34</f>
+      <c r="AM34" s="28">
+        <f>AH34</f>
         <v>2020</v>
       </c>
-      <c r="AI34" s="28">
-        <f>AD34</f>
+      <c r="AN34" s="28">
+        <f>AI34</f>
         <v>2030</v>
       </c>
-      <c r="AJ34" s="28">
-        <f>AE34</f>
+      <c r="AO34" s="28">
+        <f>AJ34</f>
         <v>2050</v>
       </c>
     </row>
-    <row r="35" spans="1:43" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="30"/>
       <c r="D35" s="99" t="s">
         <v>292</v>
@@ -62842,56 +63010,61 @@
       <c r="Q35" s="100"/>
       <c r="R35" s="100"/>
       <c r="S35" s="100"/>
-      <c r="T35" s="101"/>
-      <c r="V35" s="102" t="s">
+      <c r="T35" s="100"/>
+      <c r="U35" s="100"/>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="101"/>
+      <c r="AA35" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="Z35" s="79">
+      <c r="AE35" s="79">
         <f>[8]Export!C21</f>
         <v>0.05</v>
       </c>
-      <c r="AA35" s="75">
+      <c r="AF35" s="75">
         <f>[8]Export!D21</f>
         <v>8.0869454986247469</v>
       </c>
-      <c r="AB35" s="75">
+      <c r="AG35" s="75">
         <f>[8]Export!E21</f>
         <v>6.7049296712283812</v>
       </c>
-      <c r="AC35" s="75">
+      <c r="AH35" s="75">
         <f>[8]Export!F21</f>
         <v>4.7692975220111435</v>
       </c>
-      <c r="AD35" s="75">
+      <c r="AI35" s="75">
         <f>[8]Export!G21</f>
         <v>4.9613919398112687</v>
       </c>
-      <c r="AE35" s="75">
+      <c r="AJ35" s="75">
         <f>[8]Export!H21</f>
         <v>4.5057574706483354</v>
       </c>
-      <c r="AF35" s="103">
-        <f>AA35/AA21</f>
+      <c r="AK35" s="103">
+        <f>AF35/AF21</f>
         <v>9.5406013246429139E-2</v>
       </c>
-      <c r="AG35" s="103">
-        <f t="shared" ref="AG35:AJ39" si="7">AB35/AB21</f>
+      <c r="AL35" s="103">
+        <f t="shared" ref="AL35:AO39" si="7">AG35/AG21</f>
         <v>0.13146920923977218</v>
       </c>
-      <c r="AH35" s="103">
+      <c r="AM35" s="103">
         <f t="shared" si="7"/>
         <v>6.5050347931462568E-2</v>
       </c>
-      <c r="AI35" s="103">
+      <c r="AN35" s="103">
         <f t="shared" si="7"/>
         <v>5.0315644582475838E-2</v>
       </c>
-      <c r="AJ35" s="103">
+      <c r="AO35" s="103">
         <f t="shared" si="7"/>
         <v>4.1851649460138717E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
         <v>294</v>
       </c>
@@ -62908,74 +63081,79 @@
       <c r="O36" s="104" t="s">
         <v>297</v>
       </c>
-      <c r="P36" s="52" t="s">
+      <c r="P36" s="222"/>
+      <c r="Q36" s="222"/>
+      <c r="R36" s="222"/>
+      <c r="S36" s="222"/>
+      <c r="T36" s="222"/>
+      <c r="U36" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="V36" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="R36" s="105" t="str">
+      <c r="W36" s="105" t="str">
         <f>M16</f>
         <v>Net Zero</v>
       </c>
-      <c r="S36" s="52" t="str">
+      <c r="X36" s="52" t="str">
         <f>M17</f>
         <v>Announced Pledges</v>
       </c>
-      <c r="T36" s="52" t="str">
+      <c r="Y36" s="52" t="str">
         <f>M18</f>
         <v>Stated Policies</v>
       </c>
-      <c r="U36" s="28" t="s">
+      <c r="Z36" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="V36" s="106"/>
-      <c r="Z36" s="79">
+      <c r="AA36" s="106"/>
+      <c r="AE36" s="79">
         <f>[8]Export!C22</f>
         <v>0.25</v>
       </c>
-      <c r="AA36" s="75">
+      <c r="AF36" s="75">
         <f>[8]Export!D22</f>
         <v>8.1465330338997113</v>
       </c>
-      <c r="AB36" s="75">
+      <c r="AG36" s="75">
         <f>[8]Export!E22</f>
         <v>8.2025938686525883</v>
       </c>
-      <c r="AC36" s="75">
+      <c r="AH36" s="75">
         <f>[8]Export!F22</f>
         <v>7.3517748968881653</v>
       </c>
-      <c r="AD36" s="75">
+      <c r="AI36" s="75">
         <f>[8]Export!G22</f>
         <v>8.120572408201209</v>
       </c>
-      <c r="AE36" s="75">
+      <c r="AJ36" s="75">
         <f>[8]Export!H22</f>
         <v>7.4201738278995295</v>
       </c>
-      <c r="AF36" s="103">
-        <f>AA36/AA22</f>
+      <c r="AK36" s="103">
+        <f>AF36/AF22</f>
         <v>9.6108999210750529E-2</v>
       </c>
-      <c r="AG36" s="103">
+      <c r="AL36" s="103">
         <f t="shared" si="7"/>
         <v>0.16083517389514879</v>
       </c>
-      <c r="AH36" s="103">
+      <c r="AM36" s="103">
         <f t="shared" si="7"/>
         <v>9.6884356011299161E-2</v>
       </c>
-      <c r="AI36" s="103">
+      <c r="AN36" s="103">
         <f t="shared" si="7"/>
         <v>7.8255284545722933E-2</v>
       </c>
-      <c r="AJ36" s="103">
+      <c r="AO36" s="103">
         <f t="shared" si="7"/>
         <v>6.3572804569502081E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="107" t="str">
         <f>NameConv!B25</f>
         <v>Gas Indigenous Ibhubezi</v>
@@ -62989,23 +63167,23 @@
         <v>GIB</v>
       </c>
       <c r="E37" s="108">
-        <f t="shared" ref="E37:E42" si="8">SUMIF($O$36:$U$36,$D$36,O37:U37)</f>
+        <f t="shared" ref="E37:E42" si="8">SUMIF($O$36:$Z$36,$D$36,O37:Z37)</f>
         <v>0.10454194041570421</v>
       </c>
       <c r="F37" s="45">
-        <f t="shared" ref="F37:F42" si="9">($E37*F$16+$V37)*F$15/1.055</f>
+        <f t="shared" ref="F37:F42" si="9">($E37*F$16+$AA37)*F$15/1.055</f>
         <v>117.73934470134871</v>
       </c>
       <c r="G37" s="45">
-        <f t="shared" ref="G37:I42" si="10">IF($J37,($E37*G$16+$V37)*G$15/1.055,F37)</f>
+        <f>IF($J37,($E37*G$16+$AA37)*G$15/1.055,F37)</f>
         <v>121.47218561739591</v>
       </c>
       <c r="H37" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J37,($E37*H$16+$AA37)*H$15/1.055,G37)</f>
         <v>111.49620902079818</v>
       </c>
       <c r="I37" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J37,($E37*I$16+$AA37)*I$15/1.055,H37)</f>
         <v>142.01096096333239</v>
       </c>
       <c r="J37" s="109">
@@ -63014,76 +63192,81 @@
       <c r="O37" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P37" s="89">
-        <f>(O37+Q37)/2</f>
+      <c r="P37" s="453"/>
+      <c r="Q37" s="453"/>
+      <c r="R37" s="453"/>
+      <c r="S37" s="453"/>
+      <c r="T37" s="453"/>
+      <c r="U37" s="89">
+        <f>(O37+V37)/2</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="Q37" s="111">
+      <c r="V37" s="111">
         <v>0.12</v>
       </c>
-      <c r="R37" s="112">
-        <f t="shared" ref="R37:T40" si="11">$U37</f>
+      <c r="W37" s="112">
+        <f t="shared" ref="W37:Y40" si="10">$Z37</f>
         <v>0.10454194041570421</v>
       </c>
-      <c r="S37" s="112">
-        <f t="shared" si="11"/>
+      <c r="X37" s="112">
+        <f t="shared" si="10"/>
         <v>0.10454194041570421</v>
       </c>
-      <c r="T37" s="112">
-        <f t="shared" si="11"/>
+      <c r="Y37" s="112">
+        <f t="shared" si="10"/>
         <v>0.10454194041570421</v>
       </c>
-      <c r="U37" s="89">
-        <f>$U$41-1%</f>
+      <c r="Z37" s="89">
+        <f>$Z$41-1%</f>
         <v>0.10454194041570421</v>
       </c>
-      <c r="V37" s="106"/>
-      <c r="Z37" s="79">
+      <c r="AA37" s="106"/>
+      <c r="AE37" s="79">
         <f>[8]Export!C23</f>
         <v>0.5</v>
       </c>
-      <c r="AA37" s="75">
+      <c r="AF37" s="75">
         <f>[8]Export!D23</f>
         <v>8.1881379396328526</v>
       </c>
-      <c r="AB37" s="75">
+      <c r="AG37" s="75">
         <f>[8]Export!E23</f>
         <v>9.39276444788484</v>
       </c>
-      <c r="AC37" s="75">
+      <c r="AH37" s="75">
         <f>[8]Export!F23</f>
         <v>10.773557760174372</v>
       </c>
-      <c r="AD37" s="75">
+      <c r="AI37" s="75">
         <f>[8]Export!G23</f>
         <v>10.8172157152895</v>
       </c>
-      <c r="AE37" s="75">
+      <c r="AJ37" s="75">
         <f>[8]Export!H23</f>
         <v>10.88496798036755</v>
       </c>
-      <c r="AF37" s="103">
-        <f>AA37/AA23</f>
+      <c r="AK37" s="103">
+        <f>AF37/AF23</f>
         <v>9.659983449437741E-2</v>
       </c>
-      <c r="AG37" s="103">
+      <c r="AL37" s="103">
         <f t="shared" si="7"/>
         <v>0.1841718519193106</v>
       </c>
-      <c r="AH37" s="103">
+      <c r="AM37" s="103">
         <f t="shared" si="7"/>
         <v>0.13703360826541466</v>
       </c>
-      <c r="AI37" s="89">
+      <c r="AN37" s="89">
         <f t="shared" si="7"/>
         <v>0.10068731146567374</v>
       </c>
-      <c r="AJ37" s="103">
+      <c r="AO37" s="103">
         <f t="shared" si="7"/>
         <v>8.673811427360506E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -63103,15 +63286,15 @@
         <v>106.47694185774681</v>
       </c>
       <c r="G38" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J38,($E38*G$16+$AA38)*G$15/1.055,F38)</f>
         <v>106.47694185774681</v>
       </c>
       <c r="H38" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J38,($E38*H$16+$AA38)*H$15/1.055,G38)</f>
         <v>106.47694185774681</v>
       </c>
       <c r="I38" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J38,($E38*I$16+$AA38)*I$15/1.055,H38)</f>
         <v>106.47694185774681</v>
       </c>
       <c r="J38" s="109">
@@ -63120,76 +63303,81 @@
       <c r="O38" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P38" s="89">
-        <f>(O38+Q38)/2</f>
+      <c r="P38" s="453"/>
+      <c r="Q38" s="453"/>
+      <c r="R38" s="453"/>
+      <c r="S38" s="453"/>
+      <c r="T38" s="453"/>
+      <c r="U38" s="89">
+        <f>(O38+V38)/2</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Q38" s="113">
+      <c r="V38" s="113">
         <v>0.1</v>
       </c>
-      <c r="R38" s="112">
-        <f t="shared" si="11"/>
+      <c r="W38" s="112">
+        <f t="shared" si="10"/>
         <v>9.4541940415704198E-2</v>
       </c>
-      <c r="S38" s="112">
-        <f t="shared" si="11"/>
+      <c r="X38" s="112">
+        <f t="shared" si="10"/>
         <v>9.4541940415704198E-2</v>
       </c>
-      <c r="T38" s="112">
-        <f t="shared" si="11"/>
+      <c r="Y38" s="112">
+        <f t="shared" si="10"/>
         <v>9.4541940415704198E-2</v>
       </c>
-      <c r="U38" s="89">
-        <f>U41-2%</f>
+      <c r="Z38" s="89">
+        <f>Z41-2%</f>
         <v>9.4541940415704198E-2</v>
       </c>
-      <c r="V38" s="106"/>
-      <c r="Z38" s="79">
+      <c r="AA38" s="106"/>
+      <c r="AE38" s="79">
         <f>[8]Export!C24</f>
         <v>0.75</v>
       </c>
-      <c r="AA38" s="75">
+      <c r="AF38" s="75">
         <f>[8]Export!D24</f>
         <v>8.2301326312875958</v>
       </c>
-      <c r="AB38" s="75">
+      <c r="AG38" s="75">
         <f>[8]Export!E24</f>
         <v>10.507400823250775</v>
       </c>
-      <c r="AC38" s="75">
+      <c r="AH38" s="75">
         <f>[8]Export!F24</f>
         <v>14.3817212159371</v>
       </c>
-      <c r="AD38" s="75">
+      <c r="AI38" s="75">
         <f>[8]Export!G24</f>
         <v>13.406527739419724</v>
       </c>
-      <c r="AE38" s="75">
+      <c r="AJ38" s="75">
         <f>[8]Export!H24</f>
         <v>13.997003925763375</v>
       </c>
-      <c r="AF38" s="103">
-        <f>AA38/AA24</f>
+      <c r="AK38" s="103">
+        <f>AF38/AF24</f>
         <v>9.7095268290607814E-2</v>
       </c>
-      <c r="AG38" s="103">
+      <c r="AL38" s="103">
         <f t="shared" si="7"/>
         <v>0.2060274671225642</v>
       </c>
-      <c r="AH38" s="103">
+      <c r="AM38" s="103">
         <f t="shared" si="7"/>
         <v>0.17733688995837979</v>
       </c>
-      <c r="AI38" s="103">
+      <c r="AN38" s="103">
         <f t="shared" si="7"/>
         <v>0.11681928384917907</v>
       </c>
-      <c r="AJ38" s="103">
+      <c r="AO38" s="103">
         <f t="shared" si="7"/>
         <v>0.10575096226952878</v>
       </c>
     </row>
-    <row r="39" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>NameConv!B26</f>
         <v>Gas Indigenous Shale</v>
@@ -63211,15 +63399,15 @@
         <v>113.39810629656337</v>
       </c>
       <c r="G39" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J39,($E39*G$16+$AA39)*G$15/1.055,F39)</f>
         <v>113.39810629656337</v>
       </c>
       <c r="H39" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J39,($E39*H$16+$AA39)*H$15/1.055,G39)</f>
         <v>113.39810629656337</v>
       </c>
       <c r="I39" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J39,($E39*I$16+$AA39)*I$15/1.055,H39)</f>
         <v>113.39810629656337</v>
       </c>
       <c r="J39" s="109">
@@ -63228,76 +63416,81 @@
       <c r="O39" s="110">
         <v>0.06</v>
       </c>
-      <c r="P39" s="89">
-        <f>(O39+Q39)/2</f>
+      <c r="P39" s="453"/>
+      <c r="Q39" s="453"/>
+      <c r="R39" s="453"/>
+      <c r="S39" s="453"/>
+      <c r="T39" s="453"/>
+      <c r="U39" s="89">
+        <f>(O39+V39)/2</f>
         <v>0.08</v>
       </c>
-      <c r="Q39" s="113">
+      <c r="V39" s="113">
         <v>0.1</v>
       </c>
-      <c r="R39" s="112">
-        <f t="shared" si="11"/>
+      <c r="W39" s="112">
+        <f t="shared" si="10"/>
         <v>0.10068731146567374</v>
       </c>
-      <c r="S39" s="112">
-        <f t="shared" si="11"/>
+      <c r="X39" s="112">
+        <f t="shared" si="10"/>
         <v>0.10068731146567374</v>
       </c>
-      <c r="T39" s="112">
-        <f t="shared" si="11"/>
+      <c r="Y39" s="112">
+        <f t="shared" si="10"/>
         <v>0.10068731146567374</v>
       </c>
-      <c r="U39" s="114">
-        <f>AI37</f>
+      <c r="Z39" s="114">
+        <f>AN37</f>
         <v>0.10068731146567374</v>
       </c>
-      <c r="V39" s="106"/>
-      <c r="Z39" s="79">
+      <c r="AA39" s="106"/>
+      <c r="AE39" s="79">
         <f>[8]Export!C25</f>
         <v>0.95</v>
       </c>
-      <c r="AA39" s="75">
+      <c r="AF39" s="75">
         <f>[8]Export!D25</f>
         <v>8.2818014980867112</v>
       </c>
-      <c r="AB39" s="75">
+      <c r="AG39" s="75">
         <f>[8]Export!E25</f>
         <v>12.017743499367629</v>
       </c>
-      <c r="AC39" s="75">
+      <c r="AH39" s="75">
         <f>[8]Export!F25</f>
         <v>16.91401912191181</v>
       </c>
-      <c r="AD39" s="75">
+      <c r="AI39" s="75">
         <f>[8]Export!G25</f>
         <v>16.545164815873392</v>
       </c>
-      <c r="AE39" s="75">
+      <c r="AJ39" s="75">
         <f>[8]Export!H25</f>
         <v>16.813949721541967</v>
       </c>
-      <c r="AF39" s="103">
-        <f>AA39/AA25</f>
+      <c r="AK39" s="103">
+        <f>AF39/AF25</f>
         <v>9.770483349555481E-2</v>
       </c>
-      <c r="AG39" s="103">
+      <c r="AL39" s="103">
         <f t="shared" si="7"/>
         <v>0.23564202939936529</v>
       </c>
-      <c r="AH39" s="103">
+      <c r="AM39" s="103">
         <f t="shared" si="7"/>
         <v>0.20085327645787579</v>
       </c>
-      <c r="AI39" s="103">
+      <c r="AN39" s="103">
         <f t="shared" si="7"/>
         <v>0.13046207754179073</v>
       </c>
-      <c r="AJ39" s="103">
+      <c r="AO39" s="103">
         <f t="shared" si="7"/>
         <v>0.11902978755317412</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="115" t="str">
         <f>NameConv!B24</f>
         <v>Gas Northern Mozambique</v>
@@ -63319,15 +63512,15 @@
         <v>117.73934470134871</v>
       </c>
       <c r="G40" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J40,($E40*G$16+$AA40)*G$15/1.055,F40)</f>
         <v>117.73934470134871</v>
       </c>
       <c r="H40" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J40,($E40*H$16+$AA40)*H$15/1.055,G40)</f>
         <v>117.73934470134871</v>
       </c>
       <c r="I40" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J40,($E40*I$16+$AA40)*I$15/1.055,H40)</f>
         <v>117.73934470134871</v>
       </c>
       <c r="J40" s="109">
@@ -63336,32 +63529,37 @@
       <c r="O40" s="110">
         <v>0.03</v>
       </c>
-      <c r="P40" s="89">
-        <f>(O40+Q40)/2</f>
+      <c r="P40" s="453"/>
+      <c r="Q40" s="453"/>
+      <c r="R40" s="453"/>
+      <c r="S40" s="453"/>
+      <c r="T40" s="453"/>
+      <c r="U40" s="89">
+        <f>(O40+V40)/2</f>
         <v>5.5E-2</v>
       </c>
-      <c r="Q40" s="113">
+      <c r="V40" s="113">
         <v>0.08</v>
       </c>
-      <c r="R40" s="112">
-        <f t="shared" si="11"/>
+      <c r="W40" s="112">
+        <f t="shared" si="10"/>
         <v>0.10454194041570421</v>
       </c>
-      <c r="S40" s="112">
-        <f t="shared" si="11"/>
+      <c r="X40" s="112">
+        <f t="shared" si="10"/>
         <v>0.10454194041570421</v>
       </c>
-      <c r="T40" s="112">
-        <f t="shared" si="11"/>
+      <c r="Y40" s="112">
+        <f t="shared" si="10"/>
         <v>0.10454194041570421</v>
       </c>
-      <c r="U40" s="89">
-        <f>$U$41-1%</f>
+      <c r="Z40" s="89">
+        <f>$Z$41-1%</f>
         <v>0.10454194041570421</v>
       </c>
-      <c r="V40" s="106"/>
-    </row>
-    <row r="41" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA40" s="106"/>
+    </row>
+    <row r="41" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>NameConv!B22</f>
         <v>Gas Regional LNG</v>
@@ -63383,15 +63581,15 @@
         <v>143.92309452816528</v>
       </c>
       <c r="G41" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J41,($E41*G$16+$AA41)*G$15/1.055,F41)</f>
         <v>148.28833379773559</v>
       </c>
       <c r="H41" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J41,($E41*H$16+$AA41)*H$15/1.055,G41)</f>
         <v>136.62227950525954</v>
       </c>
       <c r="I41" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J41,($E41*I$16+$AA41)*I$15/1.055,H41)</f>
         <v>172.30668087048045</v>
       </c>
       <c r="J41" s="109">
@@ -63400,31 +63598,36 @@
       <c r="O41" s="110">
         <v>0.1</v>
       </c>
-      <c r="P41" s="116"/>
-      <c r="Q41" s="113">
+      <c r="P41" s="453"/>
+      <c r="Q41" s="453"/>
+      <c r="R41" s="453"/>
+      <c r="S41" s="453"/>
+      <c r="T41" s="453"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="113">
         <v>0.16</v>
       </c>
-      <c r="R41" s="112">
+      <c r="W41" s="112">
         <f>AVERAGE(IEA_WEO!DL108:DM108)</f>
         <v>0.1919642857142857</v>
       </c>
-      <c r="S41" s="117">
+      <c r="X41" s="117">
         <f>AVERAGE(IEA_WEO!DN108:DO108)</f>
         <v>0.13276041666666666</v>
       </c>
-      <c r="T41" s="117">
+      <c r="Y41" s="117">
         <f>AVERAGE(IEA_WEO!DP108:DQ108)</f>
         <v>0.12225288831835687</v>
       </c>
-      <c r="U41" s="114">
-        <f>AVERAGE(AF30:AJ30)</f>
+      <c r="Z41" s="114">
+        <f>AVERAGE(AK30:AO30)</f>
         <v>0.1145419404157042</v>
       </c>
-      <c r="V41" s="118">
+      <c r="AA41" s="118">
         <v>0.4</v>
       </c>
     </row>
-    <row r="42" spans="1:43" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f>NameConv!B23</f>
         <v>Gas International LNG</v>
@@ -63446,15 +63649,15 @@
         <v>150.16006135280986</v>
       </c>
       <c r="G42" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J42,($E42*G$16+$AA42)*G$15/1.055,F42)</f>
         <v>154.52530062238017</v>
       </c>
       <c r="H42" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J42,($E42*H$16+$AA42)*H$15/1.055,G42)</f>
         <v>142.85924632990407</v>
       </c>
       <c r="I42" s="45">
-        <f t="shared" si="10"/>
+        <f>IF($J42,($E42*I$16+$AA42)*I$15/1.055,H42)</f>
         <v>178.543647695125</v>
       </c>
       <c r="J42" s="109">
@@ -63464,34 +63667,39 @@
         <f>O41</f>
         <v>0.1</v>
       </c>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="121">
+      <c r="P42" s="454"/>
+      <c r="Q42" s="454"/>
+      <c r="R42" s="454"/>
+      <c r="S42" s="454"/>
+      <c r="T42" s="454"/>
+      <c r="U42" s="120"/>
+      <c r="V42" s="121">
         <v>0.16</v>
       </c>
-      <c r="R42" s="122">
-        <f>R41</f>
+      <c r="W42" s="122">
+        <f>W41</f>
         <v>0.1919642857142857</v>
       </c>
-      <c r="S42" s="123">
-        <f>S41</f>
+      <c r="X42" s="123">
+        <f>X41</f>
         <v>0.13276041666666666</v>
       </c>
-      <c r="T42" s="123">
-        <f>T41</f>
+      <c r="Y42" s="123">
+        <f>Y41</f>
         <v>0.12225288831835687</v>
       </c>
-      <c r="U42" s="114">
-        <f>U41</f>
+      <c r="Z42" s="114">
+        <f>Z41</f>
         <v>0.1145419404157042</v>
       </c>
-      <c r="V42" s="124">
+      <c r="AA42" s="124">
         <v>0.8</v>
       </c>
-      <c r="Z42" s="28" t="s">
+      <c r="AE42" s="28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
@@ -63503,69 +63711,69 @@
       <c r="K43" s="125"/>
       <c r="L43" s="125"/>
       <c r="N43"/>
-      <c r="Y43" s="126"/>
-      <c r="Z43" s="127"/>
-      <c r="AA43" s="127" t="s">
+      <c r="AD43" s="126"/>
+      <c r="AE43" s="127"/>
+      <c r="AF43" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="AB43" s="127">
+      <c r="AG43" s="127">
         <v>2010</v>
       </c>
-      <c r="AC43" s="127">
+      <c r="AH43" s="127">
         <v>2020</v>
       </c>
-      <c r="AD43" s="127">
+      <c r="AI43" s="127">
         <v>2025</v>
       </c>
-      <c r="AE43" s="127">
+      <c r="AJ43" s="127">
         <v>2030</v>
       </c>
-      <c r="AF43" s="127">
+      <c r="AK43" s="127">
         <v>2035</v>
       </c>
-      <c r="AG43" s="127">
+      <c r="AL43" s="127">
         <v>2040</v>
       </c>
-      <c r="AH43" s="127">
+      <c r="AM43" s="127">
         <v>2045</v>
       </c>
-      <c r="AI43" s="127">
+      <c r="AN43" s="127">
         <v>2050</v>
       </c>
-      <c r="AJ43" s="28">
-        <f>AB43</f>
+      <c r="AO43" s="28">
+        <f>AG43</f>
         <v>2010</v>
       </c>
-      <c r="AK43" s="28">
-        <f t="shared" ref="AK43:AQ43" si="12">AC43</f>
+      <c r="AP43" s="28">
+        <f t="shared" ref="AP43:AV43" si="11">AH43</f>
         <v>2020</v>
       </c>
-      <c r="AL43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AQ43" s="28">
+        <f t="shared" si="11"/>
         <v>2025</v>
       </c>
-      <c r="AM43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AR43" s="28">
+        <f t="shared" si="11"/>
         <v>2030</v>
       </c>
-      <c r="AN43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AS43" s="28">
+        <f t="shared" si="11"/>
         <v>2035</v>
       </c>
-      <c r="AO43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AT43" s="28">
+        <f t="shared" si="11"/>
         <v>2040</v>
       </c>
-      <c r="AP43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AU43" s="28">
+        <f t="shared" si="11"/>
         <v>2045</v>
       </c>
-      <c r="AQ43" s="28">
-        <f t="shared" si="12"/>
+      <c r="AV43" s="28">
+        <f t="shared" si="11"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="44" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="30"/>
       <c r="D44" s="30"/>
       <c r="E44" s="30"/>
@@ -63577,38 +63785,38 @@
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
       <c r="N44"/>
-      <c r="Y44" s="128" t="s">
+      <c r="AD44" s="128" t="s">
         <v>303</v>
       </c>
-      <c r="AA44" s="24" t="s">
+      <c r="AF44" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB44" s="129">
+      <c r="AG44" s="129">
         <v>78</v>
       </c>
-      <c r="AC44" s="129">
+      <c r="AH44" s="129">
         <v>118</v>
       </c>
-      <c r="AD44" s="129">
+      <c r="AI44" s="129">
         <v>127</v>
       </c>
-      <c r="AE44" s="129">
+      <c r="AJ44" s="129">
         <v>134</v>
       </c>
-      <c r="AF44" s="129">
+      <c r="AK44" s="129">
         <v>140</v>
       </c>
-      <c r="AG44" s="129">
+      <c r="AL44" s="129">
         <v>143</v>
       </c>
-      <c r="AH44" s="129">
+      <c r="AM44" s="129">
         <v>146</v>
       </c>
-      <c r="AI44" s="129">
+      <c r="AN44" s="129">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="130" t="s">
         <v>305</v>
       </c>
@@ -63625,40 +63833,40 @@
       <c r="H45" s="134"/>
       <c r="I45" s="134"/>
       <c r="N45"/>
-      <c r="P45"/>
-      <c r="Y45"/>
-      <c r="Z45" s="127" t="s">
+      <c r="U45"/>
+      <c r="AD45"/>
+      <c r="AE45" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="AA45" s="127" t="s">
+      <c r="AF45" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AB45" s="135">
+      <c r="AG45" s="135">
         <v>78</v>
       </c>
-      <c r="AC45" s="135">
+      <c r="AH45" s="135">
         <v>97</v>
       </c>
-      <c r="AD45" s="135">
+      <c r="AI45" s="135">
         <v>97</v>
       </c>
-      <c r="AE45" s="135">
+      <c r="AJ45" s="135">
         <v>97</v>
       </c>
-      <c r="AF45" s="135">
+      <c r="AK45" s="135">
         <v>97</v>
       </c>
-      <c r="AG45" s="135">
+      <c r="AL45" s="135">
         <v>92</v>
       </c>
-      <c r="AH45" s="135">
+      <c r="AM45" s="135">
         <v>89</v>
       </c>
-      <c r="AI45" s="135">
+      <c r="AN45" s="135">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="136" t="s">
         <v>238</v>
       </c>
@@ -63684,39 +63892,39 @@
       <c r="L46" s="50"/>
       <c r="M46" s="38"/>
       <c r="N46"/>
-      <c r="P46"/>
-      <c r="Y46" s="128" t="s">
+      <c r="U46"/>
+      <c r="AD46" s="128" t="s">
         <v>315</v>
       </c>
-      <c r="AA46" s="24" t="s">
+      <c r="AF46" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB46" s="129">
+      <c r="AG46" s="129">
         <v>99</v>
       </c>
-      <c r="AC46" s="129">
+      <c r="AH46" s="129">
         <v>109</v>
       </c>
-      <c r="AD46" s="129">
+      <c r="AI46" s="129">
         <v>113</v>
       </c>
-      <c r="AE46" s="129">
+      <c r="AJ46" s="129">
         <v>116</v>
       </c>
-      <c r="AF46" s="129">
+      <c r="AK46" s="129">
         <v>118</v>
       </c>
-      <c r="AG46" s="129">
+      <c r="AL46" s="129">
         <v>121</v>
       </c>
-      <c r="AH46" s="129">
+      <c r="AM46" s="129">
         <v>123</v>
       </c>
-      <c r="AI46" s="129">
+      <c r="AN46" s="129">
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="28" t="s">
         <v>240</v>
       </c>
@@ -63734,40 +63942,40 @@
       <c r="L47" s="50"/>
       <c r="M47" s="38"/>
       <c r="N47"/>
-      <c r="P47"/>
-      <c r="Y47"/>
-      <c r="Z47" s="127" t="s">
+      <c r="U47"/>
+      <c r="AD47"/>
+      <c r="AE47" s="127" t="s">
         <v>317</v>
       </c>
-      <c r="AA47" s="127" t="s">
+      <c r="AF47" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AB47" s="135">
+      <c r="AG47" s="135">
         <v>99</v>
       </c>
-      <c r="AC47" s="135">
+      <c r="AH47" s="135">
         <v>93</v>
       </c>
-      <c r="AD47" s="135">
+      <c r="AI47" s="135">
         <v>83</v>
       </c>
-      <c r="AE47" s="135">
+      <c r="AJ47" s="135">
         <v>74</v>
       </c>
-      <c r="AF47" s="135">
+      <c r="AK47" s="135">
         <v>68</v>
       </c>
-      <c r="AG47" s="135">
+      <c r="AL47" s="135">
         <v>64</v>
       </c>
-      <c r="AH47" s="135">
+      <c r="AM47" s="135">
         <v>62</v>
       </c>
-      <c r="AI47" s="135">
+      <c r="AN47" s="135">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="28" t="s">
         <v>241</v>
       </c>
@@ -63785,40 +63993,40 @@
       <c r="L48" s="50"/>
       <c r="M48" s="38"/>
       <c r="N48"/>
-      <c r="P48"/>
-      <c r="Y48" s="127" t="s">
+      <c r="U48"/>
+      <c r="AD48" s="127" t="s">
         <v>319</v>
       </c>
-      <c r="Z48"/>
-      <c r="AA48" s="24" t="s">
+      <c r="AE48"/>
+      <c r="AF48" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB48" s="129">
+      <c r="AG48" s="129">
         <v>4</v>
       </c>
-      <c r="AC48" s="129">
+      <c r="AH48" s="129">
         <v>7</v>
       </c>
-      <c r="AD48" s="129">
+      <c r="AI48" s="129">
         <v>8</v>
       </c>
-      <c r="AE48" s="129">
+      <c r="AJ48" s="129">
         <v>8</v>
       </c>
-      <c r="AF48" s="129">
+      <c r="AK48" s="129">
         <v>9</v>
       </c>
-      <c r="AG48" s="129">
+      <c r="AL48" s="129">
         <v>9</v>
       </c>
-      <c r="AH48" s="129">
+      <c r="AM48" s="129">
         <v>9</v>
       </c>
-      <c r="AI48" s="129">
+      <c r="AN48" s="129">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>320</v>
       </c>
@@ -63836,40 +64044,40 @@
       <c r="L49" s="50"/>
       <c r="M49" s="38"/>
       <c r="N49"/>
-      <c r="P49"/>
-      <c r="Y49"/>
-      <c r="Z49" s="127" t="s">
+      <c r="U49"/>
+      <c r="AD49"/>
+      <c r="AE49" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="AA49" s="127" t="s">
+      <c r="AF49" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AB49" s="135">
+      <c r="AG49" s="135">
         <v>4</v>
-      </c>
-      <c r="AC49" s="135">
-        <v>7</v>
-      </c>
-      <c r="AD49" s="135">
-        <v>8</v>
-      </c>
-      <c r="AE49" s="135">
-        <v>8</v>
-      </c>
-      <c r="AF49" s="135">
-        <v>8</v>
-      </c>
-      <c r="AG49" s="135">
-        <v>7</v>
       </c>
       <c r="AH49" s="135">
         <v>7</v>
       </c>
       <c r="AI49" s="135">
+        <v>8</v>
+      </c>
+      <c r="AJ49" s="135">
+        <v>8</v>
+      </c>
+      <c r="AK49" s="135">
+        <v>8</v>
+      </c>
+      <c r="AL49" s="135">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AM49" s="135">
+        <v>7</v>
+      </c>
+      <c r="AN49" s="135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="130" t="s">
         <v>323</v>
       </c>
@@ -63887,39 +64095,39 @@
       <c r="L50" s="50"/>
       <c r="M50" s="38"/>
       <c r="N50" s="38"/>
-      <c r="Y50" s="127" t="s">
+      <c r="AD50" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="Z50"/>
-      <c r="AA50" s="24" t="s">
+      <c r="AE50"/>
+      <c r="AF50" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB50" s="129">
+      <c r="AG50" s="129">
         <v>7</v>
       </c>
-      <c r="AC50" s="129">
+      <c r="AH50" s="129">
         <v>11</v>
       </c>
-      <c r="AD50" s="129">
+      <c r="AI50" s="129">
         <v>12</v>
       </c>
-      <c r="AE50" s="129">
+      <c r="AJ50" s="129">
         <v>13</v>
       </c>
-      <c r="AF50" s="129">
+      <c r="AK50" s="129">
         <v>13</v>
       </c>
-      <c r="AG50" s="129">
+      <c r="AL50" s="129">
         <v>13</v>
       </c>
-      <c r="AH50" s="129">
+      <c r="AM50" s="129">
         <v>14</v>
       </c>
-      <c r="AI50" s="129">
+      <c r="AN50" s="129">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>325</v>
       </c>
@@ -63937,44 +64145,44 @@
       <c r="L51" s="50"/>
       <c r="M51" s="38"/>
       <c r="N51" s="38"/>
-      <c r="W51" t="s">
+      <c r="AB51" t="s">
         <v>326</v>
       </c>
-      <c r="X51">
+      <c r="AC51">
         <v>0.5</v>
       </c>
-      <c r="Z51" s="127" t="s">
+      <c r="AE51" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="AA51" s="127" t="s">
+      <c r="AF51" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AB51" s="135">
+      <c r="AG51" s="135">
         <v>7</v>
       </c>
-      <c r="AC51" s="135">
+      <c r="AH51" s="135">
         <v>10</v>
       </c>
-      <c r="AD51" s="135">
+      <c r="AI51" s="135">
         <v>10</v>
       </c>
-      <c r="AE51" s="135">
+      <c r="AJ51" s="135">
         <v>10</v>
       </c>
-      <c r="AF51" s="135">
+      <c r="AK51" s="135">
         <v>9</v>
       </c>
-      <c r="AG51" s="135">
+      <c r="AL51" s="135">
         <v>9</v>
       </c>
-      <c r="AH51" s="135">
+      <c r="AM51" s="135">
         <v>9</v>
       </c>
-      <c r="AI51" s="135">
+      <c r="AN51" s="135">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:53" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:58" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>327</v>
       </c>
@@ -63994,38 +64202,38 @@
       <c r="L52" s="50"/>
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
-      <c r="Y52" s="127" t="s">
+      <c r="AD52" s="127" t="s">
         <v>329</v>
       </c>
-      <c r="AA52" s="24" t="s">
+      <c r="AF52" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="AB52" s="129">
+      <c r="AG52" s="129">
         <v>11</v>
       </c>
-      <c r="AC52" s="129">
+      <c r="AH52" s="129">
         <v>14</v>
       </c>
-      <c r="AD52" s="129">
+      <c r="AI52" s="129">
         <v>14</v>
       </c>
-      <c r="AE52" s="129">
+      <c r="AJ52" s="129">
         <v>15</v>
       </c>
-      <c r="AF52" s="129">
+      <c r="AK52" s="129">
         <v>15</v>
       </c>
-      <c r="AG52" s="129">
+      <c r="AL52" s="129">
         <v>15</v>
       </c>
-      <c r="AH52" s="129">
+      <c r="AM52" s="129">
         <v>16</v>
       </c>
-      <c r="AI52" s="129">
+      <c r="AN52" s="129">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="137"/>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
@@ -64039,45 +64247,45 @@
       <c r="L53" s="138"/>
       <c r="M53" s="38"/>
       <c r="N53" s="38"/>
-      <c r="W53" t="str">
-        <f>W51</f>
+      <c r="AB53" t="str">
+        <f>AB51</f>
         <v>weighting</v>
       </c>
-      <c r="X53">
+      <c r="AC53">
         <v>0.5</v>
       </c>
-      <c r="Z53" s="127" t="s">
+      <c r="AE53" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="AA53" s="127" t="s">
+      <c r="AF53" s="127" t="s">
         <v>309</v>
       </c>
-      <c r="AB53" s="135">
+      <c r="AG53" s="135">
         <v>11</v>
       </c>
-      <c r="AC53" s="135">
+      <c r="AH53" s="135">
         <v>12</v>
       </c>
-      <c r="AD53" s="135">
+      <c r="AI53" s="135">
         <v>12</v>
       </c>
-      <c r="AE53" s="135">
+      <c r="AJ53" s="135">
         <v>12</v>
       </c>
-      <c r="AF53" s="135">
+      <c r="AK53" s="135">
         <v>12</v>
       </c>
-      <c r="AG53" s="135">
+      <c r="AL53" s="135">
         <v>12</v>
       </c>
-      <c r="AH53" s="135">
+      <c r="AM53" s="135">
         <v>11</v>
       </c>
-      <c r="AI53" s="135">
+      <c r="AN53" s="135">
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="C54" s="39"/>
       <c r="D54" s="139" t="s">
         <v>330</v>
@@ -64089,79 +64297,79 @@
       <c r="I54" s="39"/>
       <c r="J54" s="39"/>
       <c r="K54" s="38"/>
-      <c r="Y54" t="s">
+      <c r="AD54" t="s">
         <v>230</v>
       </c>
-      <c r="AA54" s="142" t="str">
-        <f>AA52</f>
+      <c r="AF54" s="142" t="str">
+        <f>AF52</f>
         <v>6DS</v>
       </c>
-      <c r="AB54">
-        <f t="shared" ref="AB54:AI55" si="13">AB50*$X$51+AB52*$X$53</f>
+      <c r="AG54">
+        <f t="shared" ref="AG54:AN55" si="12">AG50*$AC$51+AG52*$AC$53</f>
         <v>9</v>
       </c>
-      <c r="AC54">
+      <c r="AH54">
+        <f t="shared" si="12"/>
+        <v>12.5</v>
+      </c>
+      <c r="AI54">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AL54">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AM54">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AN54">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AO54" s="89">
+        <f>AG54/AG44</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AP54" s="89">
+        <f t="shared" ref="AP54:AV55" si="13">AH54/AH44</f>
+        <v>0.1059322033898305</v>
+      </c>
+      <c r="AQ54" s="89">
         <f t="shared" si="13"/>
-        <v>12.5</v>
-      </c>
-      <c r="AD54">
+        <v>0.10236220472440945</v>
+      </c>
+      <c r="AR54" s="89">
         <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="AE54">
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="AS54" s="89">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AF54">
+        <v>0.1</v>
+      </c>
+      <c r="AT54" s="89">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AG54">
+        <v>9.7902097902097904E-2</v>
+      </c>
+      <c r="AU54" s="89">
         <f t="shared" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AH54">
+        <v>0.10273972602739725</v>
+      </c>
+      <c r="AV54" s="89">
         <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="AI54">
-        <f t="shared" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="AJ54" s="89">
-        <f>AB54/AB44</f>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AK54" s="89">
-        <f t="shared" ref="AK54:AQ55" si="14">AC54/AC44</f>
-        <v>0.1059322033898305</v>
-      </c>
-      <c r="AL54" s="89">
-        <f t="shared" si="14"/>
-        <v>0.10236220472440945</v>
-      </c>
-      <c r="AM54" s="89">
-        <f t="shared" si="14"/>
-        <v>0.1044776119402985</v>
-      </c>
-      <c r="AN54" s="89">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="AO54" s="89">
-        <f t="shared" si="14"/>
-        <v>9.7902097902097904E-2</v>
-      </c>
-      <c r="AP54" s="89">
-        <f t="shared" si="14"/>
-        <v>0.10273972602739725</v>
-      </c>
-      <c r="AQ54" s="89">
-        <f t="shared" si="14"/>
         <v>0.10067114093959731</v>
       </c>
     </row>
-    <row r="55" spans="1:53" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="143" t="s">
         <v>331</v>
       </c>
@@ -64188,82 +64396,87 @@
       <c r="T55" s="296"/>
       <c r="U55" s="296"/>
       <c r="V55" s="296"/>
-      <c r="Y55"/>
-      <c r="Z55" t="str">
-        <f>Z53</f>
+      <c r="W55" s="296"/>
+      <c r="X55" s="296"/>
+      <c r="Y55" s="296"/>
+      <c r="Z55" s="296"/>
+      <c r="AA55" s="296"/>
+      <c r="AD55"/>
+      <c r="AE55" t="str">
+        <f>AE53</f>
         <v>(2010 US$/Mbtu)</v>
       </c>
-      <c r="AA55" s="142" t="str">
-        <f>AA53</f>
+      <c r="AF55" s="142" t="str">
+        <f>AF53</f>
         <v>2DS</v>
       </c>
-      <c r="AB55">
+      <c r="AG55">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="12"/>
+        <v>10.5</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="12"/>
+        <v>10.5</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" si="12"/>
+        <v>9.5</v>
+      </c>
+      <c r="AO55" s="89">
+        <f>AG55/AG45</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AP55" s="89">
         <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="AC55">
+        <v>0.1134020618556701</v>
+      </c>
+      <c r="AQ55" s="89">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AD55">
+        <v>0.1134020618556701</v>
+      </c>
+      <c r="AR55" s="89">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AE55">
+        <v>0.1134020618556701</v>
+      </c>
+      <c r="AS55" s="89">
         <f t="shared" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AF55">
+        <v>0.10824742268041238</v>
+      </c>
+      <c r="AT55" s="89">
         <f t="shared" si="13"/>
-        <v>10.5</v>
-      </c>
-      <c r="AG55">
+        <v>0.11413043478260869</v>
+      </c>
+      <c r="AU55" s="89">
         <f t="shared" si="13"/>
-        <v>10.5</v>
-      </c>
-      <c r="AH55">
+        <v>0.11235955056179775</v>
+      </c>
+      <c r="AV55" s="89">
         <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-      <c r="AI55">
-        <f t="shared" si="13"/>
-        <v>9.5</v>
-      </c>
-      <c r="AJ55" s="89">
-        <f>AB55/AB45</f>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AK55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.1134020618556701</v>
-      </c>
-      <c r="AL55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.1134020618556701</v>
-      </c>
-      <c r="AM55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.1134020618556701</v>
-      </c>
-      <c r="AN55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.10824742268041238</v>
-      </c>
-      <c r="AO55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.11413043478260869</v>
-      </c>
-      <c r="AP55" s="89">
-        <f t="shared" si="14"/>
-        <v>0.11235955056179775</v>
-      </c>
-      <c r="AQ55" s="89">
-        <f t="shared" si="14"/>
         <v>0.10919540229885058</v>
       </c>
-      <c r="AR55" s="30"/>
-    </row>
-    <row r="56" spans="1:53" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AW55" s="30"/>
+    </row>
+    <row r="56" spans="1:58" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="388" t="s">
         <v>333</v>
       </c>
@@ -64281,19 +64494,19 @@
         <v>COST~0</v>
       </c>
       <c r="F56" s="386" t="str">
-        <f t="shared" ref="F56:I56" si="15">"COST"&amp;$E$52&amp;F57</f>
+        <f t="shared" ref="F56:I56" si="14">"COST"&amp;$E$52&amp;F57</f>
         <v>COST~2017</v>
       </c>
       <c r="G56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>COST~2021</v>
       </c>
       <c r="H56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>COST~2030</v>
       </c>
       <c r="I56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>COST~2050</v>
       </c>
       <c r="J56" s="386" t="str">
@@ -64301,123 +64514,143 @@
         <v>BNDACT~UP~0</v>
       </c>
       <c r="K56" s="386" t="str">
-        <f t="shared" ref="K56:O56" si="16">"BNDACT~UP"&amp;$E$52&amp;K57</f>
+        <f t="shared" ref="K56:O56" si="15">"BNDACT~UP"&amp;$E$52&amp;K57</f>
         <v>BNDACT~UP~2017</v>
       </c>
       <c r="L56" s="386" t="str">
+        <f t="shared" si="15"/>
+        <v>BNDACT~UP~2019</v>
+      </c>
+      <c r="M56" s="386" t="str">
+        <f t="shared" si="15"/>
+        <v>BNDACT~UP~2021</v>
+      </c>
+      <c r="N56" s="386" t="str">
+        <f t="shared" si="15"/>
+        <v>BNDACT~UP~2030</v>
+      </c>
+      <c r="O56" s="386" t="str">
+        <f t="shared" si="15"/>
+        <v>BNDACT~UP~2050</v>
+      </c>
+      <c r="P56" s="386" t="str">
+        <f>"BNDACT~FX"&amp;$E$52&amp;P57</f>
+        <v>BNDACT~FX~0</v>
+      </c>
+      <c r="Q56" s="386" t="str">
+        <f t="shared" ref="Q56:T56" si="16">"BNDACT~FX"&amp;$E$52&amp;Q57</f>
+        <v>BNDACT~FX~2020</v>
+      </c>
+      <c r="R56" s="386" t="str">
         <f t="shared" si="16"/>
-        <v>BNDACT~UP~2019</v>
-      </c>
-      <c r="M56" s="386" t="str">
+        <v>BNDACT~FX~2030</v>
+      </c>
+      <c r="S56" s="386" t="str">
         <f t="shared" si="16"/>
-        <v>BNDACT~UP~2021</v>
-      </c>
-      <c r="N56" s="386" t="str">
+        <v>BNDACT~FX~2040</v>
+      </c>
+      <c r="T56" s="386" t="str">
         <f t="shared" si="16"/>
-        <v>BNDACT~UP~2030</v>
-      </c>
-      <c r="O56" s="386" t="str">
-        <f t="shared" si="16"/>
-        <v>BNDACT~UP~2050</v>
-      </c>
-      <c r="P56" s="386" t="s">
+        <v>BNDACT~FX~2050</v>
+      </c>
+      <c r="U56" s="386" t="s">
         <v>337</v>
       </c>
-      <c r="Q56" s="386" t="s">
+      <c r="V56" s="386" t="s">
         <v>338</v>
       </c>
-      <c r="R56" s="387" t="s">
+      <c r="W56" s="387" t="s">
         <v>1093</v>
       </c>
-      <c r="S56" s="387" t="s">
+      <c r="X56" s="387" t="s">
         <v>1094</v>
       </c>
-      <c r="T56" s="145" t="s">
+      <c r="Y56" s="145" t="s">
         <v>339</v>
       </c>
-      <c r="U56" s="145" t="s">
+      <c r="Z56" s="145" t="s">
         <v>340</v>
       </c>
-      <c r="V56" s="145"/>
-      <c r="W56" s="145"/>
-      <c r="X56" s="145"/>
-      <c r="Y56" s="145" t="s">
+      <c r="AA56" s="145"/>
+      <c r="AB56" s="145"/>
+      <c r="AC56" s="145"/>
+      <c r="AD56" s="145" t="s">
         <v>341</v>
       </c>
-      <c r="Z56" s="145">
-        <f t="shared" ref="Z56:AG56" si="17">AVERAGE(AB54:AB55)</f>
+      <c r="AE56" s="145">
+        <f t="shared" ref="AE56:AL56" si="17">AVERAGE(AG54:AG55)</f>
         <v>9</v>
       </c>
-      <c r="AA56" s="145">
+      <c r="AF56" s="145">
         <f t="shared" si="17"/>
         <v>11.75</v>
       </c>
-      <c r="AB56" s="145">
+      <c r="AG56" s="145">
         <f t="shared" si="17"/>
         <v>12</v>
       </c>
-      <c r="AC56" s="145">
+      <c r="AH56" s="145">
         <f t="shared" si="17"/>
         <v>12.5</v>
       </c>
-      <c r="AD56" s="145">
+      <c r="AI56" s="145">
         <f t="shared" si="17"/>
         <v>12.25</v>
       </c>
-      <c r="AE56" s="145">
+      <c r="AJ56" s="145">
         <f t="shared" si="17"/>
         <v>12.25</v>
       </c>
-      <c r="AF56" s="145">
+      <c r="AK56" s="145">
         <f t="shared" si="17"/>
         <v>12.5</v>
       </c>
-      <c r="AG56" s="145">
+      <c r="AL56" s="145">
         <f t="shared" si="17"/>
         <v>12.25</v>
       </c>
-      <c r="AH56" s="146">
-        <f t="shared" ref="AH56:AO56" si="18">Z56/AVERAGE(AB44:AB45)</f>
+      <c r="AM56" s="146">
+        <f t="shared" ref="AM56:AT56" si="18">AE56/AVERAGE(AG44:AG45)</f>
         <v>0.11538461538461539</v>
       </c>
-      <c r="AI56" s="146">
+      <c r="AN56" s="146">
         <f t="shared" si="18"/>
         <v>0.10930232558139535</v>
       </c>
-      <c r="AJ56" s="146">
+      <c r="AO56" s="146">
         <f t="shared" si="18"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="AK56" s="146">
+      <c r="AP56" s="146">
         <f t="shared" si="18"/>
         <v>0.10822510822510822</v>
       </c>
-      <c r="AL56" s="146">
+      <c r="AQ56" s="146">
         <f t="shared" si="18"/>
         <v>0.10337552742616034</v>
       </c>
-      <c r="AM56" s="146">
+      <c r="AR56" s="146">
         <f t="shared" si="18"/>
         <v>0.10425531914893617</v>
       </c>
-      <c r="AN56" s="146">
+      <c r="AS56" s="146">
         <f t="shared" si="18"/>
         <v>0.10638297872340426</v>
       </c>
-      <c r="AO56" s="146">
+      <c r="AT56" s="146">
         <f t="shared" si="18"/>
         <v>0.1038135593220339</v>
       </c>
-      <c r="AP56" s="145"/>
-      <c r="AR56" s="413"/>
-      <c r="AS56" s="413"/>
-      <c r="AT56" s="413"/>
-      <c r="AU56" s="413"/>
-      <c r="AV56" s="413"/>
+      <c r="AU56" s="145"/>
       <c r="AW56" s="413"/>
       <c r="AX56" s="413"/>
-    </row>
-    <row r="57" spans="1:53" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="AY56" s="413"/>
+      <c r="AZ56" s="413"/>
+      <c r="BA56" s="413"/>
+      <c r="BB56" s="413"/>
+      <c r="BC56" s="413"/>
+    </row>
+    <row r="57" spans="1:58" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="147" t="s">
         <v>342</v>
       </c>
@@ -64465,19 +64698,29 @@
         <f>I57</f>
         <v>2050</v>
       </c>
-      <c r="P57" s="148"/>
-      <c r="Q57" s="148" t="s">
+      <c r="P57" s="148">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="148">
+        <v>2020</v>
+      </c>
+      <c r="R57" s="148">
+        <v>2030</v>
+      </c>
+      <c r="S57" s="148">
+        <v>2040</v>
+      </c>
+      <c r="T57" s="148">
+        <v>2050</v>
+      </c>
+      <c r="U57" s="148"/>
+      <c r="V57" s="148" t="s">
         <v>239</v>
       </c>
-      <c r="T57" s="148"/>
-      <c r="U57" s="148"/>
-      <c r="V57" s="148"/>
-      <c r="W57" s="148"/>
-      <c r="X57" s="149"/>
-      <c r="Y57" s="149"/>
-      <c r="Z57" s="149"/>
-      <c r="AA57" s="149"/>
-      <c r="AB57" s="149"/>
+      <c r="Y57" s="148"/>
+      <c r="Z57" s="148"/>
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="148"/>
       <c r="AC57" s="149"/>
       <c r="AD57" s="149"/>
       <c r="AE57" s="149"/>
@@ -64492,16 +64735,21 @@
       <c r="AN57" s="149"/>
       <c r="AO57" s="149"/>
       <c r="AP57" s="149"/>
-      <c r="AS57" s="414"/>
-      <c r="AT57" s="413"/>
-      <c r="AU57" s="413"/>
-      <c r="AV57" s="413"/>
-      <c r="AW57" s="413"/>
-      <c r="AX57" s="413"/>
-      <c r="AZ57" s="42"/>
-      <c r="BA57" s="42"/>
-    </row>
-    <row r="58" spans="1:53" s="66" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="149"/>
+      <c r="AR57" s="149"/>
+      <c r="AS57" s="149"/>
+      <c r="AT57" s="149"/>
+      <c r="AU57" s="149"/>
+      <c r="AX57" s="414"/>
+      <c r="AY57" s="413"/>
+      <c r="AZ57" s="413"/>
+      <c r="BA57" s="413"/>
+      <c r="BB57" s="413"/>
+      <c r="BC57" s="413"/>
+      <c r="BE57" s="42"/>
+      <c r="BF57" s="42"/>
+    </row>
+    <row r="58" spans="1:58" s="66" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
         <v>346</v>
       </c>
@@ -64521,11 +64769,11 @@
       <c r="O58" s="151"/>
       <c r="P58" s="151"/>
       <c r="Q58" s="151"/>
+      <c r="R58" s="151"/>
+      <c r="S58" s="151"/>
       <c r="T58" s="151"/>
       <c r="U58" s="151"/>
       <c r="V58" s="151"/>
-      <c r="W58" s="151"/>
-      <c r="X58" s="151"/>
       <c r="Y58" s="151"/>
       <c r="Z58" s="151"/>
       <c r="AA58" s="151"/>
@@ -64544,16 +64792,21 @@
       <c r="AN58" s="151"/>
       <c r="AO58" s="151"/>
       <c r="AP58" s="151"/>
-      <c r="AS58" s="152"/>
-      <c r="AT58" s="153"/>
-      <c r="AU58" s="153"/>
-      <c r="AV58" s="153"/>
-      <c r="AW58" s="153"/>
-      <c r="AX58" s="153"/>
-      <c r="AY58" s="154"/>
-      <c r="AZ58" s="154"/>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AQ58" s="151"/>
+      <c r="AR58" s="151"/>
+      <c r="AS58" s="151"/>
+      <c r="AT58" s="151"/>
+      <c r="AU58" s="151"/>
+      <c r="AX58" s="152"/>
+      <c r="AY58" s="153"/>
+      <c r="AZ58" s="153"/>
+      <c r="BA58" s="153"/>
+      <c r="BB58" s="153"/>
+      <c r="BC58" s="153"/>
+      <c r="BD58" s="154"/>
+      <c r="BE58" s="154"/>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A59" s="155" t="s">
         <v>347</v>
       </c>
@@ -64573,11 +64826,11 @@
       <c r="O59" s="157"/>
       <c r="P59" s="157"/>
       <c r="Q59" s="157"/>
+      <c r="R59" s="157"/>
+      <c r="S59" s="157"/>
       <c r="T59" s="157"/>
       <c r="U59" s="157"/>
       <c r="V59" s="157"/>
-      <c r="W59" s="157"/>
-      <c r="X59" s="157"/>
       <c r="Y59" s="157"/>
       <c r="Z59" s="157"/>
       <c r="AA59" s="157"/>
@@ -64598,8 +64851,13 @@
       <c r="AP59" s="157"/>
       <c r="AQ59" s="157"/>
       <c r="AR59" s="157"/>
-    </row>
-    <row r="60" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS59" s="157"/>
+      <c r="AT59" s="157"/>
+      <c r="AU59" s="157"/>
+      <c r="AV59" s="157"/>
+      <c r="AW59" s="157"/>
+    </row>
+    <row r="60" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="158" t="str">
         <f t="shared" ref="A60:A65" si="19">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D60,FuelNamesShort,0))</f>
         <v>Extraction of Coal</v>
@@ -64639,25 +64897,25 @@
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
-      <c r="Q60" t="str">
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60" t="str">
         <f>""</f>
         <v/>
       </c>
-      <c r="R60" s="379">
+      <c r="W60" s="379">
         <f>FugitiveEmissions!V140</f>
         <v>3.4182298104635631E-3</v>
       </c>
-      <c r="S60" s="379">
+      <c r="X60" s="379">
         <f>FugitiveEmissions!V141</f>
         <v>1.0719713938661056E-2</v>
       </c>
-      <c r="T60" s="144"/>
-      <c r="U60" s="144"/>
-      <c r="V60" s="157"/>
-      <c r="W60" s="157"/>
-      <c r="X60" s="157"/>
-      <c r="Y60" s="157"/>
-      <c r="Z60" s="157"/>
+      <c r="Y60" s="144"/>
+      <c r="Z60" s="144"/>
       <c r="AA60" s="157"/>
       <c r="AB60" s="157"/>
       <c r="AC60" s="157"/>
@@ -64676,8 +64934,13 @@
       <c r="AP60" s="157"/>
       <c r="AQ60" s="157"/>
       <c r="AR60" s="157"/>
-    </row>
-    <row r="61" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AS60" s="157"/>
+      <c r="AT60" s="157"/>
+      <c r="AU60" s="157"/>
+      <c r="AV60" s="157"/>
+      <c r="AW60" s="157"/>
+    </row>
+    <row r="61" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="158" t="str">
         <f t="shared" si="19"/>
         <v>Extraction of Coal low grade</v>
@@ -64716,26 +64979,26 @@
       <c r="N61"/>
       <c r="O61"/>
       <c r="P61"/>
-      <c r="Q61" t="str">
-        <f>$Q$60</f>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61" t="str">
+        <f>$V$60</f>
         <v/>
       </c>
-      <c r="R61" s="379">
+      <c r="W61" s="379">
         <f>FugitiveEmissions!V135</f>
         <v>3.9065483548155009E-3</v>
       </c>
-      <c r="S61" s="379">
+      <c r="X61" s="379">
         <f>FugitiveEmissions!V136</f>
         <v>1.2251101644184062E-2</v>
       </c>
-      <c r="T61" s="144"/>
-      <c r="V61" s="34"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="160"/>
-      <c r="Y61" s="160"/>
-      <c r="Z61" s="160"/>
-      <c r="AA61" s="160"/>
-      <c r="AB61" s="160"/>
+      <c r="Y61" s="144"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="35"/>
       <c r="AC61" s="160"/>
       <c r="AD61" s="160"/>
       <c r="AE61" s="160"/>
@@ -64750,9 +65013,14 @@
       <c r="AN61" s="160"/>
       <c r="AO61" s="160"/>
       <c r="AP61" s="160"/>
-      <c r="AR61" s="157"/>
-    </row>
-    <row r="62" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="160"/>
+      <c r="AR61" s="160"/>
+      <c r="AS61" s="160"/>
+      <c r="AT61" s="160"/>
+      <c r="AU61" s="160"/>
+      <c r="AW61" s="157"/>
+    </row>
+    <row r="62" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="158" t="str">
         <f t="shared" si="19"/>
         <v>Extraction of Coal Discard</v>
@@ -64791,17 +65059,17 @@
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62" t="str">
-        <f>$Q$60</f>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62" t="str">
+        <f>$V$60</f>
         <v/>
       </c>
-      <c r="V62" s="35"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="160"/>
-      <c r="Y62" s="160"/>
-      <c r="Z62" s="160"/>
-      <c r="AA62" s="160"/>
-      <c r="AB62" s="160"/>
+      <c r="AA62" s="35"/>
+      <c r="AB62" s="35"/>
       <c r="AC62" s="160"/>
       <c r="AD62" s="160"/>
       <c r="AE62" s="160"/>
@@ -64816,9 +65084,14 @@
       <c r="AN62" s="160"/>
       <c r="AO62" s="160"/>
       <c r="AP62" s="160"/>
-      <c r="AR62" s="157"/>
-    </row>
-    <row r="63" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="160"/>
+      <c r="AR62" s="160"/>
+      <c r="AS62" s="160"/>
+      <c r="AT62" s="160"/>
+      <c r="AU62" s="160"/>
+      <c r="AW62" s="157"/>
+    </row>
+    <row r="63" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="158" t="str">
         <f t="shared" si="19"/>
         <v>Extraction of Oil Crude</v>
@@ -64869,17 +65142,17 @@
         <v>0</v>
       </c>
       <c r="P63"/>
-      <c r="Q63" t="str">
-        <f>$Q$60</f>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63" t="str">
+        <f>$V$60</f>
         <v/>
       </c>
-      <c r="V63" s="35"/>
-      <c r="W63" s="35"/>
-      <c r="X63" s="160"/>
-      <c r="Y63" s="160"/>
-      <c r="Z63" s="160"/>
-      <c r="AA63" s="160"/>
-      <c r="AB63" s="160"/>
+      <c r="AA63" s="35"/>
+      <c r="AB63" s="35"/>
       <c r="AC63" s="160"/>
       <c r="AD63" s="160"/>
       <c r="AE63" s="160"/>
@@ -64894,9 +65167,14 @@
       <c r="AN63" s="160"/>
       <c r="AO63" s="160"/>
       <c r="AP63" s="160"/>
-      <c r="AR63" s="157"/>
-    </row>
-    <row r="64" spans="1:53" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="160"/>
+      <c r="AR63" s="160"/>
+      <c r="AS63" s="160"/>
+      <c r="AT63" s="160"/>
+      <c r="AU63" s="160"/>
+      <c r="AW63" s="157"/>
+    </row>
+    <row r="64" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="158" t="str">
         <f t="shared" si="19"/>
         <v>Extraction of Coastal Gas</v>
@@ -64950,13 +65228,13 @@
       </c>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="160"/>
-      <c r="Y64" s="160"/>
-      <c r="Z64" s="160"/>
-      <c r="AA64" s="160"/>
-      <c r="AB64" s="160"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
       <c r="AC64" s="160"/>
       <c r="AD64" s="160"/>
       <c r="AE64" s="160"/>
@@ -64971,9 +65249,14 @@
       <c r="AN64" s="160"/>
       <c r="AO64" s="160"/>
       <c r="AP64" s="160"/>
-      <c r="AR64" s="157"/>
-    </row>
-    <row r="65" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="160"/>
+      <c r="AR64" s="160"/>
+      <c r="AS64" s="160"/>
+      <c r="AT64" s="160"/>
+      <c r="AU64" s="160"/>
+      <c r="AW64" s="157"/>
+    </row>
+    <row r="65" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="158" t="str">
         <f t="shared" si="19"/>
         <v>Extraction of Gas Indigenous Ibhubezi</v>
@@ -65016,20 +65299,20 @@
         <v>29.2</v>
       </c>
       <c r="O65"/>
-      <c r="P65">
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65">
         <v>2025</v>
       </c>
-      <c r="Q65">
+      <c r="V65">
         <f>544*1.055</f>
         <v>573.91999999999996</v>
       </c>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="160"/>
-      <c r="Y65" s="160"/>
-      <c r="Z65" s="160"/>
-      <c r="AA65" s="160"/>
-      <c r="AB65" s="160"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
       <c r="AC65" s="160"/>
       <c r="AD65" s="160"/>
       <c r="AE65" s="160"/>
@@ -65044,9 +65327,14 @@
       <c r="AN65" s="160"/>
       <c r="AO65" s="160"/>
       <c r="AP65" s="160"/>
-      <c r="AR65" s="157"/>
-    </row>
-    <row r="66" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="160"/>
+      <c r="AR65" s="160"/>
+      <c r="AS65" s="160"/>
+      <c r="AT65" s="160"/>
+      <c r="AU65" s="160"/>
+      <c r="AW65" s="157"/>
+    </row>
+    <row r="66" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="158" t="s">
         <v>348</v>
       </c>
@@ -65087,19 +65375,19 @@
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66"/>
-      <c r="P66">
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66">
         <v>2030</v>
       </c>
-      <c r="Q66">
+      <c r="V66">
         <v>6100</v>
       </c>
-      <c r="V66" s="35"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="160"/>
-      <c r="Y66" s="160"/>
-      <c r="Z66" s="160"/>
-      <c r="AA66" s="160"/>
-      <c r="AB66" s="160"/>
+      <c r="AA66" s="35"/>
+      <c r="AB66" s="35"/>
       <c r="AC66" s="160"/>
       <c r="AD66" s="160"/>
       <c r="AE66" s="160"/>
@@ -65114,9 +65402,14 @@
       <c r="AN66" s="160"/>
       <c r="AO66" s="160"/>
       <c r="AP66" s="160"/>
-      <c r="AR66" s="157"/>
-    </row>
-    <row r="67" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="160"/>
+      <c r="AR66" s="160"/>
+      <c r="AS66" s="160"/>
+      <c r="AT66" s="160"/>
+      <c r="AU66" s="160"/>
+      <c r="AW66" s="157"/>
+    </row>
+    <row r="67" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="158" t="str">
         <f>"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D67,FuelNamesShort,0))</f>
         <v>Extraction of Gas Indigenous Shale</v>
@@ -65158,19 +65451,19 @@
       <c r="M67"/>
       <c r="N67"/>
       <c r="O67"/>
-      <c r="P67">
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67">
         <v>2027</v>
       </c>
-      <c r="Q67">
+      <c r="V67">
         <v>40000</v>
       </c>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="160"/>
-      <c r="Y67" s="160"/>
-      <c r="Z67" s="160"/>
-      <c r="AA67" s="160"/>
-      <c r="AB67" s="160"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
       <c r="AC67" s="160"/>
       <c r="AD67" s="160"/>
       <c r="AE67" s="160"/>
@@ -65185,9 +65478,14 @@
       <c r="AN67" s="160"/>
       <c r="AO67" s="160"/>
       <c r="AP67" s="160"/>
-      <c r="AR67" s="157"/>
-    </row>
-    <row r="68" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="160"/>
+      <c r="AR67" s="160"/>
+      <c r="AS67" s="160"/>
+      <c r="AT67" s="160"/>
+      <c r="AU67" s="160"/>
+      <c r="AW67" s="157"/>
+    </row>
+    <row r="68" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="155" t="s">
         <v>349</v>
       </c>
@@ -65205,19 +65503,19 @@
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
       <c r="AA68" s="35"/>
       <c r="AB68" s="35"/>
       <c r="AC68" s="35"/>
-      <c r="AD68" s="160"/>
-      <c r="AE68" s="160"/>
-      <c r="AF68" s="160"/>
-      <c r="AG68" s="160"/>
-      <c r="AH68" s="160"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
       <c r="AI68" s="160"/>
       <c r="AJ68" s="160"/>
       <c r="AK68" s="160"/>
@@ -65233,9 +65531,14 @@
       <c r="AU68" s="160"/>
       <c r="AV68" s="160"/>
       <c r="AW68" s="160"/>
-      <c r="AY68" s="157"/>
-    </row>
-    <row r="69" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX68" s="160"/>
+      <c r="AY68" s="160"/>
+      <c r="AZ68" s="160"/>
+      <c r="BA68" s="160"/>
+      <c r="BB68" s="160"/>
+      <c r="BD68" s="157"/>
+    </row>
+    <row r="69" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="158" t="str">
         <f t="shared" ref="A69:A76" si="24">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D69,FuelNamesShort,0))</f>
         <v>Extraction of Biogas</v>
@@ -65274,23 +65577,23 @@
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69" t="str">
-        <f t="shared" ref="Q69:Q76" si="27">$Q$60</f>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69" t="str">
+        <f t="shared" ref="V69:V76" si="27">$V$60</f>
         <v/>
       </c>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
       <c r="AA69" s="35"/>
       <c r="AB69" s="35"/>
       <c r="AC69" s="35"/>
-      <c r="AD69" s="160"/>
-      <c r="AE69" s="160"/>
-      <c r="AF69" s="160"/>
-      <c r="AG69" s="160"/>
-      <c r="AH69" s="160"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
       <c r="AI69" s="160"/>
       <c r="AJ69" s="160"/>
       <c r="AK69" s="160"/>
@@ -65306,9 +65609,14 @@
       <c r="AU69" s="160"/>
       <c r="AV69" s="160"/>
       <c r="AW69" s="160"/>
-      <c r="AY69" s="157"/>
-    </row>
-    <row r="70" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX69" s="160"/>
+      <c r="AY69" s="160"/>
+      <c r="AZ69" s="160"/>
+      <c r="BA69" s="160"/>
+      <c r="BB69" s="160"/>
+      <c r="BD69" s="157"/>
+    </row>
+    <row r="70" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Biomass bagasse</v>
@@ -65347,23 +65655,23 @@
       <c r="N70"/>
       <c r="O70"/>
       <c r="P70"/>
-      <c r="Q70" t="str">
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
       <c r="AA70" s="35"/>
       <c r="AB70" s="35"/>
       <c r="AC70" s="35"/>
-      <c r="AD70" s="160"/>
-      <c r="AE70" s="160"/>
-      <c r="AF70" s="160"/>
-      <c r="AG70" s="160"/>
-      <c r="AH70" s="160"/>
+      <c r="AD70" s="35"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
       <c r="AI70" s="160"/>
       <c r="AJ70" s="160"/>
       <c r="AK70" s="160"/>
@@ -65379,9 +65687,14 @@
       <c r="AU70" s="160"/>
       <c r="AV70" s="160"/>
       <c r="AW70" s="160"/>
-      <c r="AY70" s="157"/>
-    </row>
-    <row r="71" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX70" s="160"/>
+      <c r="AY70" s="160"/>
+      <c r="AZ70" s="160"/>
+      <c r="BA70" s="160"/>
+      <c r="BB70" s="160"/>
+      <c r="BD70" s="157"/>
+    </row>
+    <row r="71" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Biomass Other</v>
@@ -65425,24 +65738,24 @@
         <f>K71*2</f>
         <v>334</v>
       </c>
-      <c r="P71"/>
-      <c r="Q71" t="str">
+      <c r="P71" s="82"/>
+      <c r="Q71" s="82"/>
+      <c r="R71" s="82"/>
+      <c r="S71" s="82"/>
+      <c r="T71" s="82"/>
+      <c r="U71"/>
+      <c r="V71" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
       <c r="AA71" s="35"/>
       <c r="AB71" s="35"/>
       <c r="AC71" s="35"/>
-      <c r="AD71" s="160"/>
-      <c r="AE71" s="160"/>
-      <c r="AF71" s="160"/>
-      <c r="AG71" s="160"/>
-      <c r="AH71" s="160"/>
+      <c r="AD71" s="35"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
       <c r="AI71" s="160"/>
       <c r="AJ71" s="160"/>
       <c r="AK71" s="160"/>
@@ -65458,9 +65771,14 @@
       <c r="AU71" s="160"/>
       <c r="AV71" s="160"/>
       <c r="AW71" s="160"/>
-      <c r="AY71" s="157"/>
-    </row>
-    <row r="72" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX71" s="160"/>
+      <c r="AY71" s="160"/>
+      <c r="AZ71" s="160"/>
+      <c r="BA71" s="160"/>
+      <c r="BB71" s="160"/>
+      <c r="BD71" s="157"/>
+    </row>
+    <row r="72" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Biomass Wood</v>
@@ -65504,24 +65822,24 @@
         <f>K72*2</f>
         <v>354</v>
       </c>
-      <c r="P72"/>
-      <c r="Q72" t="str">
+      <c r="P72" s="82"/>
+      <c r="Q72" s="82"/>
+      <c r="R72" s="82"/>
+      <c r="S72" s="82"/>
+      <c r="T72" s="82"/>
+      <c r="U72"/>
+      <c r="V72" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
       <c r="AA72" s="35"/>
       <c r="AB72" s="35"/>
       <c r="AC72" s="35"/>
-      <c r="AD72" s="160"/>
-      <c r="AE72" s="160"/>
-      <c r="AF72" s="160"/>
-      <c r="AG72" s="160"/>
-      <c r="AH72" s="160"/>
+      <c r="AD72" s="35"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+      <c r="AH72" s="35"/>
       <c r="AI72" s="160"/>
       <c r="AJ72" s="160"/>
       <c r="AK72" s="160"/>
@@ -65537,9 +65855,14 @@
       <c r="AU72" s="160"/>
       <c r="AV72" s="160"/>
       <c r="AW72" s="160"/>
-      <c r="AY72" s="157"/>
-    </row>
-    <row r="73" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX72" s="160"/>
+      <c r="AY72" s="160"/>
+      <c r="AZ72" s="160"/>
+      <c r="BA72" s="160"/>
+      <c r="BB72" s="160"/>
+      <c r="BD72" s="157"/>
+    </row>
+    <row r="73" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Waste</v>
@@ -65581,23 +65904,23 @@
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
-      <c r="Q73" t="str">
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
       <c r="AA73" s="35"/>
       <c r="AB73" s="35"/>
       <c r="AC73" s="35"/>
-      <c r="AD73" s="160"/>
-      <c r="AE73" s="160"/>
-      <c r="AF73" s="160"/>
-      <c r="AG73" s="160"/>
-      <c r="AH73" s="160"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
       <c r="AI73" s="160"/>
       <c r="AJ73" s="160"/>
       <c r="AK73" s="160"/>
@@ -65613,9 +65936,14 @@
       <c r="AU73" s="160"/>
       <c r="AV73" s="160"/>
       <c r="AW73" s="160"/>
-      <c r="AY73" s="157"/>
-    </row>
-    <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX73" s="160"/>
+      <c r="AY73" s="160"/>
+      <c r="AZ73" s="160"/>
+      <c r="BA73" s="160"/>
+      <c r="BB73" s="160"/>
+      <c r="BD73" s="157"/>
+    </row>
+    <row r="74" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Hydro</v>
@@ -65642,23 +65970,23 @@
       <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
-      <c r="Q74" t="str">
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
       <c r="AA74" s="35"/>
       <c r="AB74" s="35"/>
       <c r="AC74" s="35"/>
-      <c r="AD74" s="160"/>
-      <c r="AE74" s="160"/>
-      <c r="AF74" s="160"/>
-      <c r="AG74" s="160"/>
-      <c r="AH74" s="160"/>
+      <c r="AD74" s="35"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="35"/>
+      <c r="AG74" s="35"/>
+      <c r="AH74" s="35"/>
       <c r="AI74" s="160"/>
       <c r="AJ74" s="160"/>
       <c r="AK74" s="160"/>
@@ -65674,9 +66002,14 @@
       <c r="AU74" s="160"/>
       <c r="AV74" s="160"/>
       <c r="AW74" s="160"/>
-      <c r="AY74" s="157"/>
-    </row>
-    <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX74" s="160"/>
+      <c r="AY74" s="160"/>
+      <c r="AZ74" s="160"/>
+      <c r="BA74" s="160"/>
+      <c r="BB74" s="160"/>
+      <c r="BD74" s="157"/>
+    </row>
+    <row r="75" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Solar</v>
@@ -65703,23 +66036,23 @@
       <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
-      <c r="Q75" t="str">
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
       <c r="AA75" s="35"/>
       <c r="AB75" s="35"/>
       <c r="AC75" s="35"/>
-      <c r="AD75" s="160"/>
-      <c r="AE75" s="160"/>
-      <c r="AF75" s="160"/>
-      <c r="AG75" s="160"/>
-      <c r="AH75" s="160"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
       <c r="AI75" s="160"/>
       <c r="AJ75" s="160"/>
       <c r="AK75" s="160"/>
@@ -65735,9 +66068,14 @@
       <c r="AU75" s="160"/>
       <c r="AV75" s="160"/>
       <c r="AW75" s="160"/>
-      <c r="AY75" s="157"/>
-    </row>
-    <row r="76" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX75" s="160"/>
+      <c r="AY75" s="160"/>
+      <c r="AZ75" s="160"/>
+      <c r="BA75" s="160"/>
+      <c r="BB75" s="160"/>
+      <c r="BD75" s="157"/>
+    </row>
+    <row r="76" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="158" t="str">
         <f t="shared" si="24"/>
         <v>Extraction of Wind</v>
@@ -65764,23 +66102,23 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
-      <c r="Q76" t="str">
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
       <c r="AA76" s="35"/>
       <c r="AB76" s="35"/>
       <c r="AC76" s="35"/>
-      <c r="AD76" s="160"/>
-      <c r="AE76" s="160"/>
-      <c r="AF76" s="160"/>
-      <c r="AG76" s="160"/>
-      <c r="AH76" s="160"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="35"/>
+      <c r="AG76" s="35"/>
+      <c r="AH76" s="35"/>
       <c r="AI76" s="160"/>
       <c r="AJ76" s="160"/>
       <c r="AK76" s="160"/>
@@ -65796,9 +66134,14 @@
       <c r="AU76" s="160"/>
       <c r="AV76" s="160"/>
       <c r="AW76" s="160"/>
-      <c r="AY76" s="157"/>
-    </row>
-    <row r="77" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX76" s="160"/>
+      <c r="AY76" s="160"/>
+      <c r="AZ76" s="160"/>
+      <c r="BA76" s="160"/>
+      <c r="BB76" s="160"/>
+      <c r="BD76" s="157"/>
+    </row>
+    <row r="77" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="155" t="s">
         <v>350</v>
       </c>
@@ -65816,19 +66159,19 @@
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
       <c r="AA77" s="35"/>
       <c r="AB77" s="35"/>
       <c r="AC77" s="35"/>
-      <c r="AD77" s="160"/>
-      <c r="AE77" s="160"/>
-      <c r="AF77" s="160"/>
-      <c r="AG77" s="160"/>
-      <c r="AH77" s="160"/>
+      <c r="AD77" s="35"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+      <c r="AH77" s="35"/>
       <c r="AI77" s="160"/>
       <c r="AJ77" s="160"/>
       <c r="AK77" s="160"/>
@@ -65844,9 +66187,14 @@
       <c r="AU77" s="160"/>
       <c r="AV77" s="160"/>
       <c r="AW77" s="160"/>
-      <c r="AY77" s="157"/>
-    </row>
-    <row r="78" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX77" s="160"/>
+      <c r="AY77" s="160"/>
+      <c r="AZ77" s="160"/>
+      <c r="BA77" s="160"/>
+      <c r="BB77" s="160"/>
+      <c r="BD77" s="157"/>
+    </row>
+    <row r="78" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="158" t="str">
         <f t="shared" ref="A78:A92" si="30">"Imports of "&amp;INDEX(FuelNamesLong,MATCH(D78,FuelNamesShort,0))</f>
         <v>Imports of Coal Coking</v>
@@ -65887,23 +66235,23 @@
       <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
-      <c r="Q78" t="str">
-        <f t="shared" ref="Q78:Q92" si="33">$Q$60</f>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78" t="str">
+        <f t="shared" ref="V78:V92" si="33">$V$60</f>
         <v/>
       </c>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
       <c r="AA78" s="35"/>
       <c r="AB78" s="35"/>
       <c r="AC78" s="35"/>
-      <c r="AD78" s="160"/>
-      <c r="AE78" s="160"/>
-      <c r="AF78" s="160"/>
-      <c r="AG78" s="160"/>
-      <c r="AH78" s="160"/>
+      <c r="AD78" s="35"/>
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+      <c r="AH78" s="35"/>
       <c r="AI78" s="160"/>
       <c r="AJ78" s="160"/>
       <c r="AK78" s="160"/>
@@ -65919,9 +66267,14 @@
       <c r="AU78" s="160"/>
       <c r="AV78" s="160"/>
       <c r="AW78" s="160"/>
-      <c r="AY78" s="157"/>
-    </row>
-    <row r="79" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX78" s="160"/>
+      <c r="AY78" s="160"/>
+      <c r="AZ78" s="160"/>
+      <c r="BA78" s="160"/>
+      <c r="BB78" s="160"/>
+      <c r="BD78" s="157"/>
+    </row>
+    <row r="79" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="158" t="s">
         <v>1058</v>
       </c>
@@ -65955,19 +66308,19 @@
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="35"/>
-      <c r="Z79" s="35"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
       <c r="AA79" s="35"/>
       <c r="AB79" s="35"/>
       <c r="AC79" s="35"/>
-      <c r="AD79" s="160"/>
-      <c r="AE79" s="160"/>
-      <c r="AF79" s="160"/>
-      <c r="AG79" s="160"/>
-      <c r="AH79" s="160"/>
+      <c r="AD79" s="35"/>
+      <c r="AE79" s="35"/>
+      <c r="AF79" s="35"/>
+      <c r="AG79" s="35"/>
+      <c r="AH79" s="35"/>
       <c r="AI79" s="160"/>
       <c r="AJ79" s="160"/>
       <c r="AK79" s="160"/>
@@ -65983,9 +66336,14 @@
       <c r="AU79" s="160"/>
       <c r="AV79" s="160"/>
       <c r="AW79" s="160"/>
-      <c r="AY79" s="157"/>
-    </row>
-    <row r="80" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX79" s="160"/>
+      <c r="AY79" s="160"/>
+      <c r="AZ79" s="160"/>
+      <c r="BA79" s="160"/>
+      <c r="BB79" s="160"/>
+      <c r="BD79" s="157"/>
+    </row>
+    <row r="80" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Gas Regional LNG</v>
@@ -66023,26 +66381,26 @@
       <c r="M80"/>
       <c r="N80"/>
       <c r="O80"/>
-      <c r="P80">
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80">
         <v>2027</v>
       </c>
-      <c r="Q80" t="str">
+      <c r="V80" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
       <c r="AA80" s="35"/>
       <c r="AB80" s="35"/>
       <c r="AC80" s="35"/>
-      <c r="AD80" s="160"/>
-      <c r="AE80" s="160"/>
-      <c r="AF80" s="160"/>
-      <c r="AG80" s="160"/>
-      <c r="AH80" s="160"/>
+      <c r="AD80" s="35"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
       <c r="AI80" s="160"/>
       <c r="AJ80" s="160"/>
       <c r="AK80" s="160"/>
@@ -66058,9 +66416,14 @@
       <c r="AU80" s="160"/>
       <c r="AV80" s="160"/>
       <c r="AW80" s="160"/>
-      <c r="AY80" s="157"/>
-    </row>
-    <row r="81" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX80" s="160"/>
+      <c r="AY80" s="160"/>
+      <c r="AZ80" s="160"/>
+      <c r="BA80" s="160"/>
+      <c r="BB80" s="160"/>
+      <c r="BD80" s="157"/>
+    </row>
+    <row r="81" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Gas International LNG</v>
@@ -66108,27 +66471,27 @@
       <c r="O81" t="s">
         <v>252</v>
       </c>
-      <c r="P81">
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81">
         <v>2027</v>
       </c>
-      <c r="Q81" t="str">
+      <c r="V81" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="U81" s="161"/>
-      <c r="V81" s="162"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
+      <c r="Z81" s="161"/>
+      <c r="AA81" s="162"/>
       <c r="AB81" s="35"/>
       <c r="AC81" s="35"/>
-      <c r="AD81" s="160"/>
-      <c r="AE81" s="160"/>
-      <c r="AF81" s="160"/>
-      <c r="AG81" s="160"/>
-      <c r="AH81" s="160"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
       <c r="AI81" s="160"/>
       <c r="AJ81" s="160"/>
       <c r="AK81" s="160"/>
@@ -66144,9 +66507,14 @@
       <c r="AU81" s="160"/>
       <c r="AV81" s="160"/>
       <c r="AW81" s="160"/>
-      <c r="AY81" s="157"/>
-    </row>
-    <row r="82" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX81" s="160"/>
+      <c r="AY81" s="160"/>
+      <c r="AZ81" s="160"/>
+      <c r="BA81" s="160"/>
+      <c r="BB81" s="160"/>
+      <c r="BD81" s="157"/>
+    </row>
+    <row r="82" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="158" t="s">
         <v>1058</v>
       </c>
@@ -66180,20 +66548,20 @@
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="U82" s="161"/>
-      <c r="V82" s="162"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="Z82" s="161"/>
+      <c r="AA82" s="162"/>
       <c r="AB82" s="35"/>
       <c r="AC82" s="35"/>
-      <c r="AD82" s="160"/>
-      <c r="AE82" s="160"/>
-      <c r="AF82" s="160"/>
-      <c r="AG82" s="160"/>
-      <c r="AH82" s="160"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
       <c r="AI82" s="160"/>
       <c r="AJ82" s="160"/>
       <c r="AK82" s="160"/>
@@ -66209,9 +66577,14 @@
       <c r="AU82" s="160"/>
       <c r="AV82" s="160"/>
       <c r="AW82" s="160"/>
-      <c r="AY82" s="157"/>
-    </row>
-    <row r="83" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX82" s="160"/>
+      <c r="AY82" s="160"/>
+      <c r="AZ82" s="160"/>
+      <c r="BA82" s="160"/>
+      <c r="BB82" s="160"/>
+      <c r="BD82" s="157"/>
+    </row>
+    <row r="83" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Nuclear</v>
@@ -66247,7 +66620,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="82">
-        <f t="shared" ref="K83:K85" si="38">SUMIF($C$8:$AZ$8,D83,$C$11:$AZ$11)</f>
+        <f t="shared" ref="K83:K85" si="38">SUMIF($C$8:$BE$8,D83,$C$11:$BE$11)</f>
         <v>170.374545454545</v>
       </c>
       <c r="L83" s="82"/>
@@ -66255,26 +66628,26 @@
       <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
-      <c r="Q83" t="str">
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="T83" s="161" t="s">
+      <c r="Y83" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="V83" s="35"/>
-      <c r="W83" s="35"/>
-      <c r="X83" s="35"/>
-      <c r="Y83" s="35"/>
-      <c r="Z83" s="35"/>
       <c r="AA83" s="35"/>
       <c r="AB83" s="35"/>
       <c r="AC83" s="35"/>
-      <c r="AD83" s="160"/>
-      <c r="AE83" s="160"/>
-      <c r="AF83" s="160"/>
-      <c r="AG83" s="160"/>
-      <c r="AH83" s="160"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
       <c r="AI83" s="160"/>
       <c r="AJ83" s="160"/>
       <c r="AK83" s="160"/>
@@ -66290,9 +66663,14 @@
       <c r="AU83" s="160"/>
       <c r="AV83" s="160"/>
       <c r="AW83" s="160"/>
-      <c r="AY83" s="157"/>
-    </row>
-    <row r="84" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX83" s="160"/>
+      <c r="AY83" s="160"/>
+      <c r="AZ83" s="160"/>
+      <c r="BA83" s="160"/>
+      <c r="BB83" s="160"/>
+      <c r="BD83" s="157"/>
+    </row>
+    <row r="84" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil Av Gasoline</v>
@@ -66336,23 +66714,23 @@
       <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
-      <c r="Q84" t="str">
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V84" s="35"/>
-      <c r="W84" s="35"/>
-      <c r="X84" s="35"/>
-      <c r="Y84" s="35"/>
-      <c r="Z84" s="35"/>
       <c r="AA84" s="35"/>
       <c r="AB84" s="35"/>
       <c r="AC84" s="35"/>
-      <c r="AD84" s="160"/>
-      <c r="AE84" s="160"/>
-      <c r="AF84" s="160"/>
-      <c r="AG84" s="160"/>
-      <c r="AH84" s="160"/>
+      <c r="AD84" s="35"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
       <c r="AI84" s="160"/>
       <c r="AJ84" s="160"/>
       <c r="AK84" s="160"/>
@@ -66368,9 +66746,14 @@
       <c r="AU84" s="160"/>
       <c r="AV84" s="160"/>
       <c r="AW84" s="160"/>
-      <c r="AY84" s="157"/>
-    </row>
-    <row r="85" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX84" s="160"/>
+      <c r="AY84" s="160"/>
+      <c r="AZ84" s="160"/>
+      <c r="BA84" s="160"/>
+      <c r="BB84" s="160"/>
+      <c r="BD84" s="157"/>
+    </row>
+    <row r="85" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil Crude</v>
@@ -66414,23 +66797,23 @@
       <c r="N85"/>
       <c r="O85"/>
       <c r="P85"/>
-      <c r="Q85" t="str">
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V85" s="35"/>
-      <c r="W85" s="35"/>
-      <c r="X85" s="35"/>
-      <c r="Y85" s="35"/>
-      <c r="Z85" s="35"/>
       <c r="AA85" s="35"/>
       <c r="AB85" s="35"/>
       <c r="AC85" s="35"/>
-      <c r="AD85" s="160"/>
-      <c r="AE85" s="160"/>
-      <c r="AF85" s="160"/>
-      <c r="AG85" s="160"/>
-      <c r="AH85" s="160"/>
+      <c r="AD85" s="35"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
       <c r="AI85" s="160"/>
       <c r="AJ85" s="160"/>
       <c r="AK85" s="160"/>
@@ -66446,9 +66829,14 @@
       <c r="AU85" s="160"/>
       <c r="AV85" s="160"/>
       <c r="AW85" s="160"/>
-      <c r="AY85" s="157"/>
-    </row>
-    <row r="86" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX85" s="160"/>
+      <c r="AY85" s="160"/>
+      <c r="AZ85" s="160"/>
+      <c r="BA85" s="160"/>
+      <c r="BB85" s="160"/>
+      <c r="BD85" s="157"/>
+    </row>
+    <row r="86" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil Diesel</v>
@@ -66491,23 +66879,23 @@
       <c r="N86"/>
       <c r="O86"/>
       <c r="P86"/>
-      <c r="Q86" t="str">
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
       <c r="AA86" s="35"/>
       <c r="AB86" s="35"/>
       <c r="AC86" s="35"/>
-      <c r="AD86" s="160"/>
-      <c r="AE86" s="160"/>
-      <c r="AF86" s="160"/>
-      <c r="AG86" s="160"/>
-      <c r="AH86" s="160"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
       <c r="AI86" s="160"/>
       <c r="AJ86" s="160"/>
       <c r="AK86" s="160"/>
@@ -66523,9 +66911,14 @@
       <c r="AU86" s="160"/>
       <c r="AV86" s="160"/>
       <c r="AW86" s="160"/>
-      <c r="AY86" s="157"/>
-    </row>
-    <row r="87" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX86" s="160"/>
+      <c r="AY86" s="160"/>
+      <c r="AZ86" s="160"/>
+      <c r="BA86" s="160"/>
+      <c r="BB86" s="160"/>
+      <c r="BD86" s="157"/>
+    </row>
+    <row r="87" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil Gasoline</v>
@@ -66568,23 +66961,23 @@
       <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
-      <c r="Q87" t="str">
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
       <c r="AA87" s="35"/>
       <c r="AB87" s="35"/>
       <c r="AC87" s="35"/>
-      <c r="AD87" s="160"/>
-      <c r="AE87" s="160"/>
-      <c r="AF87" s="160"/>
-      <c r="AG87" s="160"/>
-      <c r="AH87" s="160"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
       <c r="AI87" s="160"/>
       <c r="AJ87" s="160"/>
       <c r="AK87" s="160"/>
@@ -66600,9 +66993,14 @@
       <c r="AU87" s="160"/>
       <c r="AV87" s="160"/>
       <c r="AW87" s="160"/>
-      <c r="AY87" s="157"/>
-    </row>
-    <row r="88" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX87" s="160"/>
+      <c r="AY87" s="160"/>
+      <c r="AZ87" s="160"/>
+      <c r="BA87" s="160"/>
+      <c r="BB87" s="160"/>
+      <c r="BD87" s="157"/>
+    </row>
+    <row r="88" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil HFO</v>
@@ -66645,23 +67043,23 @@
       <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
-      <c r="Q88" t="str">
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
       <c r="AA88" s="35"/>
       <c r="AB88" s="35"/>
       <c r="AC88" s="35"/>
-      <c r="AD88" s="160"/>
-      <c r="AE88" s="160"/>
-      <c r="AF88" s="160"/>
-      <c r="AG88" s="160"/>
-      <c r="AH88" s="160"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="35"/>
+      <c r="AF88" s="35"/>
+      <c r="AG88" s="35"/>
+      <c r="AH88" s="35"/>
       <c r="AI88" s="160"/>
       <c r="AJ88" s="160"/>
       <c r="AK88" s="160"/>
@@ -66677,9 +67075,14 @@
       <c r="AU88" s="160"/>
       <c r="AV88" s="160"/>
       <c r="AW88" s="160"/>
-      <c r="AY88" s="157"/>
-    </row>
-    <row r="89" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX88" s="160"/>
+      <c r="AY88" s="160"/>
+      <c r="AZ88" s="160"/>
+      <c r="BA88" s="160"/>
+      <c r="BB88" s="160"/>
+      <c r="BD88" s="157"/>
+    </row>
+    <row r="89" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil LPG</v>
@@ -66722,23 +67125,23 @@
       <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
-      <c r="Q89" t="str">
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35"/>
       <c r="AA89" s="35"/>
       <c r="AB89" s="35"/>
       <c r="AC89" s="35"/>
-      <c r="AD89" s="160"/>
-      <c r="AE89" s="160"/>
-      <c r="AF89" s="160"/>
-      <c r="AG89" s="160"/>
-      <c r="AH89" s="160"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="35"/>
       <c r="AI89" s="160"/>
       <c r="AJ89" s="160"/>
       <c r="AK89" s="160"/>
@@ -66754,9 +67157,14 @@
       <c r="AU89" s="160"/>
       <c r="AV89" s="160"/>
       <c r="AW89" s="160"/>
-      <c r="AY89" s="157"/>
-    </row>
-    <row r="90" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX89" s="160"/>
+      <c r="AY89" s="160"/>
+      <c r="AZ89" s="160"/>
+      <c r="BA89" s="160"/>
+      <c r="BB89" s="160"/>
+      <c r="BD89" s="157"/>
+    </row>
+    <row r="90" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Oil Kerosene</v>
@@ -66799,23 +67207,23 @@
       <c r="N90"/>
       <c r="O90"/>
       <c r="P90"/>
-      <c r="Q90" t="str">
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V90" s="35"/>
-      <c r="W90" s="35"/>
-      <c r="X90" s="35"/>
-      <c r="Y90" s="35"/>
-      <c r="Z90" s="35"/>
       <c r="AA90" s="35"/>
       <c r="AB90" s="35"/>
       <c r="AC90" s="35"/>
-      <c r="AD90" s="160"/>
-      <c r="AE90" s="160"/>
-      <c r="AF90" s="160"/>
-      <c r="AG90" s="160"/>
-      <c r="AH90" s="160"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+      <c r="AG90" s="35"/>
+      <c r="AH90" s="35"/>
       <c r="AI90" s="160"/>
       <c r="AJ90" s="160"/>
       <c r="AK90" s="160"/>
@@ -66831,9 +67239,14 @@
       <c r="AU90" s="160"/>
       <c r="AV90" s="160"/>
       <c r="AW90" s="160"/>
-      <c r="AY90" s="157"/>
-    </row>
-    <row r="91" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX90" s="160"/>
+      <c r="AY90" s="160"/>
+      <c r="AZ90" s="160"/>
+      <c r="BA90" s="160"/>
+      <c r="BB90" s="160"/>
+      <c r="BD90" s="157"/>
+    </row>
+    <row r="91" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Biodiesel</v>
@@ -66874,23 +67287,23 @@
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91"/>
-      <c r="Q91" t="str">
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
       <c r="AA91" s="35"/>
       <c r="AB91" s="35"/>
       <c r="AC91" s="35"/>
-      <c r="AD91" s="160"/>
-      <c r="AE91" s="160"/>
-      <c r="AF91" s="160"/>
-      <c r="AG91" s="160"/>
-      <c r="AH91" s="160"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="35"/>
       <c r="AI91" s="160"/>
       <c r="AJ91" s="160"/>
       <c r="AK91" s="160"/>
@@ -66906,9 +67319,14 @@
       <c r="AU91" s="160"/>
       <c r="AV91" s="160"/>
       <c r="AW91" s="160"/>
-      <c r="AY91" s="157"/>
-    </row>
-    <row r="92" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX91" s="160"/>
+      <c r="AY91" s="160"/>
+      <c r="AZ91" s="160"/>
+      <c r="BA91" s="160"/>
+      <c r="BB91" s="160"/>
+      <c r="BD91" s="157"/>
+    </row>
+    <row r="92" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="158" t="str">
         <f t="shared" si="30"/>
         <v>Imports of Bioethanol</v>
@@ -66949,23 +67367,23 @@
       <c r="N92"/>
       <c r="O92"/>
       <c r="P92"/>
-      <c r="Q92" t="str">
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
       <c r="AA92" s="35"/>
       <c r="AB92" s="35"/>
       <c r="AC92" s="35"/>
-      <c r="AD92" s="160"/>
-      <c r="AE92" s="160"/>
-      <c r="AF92" s="160"/>
-      <c r="AG92" s="160"/>
-      <c r="AH92" s="160"/>
+      <c r="AD92" s="35"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="35"/>
       <c r="AI92" s="160"/>
       <c r="AJ92" s="160"/>
       <c r="AK92" s="160"/>
@@ -66981,9 +67399,14 @@
       <c r="AU92" s="160"/>
       <c r="AV92" s="160"/>
       <c r="AW92" s="160"/>
-      <c r="AY92" s="157"/>
-    </row>
-    <row r="93" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX92" s="160"/>
+      <c r="AY92" s="160"/>
+      <c r="AZ92" s="160"/>
+      <c r="BA92" s="160"/>
+      <c r="BB92" s="160"/>
+      <c r="BD92" s="157"/>
+    </row>
+    <row r="93" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="155" t="s">
         <v>352</v>
       </c>
@@ -67001,19 +67424,19 @@
       <c r="O93"/>
       <c r="P93"/>
       <c r="Q93"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
       <c r="AA93" s="35"/>
       <c r="AB93" s="35"/>
       <c r="AC93" s="35"/>
-      <c r="AD93" s="160"/>
-      <c r="AE93" s="160"/>
-      <c r="AF93" s="160"/>
-      <c r="AG93" s="160"/>
-      <c r="AH93" s="160"/>
+      <c r="AD93" s="35"/>
+      <c r="AE93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="35"/>
+      <c r="AH93" s="35"/>
       <c r="AI93" s="160"/>
       <c r="AJ93" s="160"/>
       <c r="AK93" s="160"/>
@@ -67029,9 +67452,14 @@
       <c r="AU93" s="160"/>
       <c r="AV93" s="160"/>
       <c r="AW93" s="160"/>
-      <c r="AY93" s="157"/>
-    </row>
-    <row r="94" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX93" s="160"/>
+      <c r="AY93" s="160"/>
+      <c r="AZ93" s="160"/>
+      <c r="BA93" s="160"/>
+      <c r="BB93" s="160"/>
+      <c r="BD93" s="157"/>
+    </row>
+    <row r="94" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="158" t="str">
         <f>"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D94,FuelNamesShort,0))</f>
         <v>Extraction of Gas Southern Mozambique</v>
@@ -67072,22 +67500,22 @@
       <c r="N94"/>
       <c r="O94"/>
       <c r="P94"/>
-      <c r="Q94">
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94">
         <v>4500</v>
       </c>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35"/>
       <c r="AA94" s="35"/>
       <c r="AB94" s="35"/>
       <c r="AC94" s="35"/>
-      <c r="AD94" s="160"/>
-      <c r="AE94" s="160"/>
-      <c r="AF94" s="160"/>
-      <c r="AG94" s="160"/>
-      <c r="AH94" s="160"/>
+      <c r="AD94" s="35"/>
+      <c r="AE94" s="35"/>
+      <c r="AF94" s="35"/>
+      <c r="AG94" s="35"/>
+      <c r="AH94" s="35"/>
       <c r="AI94" s="160"/>
       <c r="AJ94" s="160"/>
       <c r="AK94" s="160"/>
@@ -67103,9 +67531,14 @@
       <c r="AU94" s="160"/>
       <c r="AV94" s="160"/>
       <c r="AW94" s="160"/>
-      <c r="AY94" s="157"/>
-    </row>
-    <row r="95" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX94" s="160"/>
+      <c r="AY94" s="160"/>
+      <c r="AZ94" s="160"/>
+      <c r="BA94" s="160"/>
+      <c r="BB94" s="160"/>
+      <c r="BD94" s="157"/>
+    </row>
+    <row r="95" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="158" t="str">
         <f>"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D95,FuelNamesShort,0))</f>
         <v>Extraction of Gas Northern Mozambique</v>
@@ -67143,25 +67576,25 @@
       <c r="M95"/>
       <c r="N95"/>
       <c r="O95"/>
-      <c r="P95">
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95">
         <v>2030</v>
       </c>
-      <c r="Q95">
+      <c r="V95">
         <v>170000</v>
       </c>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
-      <c r="Z95" s="35"/>
       <c r="AA95" s="35"/>
       <c r="AB95" s="35"/>
       <c r="AC95" s="35"/>
-      <c r="AD95" s="160"/>
-      <c r="AE95" s="160"/>
-      <c r="AF95" s="160"/>
-      <c r="AG95" s="160"/>
-      <c r="AH95" s="160"/>
+      <c r="AD95" s="35"/>
+      <c r="AE95" s="35"/>
+      <c r="AF95" s="35"/>
+      <c r="AG95" s="35"/>
+      <c r="AH95" s="35"/>
       <c r="AI95" s="160"/>
       <c r="AJ95" s="160"/>
       <c r="AK95" s="160"/>
@@ -67177,9 +67610,14 @@
       <c r="AU95" s="160"/>
       <c r="AV95" s="160"/>
       <c r="AW95" s="160"/>
-      <c r="AY95" s="157"/>
-    </row>
-    <row r="96" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX95" s="160"/>
+      <c r="AY95" s="160"/>
+      <c r="AZ95" s="160"/>
+      <c r="BA95" s="160"/>
+      <c r="BB95" s="160"/>
+      <c r="BD95" s="157"/>
+    </row>
+    <row r="96" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="155" t="s">
         <v>353</v>
       </c>
@@ -67199,19 +67637,19 @@
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
-      <c r="V96" s="35"/>
-      <c r="W96" s="35"/>
-      <c r="X96" s="35"/>
-      <c r="Y96" s="35"/>
-      <c r="Z96" s="35"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
       <c r="AA96" s="35"/>
       <c r="AB96" s="35"/>
       <c r="AC96" s="35"/>
-      <c r="AD96" s="160"/>
-      <c r="AE96" s="160"/>
-      <c r="AF96" s="160"/>
-      <c r="AG96" s="160"/>
-      <c r="AH96" s="160"/>
+      <c r="AD96" s="35"/>
+      <c r="AE96" s="35"/>
+      <c r="AF96" s="35"/>
+      <c r="AG96" s="35"/>
+      <c r="AH96" s="35"/>
       <c r="AI96" s="160"/>
       <c r="AJ96" s="160"/>
       <c r="AK96" s="160"/>
@@ -67227,9 +67665,14 @@
       <c r="AU96" s="160"/>
       <c r="AV96" s="160"/>
       <c r="AW96" s="160"/>
-      <c r="AY96" s="157"/>
-    </row>
-    <row r="97" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX96" s="160"/>
+      <c r="AY96" s="160"/>
+      <c r="AZ96" s="160"/>
+      <c r="BA96" s="160"/>
+      <c r="BB96" s="160"/>
+      <c r="BD96" s="157"/>
+    </row>
+    <row r="97" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="158" t="str">
         <f t="shared" ref="A97:A104" si="43">"Exports of "&amp;INDEX(FuelNamesLong,MATCH(C97,FuelNamesShort,0))</f>
         <v>Exports of Coal</v>
@@ -67261,38 +67704,40 @@
         <f>I60*$B$96</f>
         <v>-53.694000000000003</v>
       </c>
-      <c r="J97" s="82">
-        <v>3</v>
-      </c>
-      <c r="K97" s="82">
-        <v>1727</v>
-      </c>
+      <c r="J97" s="82"/>
+      <c r="K97" s="82"/>
       <c r="L97" s="82"/>
       <c r="M97"/>
-      <c r="N97">
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="82">
+        <v>1727</v>
+      </c>
+      <c r="R97">
         <v>1000</v>
       </c>
-      <c r="O97">
+      <c r="S97">
+        <v>1000</v>
+      </c>
+      <c r="T97">
         <v>500</v>
       </c>
-      <c r="P97"/>
-      <c r="Q97" t="str">
-        <f t="shared" ref="Q97:Q104" si="45">$Q$60</f>
+      <c r="U97"/>
+      <c r="V97" t="str">
+        <f t="shared" ref="V97:V104" si="45">$V$60</f>
         <v/>
       </c>
-      <c r="V97" s="35"/>
-      <c r="W97" s="35"/>
-      <c r="X97" s="35"/>
-      <c r="Y97" s="35"/>
-      <c r="Z97" s="35"/>
       <c r="AA97" s="35"/>
       <c r="AB97" s="35"/>
       <c r="AC97" s="35"/>
-      <c r="AD97" s="160"/>
-      <c r="AE97" s="160"/>
-      <c r="AF97" s="160"/>
-      <c r="AG97" s="160"/>
-      <c r="AH97" s="160"/>
+      <c r="AD97" s="35"/>
+      <c r="AE97" s="35"/>
+      <c r="AF97" s="35"/>
+      <c r="AG97" s="35"/>
+      <c r="AH97" s="35"/>
       <c r="AI97" s="160"/>
       <c r="AJ97" s="160"/>
       <c r="AK97" s="160"/>
@@ -67308,9 +67753,14 @@
       <c r="AU97" s="160"/>
       <c r="AV97" s="160"/>
       <c r="AW97" s="160"/>
-      <c r="AY97" s="157"/>
-    </row>
-    <row r="98" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX97" s="160"/>
+      <c r="AY97" s="160"/>
+      <c r="AZ97" s="160"/>
+      <c r="BA97" s="160"/>
+      <c r="BB97" s="160"/>
+      <c r="BD97" s="157"/>
+    </row>
+    <row r="98" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Coal Coking</v>
@@ -67346,7 +67796,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="393">
-        <f>SUMIF($C$8:$AZ$8,C98,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C98,$C$12:$BE$12)</f>
         <v>20.834015000000001</v>
       </c>
       <c r="L98" s="82"/>
@@ -67354,23 +67804,23 @@
       <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
-      <c r="Q98" t="str">
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V98" s="35"/>
-      <c r="W98" s="35"/>
-      <c r="X98" s="35"/>
-      <c r="Y98" s="35"/>
-      <c r="Z98" s="35"/>
       <c r="AA98" s="35"/>
       <c r="AB98" s="35"/>
       <c r="AC98" s="35"/>
-      <c r="AD98" s="160"/>
-      <c r="AE98" s="160"/>
-      <c r="AF98" s="160"/>
-      <c r="AG98" s="160"/>
-      <c r="AH98" s="160"/>
+      <c r="AD98" s="35"/>
+      <c r="AE98" s="35"/>
+      <c r="AF98" s="35"/>
+      <c r="AG98" s="35"/>
+      <c r="AH98" s="35"/>
       <c r="AI98" s="160"/>
       <c r="AJ98" s="160"/>
       <c r="AK98" s="160"/>
@@ -67386,9 +67836,14 @@
       <c r="AU98" s="160"/>
       <c r="AV98" s="160"/>
       <c r="AW98" s="160"/>
-      <c r="AY98" s="157"/>
-    </row>
-    <row r="99" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX98" s="160"/>
+      <c r="AY98" s="160"/>
+      <c r="AZ98" s="160"/>
+      <c r="BA98" s="160"/>
+      <c r="BB98" s="160"/>
+      <c r="BD98" s="157"/>
+    </row>
+    <row r="99" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil Av Gasoline</v>
@@ -67424,7 +67879,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="393">
-        <f>SUMIF($C$8:$AZ$8,C99,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C99,$C$12:$BE$12)</f>
         <v>0.22564281164383562</v>
       </c>
       <c r="L99" s="82"/>
@@ -67432,23 +67887,23 @@
       <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
-      <c r="Q99" t="str">
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V99" s="35"/>
-      <c r="W99" s="35"/>
-      <c r="X99" s="35"/>
-      <c r="Y99" s="35"/>
-      <c r="Z99" s="35"/>
       <c r="AA99" s="35"/>
       <c r="AB99" s="35"/>
       <c r="AC99" s="35"/>
-      <c r="AD99" s="160"/>
-      <c r="AE99" s="160"/>
-      <c r="AF99" s="160"/>
-      <c r="AG99" s="160"/>
-      <c r="AH99" s="160"/>
+      <c r="AD99" s="35"/>
+      <c r="AE99" s="35"/>
+      <c r="AF99" s="35"/>
+      <c r="AG99" s="35"/>
+      <c r="AH99" s="35"/>
       <c r="AI99" s="160"/>
       <c r="AJ99" s="160"/>
       <c r="AK99" s="160"/>
@@ -67464,9 +67919,14 @@
       <c r="AU99" s="160"/>
       <c r="AV99" s="160"/>
       <c r="AW99" s="160"/>
-      <c r="AY99" s="157"/>
-    </row>
-    <row r="100" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX99" s="160"/>
+      <c r="AY99" s="160"/>
+      <c r="AZ99" s="160"/>
+      <c r="BA99" s="160"/>
+      <c r="BB99" s="160"/>
+      <c r="BD99" s="157"/>
+    </row>
+    <row r="100" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil Crude</v>
@@ -67502,7 +67962,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="393">
-        <f>SUMIF($C$8:$AZ$8,C100,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C100,$C$12:$BE$12)</f>
         <v>20.83803412968</v>
       </c>
       <c r="L100" s="82"/>
@@ -67510,23 +67970,23 @@
       <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
-      <c r="Q100" t="str">
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V100" s="35"/>
-      <c r="W100" s="35"/>
-      <c r="X100" s="35"/>
-      <c r="Y100" s="35"/>
-      <c r="Z100" s="35"/>
       <c r="AA100" s="35"/>
       <c r="AB100" s="35"/>
       <c r="AC100" s="35"/>
-      <c r="AD100" s="160"/>
-      <c r="AE100" s="160"/>
-      <c r="AF100" s="160"/>
-      <c r="AG100" s="160"/>
-      <c r="AH100" s="160"/>
+      <c r="AD100" s="35"/>
+      <c r="AE100" s="35"/>
+      <c r="AF100" s="35"/>
+      <c r="AG100" s="35"/>
+      <c r="AH100" s="35"/>
       <c r="AI100" s="160"/>
       <c r="AJ100" s="160"/>
       <c r="AK100" s="160"/>
@@ -67542,9 +68002,14 @@
       <c r="AU100" s="160"/>
       <c r="AV100" s="160"/>
       <c r="AW100" s="160"/>
-      <c r="AY100" s="157"/>
-    </row>
-    <row r="101" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX100" s="160"/>
+      <c r="AY100" s="160"/>
+      <c r="AZ100" s="160"/>
+      <c r="BA100" s="160"/>
+      <c r="BB100" s="160"/>
+      <c r="BD100" s="157"/>
+    </row>
+    <row r="101" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil Diesel</v>
@@ -67580,7 +68045,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="393">
-        <f>SUMIF($C$8:$AZ$8,C101,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C101,$C$12:$BE$12)</f>
         <v>28.73659252275862</v>
       </c>
       <c r="L101" s="82"/>
@@ -67588,23 +68053,23 @@
       <c r="N101"/>
       <c r="O101"/>
       <c r="P101"/>
-      <c r="Q101" t="str">
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V101" s="35"/>
-      <c r="W101" s="35"/>
-      <c r="X101" s="35"/>
-      <c r="Y101" s="35"/>
-      <c r="Z101" s="35"/>
       <c r="AA101" s="35"/>
       <c r="AB101" s="35"/>
       <c r="AC101" s="35"/>
-      <c r="AD101" s="160"/>
-      <c r="AE101" s="160"/>
-      <c r="AF101" s="160"/>
-      <c r="AG101" s="160"/>
-      <c r="AH101" s="160"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="35"/>
+      <c r="AH101" s="35"/>
       <c r="AI101" s="160"/>
       <c r="AJ101" s="160"/>
       <c r="AK101" s="160"/>
@@ -67620,9 +68085,14 @@
       <c r="AU101" s="160"/>
       <c r="AV101" s="160"/>
       <c r="AW101" s="160"/>
-      <c r="AY101" s="157"/>
-    </row>
-    <row r="102" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX101" s="160"/>
+      <c r="AY101" s="160"/>
+      <c r="AZ101" s="160"/>
+      <c r="BA101" s="160"/>
+      <c r="BB101" s="160"/>
+      <c r="BD101" s="157"/>
+    </row>
+    <row r="102" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil Gasoline</v>
@@ -67658,7 +68128,7 @@
         <v>0</v>
       </c>
       <c r="K102" s="393">
-        <f>SUMIF($C$8:$AZ$8,C102,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C102,$C$12:$BE$12)</f>
         <v>3.5488458656756761</v>
       </c>
       <c r="L102" s="82"/>
@@ -67666,23 +68136,23 @@
       <c r="N102"/>
       <c r="O102"/>
       <c r="P102"/>
-      <c r="Q102" t="str">
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V102" s="35"/>
-      <c r="W102" s="35"/>
-      <c r="X102" s="35"/>
-      <c r="Y102" s="35"/>
-      <c r="Z102" s="35"/>
       <c r="AA102" s="35"/>
       <c r="AB102" s="35"/>
       <c r="AC102" s="35"/>
-      <c r="AD102" s="160"/>
-      <c r="AE102" s="160"/>
-      <c r="AF102" s="160"/>
-      <c r="AG102" s="160"/>
-      <c r="AH102" s="160"/>
+      <c r="AD102" s="35"/>
+      <c r="AE102" s="35"/>
+      <c r="AF102" s="35"/>
+      <c r="AG102" s="35"/>
+      <c r="AH102" s="35"/>
       <c r="AI102" s="160"/>
       <c r="AJ102" s="160"/>
       <c r="AK102" s="160"/>
@@ -67698,9 +68168,14 @@
       <c r="AU102" s="160"/>
       <c r="AV102" s="160"/>
       <c r="AW102" s="160"/>
-      <c r="AY102" s="157"/>
-    </row>
-    <row r="103" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX102" s="160"/>
+      <c r="AY102" s="160"/>
+      <c r="AZ102" s="160"/>
+      <c r="BA102" s="160"/>
+      <c r="BB102" s="160"/>
+      <c r="BD102" s="157"/>
+    </row>
+    <row r="103" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil HFO</v>
@@ -67741,23 +68216,23 @@
       <c r="N103"/>
       <c r="O103"/>
       <c r="P103"/>
-      <c r="Q103" t="str">
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V103" s="35"/>
-      <c r="W103" s="35"/>
-      <c r="X103" s="35"/>
-      <c r="Y103" s="35"/>
-      <c r="Z103" s="35"/>
       <c r="AA103" s="35"/>
       <c r="AB103" s="35"/>
       <c r="AC103" s="35"/>
-      <c r="AD103" s="160"/>
-      <c r="AE103" s="160"/>
-      <c r="AF103" s="160"/>
-      <c r="AG103" s="160"/>
-      <c r="AH103" s="160"/>
+      <c r="AD103" s="35"/>
+      <c r="AE103" s="35"/>
+      <c r="AF103" s="35"/>
+      <c r="AG103" s="35"/>
+      <c r="AH103" s="35"/>
       <c r="AI103" s="160"/>
       <c r="AJ103" s="160"/>
       <c r="AK103" s="160"/>
@@ -67773,9 +68248,14 @@
       <c r="AU103" s="160"/>
       <c r="AV103" s="160"/>
       <c r="AW103" s="160"/>
-      <c r="AY103" s="157"/>
-    </row>
-    <row r="104" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+      <c r="AX103" s="160"/>
+      <c r="AY103" s="160"/>
+      <c r="AZ103" s="160"/>
+      <c r="BA103" s="160"/>
+      <c r="BB103" s="160"/>
+      <c r="BD103" s="157"/>
+    </row>
+    <row r="104" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="158" t="str">
         <f t="shared" si="43"/>
         <v>Exports of Oil Kerosene</v>
@@ -67811,7 +68291,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="393">
-        <f>SUMIF($C$8:$AZ$8,C104,$C$12:$AZ$12)</f>
+        <f>SUMIF($C$8:$BE$8,C104,$C$12:$BE$12)</f>
         <v>5.0273560461728382</v>
       </c>
       <c r="L104" s="82"/>
@@ -67819,23 +68299,23 @@
       <c r="N104"/>
       <c r="O104"/>
       <c r="P104"/>
-      <c r="Q104" t="str">
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="V104" s="35"/>
-      <c r="W104" s="35"/>
-      <c r="X104" s="35"/>
-      <c r="Y104" s="35"/>
-      <c r="Z104" s="35"/>
       <c r="AA104" s="35"/>
       <c r="AB104" s="35"/>
       <c r="AC104" s="35"/>
-      <c r="AD104" s="160"/>
-      <c r="AE104" s="160"/>
-      <c r="AF104" s="160"/>
-      <c r="AG104" s="160"/>
-      <c r="AH104" s="160"/>
+      <c r="AD104" s="35"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="35"/>
+      <c r="AH104" s="35"/>
       <c r="AI104" s="160"/>
       <c r="AJ104" s="160"/>
       <c r="AK104" s="160"/>
@@ -67851,9 +68331,14 @@
       <c r="AU104" s="160"/>
       <c r="AV104" s="160"/>
       <c r="AW104" s="160"/>
-      <c r="AY104" s="157"/>
-    </row>
-    <row r="105" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AX104" s="160"/>
+      <c r="AY104" s="160"/>
+      <c r="AZ104" s="160"/>
+      <c r="BA104" s="160"/>
+      <c r="BB104" s="160"/>
+      <c r="BD104" s="157"/>
+    </row>
+    <row r="105" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A105" s="163"/>
       <c r="B105" s="157"/>
       <c r="E105" s="164"/>
@@ -67899,9 +68384,14 @@
       <c r="AS105" s="160"/>
       <c r="AT105" s="160"/>
       <c r="AU105" s="160"/>
-      <c r="AW105" s="157"/>
-    </row>
-    <row r="106" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AV105" s="160"/>
+      <c r="AW105" s="160"/>
+      <c r="AX105" s="160"/>
+      <c r="AY105" s="160"/>
+      <c r="AZ105" s="160"/>
+      <c r="BB105" s="157"/>
+    </row>
+    <row r="106" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A106" s="163"/>
       <c r="B106" s="157"/>
       <c r="E106" s="164"/>
@@ -67946,9 +68436,14 @@
       <c r="AR106" s="160"/>
       <c r="AS106" s="160"/>
       <c r="AT106" s="160"/>
-      <c r="AV106" s="157"/>
-    </row>
-    <row r="107" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AU106" s="160"/>
+      <c r="AV106" s="160"/>
+      <c r="AW106" s="160"/>
+      <c r="AX106" s="160"/>
+      <c r="AY106" s="160"/>
+      <c r="BA106" s="157"/>
+    </row>
+    <row r="107" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A107" s="163"/>
       <c r="B107" s="157"/>
       <c r="E107" s="164"/>
@@ -67993,8 +68488,13 @@
       <c r="AR107" s="160"/>
       <c r="AS107" s="160"/>
       <c r="AT107" s="160"/>
-    </row>
-    <row r="108" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AU107" s="160"/>
+      <c r="AV107" s="160"/>
+      <c r="AW107" s="160"/>
+      <c r="AX107" s="160"/>
+      <c r="AY107" s="160"/>
+    </row>
+    <row r="108" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A108" s="163"/>
       <c r="B108" s="157"/>
       <c r="E108" s="164"/>
@@ -68039,9 +68539,14 @@
       <c r="AR108" s="160"/>
       <c r="AS108" s="160"/>
       <c r="AT108" s="160"/>
-      <c r="AV108" s="157"/>
-    </row>
-    <row r="109" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="AU108" s="160"/>
+      <c r="AV108" s="160"/>
+      <c r="AW108" s="160"/>
+      <c r="AX108" s="160"/>
+      <c r="AY108" s="160"/>
+      <c r="BA108" s="157"/>
+    </row>
+    <row r="109" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A109" s="163"/>
       <c r="B109" s="157"/>
       <c r="E109" s="164"/>
@@ -68084,6 +68589,11 @@
       <c r="AP109" s="160"/>
       <c r="AQ109" s="160"/>
       <c r="AR109" s="160"/>
+      <c r="AS109" s="160"/>
+      <c r="AT109" s="160"/>
+      <c r="AU109" s="160"/>
+      <c r="AV109" s="160"/>
+      <c r="AW109" s="160"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H149" s="168" t="s">
@@ -68093,15 +68603,15 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="AR56:AX56"/>
-    <mergeCell ref="AS57:AX57"/>
+    <mergeCell ref="AW56:BC56"/>
+    <mergeCell ref="AX57:BC57"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{9343D23E-47C4-4F9D-81EE-6AC025431A59}">
       <formula1>$M$15:$M$24</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D36" xr:uid="{A725FED7-1EB6-40C4-B182-FF7DCE6262A9}">
-      <formula1>$O$36:$U$36</formula1>
+      <formula1>$O$36:$Z$36</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E5C72-57F1-4C8B-9F1A-7C8EBC9814DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E255922-BBF7-4710-9F86-FF9047F61E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="345" windowWidth="23460" windowHeight="14985" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7411,6 +7411,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="68" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7418,6 +7429,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7459,57 +7521,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7525,17 +7536,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="5" borderId="68" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Accent2" xfId="10" builtinId="33"/>
@@ -24999,25 +24999,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="416" t="s">
+      <c r="AC6" s="438" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="416"/>
+      <c r="AD6" s="438"/>
+      <c r="AE6" s="438"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="417" t="s">
+      <c r="A7" s="439" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="419" t="s">
+      <c r="B7" s="441" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="421" t="s">
+      <c r="C7" s="443" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="422"/>
-      <c r="E7" s="423"/>
-      <c r="F7" s="426" t="s">
+      <c r="D7" s="444"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="448" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25045,12 +25045,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="418"/>
-      <c r="B8" s="420"/>
-      <c r="C8" s="424"/>
-      <c r="D8" s="425"/>
-      <c r="E8" s="425"/>
-      <c r="F8" s="427"/>
+      <c r="A8" s="440"/>
+      <c r="B8" s="442"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
+      <c r="F8" s="449"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25916,11 +25916,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="415" t="s">
+      <c r="AC25" s="437" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="415"/>
-      <c r="AE25" s="415"/>
+      <c r="AD25" s="437"/>
+      <c r="AE25" s="437"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25999,8 +25999,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="435"/>
-      <c r="I31" s="435"/>
+      <c r="H31" s="433"/>
+      <c r="I31" s="433"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -26021,10 +26021,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="428" t="s">
+      <c r="L32" s="425" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="436" t="s">
+      <c r="M32" s="434" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26039,22 +26039,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="428" t="s">
+      <c r="R32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="428" t="s">
+      <c r="S32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="428" t="s">
+      <c r="T32" s="425" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="428" t="s">
+      <c r="U32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="428" t="s">
+      <c r="V32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="428" t="s">
+      <c r="W32" s="425" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26077,28 +26077,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="431" t="s">
+      <c r="H33" s="432" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="431"/>
+      <c r="I33" s="432"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="429"/>
-      <c r="M33" s="437"/>
+      <c r="L33" s="426"/>
+      <c r="M33" s="435"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="429"/>
-      <c r="S33" s="429"/>
-      <c r="T33" s="429"/>
-      <c r="U33" s="429"/>
-      <c r="V33" s="429"/>
-      <c r="W33" s="429"/>
+      <c r="R33" s="426"/>
+      <c r="S33" s="426"/>
+      <c r="T33" s="426"/>
+      <c r="U33" s="426"/>
+      <c r="V33" s="426"/>
+      <c r="W33" s="426"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26118,8 +26118,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="430"/>
-      <c r="M34" s="438"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="436"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26132,12 +26132,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="430"/>
-      <c r="S34" s="430"/>
-      <c r="T34" s="430"/>
-      <c r="U34" s="430"/>
-      <c r="V34" s="430"/>
-      <c r="W34" s="430"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26203,7 +26203,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="432" t="str">
+      <c r="L36" s="428" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26283,7 +26283,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="433"/>
+      <c r="L37" s="429"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26354,7 +26354,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="433"/>
+      <c r="L38" s="429"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="433"/>
+      <c r="L39" s="429"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26500,7 +26500,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="433"/>
+      <c r="L40" s="429"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26574,7 +26574,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="434"/>
+      <c r="L41" s="430"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26648,7 +26648,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="432" t="s">
+      <c r="L42" s="428" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26721,7 +26721,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="433"/>
+      <c r="L43" s="429"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26797,7 +26797,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="433"/>
+      <c r="L44" s="429"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26869,7 +26869,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="434"/>
+      <c r="L45" s="430"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="432" t="str">
+      <c r="L46" s="428" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -27014,7 +27014,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="433"/>
+      <c r="L47" s="429"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27085,7 +27085,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="434"/>
+      <c r="L48" s="430"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27454,10 +27454,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="444" t="s">
+      <c r="D79" s="431" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="444"/>
+      <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27559,13 +27559,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="439" t="s">
+      <c r="A103" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="441" t="s">
+      <c r="C103" s="422" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27576,11 +27576,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="440"/>
+      <c r="A104" s="421"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="442"/>
+      <c r="C104" s="423"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27593,13 +27593,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="439" t="s">
+      <c r="A105" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="442"/>
+      <c r="C105" s="423"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27608,11 +27608,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="440"/>
+      <c r="A106" s="421"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="443"/>
+      <c r="C106" s="424"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27621,13 +27621,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="439" t="s">
+      <c r="A107" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="441" t="s">
+      <c r="C107" s="422" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27638,11 +27638,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="440"/>
+      <c r="A108" s="421"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="442"/>
+      <c r="C108" s="423"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27651,13 +27651,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="439" t="s">
+      <c r="A109" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="442"/>
+      <c r="C109" s="423"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27666,11 +27666,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="440"/>
+      <c r="A110" s="421"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="443"/>
+      <c r="C110" s="424"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29133,6 +29133,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29143,22 +29159,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49985,18 +49985,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="431" t="s">
+      <c r="DL94" s="432" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="431"/>
-      <c r="DN94" s="431" t="s">
+      <c r="DM94" s="432"/>
+      <c r="DN94" s="432" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="431"/>
-      <c r="DP94" s="431" t="s">
+      <c r="DO94" s="432"/>
+      <c r="DP94" s="432" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="431"/>
+      <c r="DQ94" s="432"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -53285,10 +53285,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
-      <c r="D32" s="445" t="s">
+      <c r="D32" s="450" t="s">
         <v>743</v>
       </c>
-      <c r="E32" s="445"/>
+      <c r="E32" s="450"/>
       <c r="F32" s="363">
         <f>AVERAGE(F25:F31)</f>
         <v>286.69885714285715</v>
@@ -54392,7 +54392,7 @@
       </c>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
-      <c r="S73" s="446">
+      <c r="S73" s="451">
         <v>1.59</v>
       </c>
       <c r="T73" s="374">
@@ -54430,7 +54430,7 @@
       </c>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
-      <c r="S74" s="447"/>
+      <c r="S74" s="452"/>
       <c r="T74" s="1">
         <v>11.1</v>
       </c>
@@ -54601,7 +54601,7 @@
       </c>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
-      <c r="S79" s="448">
+      <c r="S79" s="453">
         <f>S73*Z73</f>
         <v>1.955477980665951</v>
       </c>
@@ -54645,7 +54645,7 @@
       </c>
       <c r="Q80" s="8"/>
       <c r="R80" s="8"/>
-      <c r="S80" s="449"/>
+      <c r="S80" s="454"/>
       <c r="T80" s="374">
         <f>T74*$Z$73</f>
         <v>13.651450053705695</v>
@@ -54765,7 +54765,7 @@
       </c>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
-      <c r="S85" s="448">
+      <c r="S85" s="453">
         <f>S79*Y75</f>
         <v>22.096901181525247</v>
       </c>
@@ -54798,7 +54798,7 @@
       </c>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
-      <c r="S86" s="449"/>
+      <c r="S86" s="454"/>
       <c r="T86" s="374">
         <f>T80*$Y$75</f>
         <v>154.26138560687437</v>
@@ -55457,7 +55457,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45209.719746643517</v>
+        <v>45211.606016666665</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56281,7 +56281,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45209.719746643517</v>
+        <v>45211.606016666665</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60418,11 +60418,11 @@
   <dimension ref="A1:BF149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <pane xSplit="5" ySplit="10" topLeftCell="J84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="10" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
       <selection pane="topRight" activeCell="F49" sqref="F49"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="J97" sqref="J97"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60463,11 +60463,11 @@
       <c r="A3" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="412" t="s">
+      <c r="B3" s="417" t="s">
         <v>231</v>
       </c>
-      <c r="C3" s="412"/>
-      <c r="D3" s="412"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
       <c r="E3" s="37" t="s">
         <v>232</v>
       </c>
@@ -61577,11 +61577,11 @@
       </c>
       <c r="N13" s="48"/>
       <c r="O13" s="48"/>
-      <c r="P13" s="450"/>
-      <c r="Q13" s="450"/>
-      <c r="R13" s="450"/>
-      <c r="S13" s="450"/>
-      <c r="T13" s="450"/>
+      <c r="P13" s="412"/>
+      <c r="Q13" s="412"/>
+      <c r="R13" s="412"/>
+      <c r="S13" s="412"/>
+      <c r="T13" s="412"/>
       <c r="U13" s="49"/>
       <c r="V13" s="405"/>
       <c r="W13" s="47"/>
@@ -62366,11 +62366,11 @@
       </c>
       <c r="N28"/>
       <c r="O28" s="84"/>
-      <c r="P28" s="451"/>
-      <c r="Q28" s="451"/>
-      <c r="R28" s="451"/>
-      <c r="S28" s="451"/>
-      <c r="T28" s="451"/>
+      <c r="P28" s="413"/>
+      <c r="Q28" s="413"/>
+      <c r="R28" s="413"/>
+      <c r="S28" s="413"/>
+      <c r="T28" s="413"/>
       <c r="U28" s="85" t="s">
         <v>256</v>
       </c>
@@ -62450,11 +62450,11 @@
       <c r="O29" s="90" t="s">
         <v>252</v>
       </c>
-      <c r="P29" s="452"/>
-      <c r="Q29" s="452"/>
-      <c r="R29" s="452"/>
-      <c r="S29" s="452"/>
-      <c r="T29" s="452"/>
+      <c r="P29" s="414"/>
+      <c r="Q29" s="414"/>
+      <c r="R29" s="414"/>
+      <c r="S29" s="414"/>
+      <c r="T29" s="414"/>
       <c r="U29" s="91" t="s">
         <v>260</v>
       </c>
@@ -62558,11 +62558,11 @@
       <c r="O30" s="90" t="s">
         <v>266</v>
       </c>
-      <c r="P30" s="452"/>
-      <c r="Q30" s="452"/>
-      <c r="R30" s="452"/>
-      <c r="S30" s="452"/>
-      <c r="T30" s="452"/>
+      <c r="P30" s="414"/>
+      <c r="Q30" s="414"/>
+      <c r="R30" s="414"/>
+      <c r="S30" s="414"/>
+      <c r="T30" s="414"/>
       <c r="U30" s="93" t="s">
         <v>267</v>
       </c>
@@ -62666,11 +62666,11 @@
       <c r="O31" s="90" t="s">
         <v>273</v>
       </c>
-      <c r="P31" s="452"/>
-      <c r="Q31" s="452"/>
-      <c r="R31" s="452"/>
-      <c r="S31" s="452"/>
-      <c r="T31" s="452"/>
+      <c r="P31" s="414"/>
+      <c r="Q31" s="414"/>
+      <c r="R31" s="414"/>
+      <c r="S31" s="414"/>
+      <c r="T31" s="414"/>
       <c r="U31" s="93" t="s">
         <v>274</v>
       </c>
@@ -62774,11 +62774,11 @@
       <c r="O32" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="P32" s="452"/>
-      <c r="Q32" s="452"/>
-      <c r="R32" s="452"/>
-      <c r="S32" s="452"/>
-      <c r="T32" s="452"/>
+      <c r="P32" s="414"/>
+      <c r="Q32" s="414"/>
+      <c r="R32" s="414"/>
+      <c r="S32" s="414"/>
+      <c r="T32" s="414"/>
       <c r="U32" s="93" t="s">
         <v>278</v>
       </c>
@@ -62882,11 +62882,11 @@
       <c r="O33" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="P33" s="452"/>
-      <c r="Q33" s="452"/>
-      <c r="R33" s="452"/>
-      <c r="S33" s="452"/>
-      <c r="T33" s="452"/>
+      <c r="P33" s="414"/>
+      <c r="Q33" s="414"/>
+      <c r="R33" s="414"/>
+      <c r="S33" s="414"/>
+      <c r="T33" s="414"/>
       <c r="U33" s="93" t="s">
         <v>284</v>
       </c>
@@ -63175,15 +63175,15 @@
         <v>117.73934470134871</v>
       </c>
       <c r="G37" s="45">
-        <f>IF($J37,($E37*G$16+$AA37)*G$15/1.055,F37)</f>
+        <f t="shared" ref="G37:I42" si="10">IF($J37,($E37*G$16+$AA37)*G$15/1.055,F37)</f>
         <v>121.47218561739591</v>
       </c>
       <c r="H37" s="45">
-        <f>IF($J37,($E37*H$16+$AA37)*H$15/1.055,G37)</f>
+        <f t="shared" si="10"/>
         <v>111.49620902079818</v>
       </c>
       <c r="I37" s="45">
-        <f>IF($J37,($E37*I$16+$AA37)*I$15/1.055,H37)</f>
+        <f t="shared" si="10"/>
         <v>142.01096096333239</v>
       </c>
       <c r="J37" s="109">
@@ -63192,11 +63192,11 @@
       <c r="O37" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P37" s="453"/>
-      <c r="Q37" s="453"/>
-      <c r="R37" s="453"/>
-      <c r="S37" s="453"/>
-      <c r="T37" s="453"/>
+      <c r="P37" s="415"/>
+      <c r="Q37" s="415"/>
+      <c r="R37" s="415"/>
+      <c r="S37" s="415"/>
+      <c r="T37" s="415"/>
       <c r="U37" s="89">
         <f>(O37+V37)/2</f>
         <v>9.5000000000000001E-2</v>
@@ -63205,15 +63205,15 @@
         <v>0.12</v>
       </c>
       <c r="W37" s="112">
-        <f t="shared" ref="W37:Y40" si="10">$Z37</f>
+        <f t="shared" ref="W37:Y40" si="11">$Z37</f>
         <v>0.10454194041570421</v>
       </c>
       <c r="X37" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10454194041570421</v>
       </c>
       <c r="Y37" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10454194041570421</v>
       </c>
       <c r="Z37" s="89">
@@ -63286,15 +63286,15 @@
         <v>106.47694185774681</v>
       </c>
       <c r="G38" s="45">
-        <f>IF($J38,($E38*G$16+$AA38)*G$15/1.055,F38)</f>
+        <f t="shared" si="10"/>
         <v>106.47694185774681</v>
       </c>
       <c r="H38" s="45">
-        <f>IF($J38,($E38*H$16+$AA38)*H$15/1.055,G38)</f>
+        <f t="shared" si="10"/>
         <v>106.47694185774681</v>
       </c>
       <c r="I38" s="45">
-        <f>IF($J38,($E38*I$16+$AA38)*I$15/1.055,H38)</f>
+        <f t="shared" si="10"/>
         <v>106.47694185774681</v>
       </c>
       <c r="J38" s="109">
@@ -63303,11 +63303,11 @@
       <c r="O38" s="110">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P38" s="453"/>
-      <c r="Q38" s="453"/>
-      <c r="R38" s="453"/>
-      <c r="S38" s="453"/>
-      <c r="T38" s="453"/>
+      <c r="P38" s="415"/>
+      <c r="Q38" s="415"/>
+      <c r="R38" s="415"/>
+      <c r="S38" s="415"/>
+      <c r="T38" s="415"/>
       <c r="U38" s="89">
         <f>(O38+V38)/2</f>
         <v>8.5000000000000006E-2</v>
@@ -63316,15 +63316,15 @@
         <v>0.1</v>
       </c>
       <c r="W38" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.4541940415704198E-2</v>
       </c>
       <c r="X38" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.4541940415704198E-2</v>
       </c>
       <c r="Y38" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.4541940415704198E-2</v>
       </c>
       <c r="Z38" s="89">
@@ -63399,15 +63399,15 @@
         <v>113.39810629656337</v>
       </c>
       <c r="G39" s="45">
-        <f>IF($J39,($E39*G$16+$AA39)*G$15/1.055,F39)</f>
+        <f t="shared" si="10"/>
         <v>113.39810629656337</v>
       </c>
       <c r="H39" s="45">
-        <f>IF($J39,($E39*H$16+$AA39)*H$15/1.055,G39)</f>
+        <f t="shared" si="10"/>
         <v>113.39810629656337</v>
       </c>
       <c r="I39" s="45">
-        <f>IF($J39,($E39*I$16+$AA39)*I$15/1.055,H39)</f>
+        <f t="shared" si="10"/>
         <v>113.39810629656337</v>
       </c>
       <c r="J39" s="109">
@@ -63416,11 +63416,11 @@
       <c r="O39" s="110">
         <v>0.06</v>
       </c>
-      <c r="P39" s="453"/>
-      <c r="Q39" s="453"/>
-      <c r="R39" s="453"/>
-      <c r="S39" s="453"/>
-      <c r="T39" s="453"/>
+      <c r="P39" s="415"/>
+      <c r="Q39" s="415"/>
+      <c r="R39" s="415"/>
+      <c r="S39" s="415"/>
+      <c r="T39" s="415"/>
       <c r="U39" s="89">
         <f>(O39+V39)/2</f>
         <v>0.08</v>
@@ -63429,15 +63429,15 @@
         <v>0.1</v>
       </c>
       <c r="W39" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10068731146567374</v>
       </c>
       <c r="X39" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10068731146567374</v>
       </c>
       <c r="Y39" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10068731146567374</v>
       </c>
       <c r="Z39" s="114">
@@ -63512,15 +63512,15 @@
         <v>117.73934470134871</v>
       </c>
       <c r="G40" s="45">
-        <f>IF($J40,($E40*G$16+$AA40)*G$15/1.055,F40)</f>
+        <f t="shared" si="10"/>
         <v>117.73934470134871</v>
       </c>
       <c r="H40" s="45">
-        <f>IF($J40,($E40*H$16+$AA40)*H$15/1.055,G40)</f>
+        <f t="shared" si="10"/>
         <v>117.73934470134871</v>
       </c>
       <c r="I40" s="45">
-        <f>IF($J40,($E40*I$16+$AA40)*I$15/1.055,H40)</f>
+        <f t="shared" si="10"/>
         <v>117.73934470134871</v>
       </c>
       <c r="J40" s="109">
@@ -63529,11 +63529,11 @@
       <c r="O40" s="110">
         <v>0.03</v>
       </c>
-      <c r="P40" s="453"/>
-      <c r="Q40" s="453"/>
-      <c r="R40" s="453"/>
-      <c r="S40" s="453"/>
-      <c r="T40" s="453"/>
+      <c r="P40" s="415"/>
+      <c r="Q40" s="415"/>
+      <c r="R40" s="415"/>
+      <c r="S40" s="415"/>
+      <c r="T40" s="415"/>
       <c r="U40" s="89">
         <f>(O40+V40)/2</f>
         <v>5.5E-2</v>
@@ -63542,15 +63542,15 @@
         <v>0.08</v>
       </c>
       <c r="W40" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10454194041570421</v>
       </c>
       <c r="X40" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10454194041570421</v>
       </c>
       <c r="Y40" s="112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10454194041570421</v>
       </c>
       <c r="Z40" s="89">
@@ -63581,15 +63581,15 @@
         <v>143.92309452816528</v>
       </c>
       <c r="G41" s="45">
-        <f>IF($J41,($E41*G$16+$AA41)*G$15/1.055,F41)</f>
+        <f t="shared" si="10"/>
         <v>148.28833379773559</v>
       </c>
       <c r="H41" s="45">
-        <f>IF($J41,($E41*H$16+$AA41)*H$15/1.055,G41)</f>
+        <f t="shared" si="10"/>
         <v>136.62227950525954</v>
       </c>
       <c r="I41" s="45">
-        <f>IF($J41,($E41*I$16+$AA41)*I$15/1.055,H41)</f>
+        <f t="shared" si="10"/>
         <v>172.30668087048045</v>
       </c>
       <c r="J41" s="109">
@@ -63598,11 +63598,11 @@
       <c r="O41" s="110">
         <v>0.1</v>
       </c>
-      <c r="P41" s="453"/>
-      <c r="Q41" s="453"/>
-      <c r="R41" s="453"/>
-      <c r="S41" s="453"/>
-      <c r="T41" s="453"/>
+      <c r="P41" s="415"/>
+      <c r="Q41" s="415"/>
+      <c r="R41" s="415"/>
+      <c r="S41" s="415"/>
+      <c r="T41" s="415"/>
       <c r="U41" s="116"/>
       <c r="V41" s="113">
         <v>0.16</v>
@@ -63649,15 +63649,15 @@
         <v>150.16006135280986</v>
       </c>
       <c r="G42" s="45">
-        <f>IF($J42,($E42*G$16+$AA42)*G$15/1.055,F42)</f>
+        <f t="shared" si="10"/>
         <v>154.52530062238017</v>
       </c>
       <c r="H42" s="45">
-        <f>IF($J42,($E42*H$16+$AA42)*H$15/1.055,G42)</f>
+        <f t="shared" si="10"/>
         <v>142.85924632990407</v>
       </c>
       <c r="I42" s="45">
-        <f>IF($J42,($E42*I$16+$AA42)*I$15/1.055,H42)</f>
+        <f t="shared" si="10"/>
         <v>178.543647695125</v>
       </c>
       <c r="J42" s="109">
@@ -63667,11 +63667,11 @@
         <f>O41</f>
         <v>0.1</v>
       </c>
-      <c r="P42" s="454"/>
-      <c r="Q42" s="454"/>
-      <c r="R42" s="454"/>
-      <c r="S42" s="454"/>
-      <c r="T42" s="454"/>
+      <c r="P42" s="416"/>
+      <c r="Q42" s="416"/>
+      <c r="R42" s="416"/>
+      <c r="S42" s="416"/>
+      <c r="T42" s="416"/>
       <c r="U42" s="120"/>
       <c r="V42" s="121">
         <v>0.16</v>
@@ -63745,31 +63745,31 @@
         <v>2010</v>
       </c>
       <c r="AP43" s="28">
-        <f t="shared" ref="AP43:AV43" si="11">AH43</f>
+        <f t="shared" ref="AP43:AV43" si="12">AH43</f>
         <v>2020</v>
       </c>
       <c r="AQ43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2025</v>
       </c>
       <c r="AR43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2030</v>
       </c>
       <c r="AS43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2035</v>
       </c>
       <c r="AT43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2040</v>
       </c>
       <c r="AU43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2045</v>
       </c>
       <c r="AV43" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2050</v>
       </c>
     </row>
@@ -64305,35 +64305,35 @@
         <v>6DS</v>
       </c>
       <c r="AG54">
-        <f t="shared" ref="AG54:AN55" si="12">AG50*$AC$51+AG52*$AC$53</f>
+        <f t="shared" ref="AG54:AN55" si="13">AG50*$AC$51+AG52*$AC$53</f>
         <v>9</v>
       </c>
       <c r="AH54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12.5</v>
       </c>
       <c r="AI54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AJ54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AK54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AL54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AM54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AN54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AO54" s="89">
@@ -64341,31 +64341,31 @@
         <v>0.11538461538461539</v>
       </c>
       <c r="AP54" s="89">
-        <f t="shared" ref="AP54:AV55" si="13">AH54/AH44</f>
+        <f t="shared" ref="AP54:AV55" si="14">AH54/AH44</f>
         <v>0.1059322033898305</v>
       </c>
       <c r="AQ54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10236220472440945</v>
       </c>
       <c r="AR54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1044776119402985</v>
       </c>
       <c r="AS54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="AT54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.7902097902097904E-2</v>
       </c>
       <c r="AU54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10273972602739725</v>
       </c>
       <c r="AV54" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10067114093959731</v>
       </c>
     </row>
@@ -64411,35 +64411,35 @@
         <v>2DS</v>
       </c>
       <c r="AG55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AH55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AI55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AJ55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AK55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.5</v>
       </c>
       <c r="AL55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.5</v>
       </c>
       <c r="AM55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AN55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.5</v>
       </c>
       <c r="AO55" s="89">
@@ -64447,31 +64447,31 @@
         <v>0.11538461538461539</v>
       </c>
       <c r="AP55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1134020618556701</v>
       </c>
       <c r="AQ55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1134020618556701</v>
       </c>
       <c r="AR55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1134020618556701</v>
       </c>
       <c r="AS55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10824742268041238</v>
       </c>
       <c r="AT55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11413043478260869</v>
       </c>
       <c r="AU55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11235955056179775</v>
       </c>
       <c r="AV55" s="89">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.10919540229885058</v>
       </c>
       <c r="AW55" s="30"/>
@@ -64494,19 +64494,19 @@
         <v>COST~0</v>
       </c>
       <c r="F56" s="386" t="str">
-        <f t="shared" ref="F56:I56" si="14">"COST"&amp;$E$52&amp;F57</f>
+        <f t="shared" ref="F56:I56" si="15">"COST"&amp;$E$52&amp;F57</f>
         <v>COST~2017</v>
       </c>
       <c r="G56" s="386" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>COST~2021</v>
       </c>
       <c r="H56" s="386" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>COST~2030</v>
       </c>
       <c r="I56" s="386" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>COST~2050</v>
       </c>
       <c r="J56" s="386" t="str">
@@ -64514,23 +64514,23 @@
         <v>BNDACT~UP~0</v>
       </c>
       <c r="K56" s="386" t="str">
-        <f t="shared" ref="K56:O56" si="15">"BNDACT~UP"&amp;$E$52&amp;K57</f>
+        <f t="shared" ref="K56:O56" si="16">"BNDACT~UP"&amp;$E$52&amp;K57</f>
         <v>BNDACT~UP~2017</v>
       </c>
       <c r="L56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>BNDACT~UP~2019</v>
       </c>
       <c r="M56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>BNDACT~UP~2021</v>
       </c>
       <c r="N56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>BNDACT~UP~2030</v>
       </c>
       <c r="O56" s="386" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>BNDACT~UP~2050</v>
       </c>
       <c r="P56" s="386" t="str">
@@ -64538,19 +64538,19 @@
         <v>BNDACT~FX~0</v>
       </c>
       <c r="Q56" s="386" t="str">
-        <f t="shared" ref="Q56:T56" si="16">"BNDACT~FX"&amp;$E$52&amp;Q57</f>
+        <f t="shared" ref="Q56:T56" si="17">"BNDACT~FX"&amp;$E$52&amp;Q57</f>
         <v>BNDACT~FX~2020</v>
       </c>
       <c r="R56" s="386" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>BNDACT~FX~2030</v>
       </c>
       <c r="S56" s="386" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>BNDACT~FX~2040</v>
       </c>
       <c r="T56" s="386" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>BNDACT~FX~2050</v>
       </c>
       <c r="U56" s="386" t="s">
@@ -64578,77 +64578,77 @@
         <v>341</v>
       </c>
       <c r="AE56" s="145">
-        <f t="shared" ref="AE56:AL56" si="17">AVERAGE(AG54:AG55)</f>
+        <f t="shared" ref="AE56:AL56" si="18">AVERAGE(AG54:AG55)</f>
         <v>9</v>
       </c>
       <c r="AF56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.75</v>
       </c>
       <c r="AG56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AH56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.5</v>
       </c>
       <c r="AI56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.25</v>
       </c>
       <c r="AJ56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.25</v>
       </c>
       <c r="AK56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.5</v>
       </c>
       <c r="AL56" s="145">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>12.25</v>
       </c>
       <c r="AM56" s="146">
-        <f t="shared" ref="AM56:AT56" si="18">AE56/AVERAGE(AG44:AG45)</f>
+        <f t="shared" ref="AM56:AT56" si="19">AE56/AVERAGE(AG44:AG45)</f>
         <v>0.11538461538461539</v>
       </c>
       <c r="AN56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10930232558139535</v>
       </c>
       <c r="AO56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="AP56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10822510822510822</v>
       </c>
       <c r="AQ56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10337552742616034</v>
       </c>
       <c r="AR56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10425531914893617</v>
       </c>
       <c r="AS56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10638297872340426</v>
       </c>
       <c r="AT56" s="146">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.1038135593220339</v>
       </c>
       <c r="AU56" s="145"/>
-      <c r="AW56" s="413"/>
-      <c r="AX56" s="413"/>
-      <c r="AY56" s="413"/>
-      <c r="AZ56" s="413"/>
-      <c r="BA56" s="413"/>
-      <c r="BB56" s="413"/>
-      <c r="BC56" s="413"/>
+      <c r="AW56" s="418"/>
+      <c r="AX56" s="418"/>
+      <c r="AY56" s="418"/>
+      <c r="AZ56" s="418"/>
+      <c r="BA56" s="418"/>
+      <c r="BB56" s="418"/>
+      <c r="BC56" s="418"/>
     </row>
     <row r="57" spans="1:58" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="147" t="s">
@@ -64740,12 +64740,12 @@
       <c r="AS57" s="149"/>
       <c r="AT57" s="149"/>
       <c r="AU57" s="149"/>
-      <c r="AX57" s="414"/>
-      <c r="AY57" s="413"/>
-      <c r="AZ57" s="413"/>
-      <c r="BA57" s="413"/>
-      <c r="BB57" s="413"/>
-      <c r="BC57" s="413"/>
+      <c r="AX57" s="419"/>
+      <c r="AY57" s="418"/>
+      <c r="AZ57" s="418"/>
+      <c r="BA57" s="418"/>
+      <c r="BB57" s="418"/>
+      <c r="BC57" s="418"/>
       <c r="BE57" s="42"/>
       <c r="BF57" s="42"/>
     </row>
@@ -64859,7 +64859,7 @@
     </row>
     <row r="60" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="158" t="str">
-        <f t="shared" ref="A60:A65" si="19">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D60,FuelNamesShort,0))</f>
+        <f t="shared" ref="A60:A65" si="20">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D60,FuelNamesShort,0))</f>
         <v>Extraction of Coal</v>
       </c>
       <c r="B60" s="30" t="str">
@@ -64942,11 +64942,11 @@
     </row>
     <row r="61" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Extraction of Coal low grade</v>
       </c>
       <c r="B61" s="30" t="str">
-        <f t="shared" ref="B61:B67" si="20">$B$46&amp;D61</f>
+        <f t="shared" ref="B61:B67" si="21">$B$46&amp;D61</f>
         <v>MINCLE</v>
       </c>
       <c r="D61" s="159" t="str">
@@ -65022,11 +65022,11 @@
     </row>
     <row r="62" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Extraction of Coal Discard</v>
       </c>
       <c r="B62" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>MINCLD</v>
       </c>
       <c r="D62" s="159" t="str">
@@ -65041,15 +65041,15 @@
         <v>14.13</v>
       </c>
       <c r="G62" s="82">
-        <f t="shared" ref="G62:I62" si="21">G61/2</f>
+        <f t="shared" ref="G62:I62" si="22">G61/2</f>
         <v>14.13</v>
       </c>
       <c r="H62" s="82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14.13</v>
       </c>
       <c r="I62" s="82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>14.13</v>
       </c>
       <c r="J62" s="82"/>
@@ -65093,11 +65093,11 @@
     </row>
     <row r="63" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Extraction of Oil Crude</v>
       </c>
       <c r="B63" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>MINOCR</v>
       </c>
       <c r="D63" s="159" t="str">
@@ -65138,7 +65138,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" ref="O63" si="22">N63</f>
+        <f t="shared" ref="O63" si="23">N63</f>
         <v>0</v>
       </c>
       <c r="P63"/>
@@ -65176,11 +65176,11 @@
     </row>
     <row r="64" spans="1:58" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Extraction of Coastal Gas</v>
       </c>
       <c r="B64" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>MINGIC</v>
       </c>
       <c r="D64" s="159" t="str">
@@ -65258,11 +65258,11 @@
     </row>
     <row r="65" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="158" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Extraction of Gas Indigenous Ibhubezi</v>
       </c>
       <c r="B65" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>MINGIB</v>
       </c>
       <c r="D65" s="159" t="str">
@@ -65273,19 +65273,19 @@
         <v>0</v>
       </c>
       <c r="F65" s="82">
-        <f t="shared" ref="F65:I66" si="23">SUMIF($D$37:$D$42,$D65,F$37:F$42)*$E$54</f>
+        <f t="shared" ref="F65:I66" si="24">SUMIF($D$37:$D$42,$D65,F$37:F$42)*$E$54</f>
         <v>117.73934470134871</v>
       </c>
       <c r="G65" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>121.47218561739591</v>
       </c>
       <c r="H65" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>111.49620902079818</v>
       </c>
       <c r="I65" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>142.01096096333239</v>
       </c>
       <c r="J65" s="82">
@@ -65350,19 +65350,19 @@
         <v>0</v>
       </c>
       <c r="F66" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>106.47694185774681</v>
       </c>
       <c r="G66" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>106.47694185774681</v>
       </c>
       <c r="H66" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>106.47694185774681</v>
       </c>
       <c r="I66" s="82">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>106.47694185774681</v>
       </c>
       <c r="J66" s="82">
@@ -65415,7 +65415,7 @@
         <v>Extraction of Gas Indigenous Shale</v>
       </c>
       <c r="B67" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>MINGIH</v>
       </c>
       <c r="D67" s="159" t="str">
@@ -65540,11 +65540,11 @@
     </row>
     <row r="69" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="158" t="str">
-        <f t="shared" ref="A69:A76" si="24">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D69,FuelNamesShort,0))</f>
+        <f t="shared" ref="A69:A76" si="25">"Extraction of "&amp;INDEX(FuelNamesLong,MATCH(D69,FuelNamesShort,0))</f>
         <v>Extraction of Biogas</v>
       </c>
       <c r="B69" s="30" t="str">
-        <f t="shared" ref="B69:B75" si="25">$B$46&amp;D69</f>
+        <f t="shared" ref="B69:B75" si="26">$B$46&amp;D69</f>
         <v>MINBIG</v>
       </c>
       <c r="D69" s="159" t="str">
@@ -65559,15 +65559,15 @@
         <v>59.346000000000004</v>
       </c>
       <c r="G69" s="82">
-        <f t="shared" ref="G69:I69" si="26">G71</f>
+        <f t="shared" ref="G69:I69" si="27">G71</f>
         <v>59.346000000000004</v>
       </c>
       <c r="H69" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>59.346000000000004</v>
       </c>
       <c r="I69" s="82">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>59.346000000000004</v>
       </c>
       <c r="J69" s="82"/>
@@ -65583,7 +65583,7 @@
       <c r="T69"/>
       <c r="U69"/>
       <c r="V69" t="str">
-        <f t="shared" ref="V69:V76" si="27">$V$60</f>
+        <f t="shared" ref="V69:V76" si="28">$V$60</f>
         <v/>
       </c>
       <c r="AA69" s="35"/>
@@ -65618,11 +65618,11 @@
     </row>
     <row r="70" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Biomass bagasse</v>
       </c>
       <c r="B70" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>MINBIB</v>
       </c>
       <c r="D70" s="159" t="str">
@@ -65661,7 +65661,7 @@
       <c r="T70"/>
       <c r="U70"/>
       <c r="V70" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA70" s="35"/>
@@ -65696,11 +65696,11 @@
     </row>
     <row r="71" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Biomass Other</v>
       </c>
       <c r="B71" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>MINBIO</v>
       </c>
       <c r="D71" s="159" t="str">
@@ -65711,19 +65711,19 @@
         <v>0</v>
       </c>
       <c r="F71" s="82">
-        <f t="shared" ref="F71:I71" si="28">F60*1.05</f>
+        <f t="shared" ref="F71:I71" si="29">F60*1.05</f>
         <v>59.346000000000004</v>
       </c>
       <c r="G71" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>59.346000000000004</v>
       </c>
       <c r="H71" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>59.346000000000004</v>
       </c>
       <c r="I71" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>59.346000000000004</v>
       </c>
       <c r="J71" s="82">
@@ -65735,8 +65735,8 @@
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71" s="82">
-        <f>K71*2</f>
-        <v>334</v>
+        <f>K71*1.5</f>
+        <v>250.5</v>
       </c>
       <c r="P71" s="82"/>
       <c r="Q71" s="82"/>
@@ -65745,7 +65745,7 @@
       <c r="T71" s="82"/>
       <c r="U71"/>
       <c r="V71" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA71" s="35"/>
@@ -65780,11 +65780,11 @@
     </row>
     <row r="72" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Biomass Wood</v>
       </c>
       <c r="B72" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>MINBIW</v>
       </c>
       <c r="D72" s="159" t="str">
@@ -65799,15 +65799,15 @@
         <v>56.52</v>
       </c>
       <c r="G72" s="82">
-        <f t="shared" ref="G72:I73" si="29">F72</f>
+        <f t="shared" ref="G72:I73" si="30">F72</f>
         <v>56.52</v>
       </c>
       <c r="H72" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>56.52</v>
       </c>
       <c r="I72" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>56.52</v>
       </c>
       <c r="J72" s="82">
@@ -65819,8 +65819,8 @@
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72" s="82">
-        <f>K72*2</f>
-        <v>354</v>
+        <f>K72*1.5</f>
+        <v>265.5</v>
       </c>
       <c r="P72" s="82"/>
       <c r="Q72" s="82"/>
@@ -65829,7 +65829,7 @@
       <c r="T72" s="82"/>
       <c r="U72"/>
       <c r="V72" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA72" s="35"/>
@@ -65864,7 +65864,7 @@
     </row>
     <row r="73" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Waste</v>
       </c>
       <c r="B73" s="30" t="str">
@@ -65882,15 +65882,15 @@
         <v>0</v>
       </c>
       <c r="G73" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H73" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I73" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J73" s="82">
@@ -65910,7 +65910,7 @@
       <c r="T73"/>
       <c r="U73"/>
       <c r="V73" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA73" s="35"/>
@@ -65945,7 +65945,7 @@
     </row>
     <row r="74" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Hydro</v>
       </c>
       <c r="B74" s="30" t="str">
@@ -65976,7 +65976,7 @@
       <c r="T74"/>
       <c r="U74"/>
       <c r="V74" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA74" s="35"/>
@@ -66011,11 +66011,11 @@
     </row>
     <row r="75" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Solar</v>
       </c>
       <c r="B75" s="30" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>MINSOL</v>
       </c>
       <c r="D75" s="159" t="str">
@@ -66042,7 +66042,7 @@
       <c r="T75"/>
       <c r="U75"/>
       <c r="V75" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA75" s="35"/>
@@ -66077,7 +66077,7 @@
     </row>
     <row r="76" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="158" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Extraction of Wind</v>
       </c>
       <c r="B76" s="30" t="str">
@@ -66108,7 +66108,7 @@
       <c r="T76"/>
       <c r="U76"/>
       <c r="V76" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="AA76" s="35"/>
@@ -66196,7 +66196,7 @@
     </row>
     <row r="78" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="158" t="str">
-        <f t="shared" ref="A78:A92" si="30">"Imports of "&amp;INDEX(FuelNamesLong,MATCH(D78,FuelNamesShort,0))</f>
+        <f t="shared" ref="A78:A92" si="31">"Imports of "&amp;INDEX(FuelNamesLong,MATCH(D78,FuelNamesShort,0))</f>
         <v>Imports of Coal Coking</v>
       </c>
       <c r="B78" s="30" t="str">
@@ -66211,7 +66211,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="82">
-        <f t="shared" ref="F78" si="31">F60*1.5</f>
+        <f t="shared" ref="F78" si="32">F60*1.5</f>
         <v>84.78</v>
       </c>
       <c r="G78" s="82">
@@ -66219,11 +66219,11 @@
         <v>84.78</v>
       </c>
       <c r="H78" s="82">
-        <f t="shared" ref="H78:I78" si="32">H60*1.5</f>
+        <f t="shared" ref="H78:I78" si="33">H60*1.5</f>
         <v>84.78</v>
       </c>
       <c r="I78" s="82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>84.78</v>
       </c>
       <c r="J78" s="82">
@@ -66241,7 +66241,7 @@
       <c r="T78"/>
       <c r="U78"/>
       <c r="V78" t="str">
-        <f t="shared" ref="V78:V92" si="33">$V$60</f>
+        <f t="shared" ref="V78:V92" si="34">$V$60</f>
         <v/>
       </c>
       <c r="AA78" s="35"/>
@@ -66289,15 +66289,15 @@
         <v>8.7491242874264614</v>
       </c>
       <c r="G79" s="82">
-        <f t="shared" ref="G79:I79" si="34">G80/G15</f>
+        <f t="shared" ref="G79:I79" si="35">G80/G15</f>
         <v>9.0144883767620421</v>
       </c>
       <c r="H79" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>8.3053057450005809</v>
       </c>
       <c r="I79" s="82">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>10.474570265682702</v>
       </c>
       <c r="J79" s="82"/>
@@ -66345,7 +66345,7 @@
     </row>
     <row r="80" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Gas Regional LNG</v>
       </c>
       <c r="B80" s="30" t="str">
@@ -66360,19 +66360,19 @@
         <v>0</v>
       </c>
       <c r="F80" s="82">
-        <f t="shared" ref="F80:I81" si="35">SUMIF($C$37:$C$42,$B80,F$37:F$42)*$E$54</f>
+        <f t="shared" ref="F80:I81" si="36">SUMIF($C$37:$C$42,$B80,F$37:F$42)*$E$54</f>
         <v>143.92309452816528</v>
       </c>
       <c r="G80" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>148.28833379773559</v>
       </c>
       <c r="H80" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>136.62227950525954</v>
       </c>
       <c r="I80" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>172.30668087048045</v>
       </c>
       <c r="J80" s="82"/>
@@ -66390,7 +66390,7 @@
         <v>2027</v>
       </c>
       <c r="V80" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA80" s="35"/>
@@ -66425,7 +66425,7 @@
     </row>
     <row r="81" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Gas International LNG</v>
       </c>
       <c r="B81" s="30" t="str">
@@ -66440,19 +66440,19 @@
         <v>0</v>
       </c>
       <c r="F81" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>150.16006135280986</v>
       </c>
       <c r="G81" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>154.52530062238017</v>
       </c>
       <c r="H81" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>142.85924632990407</v>
       </c>
       <c r="I81" s="82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>178.543647695125</v>
       </c>
       <c r="J81" s="82" t="s">
@@ -66480,7 +66480,7 @@
         <v>2027</v>
       </c>
       <c r="V81" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Z81" s="161"/>
@@ -66529,15 +66529,15 @@
         <v>9.1282712068577432</v>
       </c>
       <c r="G82" s="82">
-        <f t="shared" ref="G82:I82" si="36">G81/G15</f>
+        <f t="shared" ref="G82:I82" si="37">G81/G15</f>
         <v>9.3936352961933238</v>
       </c>
       <c r="H82" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>8.6844526644318591</v>
       </c>
       <c r="I82" s="82">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>10.853717185113982</v>
       </c>
       <c r="J82" s="82"/>
@@ -66586,11 +66586,11 @@
     </row>
     <row r="83" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Nuclear</v>
       </c>
       <c r="B83" s="30" t="str">
-        <f t="shared" ref="B83:B91" si="37">"IMP"&amp;D83</f>
+        <f t="shared" ref="B83:B91" si="38">"IMP"&amp;D83</f>
         <v>IMPNUC</v>
       </c>
       <c r="D83" s="159" t="str">
@@ -66620,7 +66620,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="82">
-        <f t="shared" ref="K83:K85" si="38">SUMIF($C$8:$BE$8,D83,$C$11:$BE$11)</f>
+        <f t="shared" ref="K83:K85" si="39">SUMIF($C$8:$BE$8,D83,$C$11:$BE$11)</f>
         <v>170.374545454545</v>
       </c>
       <c r="L83" s="82"/>
@@ -66634,7 +66634,7 @@
       <c r="T83"/>
       <c r="U83"/>
       <c r="V83" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Y83" s="161" t="s">
@@ -66672,11 +66672,11 @@
     </row>
     <row r="84" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil Av Gasoline</v>
       </c>
       <c r="B84" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOAG</v>
       </c>
       <c r="D84" s="159" t="str">
@@ -66687,26 +66687,26 @@
         <v>0</v>
       </c>
       <c r="F84" s="82">
-        <f t="shared" ref="F84:I84" si="39">F87</f>
+        <f t="shared" ref="F84:I84" si="40">F87</f>
         <v>247.03405739193275</v>
       </c>
       <c r="G84" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>253.06623635843414</v>
       </c>
       <c r="H84" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>232.71621829347131</v>
       </c>
       <c r="I84" s="82">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>294.96333237453405</v>
       </c>
       <c r="J84" s="82">
         <v>0</v>
       </c>
       <c r="K84" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.394321535205479</v>
       </c>
       <c r="L84" s="82"/>
@@ -66720,7 +66720,7 @@
       <c r="T84"/>
       <c r="U84"/>
       <c r="V84" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA84" s="35"/>
@@ -66755,11 +66755,11 @@
     </row>
     <row r="85" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil Crude</v>
       </c>
       <c r="B85" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOCR</v>
       </c>
       <c r="D85" s="159" t="str">
@@ -66770,26 +66770,26 @@
         <v>0</v>
       </c>
       <c r="F85" s="82">
-        <f t="shared" ref="F85:I90" si="40">SUMIF($E$22:$E$34,$D85,F$22:F$34)</f>
+        <f t="shared" ref="F85:I90" si="41">SUMIF($E$22:$E$34,$D85,F$22:F$34)</f>
         <v>196.45298120195667</v>
       </c>
       <c r="G85" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>202.68138113207547</v>
       </c>
       <c r="H85" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>186.03605031446543</v>
       </c>
       <c r="I85" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>236.95117987421381</v>
       </c>
       <c r="J85" s="82">
         <v>0</v>
       </c>
       <c r="K85" s="82">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>941.22622485351599</v>
       </c>
       <c r="L85" s="82"/>
@@ -66803,7 +66803,7 @@
       <c r="T85"/>
       <c r="U85"/>
       <c r="V85" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA85" s="35"/>
@@ -66838,11 +66838,11 @@
     </row>
     <row r="86" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil Diesel</v>
       </c>
       <c r="B86" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPODS</v>
       </c>
       <c r="D86" s="159" t="str">
@@ -66853,19 +66853,19 @@
         <v>0</v>
       </c>
       <c r="F86" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>236.56389169057414</v>
       </c>
       <c r="G86" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>244.65407088700817</v>
       </c>
       <c r="H86" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>224.41968109431471</v>
       </c>
       <c r="I86" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>286.31310869549469</v>
       </c>
       <c r="J86" s="82">
@@ -66885,7 +66885,7 @@
       <c r="T86"/>
       <c r="U86"/>
       <c r="V86" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA86" s="35"/>
@@ -66920,11 +66920,11 @@
     </row>
     <row r="87" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil Gasoline</v>
       </c>
       <c r="B87" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOGS</v>
       </c>
       <c r="D87" s="159" t="str">
@@ -66935,19 +66935,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>247.03405739193275</v>
       </c>
       <c r="G87" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>253.06623635843414</v>
       </c>
       <c r="H87" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>232.71621829347131</v>
       </c>
       <c r="I87" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>294.96333237453405</v>
       </c>
       <c r="J87" s="82">
@@ -66967,7 +66967,7 @@
       <c r="T87"/>
       <c r="U87"/>
       <c r="V87" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA87" s="35"/>
@@ -67002,11 +67002,11 @@
     </row>
     <row r="88" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil HFO</v>
       </c>
       <c r="B88" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOHF</v>
       </c>
       <c r="D88" s="159" t="str">
@@ -67017,19 +67017,19 @@
         <v>0</v>
       </c>
       <c r="F88" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>196.45298120195667</v>
       </c>
       <c r="G88" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>202.68138113207547</v>
       </c>
       <c r="H88" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>186.03605031446543</v>
       </c>
       <c r="I88" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>236.95117987421381</v>
       </c>
       <c r="J88" s="82">
@@ -67049,7 +67049,7 @@
       <c r="T88"/>
       <c r="U88"/>
       <c r="V88" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA88" s="35"/>
@@ -67084,11 +67084,11 @@
     </row>
     <row r="89" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil LPG</v>
       </c>
       <c r="B89" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOLP</v>
       </c>
       <c r="D89" s="159" t="str">
@@ -67099,19 +67099,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>376.62224144497708</v>
       </c>
       <c r="G89" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>382.94989907290471</v>
       </c>
       <c r="H89" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>366.03930314149977</v>
       </c>
       <c r="I89" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>417.76583187285604</v>
       </c>
       <c r="J89" s="82">
@@ -67131,7 +67131,7 @@
       <c r="T89"/>
       <c r="U89"/>
       <c r="V89" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA89" s="35"/>
@@ -67166,11 +67166,11 @@
     </row>
     <row r="90" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Oil Kerosene</v>
       </c>
       <c r="B90" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPOKE</v>
       </c>
       <c r="D90" s="159" t="str">
@@ -67181,19 +67181,19 @@
         <v>0</v>
       </c>
       <c r="F90" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>243.45484454706207</v>
       </c>
       <c r="G90" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>250.76740309449676</v>
       </c>
       <c r="H90" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>231.22467020790273</v>
       </c>
       <c r="I90" s="82">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>291.00244139042559</v>
       </c>
       <c r="J90" s="82">
@@ -67213,7 +67213,7 @@
       <c r="T90"/>
       <c r="U90"/>
       <c r="V90" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA90" s="35"/>
@@ -67248,11 +67248,11 @@
     </row>
     <row r="91" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Biodiesel</v>
       </c>
       <c r="B91" s="30" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>IMPBID</v>
       </c>
       <c r="D91" s="159" t="str">
@@ -67267,15 +67267,15 @@
         <v>248.39208627510286</v>
       </c>
       <c r="G91" s="82">
-        <f t="shared" ref="G91:I92" si="41">G86*1.05</f>
+        <f t="shared" ref="G91:I92" si="42">G86*1.05</f>
         <v>256.88677443135862</v>
       </c>
       <c r="H91" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>235.64066514903047</v>
       </c>
       <c r="I91" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>300.62876413026942</v>
       </c>
       <c r="J91" s="82">
@@ -67293,7 +67293,7 @@
       <c r="T91"/>
       <c r="U91"/>
       <c r="V91" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA91" s="35"/>
@@ -67328,7 +67328,7 @@
     </row>
     <row r="92" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="158" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Imports of Bioethanol</v>
       </c>
       <c r="B92" s="30" t="str">
@@ -67347,15 +67347,15 @@
         <v>259.38576026152941</v>
       </c>
       <c r="G92" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>265.71954817635583</v>
       </c>
       <c r="H92" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>244.3520292081449</v>
       </c>
       <c r="I92" s="82">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>309.71149899326076</v>
       </c>
       <c r="J92" s="82">
@@ -67373,7 +67373,7 @@
       <c r="T92"/>
       <c r="U92"/>
       <c r="V92" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="AA92" s="35"/>
@@ -67559,15 +67559,15 @@
         <v>125.48506135280986</v>
       </c>
       <c r="G95" s="82">
-        <f t="shared" ref="G95:I95" si="42">G81-(1.5*G15)</f>
+        <f t="shared" ref="G95:I95" si="43">G81-(1.5*G15)</f>
         <v>129.85030062238019</v>
       </c>
       <c r="H95" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>118.18424632990407</v>
       </c>
       <c r="I95" s="82">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>153.86864769512499</v>
       </c>
       <c r="J95" s="82"/>
@@ -67674,11 +67674,11 @@
     </row>
     <row r="97" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="158" t="str">
-        <f t="shared" ref="A97:A104" si="43">"Exports of "&amp;INDEX(FuelNamesLong,MATCH(C97,FuelNamesShort,0))</f>
+        <f t="shared" ref="A97:A104" si="44">"Exports of "&amp;INDEX(FuelNamesLong,MATCH(C97,FuelNamesShort,0))</f>
         <v>Exports of Coal</v>
       </c>
       <c r="B97" s="30" t="str">
-        <f t="shared" ref="B97:B104" si="44">"PEX"&amp;C97</f>
+        <f t="shared" ref="B97:B104" si="45">"PEX"&amp;C97</f>
         <v>PEXCOA</v>
       </c>
       <c r="C97" s="159" t="str">
@@ -67727,7 +67727,7 @@
       </c>
       <c r="U97"/>
       <c r="V97" t="str">
-        <f t="shared" ref="V97:V104" si="45">$V$60</f>
+        <f t="shared" ref="V97:V104" si="46">$V$60</f>
         <v/>
       </c>
       <c r="AA97" s="35"/>
@@ -67762,11 +67762,11 @@
     </row>
     <row r="98" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Coal Coking</v>
       </c>
       <c r="B98" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXCOK</v>
       </c>
       <c r="C98" s="159" t="str">
@@ -67810,7 +67810,7 @@
       <c r="T98"/>
       <c r="U98"/>
       <c r="V98" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA98" s="35"/>
@@ -67845,11 +67845,11 @@
     </row>
     <row r="99" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil Av Gasoline</v>
       </c>
       <c r="B99" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXOAG</v>
       </c>
       <c r="C99" s="159" t="str">
@@ -67860,19 +67860,19 @@
         <v>0</v>
       </c>
       <c r="F99" s="82">
-        <f t="shared" ref="F99:I99" si="46">F102</f>
+        <f t="shared" ref="F99:I99" si="47">F102</f>
         <v>-234.68235452233611</v>
       </c>
       <c r="G99" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-240.41292454051242</v>
       </c>
       <c r="H99" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-221.08040737879773</v>
       </c>
       <c r="I99" s="82">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-280.21516575580733</v>
       </c>
       <c r="J99" s="82">
@@ -67893,7 +67893,7 @@
       <c r="T99"/>
       <c r="U99"/>
       <c r="V99" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA99" s="35"/>
@@ -67928,11 +67928,11 @@
     </row>
     <row r="100" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil Crude</v>
       </c>
       <c r="B100" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXOCR</v>
       </c>
       <c r="C100" s="159" t="str">
@@ -67943,19 +67943,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="82">
-        <f t="shared" ref="F100:I104" si="47">SUMIF($E$22:$E$34,$C100,F$22:F$34)*$B$96</f>
+        <f t="shared" ref="F100:I104" si="48">SUMIF($E$22:$E$34,$C100,F$22:F$34)*$B$96</f>
         <v>-186.63033214185884</v>
       </c>
       <c r="G100" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-192.54731207547169</v>
       </c>
       <c r="H100" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-176.73424779874216</v>
       </c>
       <c r="I100" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-225.10362088050312</v>
       </c>
       <c r="J100" s="82">
@@ -67976,7 +67976,7 @@
       <c r="T100"/>
       <c r="U100"/>
       <c r="V100" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA100" s="35"/>
@@ -68011,11 +68011,11 @@
     </row>
     <row r="101" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil Diesel</v>
       </c>
       <c r="B101" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXODS</v>
       </c>
       <c r="C101" s="159" t="str">
@@ -68026,19 +68026,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-224.73569710604542</v>
       </c>
       <c r="G101" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-232.42136734265776</v>
       </c>
       <c r="H101" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-213.19869703959895</v>
       </c>
       <c r="I101" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-271.99745326071996</v>
       </c>
       <c r="J101" s="82">
@@ -68059,7 +68059,7 @@
       <c r="T101"/>
       <c r="U101"/>
       <c r="V101" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA101" s="35"/>
@@ -68094,11 +68094,11 @@
     </row>
     <row r="102" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil Gasoline</v>
       </c>
       <c r="B102" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXOGS</v>
       </c>
       <c r="C102" s="159" t="str">
@@ -68109,19 +68109,19 @@
         <v>0</v>
       </c>
       <c r="F102" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-234.68235452233611</v>
       </c>
       <c r="G102" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-240.41292454051242</v>
       </c>
       <c r="H102" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-221.08040737879773</v>
       </c>
       <c r="I102" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-280.21516575580733</v>
       </c>
       <c r="J102" s="82">
@@ -68142,7 +68142,7 @@
       <c r="T102"/>
       <c r="U102"/>
       <c r="V102" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA102" s="35"/>
@@ -68177,11 +68177,11 @@
     </row>
     <row r="103" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil HFO</v>
       </c>
       <c r="B103" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXOHF</v>
       </c>
       <c r="C103" s="159" t="str">
@@ -68192,19 +68192,19 @@
         <v>0</v>
       </c>
       <c r="F103" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-186.63033214185884</v>
       </c>
       <c r="G103" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-192.54731207547169</v>
       </c>
       <c r="H103" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-176.73424779874216</v>
       </c>
       <c r="I103" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-225.10362088050312</v>
       </c>
       <c r="J103" s="82">
@@ -68222,7 +68222,7 @@
       <c r="T103"/>
       <c r="U103"/>
       <c r="V103" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA103" s="35"/>
@@ -68257,11 +68257,11 @@
     </row>
     <row r="104" spans="1:56" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="158" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>Exports of Oil Kerosene</v>
       </c>
       <c r="B104" s="30" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>PEXOKE</v>
       </c>
       <c r="C104" s="159" t="str">
@@ -68272,19 +68272,19 @@
         <v>0</v>
       </c>
       <c r="F104" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-231.28210231970894</v>
       </c>
       <c r="G104" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-238.22903293977191</v>
       </c>
       <c r="H104" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-219.66343669750759</v>
       </c>
       <c r="I104" s="82">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-276.45231932090428</v>
       </c>
       <c r="J104" s="82">
@@ -68305,7 +68305,7 @@
       <c r="T104"/>
       <c r="U104"/>
       <c r="V104" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="AA104" s="35"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E255922-BBF7-4710-9F86-FF9047F61E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA9C97-D98F-4DE8-814B-BCFB8C729ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" firstSheet="3" activeTab="10" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="1110">
   <si>
     <t>Agriculture</t>
   </si>
@@ -5126,6 +5126,9 @@
   </si>
   <si>
     <t>Waste for material use</t>
+  </si>
+  <si>
+    <t>CO2SCCEM</t>
   </si>
 </sst>
 </file>
@@ -7431,57 +7434,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7519,6 +7471,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24999,25 +25002,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="438" t="s">
+      <c r="AC6" s="421" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="438"/>
-      <c r="AE6" s="438"/>
+      <c r="AD6" s="421"/>
+      <c r="AE6" s="421"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="439" t="s">
+      <c r="A7" s="422" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="424" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="443" t="s">
+      <c r="C7" s="426" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="448" t="s">
+      <c r="D7" s="427"/>
+      <c r="E7" s="428"/>
+      <c r="F7" s="431" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25045,12 +25048,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="440"/>
-      <c r="B8" s="442"/>
-      <c r="C8" s="446"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="449"/>
+      <c r="A8" s="423"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="429"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
+      <c r="F8" s="432"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25916,11 +25919,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="437" t="s">
+      <c r="AC25" s="420" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="437"/>
-      <c r="AE25" s="437"/>
+      <c r="AD25" s="420"/>
+      <c r="AE25" s="420"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -25999,8 +26002,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="433"/>
-      <c r="I31" s="433"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -26021,10 +26024,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="425" t="s">
+      <c r="L32" s="433" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="434" t="s">
+      <c r="M32" s="441" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26039,22 +26042,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="425" t="s">
+      <c r="R32" s="433" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="425" t="s">
+      <c r="S32" s="433" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="425" t="s">
+      <c r="T32" s="433" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="425" t="s">
+      <c r="U32" s="433" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="425" t="s">
+      <c r="V32" s="433" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="425" t="s">
+      <c r="W32" s="433" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26077,28 +26080,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="432" t="s">
+      <c r="H33" s="436" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="432"/>
+      <c r="I33" s="436"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="426"/>
-      <c r="M33" s="435"/>
+      <c r="L33" s="434"/>
+      <c r="M33" s="442"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="426"/>
-      <c r="S33" s="426"/>
-      <c r="T33" s="426"/>
-      <c r="U33" s="426"/>
-      <c r="V33" s="426"/>
-      <c r="W33" s="426"/>
+      <c r="R33" s="434"/>
+      <c r="S33" s="434"/>
+      <c r="T33" s="434"/>
+      <c r="U33" s="434"/>
+      <c r="V33" s="434"/>
+      <c r="W33" s="434"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26118,8 +26121,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="427"/>
-      <c r="M34" s="436"/>
+      <c r="L34" s="435"/>
+      <c r="M34" s="443"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26132,12 +26135,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
+      <c r="R34" s="435"/>
+      <c r="S34" s="435"/>
+      <c r="T34" s="435"/>
+      <c r="U34" s="435"/>
+      <c r="V34" s="435"/>
+      <c r="W34" s="435"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26203,7 +26206,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="428" t="str">
+      <c r="L36" s="437" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26283,7 +26286,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="429"/>
+      <c r="L37" s="438"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26354,7 +26357,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="429"/>
+      <c r="L38" s="438"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26429,7 +26432,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="429"/>
+      <c r="L39" s="438"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26500,7 +26503,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="429"/>
+      <c r="L40" s="438"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26574,7 +26577,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="430"/>
+      <c r="L41" s="439"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26648,7 +26651,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="428" t="s">
+      <c r="L42" s="437" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26721,7 +26724,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="429"/>
+      <c r="L43" s="438"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26797,7 +26800,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="429"/>
+      <c r="L44" s="438"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26869,7 +26872,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="430"/>
+      <c r="L45" s="439"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26938,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="428" t="str">
+      <c r="L46" s="437" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -27014,7 +27017,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="429"/>
+      <c r="L47" s="438"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27085,7 +27088,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="430"/>
+      <c r="L48" s="439"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27454,10 +27457,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="431" t="s">
+      <c r="D79" s="449" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="431"/>
+      <c r="E79" s="449"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27559,13 +27562,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="420" t="s">
+      <c r="A103" s="444" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="422" t="s">
+      <c r="C103" s="446" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27576,11 +27579,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="421"/>
+      <c r="A104" s="445"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="423"/>
+      <c r="C104" s="447"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27593,13 +27596,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="420" t="s">
+      <c r="A105" s="444" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="423"/>
+      <c r="C105" s="447"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27608,11 +27611,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="421"/>
+      <c r="A106" s="445"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="424"/>
+      <c r="C106" s="448"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27621,13 +27624,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="420" t="s">
+      <c r="A107" s="444" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="422" t="s">
+      <c r="C107" s="446" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27638,11 +27641,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="421"/>
+      <c r="A108" s="445"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="423"/>
+      <c r="C108" s="447"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27651,13 +27654,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="420" t="s">
+      <c r="A109" s="444" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="423"/>
+      <c r="C109" s="447"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27666,11 +27669,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="421"/>
+      <c r="A110" s="445"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="424"/>
+      <c r="C110" s="448"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29133,12 +29136,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29149,16 +29156,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29174,8 +29177,8 @@
   </sheetPr>
   <dimension ref="A1:BB96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29289,6 +29292,9 @@
       <c r="H10" t="s">
         <v>586</v>
       </c>
+      <c r="I10" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -29310,6 +29316,9 @@
         <v>1</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
     </row>
@@ -49985,18 +49994,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="432" t="s">
+      <c r="DL94" s="436" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="432"/>
-      <c r="DN94" s="432" t="s">
+      <c r="DM94" s="436"/>
+      <c r="DN94" s="436" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="432"/>
-      <c r="DP94" s="432" t="s">
+      <c r="DO94" s="436"/>
+      <c r="DP94" s="436" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="432"/>
+      <c r="DQ94" s="436"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55457,7 +55466,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45211.606016666665</v>
+        <v>45215.654102546294</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56281,7 +56290,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45211.606016666665</v>
+        <v>45215.654102546294</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60417,7 +60426,7 @@
   </sheetPr>
   <dimension ref="A1:BF149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <pane xSplit="5" ySplit="10" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
       <selection pane="topRight" activeCell="F49" sqref="F49"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AA9C97-D98F-4DE8-814B-BCFB8C729ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE6BA1-86DB-4F44-A75A-3982ED671E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" firstSheet="3" activeTab="10" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="2835" yWindow="3420" windowWidth="28800" windowHeight="14985" firstSheet="3" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7434,6 +7434,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7471,57 +7522,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -25002,25 +25002,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="421" t="s">
+      <c r="AC6" s="438" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="421"/>
-      <c r="AE6" s="421"/>
+      <c r="AD6" s="438"/>
+      <c r="AE6" s="438"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="422" t="s">
+      <c r="A7" s="439" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="424" t="s">
+      <c r="B7" s="441" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="426" t="s">
+      <c r="C7" s="443" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="427"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="431" t="s">
+      <c r="D7" s="444"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="448" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25048,12 +25048,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="423"/>
-      <c r="B8" s="425"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="432"/>
+      <c r="A8" s="440"/>
+      <c r="B8" s="442"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
+      <c r="F8" s="449"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25919,11 +25919,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="420" t="s">
+      <c r="AC25" s="437" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="420"/>
-      <c r="AE25" s="420"/>
+      <c r="AD25" s="437"/>
+      <c r="AE25" s="437"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -26002,8 +26002,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
+      <c r="H31" s="433"/>
+      <c r="I31" s="433"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -26024,10 +26024,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="433" t="s">
+      <c r="L32" s="425" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="441" t="s">
+      <c r="M32" s="434" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26042,22 +26042,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="433" t="s">
+      <c r="R32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="433" t="s">
+      <c r="S32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="433" t="s">
+      <c r="T32" s="425" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="433" t="s">
+      <c r="U32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="433" t="s">
+      <c r="V32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="433" t="s">
+      <c r="W32" s="425" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26080,28 +26080,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="436" t="s">
+      <c r="H33" s="432" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="436"/>
+      <c r="I33" s="432"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="434"/>
-      <c r="M33" s="442"/>
+      <c r="L33" s="426"/>
+      <c r="M33" s="435"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="434"/>
-      <c r="S33" s="434"/>
-      <c r="T33" s="434"/>
-      <c r="U33" s="434"/>
-      <c r="V33" s="434"/>
-      <c r="W33" s="434"/>
+      <c r="R33" s="426"/>
+      <c r="S33" s="426"/>
+      <c r="T33" s="426"/>
+      <c r="U33" s="426"/>
+      <c r="V33" s="426"/>
+      <c r="W33" s="426"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26121,8 +26121,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="435"/>
-      <c r="M34" s="443"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="436"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26135,12 +26135,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="435"/>
-      <c r="S34" s="435"/>
-      <c r="T34" s="435"/>
-      <c r="U34" s="435"/>
-      <c r="V34" s="435"/>
-      <c r="W34" s="435"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26206,7 +26206,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="437" t="str">
+      <c r="L36" s="428" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26286,7 +26286,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="438"/>
+      <c r="L37" s="429"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26357,7 +26357,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="438"/>
+      <c r="L38" s="429"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26432,7 +26432,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="438"/>
+      <c r="L39" s="429"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26503,7 +26503,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="438"/>
+      <c r="L40" s="429"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26577,7 +26577,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="439"/>
+      <c r="L41" s="430"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26651,7 +26651,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="437" t="s">
+      <c r="L42" s="428" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26724,7 +26724,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="438"/>
+      <c r="L43" s="429"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26800,7 +26800,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="438"/>
+      <c r="L44" s="429"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26872,7 +26872,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="439"/>
+      <c r="L45" s="430"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="437" t="str">
+      <c r="L46" s="428" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -27017,7 +27017,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="438"/>
+      <c r="L47" s="429"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27088,7 +27088,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="439"/>
+      <c r="L48" s="430"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27457,10 +27457,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="449" t="s">
+      <c r="D79" s="431" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="449"/>
+      <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27562,13 +27562,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="444" t="s">
+      <c r="A103" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="446" t="s">
+      <c r="C103" s="422" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27579,11 +27579,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="445"/>
+      <c r="A104" s="421"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="447"/>
+      <c r="C104" s="423"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27596,13 +27596,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="444" t="s">
+      <c r="A105" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="447"/>
+      <c r="C105" s="423"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27611,11 +27611,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="445"/>
+      <c r="A106" s="421"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="448"/>
+      <c r="C106" s="424"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27624,13 +27624,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="444" t="s">
+      <c r="A107" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="446" t="s">
+      <c r="C107" s="422" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27641,11 +27641,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="445"/>
+      <c r="A108" s="421"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="447"/>
+      <c r="C108" s="423"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27654,13 +27654,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="444" t="s">
+      <c r="A109" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="447"/>
+      <c r="C109" s="423"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27669,11 +27669,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="445"/>
+      <c r="A110" s="421"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="448"/>
+      <c r="C110" s="424"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29136,6 +29136,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29146,22 +29162,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29177,7 +29177,7 @@
   </sheetPr>
   <dimension ref="A1:BB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -49994,18 +49994,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="436" t="s">
+      <c r="DL94" s="432" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="436"/>
-      <c r="DN94" s="436" t="s">
+      <c r="DM94" s="432"/>
+      <c r="DN94" s="432" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="436"/>
-      <c r="DP94" s="436" t="s">
+      <c r="DO94" s="432"/>
+      <c r="DP94" s="432" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="436"/>
+      <c r="DQ94" s="432"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55466,7 +55466,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45215.654102546294</v>
+        <v>45217.994184490744</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56290,7 +56290,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45215.654102546294</v>
+        <v>45217.994184490744</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -60426,12 +60426,12 @@
   </sheetPr>
   <dimension ref="A1:BF149"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <pane xSplit="5" ySplit="10" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
       <selection pane="topRight" activeCell="F49" sqref="F49"/>
       <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
+      <selection pane="bottomRight" activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -65828,8 +65828,8 @@
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72" s="82">
-        <f>K72*1.5</f>
-        <v>265.5</v>
+        <f>K72*2</f>
+        <v>354</v>
       </c>
       <c r="P72" s="82"/>
       <c r="Q72" s="82"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE6BA1-86DB-4F44-A75A-3982ED671E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2AC2C-C94B-49F1-9610-9724F23CCFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="3420" windowWidth="28800" windowHeight="14985" firstSheet="3" activeTab="6" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="5" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -1640,7 +1640,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="1112">
   <si>
     <t>Agriculture</t>
   </si>
@@ -5129,6 +5129,12 @@
   </si>
   <si>
     <t>CO2SCCEM</t>
+  </si>
+  <si>
+    <t>CO2SPIIS</t>
+  </si>
+  <si>
+    <t>Process Emissions Iron and Steel South Africa</t>
   </si>
 </sst>
 </file>
@@ -7434,57 +7440,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7522,6 +7477,57 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -25002,25 +25008,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="438" t="s">
+      <c r="AC6" s="421" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="438"/>
-      <c r="AE6" s="438"/>
+      <c r="AD6" s="421"/>
+      <c r="AE6" s="421"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="439" t="s">
+      <c r="A7" s="422" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="441" t="s">
+      <c r="B7" s="424" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="443" t="s">
+      <c r="C7" s="426" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="444"/>
-      <c r="E7" s="445"/>
-      <c r="F7" s="448" t="s">
+      <c r="D7" s="427"/>
+      <c r="E7" s="428"/>
+      <c r="F7" s="431" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25048,12 +25054,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="440"/>
-      <c r="B8" s="442"/>
-      <c r="C8" s="446"/>
-      <c r="D8" s="447"/>
-      <c r="E8" s="447"/>
-      <c r="F8" s="449"/>
+      <c r="A8" s="423"/>
+      <c r="B8" s="425"/>
+      <c r="C8" s="429"/>
+      <c r="D8" s="430"/>
+      <c r="E8" s="430"/>
+      <c r="F8" s="432"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25919,11 +25925,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="437" t="s">
+      <c r="AC25" s="420" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="437"/>
-      <c r="AE25" s="437"/>
+      <c r="AD25" s="420"/>
+      <c r="AE25" s="420"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -26002,8 +26008,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="433"/>
-      <c r="I31" s="433"/>
+      <c r="H31" s="440"/>
+      <c r="I31" s="440"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -26024,10 +26030,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="425" t="s">
+      <c r="L32" s="433" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="434" t="s">
+      <c r="M32" s="441" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26042,22 +26048,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="425" t="s">
+      <c r="R32" s="433" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="425" t="s">
+      <c r="S32" s="433" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="425" t="s">
+      <c r="T32" s="433" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="425" t="s">
+      <c r="U32" s="433" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="425" t="s">
+      <c r="V32" s="433" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="425" t="s">
+      <c r="W32" s="433" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26080,28 +26086,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="432" t="s">
+      <c r="H33" s="436" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="432"/>
+      <c r="I33" s="436"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="426"/>
-      <c r="M33" s="435"/>
+      <c r="L33" s="434"/>
+      <c r="M33" s="442"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="426"/>
-      <c r="S33" s="426"/>
-      <c r="T33" s="426"/>
-      <c r="U33" s="426"/>
-      <c r="V33" s="426"/>
-      <c r="W33" s="426"/>
+      <c r="R33" s="434"/>
+      <c r="S33" s="434"/>
+      <c r="T33" s="434"/>
+      <c r="U33" s="434"/>
+      <c r="V33" s="434"/>
+      <c r="W33" s="434"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26121,8 +26127,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="427"/>
-      <c r="M34" s="436"/>
+      <c r="L34" s="435"/>
+      <c r="M34" s="443"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26135,12 +26141,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
+      <c r="R34" s="435"/>
+      <c r="S34" s="435"/>
+      <c r="T34" s="435"/>
+      <c r="U34" s="435"/>
+      <c r="V34" s="435"/>
+      <c r="W34" s="435"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26206,7 +26212,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="428" t="str">
+      <c r="L36" s="437" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26286,7 +26292,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="429"/>
+      <c r="L37" s="438"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26357,7 +26363,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="429"/>
+      <c r="L38" s="438"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26432,7 +26438,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="429"/>
+      <c r="L39" s="438"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26503,7 +26509,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="429"/>
+      <c r="L40" s="438"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26577,7 +26583,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="430"/>
+      <c r="L41" s="439"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26651,7 +26657,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="428" t="s">
+      <c r="L42" s="437" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26724,7 +26730,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="429"/>
+      <c r="L43" s="438"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26800,7 +26806,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="429"/>
+      <c r="L44" s="438"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26872,7 +26878,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="430"/>
+      <c r="L45" s="439"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26941,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="428" t="str">
+      <c r="L46" s="437" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -27017,7 +27023,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="429"/>
+      <c r="L47" s="438"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27088,7 +27094,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="430"/>
+      <c r="L48" s="439"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27457,10 +27463,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="431" t="s">
+      <c r="D79" s="449" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="431"/>
+      <c r="E79" s="449"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27562,13 +27568,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="420" t="s">
+      <c r="A103" s="444" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="422" t="s">
+      <c r="C103" s="446" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27579,11 +27585,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="421"/>
+      <c r="A104" s="445"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="423"/>
+      <c r="C104" s="447"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27596,13 +27602,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="420" t="s">
+      <c r="A105" s="444" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="423"/>
+      <c r="C105" s="447"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27611,11 +27617,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="421"/>
+      <c r="A106" s="445"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="424"/>
+      <c r="C106" s="448"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27624,13 +27630,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="420" t="s">
+      <c r="A107" s="444" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="422" t="s">
+      <c r="C107" s="446" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27641,11 +27647,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="421"/>
+      <c r="A108" s="445"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="423"/>
+      <c r="C108" s="447"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27654,13 +27660,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="420" t="s">
+      <c r="A109" s="444" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="423"/>
+      <c r="C109" s="447"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27669,11 +27675,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="421"/>
+      <c r="A110" s="445"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="424"/>
+      <c r="C110" s="448"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29136,12 +29142,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="C107:C110"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="U32:U34"/>
+    <mergeCell ref="V32:V34"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="A105:A106"/>
     <mergeCell ref="W32:W34"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="L36:L41"/>
@@ -29152,16 +29162,12 @@
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
     <mergeCell ref="T32:T34"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="C107:C110"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="U32:U34"/>
-    <mergeCell ref="V32:V34"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29178,7 +29184,7 @@
   <dimension ref="A1:BB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29295,6 +29301,9 @@
       <c r="I10" t="s">
         <v>1109</v>
       </c>
+      <c r="J10" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -29319,6 +29328,9 @@
         <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
@@ -49994,18 +50006,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="432" t="s">
+      <c r="DL94" s="436" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="432"/>
-      <c r="DN94" s="432" t="s">
+      <c r="DM94" s="436"/>
+      <c r="DN94" s="436" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="432"/>
-      <c r="DP94" s="432" t="s">
+      <c r="DO94" s="436"/>
+      <c r="DP94" s="436" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="432"/>
+      <c r="DQ94" s="436"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55466,7 +55478,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45217.994184490744</v>
+        <v>45310.469588194443</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56290,7 +56302,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45217.994184490744</v>
+        <v>45310.469588194443</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -58975,10 +58987,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -60412,6 +60424,23 @@
         <v>357</v>
       </c>
     </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="380" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C71" s="380" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D71" s="381" t="s">
+        <v>980</v>
+      </c>
+      <c r="E71" s="381" t="s">
+        <v>979</v>
+      </c>
+      <c r="F71" s="380" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -60426,7 +60455,7 @@
   </sheetPr>
   <dimension ref="A1:BF149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <pane xSplit="5" ySplit="10" topLeftCell="F63" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A49" sqref="A49"/>
       <selection pane="topRight" activeCell="F49" sqref="F49"/>

--- a/VT_REGION1_SUP.xlsx
+++ b/VT_REGION1_SUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2AC2C-C94B-49F1-9610-9724F23CCFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C862BD9-4532-4A78-BE23-89CA12374CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="5" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
+    <workbookView xWindow="270" yWindow="150" windowWidth="28350" windowHeight="15150" firstSheet="4" activeTab="11" xr2:uid="{E5F8B398-E078-41ED-B259-65DAD54952E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -7440,6 +7440,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -7477,57 +7528,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -24534,9 +24534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -24574,7 +24574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -24680,7 +24680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -24822,7 +24822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25008,25 +25008,25 @@
       <c r="W6" s="175" t="s">
         <v>361</v>
       </c>
-      <c r="AC6" s="421" t="s">
+      <c r="AC6" s="438" t="s">
         <v>362</v>
       </c>
-      <c r="AD6" s="421"/>
-      <c r="AE6" s="421"/>
+      <c r="AD6" s="438"/>
+      <c r="AE6" s="438"/>
     </row>
     <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="422" t="s">
+      <c r="A7" s="439" t="s">
         <v>363</v>
       </c>
-      <c r="B7" s="424" t="s">
+      <c r="B7" s="441" t="s">
         <v>364</v>
       </c>
-      <c r="C7" s="426" t="s">
+      <c r="C7" s="443" t="s">
         <v>365</v>
       </c>
-      <c r="D7" s="427"/>
-      <c r="E7" s="428"/>
-      <c r="F7" s="431" t="s">
+      <c r="D7" s="444"/>
+      <c r="E7" s="445"/>
+      <c r="F7" s="448" t="s">
         <v>366</v>
       </c>
       <c r="G7" s="176"/>
@@ -25054,12 +25054,12 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="423"/>
-      <c r="B8" s="425"/>
-      <c r="C8" s="429"/>
-      <c r="D8" s="430"/>
-      <c r="E8" s="430"/>
-      <c r="F8" s="432"/>
+      <c r="A8" s="440"/>
+      <c r="B8" s="442"/>
+      <c r="C8" s="446"/>
+      <c r="D8" s="447"/>
+      <c r="E8" s="447"/>
+      <c r="F8" s="449"/>
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="176"/>
@@ -25925,11 +25925,11 @@
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="V25" s="217"/>
-      <c r="AC25" s="420" t="s">
+      <c r="AC25" s="437" t="s">
         <v>432</v>
       </c>
-      <c r="AD25" s="420"/>
-      <c r="AE25" s="420"/>
+      <c r="AD25" s="437"/>
+      <c r="AE25" s="437"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C26" s="57"/>
@@ -26008,8 +26008,8 @@
       <c r="D30" s="57"/>
     </row>
     <row r="31" spans="1:31" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H31" s="440"/>
-      <c r="I31" s="440"/>
+      <c r="H31" s="433"/>
+      <c r="I31" s="433"/>
       <c r="R31" t="s">
         <v>370</v>
       </c>
@@ -26030,10 +26030,10 @@
       </c>
     </row>
     <row r="32" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L32" s="433" t="s">
+      <c r="L32" s="425" t="s">
         <v>436</v>
       </c>
-      <c r="M32" s="441" t="s">
+      <c r="M32" s="434" t="s">
         <v>437</v>
       </c>
       <c r="N32" s="220" t="s">
@@ -26048,22 +26048,22 @@
       <c r="Q32" s="223" t="s">
         <v>439</v>
       </c>
-      <c r="R32" s="433" t="s">
+      <c r="R32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="433" t="s">
+      <c r="S32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="T32" s="433" t="s">
+      <c r="T32" s="425" t="s">
         <v>440</v>
       </c>
-      <c r="U32" s="433" t="s">
+      <c r="U32" s="425" t="s">
         <v>389</v>
       </c>
-      <c r="V32" s="433" t="s">
+      <c r="V32" s="425" t="s">
         <v>393</v>
       </c>
-      <c r="W32" s="433" t="s">
+      <c r="W32" s="425" t="s">
         <v>440</v>
       </c>
     </row>
@@ -26086,28 +26086,28 @@
       <c r="G33" s="142" t="s">
         <v>444</v>
       </c>
-      <c r="H33" s="436" t="s">
+      <c r="H33" s="432" t="s">
         <v>445</v>
       </c>
-      <c r="I33" s="436"/>
+      <c r="I33" s="432"/>
       <c r="J33" s="142" t="s">
         <v>443</v>
       </c>
       <c r="K33" t="s">
         <v>444</v>
       </c>
-      <c r="L33" s="434"/>
-      <c r="M33" s="442"/>
+      <c r="L33" s="426"/>
+      <c r="M33" s="435"/>
       <c r="N33" s="16"/>
       <c r="O33" s="73"/>
       <c r="P33" s="73"/>
       <c r="Q33" s="224"/>
-      <c r="R33" s="434"/>
-      <c r="S33" s="434"/>
-      <c r="T33" s="434"/>
-      <c r="U33" s="434"/>
-      <c r="V33" s="434"/>
-      <c r="W33" s="434"/>
+      <c r="R33" s="426"/>
+      <c r="S33" s="426"/>
+      <c r="T33" s="426"/>
+      <c r="U33" s="426"/>
+      <c r="V33" s="426"/>
+      <c r="W33" s="426"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -26127,8 +26127,8 @@
       <c r="K34" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="435"/>
-      <c r="M34" s="443"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="436"/>
       <c r="N34" s="225" t="s">
         <v>449</v>
       </c>
@@ -26141,12 +26141,12 @@
       <c r="Q34" s="227" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="435"/>
-      <c r="S34" s="435"/>
-      <c r="T34" s="435"/>
-      <c r="U34" s="435"/>
-      <c r="V34" s="435"/>
-      <c r="W34" s="435"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="228" t="s">
@@ -26212,7 +26212,7 @@
         <v>2.9</v>
       </c>
       <c r="I36" s="237"/>
-      <c r="L36" s="437" t="str">
+      <c r="L36" s="428" t="str">
         <f>A36</f>
         <v>Well completion</v>
       </c>
@@ -26292,7 +26292,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I37" s="237"/>
-      <c r="L37" s="438"/>
+      <c r="L37" s="429"/>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M45" si="5">B37</f>
         <v>Jiang et al. (2011)</v>
@@ -26363,7 +26363,7 @@
         <v>7.8</v>
       </c>
       <c r="I38" s="237"/>
-      <c r="L38" s="438"/>
+      <c r="L38" s="429"/>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26438,7 +26438,7 @@
       </c>
       <c r="I39" s="237"/>
       <c r="K39" s="237"/>
-      <c r="L39" s="438"/>
+      <c r="L39" s="429"/>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26509,7 +26509,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="I40" s="237"/>
-      <c r="L40" s="438"/>
+      <c r="L40" s="429"/>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26583,7 +26583,7 @@
         <v>16.899999999999999</v>
       </c>
       <c r="I41" s="237"/>
-      <c r="L41" s="439"/>
+      <c r="L41" s="430"/>
       <c r="M41" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Broderick et al. (2011)</v>
@@ -26657,7 +26657,7 @@
         <v>4.2</v>
       </c>
       <c r="I42" s="237"/>
-      <c r="L42" s="437" t="s">
+      <c r="L42" s="428" t="s">
         <v>413</v>
       </c>
       <c r="M42" s="222" t="str">
@@ -26730,7 +26730,7 @@
         <v>3.5</v>
       </c>
       <c r="I43" s="237"/>
-      <c r="L43" s="438"/>
+      <c r="L43" s="429"/>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
         <v>Skone et al. (2011)</v>
@@ -26806,7 +26806,7 @@
       </c>
       <c r="I44" s="237"/>
       <c r="K44" s="237"/>
-      <c r="L44" s="438"/>
+      <c r="L44" s="429"/>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
         <v>Howarth et al. (2011)</v>
@@ -26878,7 +26878,7 @@
         <v>8.9</v>
       </c>
       <c r="I45" s="237"/>
-      <c r="L45" s="439"/>
+      <c r="L45" s="430"/>
       <c r="M45" s="95" t="str">
         <f t="shared" si="5"/>
         <v>Lechtenbohmer et al. (2005)</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="237"/>
-      <c r="L46" s="437" t="str">
+      <c r="L46" s="428" t="str">
         <f>A47</f>
         <v>Transport, storage and distribution</v>
       </c>
@@ -27023,7 +27023,7 @@
         <v>1.9</v>
       </c>
       <c r="I47" s="237"/>
-      <c r="L47" s="438"/>
+      <c r="L47" s="429"/>
       <c r="M47" t="str">
         <f>B48</f>
         <v>Skone et al. (2011)</v>
@@ -27094,7 +27094,7 @@
         <v>2.7</v>
       </c>
       <c r="I48" s="237"/>
-      <c r="L48" s="439"/>
+      <c r="L48" s="430"/>
       <c r="M48" s="95" t="str">
         <f>B49</f>
         <v>Howarth et al. (2011)</v>
@@ -27463,10 +27463,10 @@
       <c r="C79" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D79" s="449" t="s">
+      <c r="D79" s="431" t="s">
         <v>498</v>
       </c>
-      <c r="E79" s="449"/>
+      <c r="E79" s="431"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
@@ -27568,13 +27568,13 @@
       </c>
     </row>
     <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="444" t="s">
+      <c r="A103" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B103" s="266" t="s">
         <v>509</v>
       </c>
-      <c r="C103" s="446" t="s">
+      <c r="C103" s="422" t="s">
         <v>510</v>
       </c>
       <c r="D103" s="266">
@@ -27585,11 +27585,11 @@
       </c>
     </row>
     <row r="104" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="445"/>
+      <c r="A104" s="421"/>
       <c r="B104" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="C104" s="447"/>
+      <c r="C104" s="423"/>
       <c r="D104" s="266">
         <v>0.18</v>
       </c>
@@ -27602,13 +27602,13 @@
       </c>
     </row>
     <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="444" t="s">
+      <c r="A105" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B105" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C105" s="447"/>
+      <c r="C105" s="423"/>
       <c r="D105" s="266">
         <v>0</v>
       </c>
@@ -27617,11 +27617,11 @@
       </c>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="445"/>
+      <c r="A106" s="421"/>
       <c r="B106" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C106" s="448"/>
+      <c r="C106" s="424"/>
       <c r="D106" s="266">
         <v>0</v>
       </c>
@@ -27630,13 +27630,13 @@
       </c>
     </row>
     <row r="107" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="444" t="s">
+      <c r="A107" s="420" t="s">
         <v>508</v>
       </c>
       <c r="B107" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C107" s="446" t="s">
+      <c r="C107" s="422" t="s">
         <v>515</v>
       </c>
       <c r="D107" s="266">
@@ -27647,11 +27647,11 @@
       </c>
     </row>
     <row r="108" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="445"/>
+      <c r="A108" s="421"/>
       <c r="B108" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C108" s="447"/>
+      <c r="C108" s="423"/>
       <c r="D108" s="266">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -27660,13 +27660,13 @@
       </c>
     </row>
     <row r="109" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="444" t="s">
+      <c r="A109" s="420" t="s">
         <v>512</v>
       </c>
       <c r="B109" s="266" t="s">
         <v>513</v>
       </c>
-      <c r="C109" s="447"/>
+      <c r="C109" s="423"/>
       <c r="D109" s="266">
         <v>0</v>
       </c>
@@ -27675,11 +27675,11 @@
       </c>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="445"/>
+      <c r="A110" s="421"/>
       <c r="B110" s="266" t="s">
         <v>514</v>
       </c>
-      <c r="C110" s="448"/>
+      <c r="C110" s="424"/>
       <c r="D110" s="266">
         <v>0</v>
       </c>
@@ -29142,6 +29142,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="W32:W34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="M32:M34"/>
+    <mergeCell ref="R32:R34"/>
+    <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="A109:A110"/>
@@ -29152,22 +29168,6 @@
     <mergeCell ref="A103:A104"/>
     <mergeCell ref="C103:C106"/>
     <mergeCell ref="A105:A106"/>
-    <mergeCell ref="W32:W34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="L36:L41"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="M32:M34"/>
-    <mergeCell ref="R32:R34"/>
-    <mergeCell ref="S32:S34"/>
-    <mergeCell ref="T32:T34"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29930,8 +29930,8 @@
   </sheetPr>
   <dimension ref="A1:AE119"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y33" sqref="Y33:Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -30238,7 +30238,7 @@
       </c>
       <c r="X9"/>
       <c r="Y9">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -30309,7 +30309,7 @@
       </c>
       <c r="X10"/>
       <c r="Y10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -30380,7 +30380,7 @@
       </c>
       <c r="X11"/>
       <c r="Y11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -30451,7 +30451,7 @@
       </c>
       <c r="X12"/>
       <c r="Y12">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -30521,7 +30521,7 @@
       </c>
       <c r="X13"/>
       <c r="Y13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -30591,7 +30591,7 @@
       </c>
       <c r="X14"/>
       <c r="Y14">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="X15"/>
       <c r="Y15">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="X16"/>
       <c r="Y16">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -30801,7 +30801,7 @@
       </c>
       <c r="X17"/>
       <c r="Y17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -30871,7 +30871,7 @@
       </c>
       <c r="X18"/>
       <c r="Y18">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -30941,7 +30941,7 @@
       </c>
       <c r="X19"/>
       <c r="Y19">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -31010,7 +31010,7 @@
       </c>
       <c r="X20"/>
       <c r="Y20">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -31079,7 +31079,7 @@
       </c>
       <c r="X21"/>
       <c r="Y21">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="X22"/>
       <c r="Y22">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -31937,7 +31937,7 @@
       </c>
       <c r="X33"/>
       <c r="Y33">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z33">
         <v>1</v>
@@ -32007,7 +32007,7 @@
       </c>
       <c r="X34"/>
       <c r="Y34">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z34">
         <v>1</v>
@@ -32077,7 +32077,7 @@
       </c>
       <c r="X35"/>
       <c r="Y35">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z35">
         <v>1</v>
@@ -32147,7 +32147,7 @@
       </c>
       <c r="X36"/>
       <c r="Y36">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z36">
         <v>1</v>
@@ -32217,7 +32217,7 @@
       </c>
       <c r="X37"/>
       <c r="Y37">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z37">
         <v>1</v>
@@ -32287,7 +32287,7 @@
       </c>
       <c r="X38"/>
       <c r="Y38">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z38">
         <v>1</v>
@@ -32357,7 +32357,7 @@
       </c>
       <c r="X39"/>
       <c r="Y39">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z39">
         <v>1</v>
@@ -32427,7 +32427,7 @@
       </c>
       <c r="X40"/>
       <c r="Y40">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z40">
         <v>1</v>
@@ -32497,7 +32497,7 @@
       </c>
       <c r="X41"/>
       <c r="Y41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z41">
         <v>1</v>
@@ -32567,7 +32567,7 @@
       </c>
       <c r="X42"/>
       <c r="Y42">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z42">
         <v>1</v>
@@ -32637,7 +32637,7 @@
       </c>
       <c r="X43"/>
       <c r="Y43">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z43">
         <v>1</v>
@@ -32707,7 +32707,7 @@
       </c>
       <c r="X44"/>
       <c r="Y44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -32777,7 +32777,7 @@
       </c>
       <c r="X45"/>
       <c r="Y45">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z45">
         <v>1</v>
@@ -32847,7 +32847,7 @@
       </c>
       <c r="X46"/>
       <c r="Y46">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z46">
         <v>1</v>
@@ -32917,7 +32917,7 @@
       </c>
       <c r="X47"/>
       <c r="Y47">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z47">
         <v>1</v>
@@ -32987,7 +32987,7 @@
       </c>
       <c r="X48"/>
       <c r="Y48">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z48">
         <v>1</v>
@@ -33057,7 +33057,7 @@
       </c>
       <c r="X49"/>
       <c r="Y49">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z49">
         <v>1</v>
@@ -33128,7 +33128,7 @@
       </c>
       <c r="X50"/>
       <c r="Y50">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z50">
         <v>1</v>
@@ -33199,7 +33199,7 @@
       </c>
       <c r="X51"/>
       <c r="Y51">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z51">
         <v>1</v>
@@ -33269,7 +33269,7 @@
       </c>
       <c r="X52"/>
       <c r="Y52">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z52">
         <v>1</v>
@@ -33340,7 +33340,7 @@
       </c>
       <c r="X53"/>
       <c r="Y53">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z53">
         <v>1</v>
@@ -33411,7 +33411,7 @@
       </c>
       <c r="X54"/>
       <c r="Y54">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z54">
         <v>1</v>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="X55"/>
       <c r="Y55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z55">
         <v>1</v>
@@ -33553,7 +33553,7 @@
       </c>
       <c r="X56"/>
       <c r="Y56">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z56">
         <v>1</v>
@@ -33624,7 +33624,7 @@
       </c>
       <c r="X57"/>
       <c r="Y57">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z57">
         <v>1</v>
@@ -33695,7 +33695,7 @@
       </c>
       <c r="X58"/>
       <c r="Y58">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z58">
         <v>1</v>
@@ -33766,7 +33766,7 @@
       </c>
       <c r="X59"/>
       <c r="Y59">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z59">
         <v>1</v>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="X60"/>
       <c r="Y60">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z60">
         <v>1</v>
@@ -33908,7 +33908,7 @@
       </c>
       <c r="X61"/>
       <c r="Y61">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z61">
         <v>1</v>
@@ -33979,7 +33979,7 @@
       </c>
       <c r="X62"/>
       <c r="Y62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z62">
         <v>1</v>
@@ -34050,7 +34050,7 @@
       </c>
       <c r="X63"/>
       <c r="Y63">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z63">
         <v>1</v>
@@ -34121,7 +34121,7 @@
       </c>
       <c r="X64"/>
       <c r="Y64">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z64">
         <v>1</v>
@@ -34190,7 +34190,7 @@
       </c>
       <c r="X65"/>
       <c r="Y65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z65">
         <v>1</v>
@@ -34260,7 +34260,7 @@
       </c>
       <c r="X66"/>
       <c r="Y66">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z66">
         <v>1</v>
@@ -34330,7 +34330,7 @@
       </c>
       <c r="X67"/>
       <c r="Y67">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z67">
         <v>1</v>
@@ -34400,7 +34400,7 @@
       </c>
       <c r="X68"/>
       <c r="Y68">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z68">
         <v>1</v>
@@ -34470,7 +34470,7 @@
       </c>
       <c r="X69"/>
       <c r="Y69">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z69">
         <v>1</v>
@@ -34540,7 +34540,7 @@
       </c>
       <c r="X70"/>
       <c r="Y70">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z70">
         <v>1</v>
@@ -34610,7 +34610,7 @@
       </c>
       <c r="X71"/>
       <c r="Y71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z71">
         <v>1</v>
@@ -34680,7 +34680,7 @@
       </c>
       <c r="X72"/>
       <c r="Y72">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="Z72">
         <v>1</v>
@@ -50006,18 +50006,18 @@
         <f>FORECAST(CR93,CP94:CQ94,CP93:CQ93)</f>
         <v>93</v>
       </c>
-      <c r="DL94" s="436" t="s">
+      <c r="DL94" s="432" t="s">
         <v>762</v>
       </c>
-      <c r="DM94" s="436"/>
-      <c r="DN94" s="436" t="s">
+      <c r="DM94" s="432"/>
+      <c r="DN94" s="432" t="s">
         <v>763</v>
       </c>
-      <c r="DO94" s="436"/>
-      <c r="DP94" s="436" t="s">
+      <c r="DO94" s="432"/>
+      <c r="DP94" s="432" t="s">
         <v>761</v>
       </c>
-      <c r="DQ94" s="436"/>
+      <c r="DQ94" s="432"/>
     </row>
     <row r="95" spans="1:121" x14ac:dyDescent="0.25">
       <c r="BK95" t="s">
@@ -55478,7 +55478,7 @@
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
         <f ca="1">NOW()</f>
-        <v>45310.469588194443</v>
+        <v>45392.430493055559</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -56302,7 +56302,7 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="27">
         <f ca="1">NOW()</f>
-        <v>45310.469588194443</v>
+        <v>45392.430493055559</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -58989,7 +58989,7 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
